--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1522,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1562,6 +1562,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1869,7 +1872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1879,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3248,36 +3251,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:3" s="15" customFormat="1" ht="21">
+      <c r="A131" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="21">
-      <c r="A132" s="5" t="s">
+      <c r="C131" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A132" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="21">
-      <c r="A133" s="5" t="s">
+      <c r="C132" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="15" customFormat="1" ht="21">
+      <c r="A133" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3329,14 +3332,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="8" t="s">
+    <row r="140" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A140" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="17" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1420,13 +1420,16 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Floyd’s loop detection algorithm.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1488,8 +1491,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,6 +1519,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1522,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1565,6 +1582,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1872,7 +1894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1882,15 +1904,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25">
@@ -3343,15 +3365,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
-      <c r="A141" s="8" t="s">
+    <row r="141" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A141" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>4</v>
+      <c r="C141" s="20" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3365,15 +3387,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
-      <c r="A143" s="8" t="s">
+    <row r="143" spans="1:3" s="22" customFormat="1" ht="21">
+      <c r="A143" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>4</v>
+      <c r="C143" s="20" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -7403,5 +7425,6 @@
     <hyperlink ref="B2" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1413,9 +1413,6 @@
     <t>Power Set</t>
   </si>
   <si>
-    <t>Floyd’s loop detection algorithm.</t>
-  </si>
-  <si>
     <t>Hard level</t>
   </si>
   <si>
@@ -1431,10 +1428,10 @@
     <t>Approach</t>
   </si>
   <si>
-    <t>Slow fast approch</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>The Tortoise and the Hare (Floyd’s Algorithm)</t>
+  </si>
+  <si>
+    <t>Is linkedList is circular or not</t>
   </si>
 </sst>
 </file>
@@ -1653,6 +1650,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,14 +1670,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1990,59 +1987,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:XFD164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="3" max="3" width="82.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="10" spans="1:3" s="29" customFormat="1" ht="26.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="12" spans="1:3" s="28" customFormat="1" ht="21">
       <c r="A12" s="26" t="s">
@@ -2052,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3495,7 +3492,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="22" customFormat="1" ht="21">
@@ -3517,7 +3514,7 @@
         <v>138</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="6" customFormat="1" ht="21">
@@ -3583,7 +3580,7 @@
         <v>144</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:3" s="6" customFormat="1" ht="21">
@@ -3605,17 +3602,17 @@
         <v>146</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" s="37" customFormat="1" ht="21">
-      <c r="A160" s="34" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="33" customFormat="1" ht="21">
+      <c r="A160" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3627,39 +3624,39 @@
         <v>148</v>
       </c>
       <c r="C161" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="6" customFormat="1" ht="21">
+      <c r="A162" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" s="10" customFormat="1" ht="21">
-      <c r="A162" s="12" t="s">
+      <c r="C162" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="6" customFormat="1" ht="21">
+      <c r="A163" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" s="10" customFormat="1" ht="21">
-      <c r="A163" s="12" t="s">
+      <c r="B163" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="6" customFormat="1" ht="21">
+      <c r="A164" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" s="10" customFormat="1" ht="21">
-      <c r="A164" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -507,9 +507,6 @@
     <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
   </si>
   <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
     <t>Sort a LL of 0's, 1's and 2's</t>
   </si>
   <si>
@@ -1438,6 +1435,15 @@
   </si>
   <si>
     <t>Logic</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List[Very IMP]</t>
+  </si>
+  <si>
+    <t>Using merge conceptin which we compine two flatten campare with third till single LinkedList</t>
+  </si>
+  <si>
+    <t>Using arr[3]={0,0,0}</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1670,6 +1676,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1682,14 +1697,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1998,7 +2008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2008,64 +2018,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="38"/>
+    <col min="1" max="1" width="11" style="34"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
-    <col min="4" max="4" width="82.375" customWidth="1"/>
+    <col min="4" max="4" width="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B1" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B4" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="10" spans="1:4" s="29" customFormat="1" ht="26.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="21">
-      <c r="A12" s="40"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="26" t="s">
         <v>1</v>
       </c>
@@ -2073,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3663,7 +3673,7 @@
         <v>136</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="22" customFormat="1" ht="21">
@@ -3693,7 +3703,7 @@
         <v>138</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="6" customFormat="1" ht="21">
@@ -3783,7 +3793,7 @@
         <v>144</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="6" customFormat="1" ht="21">
@@ -3813,7 +3823,7 @@
         <v>146</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="33" customFormat="1" ht="21">
@@ -3843,7 +3853,7 @@
         <v>148</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="6" customFormat="1" ht="21">
@@ -3855,7 +3865,7 @@
         <v>133</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -3933,7 +3943,7 @@
         <v>153</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="22" customFormat="1" ht="21">
@@ -3948,7 +3958,7 @@
         <v>154</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="10" customFormat="1" ht="21">
@@ -3972,13 +3982,13 @@
         <v>150</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="10" customFormat="1" ht="21">
@@ -3996,64 +4006,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A172" s="30">
+    <row r="172" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A172" s="4">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A173" s="30">
+      <c r="D172" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A173" s="4">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A174" s="30">
+      <c r="D173" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="16" customFormat="1" ht="21">
+      <c r="A174" s="18">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A175" s="30">
+      <c r="C174" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D174" s="42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A175" s="20">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>3</v>
+      <c r="C175" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="10" customFormat="1" ht="21">
@@ -4065,7 +4075,7 @@
         <v>133</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>3</v>
@@ -4080,7 +4090,7 @@
         <v>133</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>3</v>
@@ -4095,7 +4105,7 @@
         <v>133</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>3</v>
@@ -4110,7 +4120,7 @@
         <v>133</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>3</v>
@@ -4125,7 +4135,7 @@
         <v>133</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>3</v>
@@ -4140,7 +4150,7 @@
         <v>133</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>3</v>
@@ -4155,7 +4165,7 @@
         <v>133</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>3</v>
@@ -4172,10 +4182,10 @@
     <row r="185" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A185" s="12"/>
       <c r="B185" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>3</v>
@@ -4184,10 +4194,10 @@
     <row r="186" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A186" s="12"/>
       <c r="B186" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>3</v>
@@ -4196,10 +4206,10 @@
     <row r="187" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A187" s="12"/>
       <c r="B187" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>3</v>
@@ -4208,10 +4218,10 @@
     <row r="188" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A188" s="12"/>
       <c r="B188" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>3</v>
@@ -4220,10 +4230,10 @@
     <row r="189" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A189" s="12"/>
       <c r="B189" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>3</v>
@@ -4232,10 +4242,10 @@
     <row r="190" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A190" s="12"/>
       <c r="B190" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>3</v>
@@ -4244,10 +4254,10 @@
     <row r="191" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A191" s="12"/>
       <c r="B191" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>3</v>
@@ -4256,10 +4266,10 @@
     <row r="192" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A192" s="12"/>
       <c r="B192" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>3</v>
@@ -4268,10 +4278,10 @@
     <row r="193" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A193" s="12"/>
       <c r="B193" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>3</v>
@@ -4280,10 +4290,10 @@
     <row r="194" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A194" s="12"/>
       <c r="B194" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>3</v>
@@ -4292,10 +4302,10 @@
     <row r="195" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A195" s="12"/>
       <c r="B195" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>3</v>
@@ -4304,10 +4314,10 @@
     <row r="196" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A196" s="12"/>
       <c r="B196" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>3</v>
@@ -4316,10 +4326,10 @@
     <row r="197" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A197" s="12"/>
       <c r="B197" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>3</v>
@@ -4328,10 +4338,10 @@
     <row r="198" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A198" s="12"/>
       <c r="B198" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>3</v>
@@ -4340,10 +4350,10 @@
     <row r="199" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A199" s="12"/>
       <c r="B199" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>3</v>
@@ -4352,10 +4362,10 @@
     <row r="200" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A200" s="12"/>
       <c r="B200" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>3</v>
@@ -4364,10 +4374,10 @@
     <row r="201" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A201" s="12"/>
       <c r="B201" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>3</v>
@@ -4376,10 +4386,10 @@
     <row r="202" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A202" s="12"/>
       <c r="B202" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>3</v>
@@ -4388,10 +4398,10 @@
     <row r="203" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A203" s="12"/>
       <c r="B203" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>3</v>
@@ -4400,10 +4410,10 @@
     <row r="204" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A204" s="12"/>
       <c r="B204" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>3</v>
@@ -4412,10 +4422,10 @@
     <row r="205" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A205" s="12"/>
       <c r="B205" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>3</v>
@@ -4424,10 +4434,10 @@
     <row r="206" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A206" s="12"/>
       <c r="B206" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>3</v>
@@ -4436,10 +4446,10 @@
     <row r="207" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A207" s="12"/>
       <c r="B207" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>3</v>
@@ -4448,10 +4458,10 @@
     <row r="208" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A208" s="12"/>
       <c r="B208" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>3</v>
@@ -4460,10 +4470,10 @@
     <row r="209" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A209" s="12"/>
       <c r="B209" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>3</v>
@@ -4472,10 +4482,10 @@
     <row r="210" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A210" s="12"/>
       <c r="B210" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>3</v>
@@ -4484,10 +4494,10 @@
     <row r="211" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A211" s="12"/>
       <c r="B211" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>3</v>
@@ -4496,10 +4506,10 @@
     <row r="212" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A212" s="12"/>
       <c r="B212" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>3</v>
@@ -4508,10 +4518,10 @@
     <row r="213" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A213" s="12"/>
       <c r="B213" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>3</v>
@@ -4520,10 +4530,10 @@
     <row r="214" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A214" s="12"/>
       <c r="B214" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>3</v>
@@ -4532,10 +4542,10 @@
     <row r="215" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A215" s="12"/>
       <c r="B215" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>3</v>
@@ -4544,10 +4554,10 @@
     <row r="216" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A216" s="12"/>
       <c r="B216" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>3</v>
@@ -4556,10 +4566,10 @@
     <row r="217" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A217" s="12"/>
       <c r="B217" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>3</v>
@@ -4568,10 +4578,10 @@
     <row r="218" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A218" s="12"/>
       <c r="B218" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>3</v>
@@ -4580,10 +4590,10 @@
     <row r="219" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A219" s="12"/>
       <c r="B219" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>3</v>
@@ -4604,10 +4614,10 @@
     <row r="222" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A222" s="12"/>
       <c r="B222" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C222" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>3</v>
@@ -4616,10 +4626,10 @@
     <row r="223" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A223" s="12"/>
       <c r="B223" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>3</v>
@@ -4628,10 +4638,10 @@
     <row r="224" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A224" s="12"/>
       <c r="B224" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>3</v>
@@ -4640,10 +4650,10 @@
     <row r="225" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A225" s="12"/>
       <c r="B225" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>3</v>
@@ -4652,10 +4662,10 @@
     <row r="226" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A226" s="12"/>
       <c r="B226" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>3</v>
@@ -4664,10 +4674,10 @@
     <row r="227" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A227" s="12"/>
       <c r="B227" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>3</v>
@@ -4676,10 +4686,10 @@
     <row r="228" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A228" s="12"/>
       <c r="B228" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>3</v>
@@ -4688,10 +4698,10 @@
     <row r="229" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A229" s="12"/>
       <c r="B229" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>3</v>
@@ -4700,10 +4710,10 @@
     <row r="230" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A230" s="12"/>
       <c r="B230" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>3</v>
@@ -4712,10 +4722,10 @@
     <row r="231" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A231" s="12"/>
       <c r="B231" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>3</v>
@@ -4724,10 +4734,10 @@
     <row r="232" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A232" s="12"/>
       <c r="B232" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>3</v>
@@ -4736,10 +4746,10 @@
     <row r="233" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A233" s="12"/>
       <c r="B233" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>3</v>
@@ -4748,10 +4758,10 @@
     <row r="234" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A234" s="12"/>
       <c r="B234" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>3</v>
@@ -4760,10 +4770,10 @@
     <row r="235" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A235" s="12"/>
       <c r="B235" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>3</v>
@@ -4772,10 +4782,10 @@
     <row r="236" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A236" s="12"/>
       <c r="B236" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>3</v>
@@ -4784,10 +4794,10 @@
     <row r="237" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A237" s="12"/>
       <c r="B237" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>3</v>
@@ -4796,10 +4806,10 @@
     <row r="238" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A238" s="12"/>
       <c r="B238" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>3</v>
@@ -4808,10 +4818,10 @@
     <row r="239" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A239" s="12"/>
       <c r="B239" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>3</v>
@@ -4820,10 +4830,10 @@
     <row r="240" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A240" s="12"/>
       <c r="B240" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>3</v>
@@ -4832,10 +4842,10 @@
     <row r="241" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A241" s="12"/>
       <c r="B241" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>3</v>
@@ -4844,10 +4854,10 @@
     <row r="242" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A242" s="12"/>
       <c r="B242" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>3</v>
@@ -4856,10 +4866,10 @@
     <row r="243" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A243" s="12"/>
       <c r="B243" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>3</v>
@@ -4878,10 +4888,10 @@
     <row r="246" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A246" s="12"/>
       <c r="B246" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>3</v>
@@ -4890,10 +4900,10 @@
     <row r="247" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A247" s="12"/>
       <c r="B247" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>3</v>
@@ -4902,10 +4912,10 @@
     <row r="248" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A248" s="12"/>
       <c r="B248" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>3</v>
@@ -4914,10 +4924,10 @@
     <row r="249" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A249" s="12"/>
       <c r="B249" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>3</v>
@@ -4926,10 +4936,10 @@
     <row r="250" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A250" s="12"/>
       <c r="B250" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>3</v>
@@ -4938,10 +4948,10 @@
     <row r="251" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A251" s="12"/>
       <c r="B251" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>3</v>
@@ -4950,10 +4960,10 @@
     <row r="252" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A252" s="12"/>
       <c r="B252" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>3</v>
@@ -4962,10 +4972,10 @@
     <row r="253" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A253" s="12"/>
       <c r="B253" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>3</v>
@@ -4974,10 +4984,10 @@
     <row r="254" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A254" s="12"/>
       <c r="B254" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>3</v>
@@ -4986,10 +4996,10 @@
     <row r="255" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A255" s="12"/>
       <c r="B255" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>3</v>
@@ -4998,10 +5008,10 @@
     <row r="256" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A256" s="12"/>
       <c r="B256" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>3</v>
@@ -5010,10 +5020,10 @@
     <row r="257" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A257" s="12"/>
       <c r="B257" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>3</v>
@@ -5022,10 +5032,10 @@
     <row r="258" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A258" s="12"/>
       <c r="B258" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>3</v>
@@ -5034,10 +5044,10 @@
     <row r="259" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A259" s="12"/>
       <c r="B259" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>3</v>
@@ -5046,10 +5056,10 @@
     <row r="260" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A260" s="12"/>
       <c r="B260" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>3</v>
@@ -5058,10 +5068,10 @@
     <row r="261" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A261" s="12"/>
       <c r="B261" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>3</v>
@@ -5070,10 +5080,10 @@
     <row r="262" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A262" s="12"/>
       <c r="B262" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>3</v>
@@ -5082,10 +5092,10 @@
     <row r="263" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A263" s="12"/>
       <c r="B263" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>3</v>
@@ -5094,10 +5104,10 @@
     <row r="264" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A264" s="12"/>
       <c r="B264" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>3</v>
@@ -5106,10 +5116,10 @@
     <row r="265" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A265" s="12"/>
       <c r="B265" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>3</v>
@@ -5118,10 +5128,10 @@
     <row r="266" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A266" s="12"/>
       <c r="B266" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>3</v>
@@ -5130,10 +5140,10 @@
     <row r="267" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A267" s="12"/>
       <c r="B267" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>3</v>
@@ -5142,10 +5152,10 @@
     <row r="268" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A268" s="12"/>
       <c r="B268" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>3</v>
@@ -5154,10 +5164,10 @@
     <row r="269" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A269" s="12"/>
       <c r="B269" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>3</v>
@@ -5166,10 +5176,10 @@
     <row r="270" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A270" s="12"/>
       <c r="B270" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>3</v>
@@ -5178,10 +5188,10 @@
     <row r="271" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A271" s="12"/>
       <c r="B271" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>3</v>
@@ -5190,10 +5200,10 @@
     <row r="272" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A272" s="12"/>
       <c r="B272" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>3</v>
@@ -5202,10 +5212,10 @@
     <row r="273" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A273" s="12"/>
       <c r="B273" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>3</v>
@@ -5214,10 +5224,10 @@
     <row r="274" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A274" s="12"/>
       <c r="B274" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>3</v>
@@ -5226,10 +5236,10 @@
     <row r="275" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A275" s="12"/>
       <c r="B275" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>3</v>
@@ -5238,10 +5248,10 @@
     <row r="276" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A276" s="12"/>
       <c r="B276" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>3</v>
@@ -5250,10 +5260,10 @@
     <row r="277" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A277" s="12"/>
       <c r="B277" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>3</v>
@@ -5262,10 +5272,10 @@
     <row r="278" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A278" s="12"/>
       <c r="B278" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>3</v>
@@ -5274,7 +5284,7 @@
     <row r="279" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A279" s="12"/>
       <c r="B279" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>86</v>
@@ -5286,10 +5296,10 @@
     <row r="280" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A280" s="12"/>
       <c r="B280" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>3</v>
@@ -5308,10 +5318,10 @@
     <row r="283" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A283" s="12"/>
       <c r="B283" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C283" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>3</v>
@@ -5320,10 +5330,10 @@
     <row r="284" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A284" s="12"/>
       <c r="B284" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>3</v>
@@ -5332,10 +5342,10 @@
     <row r="285" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A285" s="12"/>
       <c r="B285" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>3</v>
@@ -5344,10 +5354,10 @@
     <row r="286" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A286" s="12"/>
       <c r="B286" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>3</v>
@@ -5356,10 +5366,10 @@
     <row r="287" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A287" s="12"/>
       <c r="B287" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>3</v>
@@ -5368,10 +5378,10 @@
     <row r="288" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A288" s="12"/>
       <c r="B288" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>3</v>
@@ -5380,10 +5390,10 @@
     <row r="289" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A289" s="12"/>
       <c r="B289" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>3</v>
@@ -5392,10 +5402,10 @@
     <row r="290" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A290" s="12"/>
       <c r="B290" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>3</v>
@@ -5404,10 +5414,10 @@
     <row r="291" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A291" s="12"/>
       <c r="B291" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>3</v>
@@ -5416,10 +5426,10 @@
     <row r="292" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A292" s="12"/>
       <c r="B292" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>3</v>
@@ -5428,10 +5438,10 @@
     <row r="293" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A293" s="12"/>
       <c r="B293" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>3</v>
@@ -5440,10 +5450,10 @@
     <row r="294" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A294" s="12"/>
       <c r="B294" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>3</v>
@@ -5452,10 +5462,10 @@
     <row r="295" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A295" s="12"/>
       <c r="B295" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>3</v>
@@ -5464,10 +5474,10 @@
     <row r="296" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A296" s="12"/>
       <c r="B296" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>3</v>
@@ -5476,10 +5486,10 @@
     <row r="297" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A297" s="12"/>
       <c r="B297" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>3</v>
@@ -5488,10 +5498,10 @@
     <row r="298" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A298" s="12"/>
       <c r="B298" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>3</v>
@@ -5500,10 +5510,10 @@
     <row r="299" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A299" s="12"/>
       <c r="B299" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>3</v>
@@ -5512,10 +5522,10 @@
     <row r="300" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A300" s="12"/>
       <c r="B300" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>3</v>
@@ -5524,10 +5534,10 @@
     <row r="301" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A301" s="12"/>
       <c r="B301" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>3</v>
@@ -5546,10 +5556,10 @@
     <row r="304" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A304" s="12"/>
       <c r="B304" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C304" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C304" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>3</v>
@@ -5558,10 +5568,10 @@
     <row r="305" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A305" s="12"/>
       <c r="B305" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>3</v>
@@ -5570,10 +5580,10 @@
     <row r="306" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A306" s="12"/>
       <c r="B306" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>3</v>
@@ -5582,10 +5592,10 @@
     <row r="307" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A307" s="12"/>
       <c r="B307" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>3</v>
@@ -5594,10 +5604,10 @@
     <row r="308" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A308" s="12"/>
       <c r="B308" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>3</v>
@@ -5606,10 +5616,10 @@
     <row r="309" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A309" s="12"/>
       <c r="B309" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>3</v>
@@ -5618,10 +5628,10 @@
     <row r="310" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A310" s="12"/>
       <c r="B310" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>3</v>
@@ -5630,10 +5640,10 @@
     <row r="311" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A311" s="12"/>
       <c r="B311" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>3</v>
@@ -5642,10 +5652,10 @@
     <row r="312" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A312" s="12"/>
       <c r="B312" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>3</v>
@@ -5654,10 +5664,10 @@
     <row r="313" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A313" s="12"/>
       <c r="B313" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>3</v>
@@ -5666,10 +5676,10 @@
     <row r="314" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A314" s="12"/>
       <c r="B314" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>3</v>
@@ -5678,10 +5688,10 @@
     <row r="315" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A315" s="12"/>
       <c r="B315" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>3</v>
@@ -5690,10 +5700,10 @@
     <row r="316" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A316" s="12"/>
       <c r="B316" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>3</v>
@@ -5702,10 +5712,10 @@
     <row r="317" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A317" s="12"/>
       <c r="B317" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>3</v>
@@ -5714,10 +5724,10 @@
     <row r="318" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A318" s="12"/>
       <c r="B318" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>3</v>
@@ -5726,10 +5736,10 @@
     <row r="319" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A319" s="12"/>
       <c r="B319" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>3</v>
@@ -5738,10 +5748,10 @@
     <row r="320" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A320" s="12"/>
       <c r="B320" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>3</v>
@@ -5750,10 +5760,10 @@
     <row r="321" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A321" s="12"/>
       <c r="B321" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>3</v>
@@ -5762,10 +5772,10 @@
     <row r="322" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A322" s="12"/>
       <c r="B322" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>3</v>
@@ -5774,10 +5784,10 @@
     <row r="323" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A323" s="12"/>
       <c r="B323" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>3</v>
@@ -5786,10 +5796,10 @@
     <row r="324" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A324" s="12"/>
       <c r="B324" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>3</v>
@@ -5798,10 +5808,10 @@
     <row r="325" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A325" s="12"/>
       <c r="B325" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>3</v>
@@ -5810,10 +5820,10 @@
     <row r="326" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A326" s="12"/>
       <c r="B326" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>3</v>
@@ -5822,10 +5832,10 @@
     <row r="327" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A327" s="12"/>
       <c r="B327" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>3</v>
@@ -5834,10 +5844,10 @@
     <row r="328" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A328" s="12"/>
       <c r="B328" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>3</v>
@@ -5846,10 +5856,10 @@
     <row r="329" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A329" s="12"/>
       <c r="B329" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>3</v>
@@ -5858,10 +5868,10 @@
     <row r="330" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A330" s="12"/>
       <c r="B330" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>3</v>
@@ -5870,10 +5880,10 @@
     <row r="331" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A331" s="12"/>
       <c r="B331" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>3</v>
@@ -5882,10 +5892,10 @@
     <row r="332" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A332" s="12"/>
       <c r="B332" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>3</v>
@@ -5894,10 +5904,10 @@
     <row r="333" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A333" s="12"/>
       <c r="B333" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>3</v>
@@ -5906,10 +5916,10 @@
     <row r="334" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A334" s="12"/>
       <c r="B334" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>3</v>
@@ -5918,10 +5928,10 @@
     <row r="335" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A335" s="12"/>
       <c r="B335" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>3</v>
@@ -5930,10 +5940,10 @@
     <row r="336" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A336" s="12"/>
       <c r="B336" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>3</v>
@@ -5942,10 +5952,10 @@
     <row r="337" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A337" s="12"/>
       <c r="B337" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>3</v>
@@ -5954,10 +5964,10 @@
     <row r="338" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A338" s="12"/>
       <c r="B338" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>3</v>
@@ -5966,10 +5976,10 @@
     <row r="339" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A339" s="12"/>
       <c r="B339" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>3</v>
@@ -5978,10 +5988,10 @@
     <row r="340" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A340" s="12"/>
       <c r="B340" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>3</v>
@@ -5990,10 +6000,10 @@
     <row r="341" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A341" s="12"/>
       <c r="B341" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>3</v>
@@ -6012,10 +6022,10 @@
     <row r="344" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A344" s="12"/>
       <c r="B344" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C344" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="C344" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>3</v>
@@ -6024,10 +6034,10 @@
     <row r="345" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A345" s="12"/>
       <c r="B345" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>3</v>
@@ -6036,10 +6046,10 @@
     <row r="346" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A346" s="12"/>
       <c r="B346" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>3</v>
@@ -6048,10 +6058,10 @@
     <row r="347" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A347" s="12"/>
       <c r="B347" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>3</v>
@@ -6060,10 +6070,10 @@
     <row r="348" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A348" s="12"/>
       <c r="B348" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>3</v>
@@ -6072,10 +6082,10 @@
     <row r="349" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A349" s="12"/>
       <c r="B349" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>3</v>
@@ -6084,10 +6094,10 @@
     <row r="350" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A350" s="12"/>
       <c r="B350" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>3</v>
@@ -6096,10 +6106,10 @@
     <row r="351" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A351" s="12"/>
       <c r="B351" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>3</v>
@@ -6108,10 +6118,10 @@
     <row r="352" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A352" s="12"/>
       <c r="B352" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C352" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>3</v>
@@ -6120,10 +6130,10 @@
     <row r="353" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A353" s="12"/>
       <c r="B353" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>3</v>
@@ -6132,10 +6142,10 @@
     <row r="354" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A354" s="12"/>
       <c r="B354" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>3</v>
@@ -6144,10 +6154,10 @@
     <row r="355" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A355" s="12"/>
       <c r="B355" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>3</v>
@@ -6156,10 +6166,10 @@
     <row r="356" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A356" s="12"/>
       <c r="B356" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>3</v>
@@ -6168,10 +6178,10 @@
     <row r="357" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A357" s="12"/>
       <c r="B357" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>3</v>
@@ -6180,10 +6190,10 @@
     <row r="358" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A358" s="12"/>
       <c r="B358" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>3</v>
@@ -6192,10 +6202,10 @@
     <row r="359" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A359" s="12"/>
       <c r="B359" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>3</v>
@@ -6204,10 +6214,10 @@
     <row r="360" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A360" s="12"/>
       <c r="B360" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>3</v>
@@ -6216,10 +6226,10 @@
     <row r="361" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A361" s="12"/>
       <c r="B361" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>3</v>
@@ -6238,10 +6248,10 @@
     <row r="364" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A364" s="12"/>
       <c r="B364" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C364" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="C364" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>3</v>
@@ -6250,10 +6260,10 @@
     <row r="365" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A365" s="12"/>
       <c r="B365" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>3</v>
@@ -6262,10 +6272,10 @@
     <row r="366" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A366" s="12"/>
       <c r="B366" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>3</v>
@@ -6274,10 +6284,10 @@
     <row r="367" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A367" s="12"/>
       <c r="B367" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>3</v>
@@ -6286,10 +6296,10 @@
     <row r="368" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A368" s="12"/>
       <c r="B368" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>3</v>
@@ -6298,10 +6308,10 @@
     <row r="369" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A369" s="12"/>
       <c r="B369" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>3</v>
@@ -6310,10 +6320,10 @@
     <row r="370" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A370" s="12"/>
       <c r="B370" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>3</v>
@@ -6322,10 +6332,10 @@
     <row r="371" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A371" s="12"/>
       <c r="B371" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>3</v>
@@ -6334,10 +6344,10 @@
     <row r="372" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A372" s="12"/>
       <c r="B372" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>3</v>
@@ -6346,10 +6356,10 @@
     <row r="373" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A373" s="12"/>
       <c r="B373" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>3</v>
@@ -6358,10 +6368,10 @@
     <row r="374" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A374" s="12"/>
       <c r="B374" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>3</v>
@@ -6370,10 +6380,10 @@
     <row r="375" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A375" s="12"/>
       <c r="B375" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>3</v>
@@ -6382,10 +6392,10 @@
     <row r="376" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A376" s="12"/>
       <c r="B376" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>3</v>
@@ -6394,10 +6404,10 @@
     <row r="377" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A377" s="12"/>
       <c r="B377" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>3</v>
@@ -6406,10 +6416,10 @@
     <row r="378" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A378" s="12"/>
       <c r="B378" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>3</v>
@@ -6418,10 +6428,10 @@
     <row r="379" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A379" s="12"/>
       <c r="B379" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>3</v>
@@ -6430,10 +6440,10 @@
     <row r="380" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A380" s="12"/>
       <c r="B380" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>3</v>
@@ -6442,10 +6452,10 @@
     <row r="381" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A381" s="12"/>
       <c r="B381" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>3</v>
@@ -6454,10 +6464,10 @@
     <row r="382" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A382" s="12"/>
       <c r="B382" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>3</v>
@@ -6466,10 +6476,10 @@
     <row r="383" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A383" s="12"/>
       <c r="B383" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>3</v>
@@ -6478,10 +6488,10 @@
     <row r="384" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A384" s="12"/>
       <c r="B384" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>3</v>
@@ -6490,10 +6500,10 @@
     <row r="385" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A385" s="12"/>
       <c r="B385" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>3</v>
@@ -6502,10 +6512,10 @@
     <row r="386" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A386" s="12"/>
       <c r="B386" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>3</v>
@@ -6514,10 +6524,10 @@
     <row r="387" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A387" s="12"/>
       <c r="B387" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>3</v>
@@ -6526,10 +6536,10 @@
     <row r="388" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A388" s="12"/>
       <c r="B388" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>3</v>
@@ -6538,10 +6548,10 @@
     <row r="389" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A389" s="12"/>
       <c r="B389" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>3</v>
@@ -6550,10 +6560,10 @@
     <row r="390" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A390" s="12"/>
       <c r="B390" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>3</v>
@@ -6562,10 +6572,10 @@
     <row r="391" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A391" s="12"/>
       <c r="B391" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>3</v>
@@ -6574,10 +6584,10 @@
     <row r="392" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A392" s="12"/>
       <c r="B392" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>3</v>
@@ -6586,10 +6596,10 @@
     <row r="393" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A393" s="12"/>
       <c r="B393" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>3</v>
@@ -6598,10 +6608,10 @@
     <row r="394" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A394" s="12"/>
       <c r="B394" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>3</v>
@@ -6610,10 +6620,10 @@
     <row r="395" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A395" s="12"/>
       <c r="B395" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>3</v>
@@ -6622,10 +6632,10 @@
     <row r="396" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A396" s="12"/>
       <c r="B396" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>3</v>
@@ -6634,10 +6644,10 @@
     <row r="397" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A397" s="12"/>
       <c r="B397" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>3</v>
@@ -6646,10 +6656,10 @@
     <row r="398" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A398" s="12"/>
       <c r="B398" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>3</v>
@@ -6658,10 +6668,10 @@
     <row r="399" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A399" s="12"/>
       <c r="B399" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>3</v>
@@ -6670,10 +6680,10 @@
     <row r="400" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A400" s="12"/>
       <c r="B400" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>3</v>
@@ -6682,10 +6692,10 @@
     <row r="401" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A401" s="12"/>
       <c r="B401" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>3</v>
@@ -6694,10 +6704,10 @@
     <row r="402" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A402" s="12"/>
       <c r="B402" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>3</v>
@@ -6706,10 +6716,10 @@
     <row r="403" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A403" s="12"/>
       <c r="B403" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>3</v>
@@ -6718,10 +6728,10 @@
     <row r="404" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A404" s="12"/>
       <c r="B404" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>3</v>
@@ -6730,10 +6740,10 @@
     <row r="405" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A405" s="12"/>
       <c r="B405" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>3</v>
@@ -6742,10 +6752,10 @@
     <row r="406" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A406" s="12"/>
       <c r="B406" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>3</v>
@@ -6754,10 +6764,10 @@
     <row r="407" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A407" s="12"/>
       <c r="B407" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>3</v>
@@ -6776,10 +6786,10 @@
     <row r="410" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A410" s="12"/>
       <c r="B410" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C410" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="C410" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>3</v>
@@ -6788,10 +6798,10 @@
     <row r="411" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A411" s="12"/>
       <c r="B411" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>3</v>
@@ -6800,10 +6810,10 @@
     <row r="412" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A412" s="12"/>
       <c r="B412" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>3</v>
@@ -6812,7 +6822,7 @@
     <row r="413" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A413" s="12"/>
       <c r="B413" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C413" s="8" t="s">
         <v>88</v>
@@ -6824,10 +6834,10 @@
     <row r="414" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A414" s="12"/>
       <c r="B414" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>3</v>
@@ -6836,10 +6846,10 @@
     <row r="415" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A415" s="12"/>
       <c r="B415" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>3</v>
@@ -6858,10 +6868,10 @@
     <row r="418" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A418" s="12"/>
       <c r="B418" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C418" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="C418" s="8" t="s">
-        <v>392</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>3</v>
@@ -6870,10 +6880,10 @@
     <row r="419" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A419" s="12"/>
       <c r="B419" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>3</v>
@@ -6882,10 +6892,10 @@
     <row r="420" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A420" s="12"/>
       <c r="B420" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>3</v>
@@ -6894,10 +6904,10 @@
     <row r="421" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A421" s="12"/>
       <c r="B421" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>3</v>
@@ -6906,10 +6916,10 @@
     <row r="422" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A422" s="12"/>
       <c r="B422" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>3</v>
@@ -6918,10 +6928,10 @@
     <row r="423" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A423" s="12"/>
       <c r="B423" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>3</v>
@@ -6930,10 +6940,10 @@
     <row r="424" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A424" s="12"/>
       <c r="B424" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>3</v>
@@ -6942,10 +6952,10 @@
     <row r="425" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A425" s="12"/>
       <c r="B425" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>3</v>
@@ -6954,10 +6964,10 @@
     <row r="426" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A426" s="12"/>
       <c r="B426" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>3</v>
@@ -6966,10 +6976,10 @@
     <row r="427" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A427" s="12"/>
       <c r="B427" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>3</v>
@@ -6978,10 +6988,10 @@
     <row r="428" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A428" s="12"/>
       <c r="B428" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>3</v>
@@ -6990,10 +7000,10 @@
     <row r="429" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A429" s="12"/>
       <c r="B429" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>3</v>
@@ -7002,10 +7012,10 @@
     <row r="430" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A430" s="12"/>
       <c r="B430" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>3</v>
@@ -7014,10 +7024,10 @@
     <row r="431" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A431" s="12"/>
       <c r="B431" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>3</v>
@@ -7026,10 +7036,10 @@
     <row r="432" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A432" s="12"/>
       <c r="B432" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>3</v>
@@ -7038,10 +7048,10 @@
     <row r="433" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A433" s="12"/>
       <c r="B433" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>3</v>
@@ -7050,10 +7060,10 @@
     <row r="434" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A434" s="12"/>
       <c r="B434" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>3</v>
@@ -7062,10 +7072,10 @@
     <row r="435" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A435" s="12"/>
       <c r="B435" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>3</v>
@@ -7074,10 +7084,10 @@
     <row r="436" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A436" s="12"/>
       <c r="B436" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>3</v>
@@ -7086,10 +7096,10 @@
     <row r="437" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A437" s="12"/>
       <c r="B437" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>3</v>
@@ -7098,10 +7108,10 @@
     <row r="438" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A438" s="12"/>
       <c r="B438" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>3</v>
@@ -7110,10 +7120,10 @@
     <row r="439" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A439" s="12"/>
       <c r="B439" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>3</v>
@@ -7122,10 +7132,10 @@
     <row r="440" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A440" s="12"/>
       <c r="B440" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>3</v>
@@ -7134,10 +7144,10 @@
     <row r="441" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A441" s="12"/>
       <c r="B441" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>3</v>
@@ -7146,10 +7156,10 @@
     <row r="442" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A442" s="12"/>
       <c r="B442" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>3</v>
@@ -7158,10 +7168,10 @@
     <row r="443" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A443" s="12"/>
       <c r="B443" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>3</v>
@@ -7170,10 +7180,10 @@
     <row r="444" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A444" s="12"/>
       <c r="B444" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>3</v>
@@ -7182,10 +7192,10 @@
     <row r="445" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A445" s="12"/>
       <c r="B445" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>3</v>
@@ -7194,10 +7204,10 @@
     <row r="446" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A446" s="12"/>
       <c r="B446" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>3</v>
@@ -7206,10 +7216,10 @@
     <row r="447" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A447" s="12"/>
       <c r="B447" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>3</v>
@@ -7218,10 +7228,10 @@
     <row r="448" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A448" s="12"/>
       <c r="B448" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>3</v>
@@ -7230,10 +7240,10 @@
     <row r="449" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A449" s="12"/>
       <c r="B449" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>3</v>
@@ -7242,10 +7252,10 @@
     <row r="450" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A450" s="12"/>
       <c r="B450" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>3</v>
@@ -7254,10 +7264,10 @@
     <row r="451" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A451" s="12"/>
       <c r="B451" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>3</v>
@@ -7266,10 +7276,10 @@
     <row r="452" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A452" s="12"/>
       <c r="B452" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>3</v>
@@ -7278,10 +7288,10 @@
     <row r="453" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A453" s="12"/>
       <c r="B453" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>3</v>
@@ -7290,10 +7300,10 @@
     <row r="454" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A454" s="12"/>
       <c r="B454" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>3</v>
@@ -7302,10 +7312,10 @@
     <row r="455" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A455" s="12"/>
       <c r="B455" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>3</v>
@@ -7314,10 +7324,10 @@
     <row r="456" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A456" s="12"/>
       <c r="B456" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>3</v>
@@ -7326,10 +7336,10 @@
     <row r="457" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A457" s="12"/>
       <c r="B457" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>3</v>
@@ -7338,10 +7348,10 @@
     <row r="458" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A458" s="12"/>
       <c r="B458" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>3</v>
@@ -7350,10 +7360,10 @@
     <row r="459" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A459" s="12"/>
       <c r="B459" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>3</v>
@@ -7362,10 +7372,10 @@
     <row r="460" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A460" s="12"/>
       <c r="B460" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>3</v>
@@ -7374,10 +7384,10 @@
     <row r="461" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A461" s="12"/>
       <c r="B461" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>3</v>
@@ -7386,10 +7396,10 @@
     <row r="462" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A462" s="12"/>
       <c r="B462" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>3</v>
@@ -7398,10 +7408,10 @@
     <row r="463" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A463" s="12"/>
       <c r="B463" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>3</v>
@@ -7410,10 +7420,10 @@
     <row r="464" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A464" s="12"/>
       <c r="B464" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>3</v>
@@ -7422,10 +7432,10 @@
     <row r="465" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A465" s="12"/>
       <c r="B465" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>3</v>
@@ -7434,10 +7444,10 @@
     <row r="466" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A466" s="12"/>
       <c r="B466" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>3</v>
@@ -7446,10 +7456,10 @@
     <row r="467" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A467" s="12"/>
       <c r="B467" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>3</v>
@@ -7458,10 +7468,10 @@
     <row r="468" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A468" s="12"/>
       <c r="B468" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>3</v>
@@ -7470,10 +7480,10 @@
     <row r="469" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A469" s="12"/>
       <c r="B469" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>3</v>
@@ -7482,10 +7492,10 @@
     <row r="470" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A470" s="12"/>
       <c r="B470" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>3</v>
@@ -7494,10 +7504,10 @@
     <row r="471" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A471" s="12"/>
       <c r="B471" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>3</v>
@@ -7506,10 +7516,10 @@
     <row r="472" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A472" s="12"/>
       <c r="B472" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>3</v>
@@ -7518,10 +7528,10 @@
     <row r="473" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A473" s="12"/>
       <c r="B473" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>3</v>
@@ -7530,10 +7540,10 @@
     <row r="474" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A474" s="12"/>
       <c r="B474" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>3</v>
@@ -7542,10 +7552,10 @@
     <row r="475" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A475" s="12"/>
       <c r="B475" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>3</v>
@@ -7554,10 +7564,10 @@
     <row r="476" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A476" s="12"/>
       <c r="B476" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>3</v>
@@ -7566,10 +7576,10 @@
     <row r="477" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A477" s="12"/>
       <c r="B477" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D477" s="9" t="s">
         <v>3</v>
@@ -7589,10 +7599,10 @@
     <row r="480" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A480" s="12"/>
       <c r="B480" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C480" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="C480" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>3</v>
@@ -7601,10 +7611,10 @@
     <row r="481" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A481" s="12"/>
       <c r="B481" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>3</v>
@@ -7613,10 +7623,10 @@
     <row r="482" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A482" s="12"/>
       <c r="B482" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>3</v>
@@ -7625,10 +7635,10 @@
     <row r="483" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A483" s="12"/>
       <c r="B483" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>3</v>
@@ -7637,10 +7647,10 @@
     <row r="484" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A484" s="12"/>
       <c r="B484" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>3</v>
@@ -7649,10 +7659,10 @@
     <row r="485" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A485" s="12"/>
       <c r="B485" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>3</v>
@@ -7661,10 +7671,10 @@
     <row r="486" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A486" s="12"/>
       <c r="B486" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>3</v>
@@ -7673,10 +7683,10 @@
     <row r="487" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A487" s="12"/>
       <c r="B487" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D487" s="9" t="s">
         <v>3</v>
@@ -7685,10 +7695,10 @@
     <row r="488" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A488" s="12"/>
       <c r="B488" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>3</v>
@@ -7697,10 +7707,10 @@
     <row r="489" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A489" s="12"/>
       <c r="B489" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D489" s="9" t="s">
         <v>3</v>
@@ -7863,7 +7873,7 @@
     <hyperlink ref="C169" r:id="rId147"/>
     <hyperlink ref="C170" r:id="rId148"/>
     <hyperlink ref="C171" r:id="rId149"/>
-    <hyperlink ref="C174" r:id="rId150"/>
+    <hyperlink ref="C174" r:id="rId150" display="Flatten a Linked List"/>
     <hyperlink ref="C175" r:id="rId151"/>
     <hyperlink ref="C176" r:id="rId152"/>
     <hyperlink ref="C177" r:id="rId153"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,13 +1444,25 @@
   </si>
   <si>
     <t>Using arr[3]={0,0,0}</t>
+  </si>
+  <si>
+    <t>Orginal and copy</t>
+  </si>
+  <si>
+    <t>using two LL even and odd</t>
+  </si>
+  <si>
+    <t>using two Vecor alpphabet and repeating count</t>
+  </si>
+  <si>
+    <t>Count prime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1534,8 +1546,16 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1578,8 +1598,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1602,12 +1628,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1685,21 +1799,82 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2008,7 +2183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2016,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151:C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2030,702 +2205,817 @@
     <col min="4" max="4" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="44" t="s">
         <v>463</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B4" s="39" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B7" s="38" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="10" spans="1:4" s="29" customFormat="1" ht="26.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+    </row>
+    <row r="11" spans="1:4" s="29" customFormat="1" ht="26.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="21">
-      <c r="A12" s="36"/>
-      <c r="B12" s="26" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="21">
+      <c r="A13" s="36"/>
+      <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D13" s="27" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:4">
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="63"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" s="42" customFormat="1" ht="21">
+      <c r="A17" s="40">
+        <v>0</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A18" s="4">
+        <f>+A17+1</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7" t="s">
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A19" s="4">
+        <f t="shared" ref="A19:A53" si="0">+A18+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7" t="s">
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7" t="s">
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7" t="s">
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7" t="s">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7" t="s">
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="B27" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7" t="s">
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7" t="s">
+      <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7" t="s">
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7" t="s">
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A34" s="12"/>
-      <c r="B34" s="7" t="s">
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7" t="s">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="33" customFormat="1" ht="21">
+      <c r="A39" s="30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C39" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7" t="s">
+      <c r="D39" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7" t="s">
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A38" s="12"/>
-      <c r="B38" s="7" t="s">
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7" t="s">
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7" t="s">
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7" t="s">
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A42" s="12"/>
-      <c r="B42" s="7" t="s">
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7" t="s">
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A44" s="12"/>
-      <c r="B44" s="7" t="s">
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7" t="s">
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A46" s="12"/>
-      <c r="B46" s="7" t="s">
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A47" s="12"/>
-      <c r="B47" s="7" t="s">
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7" t="s">
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A49" s="12"/>
-      <c r="B49" s="7" t="s">
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A50" s="12"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A54" s="12"/>
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A55" s="12"/>
+      <c r="C55" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A56" s="12"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A57" s="4">
+        <v>37</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A58" s="4">
+        <f>+A57+1</f>
+        <v>38</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A59" s="4">
+        <f t="shared" ref="A59:A66" si="1">+A58+1</f>
+        <v>39</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12" t="s">
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A60" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12" t="s">
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A61" s="12">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A62" s="12">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A63" s="4">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A64" s="4">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A65" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A66" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="10" customFormat="1">
-      <c r="A62" s="12"/>
-    </row>
-    <row r="63" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A63" s="12"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A64" s="12"/>
-      <c r="B64" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A65" s="12"/>
-      <c r="B65" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A66" s="12"/>
-      <c r="B66" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="10" customFormat="1">
       <c r="A67" s="12"/>
-      <c r="B67" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A68" s="12"/>
-      <c r="B68" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A69" s="12"/>
@@ -2733,7 +3023,7 @@
         <v>52</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>3</v>
@@ -2745,7 +3035,7 @@
         <v>52</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>3</v>
@@ -2757,7 +3047,7 @@
         <v>52</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>3</v>
@@ -2768,8 +3058,8 @@
       <c r="B72" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>61</v>
+      <c r="C72" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>3</v>
@@ -2781,7 +3071,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>3</v>
@@ -2793,7 +3083,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>3</v>
@@ -2805,7 +3095,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>3</v>
@@ -2817,7 +3107,7 @@
         <v>52</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>3</v>
@@ -2829,7 +3119,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>3</v>
@@ -2841,7 +3131,7 @@
         <v>52</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>3</v>
@@ -2853,7 +3143,7 @@
         <v>52</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>3</v>
@@ -2865,7 +3155,7 @@
         <v>52</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>3</v>
@@ -2877,7 +3167,7 @@
         <v>52</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>3</v>
@@ -2889,7 +3179,7 @@
         <v>52</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>3</v>
@@ -2901,7 +3191,7 @@
         <v>52</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>3</v>
@@ -2913,7 +3203,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>3</v>
@@ -2925,7 +3215,7 @@
         <v>52</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>3</v>
@@ -2937,7 +3227,7 @@
         <v>52</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>3</v>
@@ -2949,7 +3239,7 @@
         <v>52</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>3</v>
@@ -2961,7 +3251,7 @@
         <v>52</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>3</v>
@@ -2973,7 +3263,7 @@
         <v>52</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>3</v>
@@ -2985,7 +3275,7 @@
         <v>52</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>3</v>
@@ -2997,7 +3287,7 @@
         <v>52</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>3</v>
@@ -3009,7 +3299,7 @@
         <v>52</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>3</v>
@@ -3021,7 +3311,7 @@
         <v>52</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>3</v>
@@ -3033,7 +3323,7 @@
         <v>52</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>3</v>
@@ -3045,7 +3335,7 @@
         <v>52</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>3</v>
@@ -3057,7 +3347,7 @@
         <v>52</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>3</v>
@@ -3069,7 +3359,7 @@
         <v>52</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>3</v>
@@ -3081,7 +3371,7 @@
         <v>52</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>3</v>
@@ -3093,7 +3383,7 @@
         <v>52</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>3</v>
@@ -3105,7 +3395,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>3</v>
@@ -3117,7 +3407,7 @@
         <v>52</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>3</v>
@@ -3129,7 +3419,7 @@
         <v>52</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>3</v>
@@ -3141,7 +3431,7 @@
         <v>52</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>3</v>
@@ -3153,7 +3443,7 @@
         <v>52</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>3</v>
@@ -3165,7 +3455,7 @@
         <v>52</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>3</v>
@@ -3177,28 +3467,43 @@
         <v>52</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="10" customFormat="1">
+    <row r="107" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A107" s="12"/>
+      <c r="B107" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="9"/>
+      <c r="B108" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A109" s="12"/>
       <c r="B109" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>3</v>
@@ -3207,10 +3512,10 @@
     <row r="110" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A110" s="12"/>
       <c r="B110" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>3</v>
@@ -3219,38 +3524,23 @@
     <row r="111" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A111" s="12"/>
       <c r="B111" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="10" customFormat="1" ht="21">
+    <row r="112" spans="1:4" s="10" customFormat="1">
       <c r="A112" s="12"/>
-      <c r="B112" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="113" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A113" s="12"/>
-      <c r="B113" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="9"/>
     </row>
     <row r="114" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A114" s="12"/>
@@ -3258,7 +3548,7 @@
         <v>96</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>3</v>
@@ -3270,7 +3560,7 @@
         <v>96</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>3</v>
@@ -3282,7 +3572,7 @@
         <v>96</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>3</v>
@@ -3294,7 +3584,7 @@
         <v>96</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>3</v>
@@ -3306,7 +3596,7 @@
         <v>96</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>3</v>
@@ -3318,7 +3608,7 @@
         <v>96</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>3</v>
@@ -3330,7 +3620,7 @@
         <v>96</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>3</v>
@@ -3342,7 +3632,7 @@
         <v>96</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>3</v>
@@ -3354,7 +3644,7 @@
         <v>96</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>3</v>
@@ -3366,7 +3656,7 @@
         <v>96</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>3</v>
@@ -3378,7 +3668,7 @@
         <v>96</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>3</v>
@@ -3390,7 +3680,7 @@
         <v>96</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>3</v>
@@ -3402,7 +3692,7 @@
         <v>96</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>3</v>
@@ -3414,7 +3704,7 @@
         <v>96</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>3</v>
@@ -3426,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>3</v>
@@ -3438,7 +3728,7 @@
         <v>96</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>3</v>
@@ -3450,7 +3740,7 @@
         <v>96</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>3</v>
@@ -3462,33 +3752,33 @@
         <v>96</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A132" s="18"/>
-      <c r="B132" s="13" t="s">
+    <row r="132" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A132" s="12"/>
+      <c r="B132" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A133" s="4"/>
-      <c r="B133" s="17" t="s">
+      <c r="C132" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A133" s="12"/>
+      <c r="B133" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="C133" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3498,21 +3788,21 @@
         <v>96</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A135" s="18"/>
-      <c r="B135" s="13" t="s">
+    <row r="135" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A135" s="12"/>
+      <c r="B135" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D135" s="15" t="s">
+      <c r="C135" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3522,45 +3812,45 @@
         <v>96</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A137" s="12"/>
-      <c r="B137" s="7" t="s">
+    <row r="137" spans="1:4" s="16" customFormat="1" ht="21">
+      <c r="A137" s="18"/>
+      <c r="B137" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A138" s="12"/>
-      <c r="B138" s="7" t="s">
+      <c r="C137" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A138" s="4"/>
+      <c r="B138" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A139" s="4"/>
-      <c r="B139" s="17" t="s">
+      <c r="C138" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A139" s="12"/>
+      <c r="B139" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="C139" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3570,21 +3860,21 @@
         <v>96</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A141" s="4"/>
-      <c r="B141" s="17" t="s">
+    <row r="141" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A141" s="12"/>
+      <c r="B141" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="C141" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3594,7 +3884,7 @@
         <v>96</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>3</v>
@@ -3606,266 +3896,242 @@
         <v>96</v>
       </c>
       <c r="C143" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A144" s="4"/>
+      <c r="B144" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="16" customFormat="1" ht="21">
+      <c r="A145" s="18"/>
+      <c r="B145" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A146" s="4"/>
+      <c r="B146" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A147" s="12"/>
+      <c r="B147" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A148" s="12"/>
+      <c r="B148" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A144" s="12"/>
-      <c r="B144" s="7" t="s">
+      <c r="D148" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A149" s="12"/>
+      <c r="B149" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="10" customFormat="1">
-      <c r="A145" s="12"/>
-    </row>
-    <row r="146" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A146" s="12"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A147" s="4">
-        <v>127</v>
-      </c>
-      <c r="B147" s="4" t="s">
+      <c r="D149" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="10" customFormat="1">
+      <c r="A150" s="12"/>
+    </row>
+    <row r="151" spans="1:4" s="10" customFormat="1">
+      <c r="A151" s="12"/>
+      <c r="C151" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A148" s="18">
-        <f>+A147+1</f>
-        <v>128</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A149" s="20">
-        <f t="shared" ref="A149:A182" si="0">+A148+1</f>
-        <v>129</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A150" s="20">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="A151" s="20">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A152" s="4">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="152" spans="1:4" s="10" customFormat="1">
+      <c r="A152" s="12"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="9"/>
     </row>
     <row r="153" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A153" s="4">
-        <f t="shared" si="0"/>
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A154" s="4">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="B154" s="4" t="s">
+    <row r="154" spans="1:4" s="16" customFormat="1" ht="21">
+      <c r="A154" s="18">
+        <f>+A153+1</f>
+        <v>128</v>
+      </c>
+      <c r="B154" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A155" s="4">
-        <f t="shared" si="0"/>
+      <c r="C154" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="D154" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A155" s="20">
+        <f t="shared" ref="A155:A188" si="2">+A154+1</f>
+        <v>129</v>
+      </c>
+      <c r="B155" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A156" s="4">
-        <f t="shared" si="0"/>
+      <c r="C155" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="D155" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A156" s="20">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B156" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A157" s="4">
-        <f t="shared" si="0"/>
+      <c r="C156" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="D156" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="A157" s="20">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B157" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>464</v>
+      <c r="C157" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A158" s="4">
-        <f t="shared" si="0"/>
-        <v>138</v>
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A159" s="18">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="B159" s="18" t="s">
+    <row r="159" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A159" s="4">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="C159" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="33" customFormat="1" ht="21">
-      <c r="A160" s="30">
-        <f t="shared" si="0"/>
+      <c r="B159" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="D159" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A160" s="4">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D160" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A161" s="20">
-        <f t="shared" si="0"/>
+      <c r="C160" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="D160" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A161" s="4">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C161" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>466</v>
+      <c r="C161" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A162" s="4">
-        <f t="shared" si="0"/>
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>467</v>
+        <v>143</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -3873,787 +4139,921 @@
     </row>
     <row r="163" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A163" s="4">
-        <f t="shared" si="0"/>
-        <v>143</v>
+        <f t="shared" si="2"/>
+        <v>137</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>3</v>
+        <v>144</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A164" s="4">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>138</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A165" s="4">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="B165" s="4" t="s">
+    <row r="165" spans="1:4" s="16" customFormat="1" ht="21">
+      <c r="A165" s="18">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B165" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A166" s="20">
-        <f t="shared" si="0"/>
+      <c r="C165" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B166" s="20" t="s">
+      <c r="D165" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="33" customFormat="1" ht="21">
+      <c r="A166" s="30">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B166" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C166" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D166" s="25" t="s">
+      <c r="C166" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D166" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="22" customFormat="1" ht="21">
       <c r="A167" s="20">
-        <f t="shared" si="0"/>
-        <v>147</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="B167" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A168" s="20">
-        <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="D167" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A168" s="4">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C168" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A169" s="30">
-        <f t="shared" si="0"/>
+      <c r="C168" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A169" s="4">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B169" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A170" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="D170" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A171" s="4">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A172" s="20">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A173" s="20">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A174" s="20">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A175" s="30">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A176" s="4">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C176" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A171" s="30">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A172" s="4">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C172" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A173" s="4">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C173" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A174" s="18">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="B174" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="D174" s="42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A175" s="20">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C175" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A176" s="30">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A177" s="30">
-        <f t="shared" si="0"/>
-        <v>157</v>
+        <f t="shared" si="2"/>
+        <v>151</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A178" s="4">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A179" s="4">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="16" customFormat="1" ht="21">
+      <c r="A180" s="18">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D180" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A181" s="20">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="16" customFormat="1" ht="21">
+      <c r="A182" s="18">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A183" s="30">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A178" s="30">
-        <f t="shared" si="0"/>
+      <c r="D183" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A184" s="30">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B184" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C184" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A179" s="30">
-        <f t="shared" si="0"/>
+      <c r="D184" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A185" s="30">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B185" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C185" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A180" s="30">
-        <f t="shared" si="0"/>
+      <c r="D185" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A186" s="4">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B186" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C186" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A181" s="30">
-        <f t="shared" si="0"/>
+      <c r="D186" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A187" s="30">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B187" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C187" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A182" s="30">
-        <f t="shared" si="0"/>
+      <c r="D187" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A188" s="20">
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B188" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C188" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="10" customFormat="1">
-      <c r="A183" s="12"/>
-    </row>
-    <row r="184" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A184" s="12"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="9"/>
-    </row>
-    <row r="185" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A185" s="12"/>
-      <c r="B185" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A186" s="12"/>
-      <c r="B186" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A187" s="12"/>
-      <c r="B187" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A188" s="12"/>
-      <c r="B188" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="D188" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="10" customFormat="1">
       <c r="A189" s="12"/>
-      <c r="B189" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="190" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A190" s="12"/>
-      <c r="B190" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="9"/>
     </row>
     <row r="191" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A191" s="12"/>
+      <c r="A191" s="12">
+        <v>163</v>
+      </c>
       <c r="B191" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A192" s="12"/>
+      <c r="A192" s="12">
+        <f>+A191+1</f>
+        <v>164</v>
+      </c>
       <c r="B192" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A193" s="12"/>
+      <c r="A193" s="12">
+        <f t="shared" ref="A193:A225" si="3">+A192+1</f>
+        <v>165</v>
+      </c>
       <c r="B193" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A194" s="12"/>
+      <c r="A194" s="12">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
       <c r="B194" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A195" s="12"/>
+      <c r="A195" s="12">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
       <c r="B195" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A196" s="12"/>
+      <c r="A196" s="12">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
       <c r="B196" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A197" s="12"/>
+      <c r="A197" s="12">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
       <c r="B197" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A198" s="12"/>
+      <c r="A198" s="12">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
       <c r="B198" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A199" s="12"/>
+      <c r="A199" s="12">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
       <c r="B199" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A200" s="12"/>
+      <c r="A200" s="12">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
       <c r="B200" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A201" s="12"/>
+      <c r="A201" s="12">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
       <c r="B201" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A202" s="12"/>
+      <c r="A202" s="12">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
       <c r="B202" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A203" s="12"/>
+      <c r="A203" s="12">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
       <c r="B203" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A204" s="12"/>
+      <c r="A204" s="12">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
       <c r="B204" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A205" s="12"/>
+      <c r="A205" s="12">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
       <c r="B205" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A206" s="12"/>
+      <c r="A206" s="12">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
       <c r="B206" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A207" s="12"/>
+      <c r="A207" s="12">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
       <c r="B207" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A208" s="12"/>
+      <c r="A208" s="12">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
       <c r="B208" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A209" s="12"/>
+      <c r="A209" s="12">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
       <c r="B209" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A210" s="12"/>
+      <c r="A210" s="12">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
       <c r="B210" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A211" s="12"/>
+      <c r="A211" s="12">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
       <c r="B211" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A212" s="12"/>
+      <c r="A212" s="12">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
       <c r="B212" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A213" s="12"/>
+      <c r="A213" s="12">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
       <c r="B213" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A214" s="12"/>
+      <c r="A214" s="12">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
       <c r="B214" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A215" s="12"/>
+      <c r="A215" s="12">
+        <f t="shared" si="3"/>
+        <v>187</v>
+      </c>
       <c r="B215" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A216" s="12"/>
+      <c r="A216" s="12">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
       <c r="B216" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A217" s="12"/>
+      <c r="A217" s="12">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
       <c r="B217" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A218" s="12"/>
+      <c r="A218" s="12">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
       <c r="B218" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A219" s="12"/>
+      <c r="A219" s="12">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
       <c r="B219" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C219" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A220" s="12">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A221" s="12">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A222" s="12">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A223" s="12">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A224" s="12">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A225" s="12">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C225" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="9"/>
-    </row>
-    <row r="221" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="9"/>
-    </row>
-    <row r="222" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A222" s="12"/>
-      <c r="B222" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A223" s="12"/>
-      <c r="B223" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A224" s="12"/>
-      <c r="B224" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A225" s="12"/>
-      <c r="B225" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>3</v>
@@ -4661,35 +5061,23 @@
     </row>
     <row r="226" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A226" s="12"/>
-      <c r="B226" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B226" s="12"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="9"/>
     </row>
     <row r="227" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A227" s="12"/>
-      <c r="B227" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B227" s="12"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="9"/>
     </row>
     <row r="228" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A228" s="12"/>
       <c r="B228" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C228" s="19" t="s">
-        <v>211</v>
+      <c r="C228" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>3</v>
@@ -4701,7 +5089,7 @@
         <v>204</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>3</v>
@@ -4713,7 +5101,7 @@
         <v>204</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>3</v>
@@ -4725,7 +5113,7 @@
         <v>204</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>3</v>
@@ -4737,7 +5125,7 @@
         <v>204</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>3</v>
@@ -4749,7 +5137,7 @@
         <v>204</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>3</v>
@@ -4760,8 +5148,8 @@
       <c r="B234" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>217</v>
+      <c r="C234" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>3</v>
@@ -4773,7 +5161,7 @@
         <v>204</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>3</v>
@@ -4785,7 +5173,7 @@
         <v>204</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>3</v>
@@ -4797,7 +5185,7 @@
         <v>204</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>3</v>
@@ -4809,7 +5197,7 @@
         <v>204</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>3</v>
@@ -4821,7 +5209,7 @@
         <v>204</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>3</v>
@@ -4833,7 +5221,7 @@
         <v>204</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>3</v>
@@ -4845,7 +5233,7 @@
         <v>204</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>3</v>
@@ -4857,7 +5245,7 @@
         <v>204</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>3</v>
@@ -4869,7 +5257,7 @@
         <v>204</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>3</v>
@@ -4877,21 +5265,35 @@
     </row>
     <row r="244" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A244" s="12"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="9"/>
+      <c r="B244" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="245" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A245" s="12"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="9"/>
+      <c r="B245" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="246" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A246" s="12"/>
       <c r="B246" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>3</v>
@@ -4900,10 +5302,10 @@
     <row r="247" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A247" s="12"/>
       <c r="B247" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>3</v>
@@ -4912,10 +5314,10 @@
     <row r="248" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A248" s="12"/>
       <c r="B248" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>3</v>
@@ -4924,10 +5326,10 @@
     <row r="249" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A249" s="12"/>
       <c r="B249" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>3</v>
@@ -4935,27 +5337,13 @@
     </row>
     <row r="250" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A250" s="12"/>
-      <c r="B250" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C250" s="11"/>
+      <c r="D250" s="9"/>
     </row>
     <row r="251" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A251" s="12"/>
-      <c r="B251" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C251" s="11"/>
+      <c r="D251" s="9"/>
     </row>
     <row r="252" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A252" s="12"/>
@@ -4963,7 +5351,7 @@
         <v>227</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>3</v>
@@ -4975,7 +5363,7 @@
         <v>227</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>3</v>
@@ -4987,7 +5375,7 @@
         <v>227</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>3</v>
@@ -4999,7 +5387,7 @@
         <v>227</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>3</v>
@@ -5011,7 +5399,7 @@
         <v>227</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>3</v>
@@ -5023,7 +5411,7 @@
         <v>227</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>3</v>
@@ -5035,7 +5423,7 @@
         <v>227</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>3</v>
@@ -5047,7 +5435,7 @@
         <v>227</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>3</v>
@@ -5059,7 +5447,7 @@
         <v>227</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>3</v>
@@ -5071,7 +5459,7 @@
         <v>227</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>3</v>
@@ -5083,7 +5471,7 @@
         <v>227</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>3</v>
@@ -5095,7 +5483,7 @@
         <v>227</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>3</v>
@@ -5107,7 +5495,7 @@
         <v>227</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>3</v>
@@ -5119,7 +5507,7 @@
         <v>227</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>3</v>
@@ -5131,7 +5519,7 @@
         <v>227</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>3</v>
@@ -5143,7 +5531,7 @@
         <v>227</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>3</v>
@@ -5155,7 +5543,7 @@
         <v>227</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>3</v>
@@ -5167,7 +5555,7 @@
         <v>227</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>3</v>
@@ -5179,7 +5567,7 @@
         <v>227</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>3</v>
@@ -5191,7 +5579,7 @@
         <v>227</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>3</v>
@@ -5203,7 +5591,7 @@
         <v>227</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>3</v>
@@ -5215,7 +5603,7 @@
         <v>227</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>3</v>
@@ -5227,7 +5615,7 @@
         <v>227</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>3</v>
@@ -5239,7 +5627,7 @@
         <v>227</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>3</v>
@@ -5251,7 +5639,7 @@
         <v>227</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>3</v>
@@ -5263,7 +5651,7 @@
         <v>227</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>3</v>
@@ -5275,7 +5663,7 @@
         <v>227</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>3</v>
@@ -5287,7 +5675,7 @@
         <v>227</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>3</v>
@@ -5299,7 +5687,7 @@
         <v>227</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>3</v>
@@ -5307,21 +5695,35 @@
     </row>
     <row r="281" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A281" s="12"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="9"/>
+      <c r="B281" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="282" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A282" s="12"/>
-      <c r="C282" s="11"/>
-      <c r="D282" s="9"/>
+      <c r="B282" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="283" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A283" s="12"/>
       <c r="B283" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>3</v>
@@ -5330,10 +5732,10 @@
     <row r="284" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A284" s="12"/>
       <c r="B284" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>3</v>
@@ -5342,10 +5744,10 @@
     <row r="285" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A285" s="12"/>
       <c r="B285" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>3</v>
@@ -5354,10 +5756,10 @@
     <row r="286" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A286" s="12"/>
       <c r="B286" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>3</v>
@@ -5365,27 +5767,13 @@
     </row>
     <row r="287" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A287" s="12"/>
-      <c r="B287" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C287" s="11"/>
+      <c r="D287" s="9"/>
     </row>
     <row r="288" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A288" s="12"/>
-      <c r="B288" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D288" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C288" s="11"/>
+      <c r="D288" s="9"/>
     </row>
     <row r="289" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A289" s="12"/>
@@ -5393,7 +5781,7 @@
         <v>262</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>3</v>
@@ -5405,7 +5793,7 @@
         <v>262</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>3</v>
@@ -5417,7 +5805,7 @@
         <v>262</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>3</v>
@@ -5429,7 +5817,7 @@
         <v>262</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>3</v>
@@ -5441,7 +5829,7 @@
         <v>262</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>3</v>
@@ -5453,7 +5841,7 @@
         <v>262</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>3</v>
@@ -5465,7 +5853,7 @@
         <v>262</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>3</v>
@@ -5477,7 +5865,7 @@
         <v>262</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>3</v>
@@ -5489,7 +5877,7 @@
         <v>262</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>3</v>
@@ -5501,7 +5889,7 @@
         <v>262</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>3</v>
@@ -5513,7 +5901,7 @@
         <v>262</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>3</v>
@@ -5525,7 +5913,7 @@
         <v>262</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>3</v>
@@ -5537,7 +5925,7 @@
         <v>262</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>3</v>
@@ -5545,21 +5933,35 @@
     </row>
     <row r="302" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A302" s="12"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="9"/>
+      <c r="B302" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="303" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A303" s="12"/>
-      <c r="C303" s="11"/>
-      <c r="D303" s="9"/>
+      <c r="B303" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="304" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A304" s="12"/>
       <c r="B304" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>3</v>
@@ -5568,10 +5970,10 @@
     <row r="305" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A305" s="12"/>
       <c r="B305" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>3</v>
@@ -5580,10 +5982,10 @@
     <row r="306" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A306" s="12"/>
       <c r="B306" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>3</v>
@@ -5592,10 +5994,10 @@
     <row r="307" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A307" s="12"/>
       <c r="B307" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>3</v>
@@ -5603,27 +6005,13 @@
     </row>
     <row r="308" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A308" s="12"/>
-      <c r="B308" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C308" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D308" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C308" s="11"/>
+      <c r="D308" s="9"/>
     </row>
     <row r="309" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A309" s="12"/>
-      <c r="B309" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C309" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D309" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C309" s="11"/>
+      <c r="D309" s="9"/>
     </row>
     <row r="310" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A310" s="12"/>
@@ -5631,7 +6019,7 @@
         <v>282</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>3</v>
@@ -5643,7 +6031,7 @@
         <v>282</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>3</v>
@@ -5655,7 +6043,7 @@
         <v>282</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>3</v>
@@ -5667,7 +6055,7 @@
         <v>282</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>3</v>
@@ -5679,7 +6067,7 @@
         <v>282</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>3</v>
@@ -5691,7 +6079,7 @@
         <v>282</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>3</v>
@@ -5703,7 +6091,7 @@
         <v>282</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>3</v>
@@ -5714,8 +6102,8 @@
       <c r="B317" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C317" s="19" t="s">
-        <v>296</v>
+      <c r="C317" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>3</v>
@@ -5727,7 +6115,7 @@
         <v>282</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>3</v>
@@ -5739,7 +6127,7 @@
         <v>282</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>3</v>
@@ -5751,7 +6139,7 @@
         <v>282</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>3</v>
@@ -5763,7 +6151,7 @@
         <v>282</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>3</v>
@@ -5775,7 +6163,7 @@
         <v>282</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>3</v>
@@ -5786,8 +6174,8 @@
       <c r="B323" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C323" s="8" t="s">
-        <v>302</v>
+      <c r="C323" s="19" t="s">
+        <v>296</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>3</v>
@@ -5799,7 +6187,7 @@
         <v>282</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>3</v>
@@ -5811,7 +6199,7 @@
         <v>282</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>3</v>
@@ -5823,7 +6211,7 @@
         <v>282</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>3</v>
@@ -5835,7 +6223,7 @@
         <v>282</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>3</v>
@@ -5847,7 +6235,7 @@
         <v>282</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>3</v>
@@ -5859,7 +6247,7 @@
         <v>282</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>3</v>
@@ -5871,7 +6259,7 @@
         <v>282</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>3</v>
@@ -5883,7 +6271,7 @@
         <v>282</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>3</v>
@@ -5895,7 +6283,7 @@
         <v>282</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>3</v>
@@ -5907,7 +6295,7 @@
         <v>282</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>3</v>
@@ -5919,7 +6307,7 @@
         <v>282</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>3</v>
@@ -5931,7 +6319,7 @@
         <v>282</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>3</v>
@@ -5943,7 +6331,7 @@
         <v>282</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>3</v>
@@ -5955,7 +6343,7 @@
         <v>282</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>3</v>
@@ -5967,7 +6355,7 @@
         <v>282</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>3</v>
@@ -5979,7 +6367,7 @@
         <v>282</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>3</v>
@@ -5991,7 +6379,7 @@
         <v>282</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>3</v>
@@ -6003,7 +6391,7 @@
         <v>282</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>3</v>
@@ -6011,21 +6399,35 @@
     </row>
     <row r="342" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A342" s="12"/>
-      <c r="C342" s="11"/>
-      <c r="D342" s="9"/>
+      <c r="B342" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="343" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A343" s="12"/>
-      <c r="C343" s="11"/>
-      <c r="D343" s="9"/>
+      <c r="B343" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="344" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A344" s="12"/>
-      <c r="B344" s="12" t="s">
-        <v>321</v>
+      <c r="B344" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>3</v>
@@ -6033,11 +6435,11 @@
     </row>
     <row r="345" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A345" s="12"/>
-      <c r="B345" s="12" t="s">
-        <v>321</v>
+      <c r="B345" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>3</v>
@@ -6045,11 +6447,11 @@
     </row>
     <row r="346" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A346" s="12"/>
-      <c r="B346" s="12" t="s">
-        <v>321</v>
+      <c r="B346" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>3</v>
@@ -6057,11 +6459,11 @@
     </row>
     <row r="347" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A347" s="12"/>
-      <c r="B347" s="12" t="s">
-        <v>321</v>
+      <c r="B347" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>3</v>
@@ -6069,27 +6471,13 @@
     </row>
     <row r="348" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A348" s="12"/>
-      <c r="B348" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C348" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D348" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C348" s="11"/>
+      <c r="D348" s="9"/>
     </row>
     <row r="349" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A349" s="12"/>
-      <c r="B349" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C349" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D349" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C349" s="11"/>
+      <c r="D349" s="9"/>
     </row>
     <row r="350" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A350" s="12"/>
@@ -6097,7 +6485,7 @@
         <v>321</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>3</v>
@@ -6109,7 +6497,7 @@
         <v>321</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>3</v>
@@ -6120,8 +6508,8 @@
       <c r="B352" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C352" s="19" t="s">
-        <v>330</v>
+      <c r="C352" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>3</v>
@@ -6133,7 +6521,7 @@
         <v>321</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>3</v>
@@ -6145,7 +6533,7 @@
         <v>321</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>3</v>
@@ -6157,7 +6545,7 @@
         <v>321</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>3</v>
@@ -6169,7 +6557,7 @@
         <v>321</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>3</v>
@@ -6181,7 +6569,7 @@
         <v>321</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>3</v>
@@ -6192,8 +6580,8 @@
       <c r="B358" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C358" s="8" t="s">
-        <v>336</v>
+      <c r="C358" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>3</v>
@@ -6205,7 +6593,7 @@
         <v>321</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>3</v>
@@ -6217,7 +6605,7 @@
         <v>321</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>3</v>
@@ -6229,7 +6617,7 @@
         <v>321</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>3</v>
@@ -6237,21 +6625,35 @@
     </row>
     <row r="362" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A362" s="12"/>
-      <c r="C362" s="11"/>
-      <c r="D362" s="9"/>
+      <c r="B362" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="363" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A363" s="12"/>
-      <c r="C363" s="11"/>
-      <c r="D363" s="9"/>
+      <c r="B363" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="364" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A364" s="12"/>
       <c r="B364" s="12" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>3</v>
@@ -6260,10 +6662,10 @@
     <row r="365" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A365" s="12"/>
       <c r="B365" s="12" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>3</v>
@@ -6272,10 +6674,10 @@
     <row r="366" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A366" s="12"/>
       <c r="B366" s="12" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>3</v>
@@ -6284,10 +6686,10 @@
     <row r="367" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A367" s="12"/>
       <c r="B367" s="12" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>3</v>
@@ -6295,27 +6697,13 @@
     </row>
     <row r="368" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A368" s="12"/>
-      <c r="B368" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D368" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C368" s="11"/>
+      <c r="D368" s="9"/>
     </row>
     <row r="369" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A369" s="12"/>
-      <c r="B369" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C369" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D369" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C369" s="11"/>
+      <c r="D369" s="9"/>
     </row>
     <row r="370" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A370" s="12"/>
@@ -6323,7 +6711,7 @@
         <v>340</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>3</v>
@@ -6335,7 +6723,7 @@
         <v>340</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>3</v>
@@ -6347,7 +6735,7 @@
         <v>340</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>3</v>
@@ -6359,7 +6747,7 @@
         <v>340</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>3</v>
@@ -6371,7 +6759,7 @@
         <v>340</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>3</v>
@@ -6383,7 +6771,7 @@
         <v>340</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>3</v>
@@ -6395,7 +6783,7 @@
         <v>340</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>3</v>
@@ -6407,7 +6795,7 @@
         <v>340</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>3</v>
@@ -6419,7 +6807,7 @@
         <v>340</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>3</v>
@@ -6431,7 +6819,7 @@
         <v>340</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>3</v>
@@ -6443,7 +6831,7 @@
         <v>340</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>3</v>
@@ -6455,7 +6843,7 @@
         <v>340</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>3</v>
@@ -6467,7 +6855,7 @@
         <v>340</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>3</v>
@@ -6479,7 +6867,7 @@
         <v>340</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>3</v>
@@ -6491,7 +6879,7 @@
         <v>340</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>3</v>
@@ -6503,7 +6891,7 @@
         <v>340</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>3</v>
@@ -6515,7 +6903,7 @@
         <v>340</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>3</v>
@@ -6527,7 +6915,7 @@
         <v>340</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>3</v>
@@ -6539,7 +6927,7 @@
         <v>340</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>3</v>
@@ -6551,7 +6939,7 @@
         <v>340</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>3</v>
@@ -6563,7 +6951,7 @@
         <v>340</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>3</v>
@@ -6575,7 +6963,7 @@
         <v>340</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>3</v>
@@ -6587,7 +6975,7 @@
         <v>340</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>3</v>
@@ -6599,7 +6987,7 @@
         <v>340</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>3</v>
@@ -6611,7 +6999,7 @@
         <v>340</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>3</v>
@@ -6623,7 +7011,7 @@
         <v>340</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>3</v>
@@ -6635,7 +7023,7 @@
         <v>340</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>3</v>
@@ -6647,7 +7035,7 @@
         <v>340</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>3</v>
@@ -6659,7 +7047,7 @@
         <v>340</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>3</v>
@@ -6671,7 +7059,7 @@
         <v>340</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>3</v>
@@ -6683,7 +7071,7 @@
         <v>340</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>3</v>
@@ -6695,7 +7083,7 @@
         <v>340</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>3</v>
@@ -6707,7 +7095,7 @@
         <v>340</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>3</v>
@@ -6719,7 +7107,7 @@
         <v>340</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>3</v>
@@ -6731,7 +7119,7 @@
         <v>340</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>3</v>
@@ -6743,7 +7131,7 @@
         <v>340</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>3</v>
@@ -6755,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>3</v>
@@ -6767,7 +7155,7 @@
         <v>340</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>3</v>
@@ -6775,21 +7163,35 @@
     </row>
     <row r="408" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A408" s="12"/>
-      <c r="C408" s="11"/>
-      <c r="D408" s="9"/>
+      <c r="B408" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="409" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A409" s="12"/>
-      <c r="C409" s="11"/>
-      <c r="D409" s="9"/>
+      <c r="B409" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A410" s="12"/>
       <c r="B410" s="12" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>3</v>
@@ -6798,10 +7200,10 @@
     <row r="411" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A411" s="12"/>
       <c r="B411" s="12" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>3</v>
@@ -6810,10 +7212,10 @@
     <row r="412" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A412" s="12"/>
       <c r="B412" s="12" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>3</v>
@@ -6822,10 +7224,10 @@
     <row r="413" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A413" s="12"/>
       <c r="B413" s="12" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>3</v>
@@ -6833,45 +7235,45 @@
     </row>
     <row r="414" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A414" s="12"/>
-      <c r="B414" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C414" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="D414" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C414" s="11"/>
+      <c r="D414" s="9"/>
     </row>
     <row r="415" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A415" s="12"/>
-      <c r="B415" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C415" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D415" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C415" s="11"/>
+      <c r="D415" s="9"/>
     </row>
     <row r="416" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A416" s="12"/>
-      <c r="C416" s="11"/>
-      <c r="D416" s="9"/>
+      <c r="B416" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="417" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A417" s="12"/>
-      <c r="C417" s="11"/>
-      <c r="D417" s="9"/>
+      <c r="B417" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="418" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A418" s="12"/>
-      <c r="B418" s="7" t="s">
-        <v>390</v>
+      <c r="B418" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>3</v>
@@ -6879,11 +7281,11 @@
     </row>
     <row r="419" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A419" s="12"/>
-      <c r="B419" s="7" t="s">
-        <v>390</v>
+      <c r="B419" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>392</v>
+        <v>88</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>3</v>
@@ -6891,11 +7293,11 @@
     </row>
     <row r="420" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A420" s="12"/>
-      <c r="B420" s="7" t="s">
-        <v>390</v>
+      <c r="B420" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>3</v>
@@ -6903,11 +7305,11 @@
     </row>
     <row r="421" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A421" s="12"/>
-      <c r="B421" s="7" t="s">
-        <v>390</v>
+      <c r="B421" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>3</v>
@@ -6915,27 +7317,13 @@
     </row>
     <row r="422" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A422" s="12"/>
-      <c r="B422" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C422" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D422" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C422" s="11"/>
+      <c r="D422" s="9"/>
     </row>
     <row r="423" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A423" s="12"/>
-      <c r="B423" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D423" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C423" s="11"/>
+      <c r="D423" s="9"/>
     </row>
     <row r="424" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A424" s="12"/>
@@ -6943,7 +7331,7 @@
         <v>390</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>3</v>
@@ -6955,7 +7343,7 @@
         <v>390</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>3</v>
@@ -6967,7 +7355,7 @@
         <v>390</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>3</v>
@@ -6979,7 +7367,7 @@
         <v>390</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>3</v>
@@ -6991,7 +7379,7 @@
         <v>390</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>3</v>
@@ -7003,7 +7391,7 @@
         <v>390</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>3</v>
@@ -7015,7 +7403,7 @@
         <v>390</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>3</v>
@@ -7027,7 +7415,7 @@
         <v>390</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>3</v>
@@ -7039,7 +7427,7 @@
         <v>390</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>3</v>
@@ -7051,7 +7439,7 @@
         <v>390</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>3</v>
@@ -7063,7 +7451,7 @@
         <v>390</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>3</v>
@@ -7075,7 +7463,7 @@
         <v>390</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>3</v>
@@ -7087,7 +7475,7 @@
         <v>390</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>3</v>
@@ -7099,7 +7487,7 @@
         <v>390</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>3</v>
@@ -7111,7 +7499,7 @@
         <v>390</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>3</v>
@@ -7123,7 +7511,7 @@
         <v>390</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>3</v>
@@ -7135,7 +7523,7 @@
         <v>390</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>3</v>
@@ -7147,7 +7535,7 @@
         <v>390</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>3</v>
@@ -7159,7 +7547,7 @@
         <v>390</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>3</v>
@@ -7171,7 +7559,7 @@
         <v>390</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>3</v>
@@ -7183,7 +7571,7 @@
         <v>390</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>3</v>
@@ -7195,7 +7583,7 @@
         <v>390</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>3</v>
@@ -7207,7 +7595,7 @@
         <v>390</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>3</v>
@@ -7219,7 +7607,7 @@
         <v>390</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>3</v>
@@ -7231,7 +7619,7 @@
         <v>390</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>3</v>
@@ -7243,7 +7631,7 @@
         <v>390</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>3</v>
@@ -7255,7 +7643,7 @@
         <v>390</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>3</v>
@@ -7267,7 +7655,7 @@
         <v>390</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>3</v>
@@ -7279,7 +7667,7 @@
         <v>390</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>3</v>
@@ -7291,7 +7679,7 @@
         <v>390</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>3</v>
@@ -7303,7 +7691,7 @@
         <v>390</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>3</v>
@@ -7315,7 +7703,7 @@
         <v>390</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>3</v>
@@ -7327,7 +7715,7 @@
         <v>390</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>3</v>
@@ -7339,7 +7727,7 @@
         <v>390</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>3</v>
@@ -7351,7 +7739,7 @@
         <v>390</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>3</v>
@@ -7363,7 +7751,7 @@
         <v>390</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>3</v>
@@ -7375,7 +7763,7 @@
         <v>390</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>3</v>
@@ -7387,7 +7775,7 @@
         <v>390</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>3</v>
@@ -7399,7 +7787,7 @@
         <v>390</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>3</v>
@@ -7411,7 +7799,7 @@
         <v>390</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>3</v>
@@ -7423,7 +7811,7 @@
         <v>390</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>3</v>
@@ -7435,7 +7823,7 @@
         <v>390</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>3</v>
@@ -7447,7 +7835,7 @@
         <v>390</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>3</v>
@@ -7459,7 +7847,7 @@
         <v>390</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>3</v>
@@ -7471,7 +7859,7 @@
         <v>390</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>3</v>
@@ -7483,7 +7871,7 @@
         <v>390</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>3</v>
@@ -7495,7 +7883,7 @@
         <v>390</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>3</v>
@@ -7507,7 +7895,7 @@
         <v>390</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>3</v>
@@ -7519,7 +7907,7 @@
         <v>390</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>3</v>
@@ -7531,7 +7919,7 @@
         <v>390</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>3</v>
@@ -7543,7 +7931,7 @@
         <v>390</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>3</v>
@@ -7555,7 +7943,7 @@
         <v>390</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>3</v>
@@ -7567,7 +7955,7 @@
         <v>390</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>3</v>
@@ -7579,7 +7967,7 @@
         <v>390</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D477" s="9" t="s">
         <v>3</v>
@@ -7587,22 +7975,35 @@
     </row>
     <row r="478" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A478" s="12"/>
-      <c r="C478" s="11"/>
-      <c r="D478" s="9"/>
+      <c r="B478" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C478" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D478" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="479" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A479" s="12"/>
-      <c r="B479" s="12"/>
-      <c r="C479" s="11"/>
-      <c r="D479" s="9"/>
+      <c r="B479" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D479" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="480" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A480" s="12"/>
       <c r="B480" s="7" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>3</v>
@@ -7611,10 +8012,10 @@
     <row r="481" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A481" s="12"/>
       <c r="B481" s="7" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>3</v>
@@ -7623,10 +8024,10 @@
     <row r="482" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A482" s="12"/>
       <c r="B482" s="7" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>3</v>
@@ -7635,10 +8036,10 @@
     <row r="483" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A483" s="12"/>
       <c r="B483" s="7" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>3</v>
@@ -7646,27 +8047,14 @@
     </row>
     <row r="484" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A484" s="12"/>
-      <c r="B484" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C484" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D484" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C484" s="11"/>
+      <c r="D484" s="9"/>
     </row>
     <row r="485" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A485" s="12"/>
-      <c r="B485" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C485" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D485" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B485" s="12"/>
+      <c r="C485" s="11"/>
+      <c r="D485" s="9"/>
     </row>
     <row r="486" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A486" s="12"/>
@@ -7674,7 +8062,7 @@
         <v>450</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>3</v>
@@ -7686,7 +8074,7 @@
         <v>450</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D487" s="9" t="s">
         <v>3</v>
@@ -7698,7 +8086,7 @@
         <v>450</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>3</v>
@@ -7710,465 +8098,540 @@
         <v>450</v>
       </c>
       <c r="C489" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D489" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A490" s="12"/>
+      <c r="B490" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C490" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D490" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A491" s="12"/>
+      <c r="B491" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D491" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A492" s="12"/>
+      <c r="B492" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C492" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D492" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A493" s="12"/>
+      <c r="B493" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A494" s="12"/>
+      <c r="B494" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C494" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D494" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A495" s="12"/>
+      <c r="B495" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C495" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D489" s="9" t="s">
+      <c r="D495" s="9" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B1:D2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A5:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C17" r:id="rId4"/>
-    <hyperlink ref="C18" r:id="rId5"/>
-    <hyperlink ref="C19" r:id="rId6"/>
-    <hyperlink ref="C20" r:id="rId7"/>
-    <hyperlink ref="C21" r:id="rId8"/>
-    <hyperlink ref="C22" r:id="rId9"/>
-    <hyperlink ref="C23" r:id="rId10"/>
-    <hyperlink ref="C24" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C26" r:id="rId13"/>
-    <hyperlink ref="C27" r:id="rId14"/>
-    <hyperlink ref="C28" r:id="rId15"/>
-    <hyperlink ref="C29" r:id="rId16"/>
-    <hyperlink ref="C30" r:id="rId17"/>
-    <hyperlink ref="C31" r:id="rId18"/>
-    <hyperlink ref="C32" r:id="rId19"/>
-    <hyperlink ref="C33" r:id="rId20"/>
-    <hyperlink ref="C34" r:id="rId21"/>
-    <hyperlink ref="C35" r:id="rId22"/>
-    <hyperlink ref="C36" r:id="rId23"/>
-    <hyperlink ref="C37" r:id="rId24"/>
-    <hyperlink ref="C38" r:id="rId25"/>
-    <hyperlink ref="C39" r:id="rId26"/>
-    <hyperlink ref="C40" r:id="rId27"/>
-    <hyperlink ref="C41" r:id="rId28"/>
-    <hyperlink ref="C42" r:id="rId29"/>
-    <hyperlink ref="C43" r:id="rId30"/>
-    <hyperlink ref="C44" r:id="rId31"/>
-    <hyperlink ref="C45" r:id="rId32"/>
-    <hyperlink ref="C46" r:id="rId33"/>
-    <hyperlink ref="C47" r:id="rId34"/>
-    <hyperlink ref="C48" r:id="rId35"/>
-    <hyperlink ref="C49" r:id="rId36"/>
-    <hyperlink ref="C52" r:id="rId37"/>
-    <hyperlink ref="C53" r:id="rId38"/>
-    <hyperlink ref="C54" r:id="rId39"/>
-    <hyperlink ref="C55" r:id="rId40"/>
-    <hyperlink ref="C56" r:id="rId41"/>
-    <hyperlink ref="C57" r:id="rId42"/>
-    <hyperlink ref="C58" r:id="rId43"/>
-    <hyperlink ref="C59" r:id="rId44"/>
-    <hyperlink ref="C60" r:id="rId45"/>
-    <hyperlink ref="C61" r:id="rId46"/>
-    <hyperlink ref="C64" r:id="rId47"/>
-    <hyperlink ref="C65" r:id="rId48"/>
-    <hyperlink ref="C66" r:id="rId49"/>
-    <hyperlink ref="C68" r:id="rId50"/>
-    <hyperlink ref="C69" r:id="rId51"/>
-    <hyperlink ref="C70" r:id="rId52"/>
-    <hyperlink ref="C71" r:id="rId53"/>
-    <hyperlink ref="C72" r:id="rId54"/>
-    <hyperlink ref="C73" r:id="rId55"/>
-    <hyperlink ref="C74" r:id="rId56"/>
-    <hyperlink ref="C75" r:id="rId57"/>
-    <hyperlink ref="C76" r:id="rId58"/>
-    <hyperlink ref="C77" r:id="rId59"/>
-    <hyperlink ref="C78" r:id="rId60"/>
-    <hyperlink ref="C79" r:id="rId61"/>
-    <hyperlink ref="C80" r:id="rId62"/>
-    <hyperlink ref="C81" r:id="rId63"/>
-    <hyperlink ref="C82" r:id="rId64"/>
-    <hyperlink ref="C83" r:id="rId65"/>
-    <hyperlink ref="C84" r:id="rId66"/>
-    <hyperlink ref="C85" r:id="rId67"/>
-    <hyperlink ref="C86" r:id="rId68"/>
-    <hyperlink ref="C87" r:id="rId69"/>
-    <hyperlink ref="C88" r:id="rId70"/>
-    <hyperlink ref="C89" r:id="rId71"/>
-    <hyperlink ref="C90" r:id="rId72"/>
-    <hyperlink ref="C91" r:id="rId73"/>
-    <hyperlink ref="C92" r:id="rId74"/>
-    <hyperlink ref="C93" r:id="rId75"/>
-    <hyperlink ref="C94" r:id="rId76"/>
-    <hyperlink ref="C95" r:id="rId77"/>
-    <hyperlink ref="C96" r:id="rId78"/>
-    <hyperlink ref="C97" r:id="rId79"/>
-    <hyperlink ref="C98" r:id="rId80"/>
-    <hyperlink ref="C99" r:id="rId81"/>
-    <hyperlink ref="C100" r:id="rId82"/>
-    <hyperlink ref="C101" r:id="rId83"/>
-    <hyperlink ref="C102" r:id="rId84"/>
-    <hyperlink ref="C103" r:id="rId85"/>
-    <hyperlink ref="C104" r:id="rId86"/>
-    <hyperlink ref="C105" r:id="rId87"/>
-    <hyperlink ref="C106" r:id="rId88"/>
-    <hyperlink ref="C109" r:id="rId89"/>
-    <hyperlink ref="C110" r:id="rId90"/>
-    <hyperlink ref="C111" r:id="rId91"/>
-    <hyperlink ref="C112" r:id="rId92"/>
-    <hyperlink ref="C114" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="C115" r:id="rId94"/>
-    <hyperlink ref="C116" r:id="rId95"/>
-    <hyperlink ref="C117" r:id="rId96"/>
-    <hyperlink ref="C118" r:id="rId97"/>
-    <hyperlink ref="C119" r:id="rId98"/>
-    <hyperlink ref="C121" r:id="rId99"/>
-    <hyperlink ref="C122" r:id="rId100"/>
-    <hyperlink ref="C123" r:id="rId101"/>
-    <hyperlink ref="C124" r:id="rId102"/>
-    <hyperlink ref="C125" r:id="rId103"/>
-    <hyperlink ref="C126" r:id="rId104"/>
-    <hyperlink ref="C127" r:id="rId105"/>
-    <hyperlink ref="C128" r:id="rId106"/>
-    <hyperlink ref="C129" r:id="rId107"/>
-    <hyperlink ref="C130" r:id="rId108"/>
-    <hyperlink ref="C131" r:id="rId109"/>
-    <hyperlink ref="C132" r:id="rId110"/>
-    <hyperlink ref="C133" r:id="rId111"/>
-    <hyperlink ref="C134" r:id="rId112"/>
-    <hyperlink ref="C135" r:id="rId113"/>
-    <hyperlink ref="C136" r:id="rId114"/>
-    <hyperlink ref="C137" r:id="rId115"/>
-    <hyperlink ref="C138" r:id="rId116"/>
-    <hyperlink ref="C139" r:id="rId117"/>
-    <hyperlink ref="C140" r:id="rId118"/>
-    <hyperlink ref="C141" r:id="rId119"/>
-    <hyperlink ref="C142" r:id="rId120"/>
-    <hyperlink ref="C143" r:id="rId121"/>
-    <hyperlink ref="C144" r:id="rId122"/>
-    <hyperlink ref="C113" r:id="rId123"/>
-    <hyperlink ref="C120" r:id="rId124"/>
-    <hyperlink ref="C147" r:id="rId125"/>
-    <hyperlink ref="C148" r:id="rId126"/>
-    <hyperlink ref="C149" r:id="rId127"/>
-    <hyperlink ref="C150" r:id="rId128"/>
-    <hyperlink ref="C151" r:id="rId129"/>
-    <hyperlink ref="C152" r:id="rId130"/>
-    <hyperlink ref="C153" r:id="rId131"/>
-    <hyperlink ref="C154" r:id="rId132"/>
-    <hyperlink ref="C155" r:id="rId133"/>
-    <hyperlink ref="C156" r:id="rId134"/>
-    <hyperlink ref="C157" r:id="rId135"/>
-    <hyperlink ref="C158" r:id="rId136"/>
-    <hyperlink ref="C159" r:id="rId137"/>
-    <hyperlink ref="C160" r:id="rId138"/>
-    <hyperlink ref="C161" r:id="rId139"/>
-    <hyperlink ref="C162" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C163" r:id="rId141"/>
-    <hyperlink ref="C164" r:id="rId142"/>
-    <hyperlink ref="C165" r:id="rId143"/>
-    <hyperlink ref="C166" r:id="rId144"/>
-    <hyperlink ref="C167" r:id="rId145"/>
-    <hyperlink ref="C168" r:id="rId146"/>
-    <hyperlink ref="C169" r:id="rId147"/>
-    <hyperlink ref="C170" r:id="rId148"/>
-    <hyperlink ref="C171" r:id="rId149"/>
-    <hyperlink ref="C174" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C175" r:id="rId151"/>
-    <hyperlink ref="C176" r:id="rId152"/>
-    <hyperlink ref="C177" r:id="rId153"/>
-    <hyperlink ref="C178" r:id="rId154"/>
-    <hyperlink ref="C179" r:id="rId155"/>
-    <hyperlink ref="C180" r:id="rId156"/>
-    <hyperlink ref="C181" r:id="rId157"/>
-    <hyperlink ref="C182" r:id="rId158"/>
-    <hyperlink ref="C185" r:id="rId159"/>
-    <hyperlink ref="C186" r:id="rId160"/>
-    <hyperlink ref="C187" r:id="rId161"/>
-    <hyperlink ref="C188" r:id="rId162"/>
-    <hyperlink ref="C189" r:id="rId163"/>
-    <hyperlink ref="C190" r:id="rId164"/>
-    <hyperlink ref="C191" r:id="rId165"/>
-    <hyperlink ref="C192" r:id="rId166"/>
-    <hyperlink ref="C193" r:id="rId167"/>
-    <hyperlink ref="C194" r:id="rId168"/>
-    <hyperlink ref="C195" r:id="rId169"/>
-    <hyperlink ref="C196" r:id="rId170"/>
-    <hyperlink ref="C197" r:id="rId171"/>
-    <hyperlink ref="C198" r:id="rId172"/>
-    <hyperlink ref="C199" r:id="rId173"/>
-    <hyperlink ref="C200" r:id="rId174"/>
-    <hyperlink ref="C201" r:id="rId175"/>
-    <hyperlink ref="C202" r:id="rId176"/>
-    <hyperlink ref="C203" r:id="rId177"/>
-    <hyperlink ref="C204" r:id="rId178"/>
-    <hyperlink ref="C205" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="C206" r:id="rId180"/>
-    <hyperlink ref="C207" r:id="rId181"/>
-    <hyperlink ref="C208" r:id="rId182"/>
-    <hyperlink ref="C209" r:id="rId183"/>
-    <hyperlink ref="C210" r:id="rId184"/>
-    <hyperlink ref="C211" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="C212" r:id="rId186"/>
-    <hyperlink ref="C213" r:id="rId187"/>
-    <hyperlink ref="C214" r:id="rId188"/>
-    <hyperlink ref="C215" r:id="rId189"/>
-    <hyperlink ref="C216" r:id="rId190"/>
-    <hyperlink ref="C217" r:id="rId191"/>
-    <hyperlink ref="C218" r:id="rId192"/>
-    <hyperlink ref="C219" r:id="rId193"/>
-    <hyperlink ref="C222" r:id="rId194"/>
-    <hyperlink ref="C223" r:id="rId195"/>
-    <hyperlink ref="C224" r:id="rId196"/>
-    <hyperlink ref="C225" r:id="rId197"/>
-    <hyperlink ref="C226" r:id="rId198"/>
-    <hyperlink ref="C227" r:id="rId199"/>
-    <hyperlink ref="C228" r:id="rId200"/>
-    <hyperlink ref="C229" r:id="rId201"/>
-    <hyperlink ref="C230" r:id="rId202"/>
-    <hyperlink ref="C231" r:id="rId203"/>
-    <hyperlink ref="C232" r:id="rId204"/>
-    <hyperlink ref="C233" r:id="rId205"/>
-    <hyperlink ref="C234" r:id="rId206"/>
-    <hyperlink ref="C235" r:id="rId207"/>
-    <hyperlink ref="C236" r:id="rId208"/>
-    <hyperlink ref="C237" r:id="rId209"/>
-    <hyperlink ref="C238" r:id="rId210"/>
-    <hyperlink ref="C239" r:id="rId211"/>
-    <hyperlink ref="C240" r:id="rId212"/>
-    <hyperlink ref="C241" r:id="rId213"/>
-    <hyperlink ref="C242" r:id="rId214"/>
-    <hyperlink ref="C243" r:id="rId215"/>
-    <hyperlink ref="C246" r:id="rId216"/>
-    <hyperlink ref="C247" r:id="rId217"/>
-    <hyperlink ref="C248" r:id="rId218"/>
-    <hyperlink ref="C249" r:id="rId219"/>
-    <hyperlink ref="C250" r:id="rId220"/>
-    <hyperlink ref="C251" r:id="rId221"/>
-    <hyperlink ref="C252" r:id="rId222"/>
-    <hyperlink ref="C253" r:id="rId223"/>
-    <hyperlink ref="C254" r:id="rId224"/>
-    <hyperlink ref="C255" r:id="rId225"/>
-    <hyperlink ref="C256" r:id="rId226"/>
-    <hyperlink ref="C257" r:id="rId227"/>
-    <hyperlink ref="C258" r:id="rId228"/>
-    <hyperlink ref="C259" r:id="rId229"/>
-    <hyperlink ref="C260" r:id="rId230"/>
-    <hyperlink ref="C261" r:id="rId231"/>
-    <hyperlink ref="C262" r:id="rId232"/>
-    <hyperlink ref="C263" r:id="rId233"/>
-    <hyperlink ref="C264" r:id="rId234"/>
-    <hyperlink ref="C265" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="C266" r:id="rId236"/>
-    <hyperlink ref="C267" r:id="rId237"/>
-    <hyperlink ref="C268" r:id="rId238"/>
-    <hyperlink ref="C269" r:id="rId239"/>
-    <hyperlink ref="C270" r:id="rId240"/>
-    <hyperlink ref="C271" r:id="rId241"/>
-    <hyperlink ref="C272" r:id="rId242"/>
-    <hyperlink ref="C273" r:id="rId243"/>
-    <hyperlink ref="C274" r:id="rId244"/>
-    <hyperlink ref="C275" r:id="rId245"/>
-    <hyperlink ref="C276" r:id="rId246"/>
-    <hyperlink ref="C277" r:id="rId247"/>
-    <hyperlink ref="C278" r:id="rId248"/>
-    <hyperlink ref="C279" r:id="rId249"/>
-    <hyperlink ref="C280" r:id="rId250"/>
-    <hyperlink ref="C283" r:id="rId251"/>
-    <hyperlink ref="C284" r:id="rId252"/>
-    <hyperlink ref="C285" r:id="rId253"/>
-    <hyperlink ref="C286" r:id="rId254"/>
-    <hyperlink ref="C287" r:id="rId255"/>
-    <hyperlink ref="C288" r:id="rId256"/>
-    <hyperlink ref="C289" r:id="rId257"/>
-    <hyperlink ref="C290" r:id="rId258"/>
-    <hyperlink ref="C291" r:id="rId259"/>
-    <hyperlink ref="C292" r:id="rId260"/>
-    <hyperlink ref="C293" r:id="rId261"/>
-    <hyperlink ref="C294" r:id="rId262"/>
-    <hyperlink ref="C295" r:id="rId263"/>
-    <hyperlink ref="C296" r:id="rId264"/>
-    <hyperlink ref="C297" r:id="rId265"/>
-    <hyperlink ref="C298" r:id="rId266"/>
-    <hyperlink ref="C299" r:id="rId267"/>
-    <hyperlink ref="C300" r:id="rId268"/>
-    <hyperlink ref="C301" r:id="rId269"/>
-    <hyperlink ref="C304" r:id="rId270"/>
-    <hyperlink ref="C305" r:id="rId271"/>
-    <hyperlink ref="C306" r:id="rId272"/>
-    <hyperlink ref="C307" r:id="rId273"/>
-    <hyperlink ref="C308" r:id="rId274"/>
-    <hyperlink ref="C309" r:id="rId275"/>
-    <hyperlink ref="C310" r:id="rId276"/>
-    <hyperlink ref="C311" r:id="rId277"/>
-    <hyperlink ref="C312" r:id="rId278"/>
-    <hyperlink ref="C313" r:id="rId279"/>
-    <hyperlink ref="C314" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="C315" r:id="rId281"/>
-    <hyperlink ref="C316" r:id="rId282"/>
-    <hyperlink ref="C317" r:id="rId283"/>
-    <hyperlink ref="C318" r:id="rId284"/>
-    <hyperlink ref="C319" r:id="rId285"/>
-    <hyperlink ref="C320" r:id="rId286"/>
-    <hyperlink ref="C321" r:id="rId287"/>
-    <hyperlink ref="C322" r:id="rId288"/>
-    <hyperlink ref="C323" r:id="rId289"/>
-    <hyperlink ref="C324" r:id="rId290"/>
-    <hyperlink ref="C325" r:id="rId291"/>
-    <hyperlink ref="C326" r:id="rId292"/>
-    <hyperlink ref="C327" r:id="rId293"/>
-    <hyperlink ref="C328" r:id="rId294"/>
-    <hyperlink ref="C329" r:id="rId295"/>
-    <hyperlink ref="C330" r:id="rId296"/>
-    <hyperlink ref="C331" r:id="rId297"/>
-    <hyperlink ref="C332" r:id="rId298"/>
-    <hyperlink ref="C333" r:id="rId299"/>
-    <hyperlink ref="C334" r:id="rId300"/>
-    <hyperlink ref="C335" r:id="rId301"/>
-    <hyperlink ref="C336" r:id="rId302"/>
-    <hyperlink ref="C337" r:id="rId303"/>
-    <hyperlink ref="C338" r:id="rId304"/>
-    <hyperlink ref="C339" r:id="rId305"/>
-    <hyperlink ref="C340" r:id="rId306"/>
-    <hyperlink ref="C341" r:id="rId307"/>
-    <hyperlink ref="C344" r:id="rId308"/>
-    <hyperlink ref="C345" r:id="rId309"/>
-    <hyperlink ref="C346" r:id="rId310"/>
-    <hyperlink ref="C347" r:id="rId311"/>
-    <hyperlink ref="C348" r:id="rId312"/>
-    <hyperlink ref="C349" r:id="rId313"/>
-    <hyperlink ref="C350" r:id="rId314"/>
-    <hyperlink ref="C351" r:id="rId315"/>
-    <hyperlink ref="C352" r:id="rId316"/>
-    <hyperlink ref="C353" r:id="rId317"/>
-    <hyperlink ref="C354" r:id="rId318"/>
-    <hyperlink ref="C355" r:id="rId319"/>
-    <hyperlink ref="C356" r:id="rId320"/>
-    <hyperlink ref="C357" r:id="rId321"/>
-    <hyperlink ref="C358" r:id="rId322"/>
-    <hyperlink ref="C359" r:id="rId323"/>
-    <hyperlink ref="C360" r:id="rId324"/>
-    <hyperlink ref="C361" r:id="rId325"/>
-    <hyperlink ref="C365" r:id="rId326"/>
-    <hyperlink ref="C366" r:id="rId327"/>
-    <hyperlink ref="C367" r:id="rId328"/>
-    <hyperlink ref="C368" r:id="rId329"/>
-    <hyperlink ref="C369" r:id="rId330"/>
-    <hyperlink ref="C370" r:id="rId331"/>
-    <hyperlink ref="C371" r:id="rId332"/>
-    <hyperlink ref="C372" r:id="rId333"/>
-    <hyperlink ref="C373" r:id="rId334"/>
-    <hyperlink ref="C374" r:id="rId335"/>
-    <hyperlink ref="C375" r:id="rId336"/>
-    <hyperlink ref="C376" r:id="rId337"/>
-    <hyperlink ref="C377" r:id="rId338"/>
-    <hyperlink ref="C378" r:id="rId339"/>
-    <hyperlink ref="C379" r:id="rId340"/>
-    <hyperlink ref="C380" r:id="rId341"/>
-    <hyperlink ref="C381" r:id="rId342"/>
-    <hyperlink ref="C382" r:id="rId343"/>
-    <hyperlink ref="C383" r:id="rId344"/>
-    <hyperlink ref="C384" r:id="rId345"/>
-    <hyperlink ref="C385" r:id="rId346"/>
-    <hyperlink ref="C386" r:id="rId347"/>
-    <hyperlink ref="C387" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="C388" r:id="rId349"/>
-    <hyperlink ref="C389" r:id="rId350"/>
-    <hyperlink ref="C390" r:id="rId351"/>
-    <hyperlink ref="C391" r:id="rId352"/>
-    <hyperlink ref="C392" r:id="rId353"/>
-    <hyperlink ref="C393" r:id="rId354"/>
-    <hyperlink ref="C394" r:id="rId355"/>
-    <hyperlink ref="C395" r:id="rId356"/>
-    <hyperlink ref="C396" r:id="rId357"/>
-    <hyperlink ref="C397" r:id="rId358"/>
-    <hyperlink ref="C398" r:id="rId359"/>
-    <hyperlink ref="C399" r:id="rId360"/>
-    <hyperlink ref="C400" r:id="rId361"/>
-    <hyperlink ref="C401" r:id="rId362"/>
-    <hyperlink ref="C402" r:id="rId363"/>
-    <hyperlink ref="C404" r:id="rId364"/>
-    <hyperlink ref="C403" r:id="rId365"/>
-    <hyperlink ref="C405" r:id="rId366"/>
-    <hyperlink ref="C406" r:id="rId367"/>
-    <hyperlink ref="C407" r:id="rId368"/>
-    <hyperlink ref="C410" r:id="rId369"/>
-    <hyperlink ref="C411" r:id="rId370"/>
-    <hyperlink ref="C412" r:id="rId371"/>
-    <hyperlink ref="C413" r:id="rId372"/>
-    <hyperlink ref="C414" r:id="rId373"/>
-    <hyperlink ref="C415" r:id="rId374"/>
-    <hyperlink ref="C418" r:id="rId375"/>
-    <hyperlink ref="C419" r:id="rId376"/>
-    <hyperlink ref="C420" r:id="rId377"/>
-    <hyperlink ref="C421" r:id="rId378"/>
-    <hyperlink ref="C422" r:id="rId379"/>
-    <hyperlink ref="C423" r:id="rId380"/>
-    <hyperlink ref="C424" r:id="rId381"/>
-    <hyperlink ref="C425" r:id="rId382"/>
-    <hyperlink ref="C426" r:id="rId383"/>
-    <hyperlink ref="C427" r:id="rId384"/>
-    <hyperlink ref="C428" r:id="rId385"/>
-    <hyperlink ref="C429" r:id="rId386"/>
-    <hyperlink ref="C430" r:id="rId387"/>
-    <hyperlink ref="C431" r:id="rId388"/>
-    <hyperlink ref="C432" r:id="rId389"/>
-    <hyperlink ref="C433" r:id="rId390"/>
-    <hyperlink ref="C434" r:id="rId391"/>
-    <hyperlink ref="C435" r:id="rId392"/>
-    <hyperlink ref="C436" r:id="rId393"/>
-    <hyperlink ref="C437" r:id="rId394"/>
-    <hyperlink ref="C438" r:id="rId395"/>
-    <hyperlink ref="C439" r:id="rId396"/>
-    <hyperlink ref="C440" r:id="rId397"/>
-    <hyperlink ref="C441" r:id="rId398"/>
-    <hyperlink ref="C442" r:id="rId399"/>
-    <hyperlink ref="C443" r:id="rId400"/>
-    <hyperlink ref="C444" r:id="rId401"/>
-    <hyperlink ref="C445" r:id="rId402"/>
-    <hyperlink ref="C446" r:id="rId403"/>
-    <hyperlink ref="C447" r:id="rId404"/>
-    <hyperlink ref="C448" r:id="rId405"/>
-    <hyperlink ref="C449" r:id="rId406"/>
-    <hyperlink ref="C450" r:id="rId407"/>
-    <hyperlink ref="C451" r:id="rId408"/>
-    <hyperlink ref="C452" r:id="rId409"/>
-    <hyperlink ref="C453" r:id="rId410"/>
-    <hyperlink ref="C454" r:id="rId411"/>
-    <hyperlink ref="C455" r:id="rId412"/>
-    <hyperlink ref="C456" r:id="rId413"/>
-    <hyperlink ref="C457" r:id="rId414"/>
-    <hyperlink ref="C459" r:id="rId415"/>
-    <hyperlink ref="C458" r:id="rId416"/>
-    <hyperlink ref="C460" r:id="rId417"/>
-    <hyperlink ref="C461" r:id="rId418"/>
-    <hyperlink ref="C462" r:id="rId419"/>
-    <hyperlink ref="C463" r:id="rId420"/>
-    <hyperlink ref="C464" r:id="rId421"/>
-    <hyperlink ref="C465" r:id="rId422"/>
-    <hyperlink ref="C466" r:id="rId423"/>
-    <hyperlink ref="C467" r:id="rId424"/>
-    <hyperlink ref="C468" r:id="rId425"/>
-    <hyperlink ref="C469" r:id="rId426"/>
-    <hyperlink ref="C470" r:id="rId427"/>
-    <hyperlink ref="C477" r:id="rId428"/>
-    <hyperlink ref="C476" r:id="rId429"/>
-    <hyperlink ref="C475" r:id="rId430"/>
-    <hyperlink ref="C474" r:id="rId431"/>
-    <hyperlink ref="C473" r:id="rId432"/>
-    <hyperlink ref="C472" r:id="rId433"/>
-    <hyperlink ref="C471" r:id="rId434"/>
-    <hyperlink ref="C480" r:id="rId435"/>
-    <hyperlink ref="C481" r:id="rId436"/>
-    <hyperlink ref="C482" r:id="rId437"/>
-    <hyperlink ref="C483" r:id="rId438"/>
-    <hyperlink ref="C484" r:id="rId439"/>
-    <hyperlink ref="C485" r:id="rId440"/>
-    <hyperlink ref="C486" r:id="rId441"/>
-    <hyperlink ref="C489" r:id="rId442"/>
-    <hyperlink ref="C487" r:id="rId443"/>
-    <hyperlink ref="C488" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="C364" r:id="rId445"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C20" r:id="rId3"/>
+    <hyperlink ref="C21" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="C24" r:id="rId7"/>
+    <hyperlink ref="C25" r:id="rId8"/>
+    <hyperlink ref="C26" r:id="rId9"/>
+    <hyperlink ref="C27" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="C29" r:id="rId12"/>
+    <hyperlink ref="C30" r:id="rId13"/>
+    <hyperlink ref="C31" r:id="rId14"/>
+    <hyperlink ref="C32" r:id="rId15"/>
+    <hyperlink ref="C33" r:id="rId16"/>
+    <hyperlink ref="C34" r:id="rId17"/>
+    <hyperlink ref="C35" r:id="rId18"/>
+    <hyperlink ref="C36" r:id="rId19"/>
+    <hyperlink ref="C37" r:id="rId20"/>
+    <hyperlink ref="C38" r:id="rId21"/>
+    <hyperlink ref="C39" r:id="rId22"/>
+    <hyperlink ref="C40" r:id="rId23"/>
+    <hyperlink ref="C41" r:id="rId24"/>
+    <hyperlink ref="C42" r:id="rId25"/>
+    <hyperlink ref="C43" r:id="rId26"/>
+    <hyperlink ref="C44" r:id="rId27"/>
+    <hyperlink ref="C45" r:id="rId28"/>
+    <hyperlink ref="C46" r:id="rId29"/>
+    <hyperlink ref="C47" r:id="rId30"/>
+    <hyperlink ref="C48" r:id="rId31"/>
+    <hyperlink ref="C49" r:id="rId32"/>
+    <hyperlink ref="C50" r:id="rId33"/>
+    <hyperlink ref="C51" r:id="rId34"/>
+    <hyperlink ref="C52" r:id="rId35"/>
+    <hyperlink ref="C53" r:id="rId36"/>
+    <hyperlink ref="C57" r:id="rId37"/>
+    <hyperlink ref="C58" r:id="rId38"/>
+    <hyperlink ref="C59" r:id="rId39"/>
+    <hyperlink ref="C60" r:id="rId40"/>
+    <hyperlink ref="C61" r:id="rId41"/>
+    <hyperlink ref="C62" r:id="rId42"/>
+    <hyperlink ref="C63" r:id="rId43"/>
+    <hyperlink ref="C64" r:id="rId44"/>
+    <hyperlink ref="C65" r:id="rId45"/>
+    <hyperlink ref="C66" r:id="rId46"/>
+    <hyperlink ref="C69" r:id="rId47"/>
+    <hyperlink ref="C70" r:id="rId48"/>
+    <hyperlink ref="C71" r:id="rId49"/>
+    <hyperlink ref="C73" r:id="rId50"/>
+    <hyperlink ref="C74" r:id="rId51"/>
+    <hyperlink ref="C75" r:id="rId52"/>
+    <hyperlink ref="C76" r:id="rId53"/>
+    <hyperlink ref="C77" r:id="rId54"/>
+    <hyperlink ref="C78" r:id="rId55"/>
+    <hyperlink ref="C79" r:id="rId56"/>
+    <hyperlink ref="C80" r:id="rId57"/>
+    <hyperlink ref="C81" r:id="rId58"/>
+    <hyperlink ref="C82" r:id="rId59"/>
+    <hyperlink ref="C83" r:id="rId60"/>
+    <hyperlink ref="C84" r:id="rId61"/>
+    <hyperlink ref="C85" r:id="rId62"/>
+    <hyperlink ref="C86" r:id="rId63"/>
+    <hyperlink ref="C87" r:id="rId64"/>
+    <hyperlink ref="C88" r:id="rId65"/>
+    <hyperlink ref="C89" r:id="rId66"/>
+    <hyperlink ref="C90" r:id="rId67"/>
+    <hyperlink ref="C91" r:id="rId68"/>
+    <hyperlink ref="C92" r:id="rId69"/>
+    <hyperlink ref="C93" r:id="rId70"/>
+    <hyperlink ref="C94" r:id="rId71"/>
+    <hyperlink ref="C95" r:id="rId72"/>
+    <hyperlink ref="C96" r:id="rId73"/>
+    <hyperlink ref="C97" r:id="rId74"/>
+    <hyperlink ref="C98" r:id="rId75"/>
+    <hyperlink ref="C99" r:id="rId76"/>
+    <hyperlink ref="C100" r:id="rId77"/>
+    <hyperlink ref="C101" r:id="rId78"/>
+    <hyperlink ref="C102" r:id="rId79"/>
+    <hyperlink ref="C103" r:id="rId80"/>
+    <hyperlink ref="C104" r:id="rId81"/>
+    <hyperlink ref="C105" r:id="rId82"/>
+    <hyperlink ref="C106" r:id="rId83"/>
+    <hyperlink ref="C107" r:id="rId84"/>
+    <hyperlink ref="C108" r:id="rId85"/>
+    <hyperlink ref="C109" r:id="rId86"/>
+    <hyperlink ref="C110" r:id="rId87"/>
+    <hyperlink ref="C111" r:id="rId88"/>
+    <hyperlink ref="C114" r:id="rId89"/>
+    <hyperlink ref="C115" r:id="rId90"/>
+    <hyperlink ref="C116" r:id="rId91"/>
+    <hyperlink ref="C117" r:id="rId92"/>
+    <hyperlink ref="C119" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="C120" r:id="rId94"/>
+    <hyperlink ref="C121" r:id="rId95"/>
+    <hyperlink ref="C122" r:id="rId96"/>
+    <hyperlink ref="C123" r:id="rId97"/>
+    <hyperlink ref="C124" r:id="rId98"/>
+    <hyperlink ref="C126" r:id="rId99"/>
+    <hyperlink ref="C127" r:id="rId100"/>
+    <hyperlink ref="C128" r:id="rId101"/>
+    <hyperlink ref="C129" r:id="rId102"/>
+    <hyperlink ref="C130" r:id="rId103"/>
+    <hyperlink ref="C131" r:id="rId104"/>
+    <hyperlink ref="C132" r:id="rId105"/>
+    <hyperlink ref="C133" r:id="rId106"/>
+    <hyperlink ref="C134" r:id="rId107"/>
+    <hyperlink ref="C135" r:id="rId108"/>
+    <hyperlink ref="C136" r:id="rId109"/>
+    <hyperlink ref="C137" r:id="rId110"/>
+    <hyperlink ref="C138" r:id="rId111"/>
+    <hyperlink ref="C139" r:id="rId112"/>
+    <hyperlink ref="C140" r:id="rId113"/>
+    <hyperlink ref="C141" r:id="rId114"/>
+    <hyperlink ref="C142" r:id="rId115"/>
+    <hyperlink ref="C143" r:id="rId116"/>
+    <hyperlink ref="C144" r:id="rId117"/>
+    <hyperlink ref="C145" r:id="rId118"/>
+    <hyperlink ref="C146" r:id="rId119"/>
+    <hyperlink ref="C147" r:id="rId120"/>
+    <hyperlink ref="C148" r:id="rId121"/>
+    <hyperlink ref="C149" r:id="rId122"/>
+    <hyperlink ref="C118" r:id="rId123"/>
+    <hyperlink ref="C125" r:id="rId124"/>
+    <hyperlink ref="C153" r:id="rId125"/>
+    <hyperlink ref="C154" r:id="rId126"/>
+    <hyperlink ref="C155" r:id="rId127"/>
+    <hyperlink ref="C156" r:id="rId128"/>
+    <hyperlink ref="C157" r:id="rId129"/>
+    <hyperlink ref="C158" r:id="rId130"/>
+    <hyperlink ref="C159" r:id="rId131"/>
+    <hyperlink ref="C160" r:id="rId132"/>
+    <hyperlink ref="C161" r:id="rId133"/>
+    <hyperlink ref="C162" r:id="rId134"/>
+    <hyperlink ref="C163" r:id="rId135"/>
+    <hyperlink ref="C164" r:id="rId136"/>
+    <hyperlink ref="C165" r:id="rId137"/>
+    <hyperlink ref="C166" r:id="rId138"/>
+    <hyperlink ref="C167" r:id="rId139"/>
+    <hyperlink ref="C168" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C169" r:id="rId141"/>
+    <hyperlink ref="C170" r:id="rId142"/>
+    <hyperlink ref="C171" r:id="rId143"/>
+    <hyperlink ref="C172" r:id="rId144"/>
+    <hyperlink ref="C173" r:id="rId145"/>
+    <hyperlink ref="C174" r:id="rId146"/>
+    <hyperlink ref="C175" r:id="rId147"/>
+    <hyperlink ref="C176" r:id="rId148"/>
+    <hyperlink ref="C177" r:id="rId149"/>
+    <hyperlink ref="C180" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="C181" r:id="rId151"/>
+    <hyperlink ref="C182" r:id="rId152"/>
+    <hyperlink ref="C183" r:id="rId153"/>
+    <hyperlink ref="C184" r:id="rId154"/>
+    <hyperlink ref="C185" r:id="rId155"/>
+    <hyperlink ref="C186" r:id="rId156"/>
+    <hyperlink ref="C187" r:id="rId157"/>
+    <hyperlink ref="C188" r:id="rId158"/>
+    <hyperlink ref="C191" r:id="rId159"/>
+    <hyperlink ref="C192" r:id="rId160"/>
+    <hyperlink ref="C193" r:id="rId161"/>
+    <hyperlink ref="C194" r:id="rId162"/>
+    <hyperlink ref="C195" r:id="rId163"/>
+    <hyperlink ref="C196" r:id="rId164"/>
+    <hyperlink ref="C197" r:id="rId165"/>
+    <hyperlink ref="C198" r:id="rId166"/>
+    <hyperlink ref="C199" r:id="rId167"/>
+    <hyperlink ref="C200" r:id="rId168"/>
+    <hyperlink ref="C201" r:id="rId169"/>
+    <hyperlink ref="C202" r:id="rId170"/>
+    <hyperlink ref="C203" r:id="rId171"/>
+    <hyperlink ref="C204" r:id="rId172"/>
+    <hyperlink ref="C205" r:id="rId173"/>
+    <hyperlink ref="C206" r:id="rId174"/>
+    <hyperlink ref="C207" r:id="rId175"/>
+    <hyperlink ref="C208" r:id="rId176"/>
+    <hyperlink ref="C209" r:id="rId177"/>
+    <hyperlink ref="C210" r:id="rId178"/>
+    <hyperlink ref="C211" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="C212" r:id="rId180"/>
+    <hyperlink ref="C213" r:id="rId181"/>
+    <hyperlink ref="C214" r:id="rId182"/>
+    <hyperlink ref="C215" r:id="rId183"/>
+    <hyperlink ref="C216" r:id="rId184"/>
+    <hyperlink ref="C217" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="C218" r:id="rId186"/>
+    <hyperlink ref="C219" r:id="rId187"/>
+    <hyperlink ref="C220" r:id="rId188"/>
+    <hyperlink ref="C221" r:id="rId189"/>
+    <hyperlink ref="C222" r:id="rId190"/>
+    <hyperlink ref="C223" r:id="rId191"/>
+    <hyperlink ref="C224" r:id="rId192"/>
+    <hyperlink ref="C225" r:id="rId193"/>
+    <hyperlink ref="C228" r:id="rId194"/>
+    <hyperlink ref="C229" r:id="rId195"/>
+    <hyperlink ref="C230" r:id="rId196"/>
+    <hyperlink ref="C231" r:id="rId197"/>
+    <hyperlink ref="C232" r:id="rId198"/>
+    <hyperlink ref="C233" r:id="rId199"/>
+    <hyperlink ref="C234" r:id="rId200"/>
+    <hyperlink ref="C235" r:id="rId201"/>
+    <hyperlink ref="C236" r:id="rId202"/>
+    <hyperlink ref="C237" r:id="rId203"/>
+    <hyperlink ref="C238" r:id="rId204"/>
+    <hyperlink ref="C239" r:id="rId205"/>
+    <hyperlink ref="C240" r:id="rId206"/>
+    <hyperlink ref="C241" r:id="rId207"/>
+    <hyperlink ref="C242" r:id="rId208"/>
+    <hyperlink ref="C243" r:id="rId209"/>
+    <hyperlink ref="C244" r:id="rId210"/>
+    <hyperlink ref="C245" r:id="rId211"/>
+    <hyperlink ref="C246" r:id="rId212"/>
+    <hyperlink ref="C247" r:id="rId213"/>
+    <hyperlink ref="C248" r:id="rId214"/>
+    <hyperlink ref="C249" r:id="rId215"/>
+    <hyperlink ref="C252" r:id="rId216"/>
+    <hyperlink ref="C253" r:id="rId217"/>
+    <hyperlink ref="C254" r:id="rId218"/>
+    <hyperlink ref="C255" r:id="rId219"/>
+    <hyperlink ref="C256" r:id="rId220"/>
+    <hyperlink ref="C257" r:id="rId221"/>
+    <hyperlink ref="C258" r:id="rId222"/>
+    <hyperlink ref="C259" r:id="rId223"/>
+    <hyperlink ref="C260" r:id="rId224"/>
+    <hyperlink ref="C261" r:id="rId225"/>
+    <hyperlink ref="C262" r:id="rId226"/>
+    <hyperlink ref="C263" r:id="rId227"/>
+    <hyperlink ref="C264" r:id="rId228"/>
+    <hyperlink ref="C265" r:id="rId229"/>
+    <hyperlink ref="C266" r:id="rId230"/>
+    <hyperlink ref="C267" r:id="rId231"/>
+    <hyperlink ref="C268" r:id="rId232"/>
+    <hyperlink ref="C269" r:id="rId233"/>
+    <hyperlink ref="C270" r:id="rId234"/>
+    <hyperlink ref="C271" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="C272" r:id="rId236"/>
+    <hyperlink ref="C273" r:id="rId237"/>
+    <hyperlink ref="C274" r:id="rId238"/>
+    <hyperlink ref="C275" r:id="rId239"/>
+    <hyperlink ref="C276" r:id="rId240"/>
+    <hyperlink ref="C277" r:id="rId241"/>
+    <hyperlink ref="C278" r:id="rId242"/>
+    <hyperlink ref="C279" r:id="rId243"/>
+    <hyperlink ref="C280" r:id="rId244"/>
+    <hyperlink ref="C281" r:id="rId245"/>
+    <hyperlink ref="C282" r:id="rId246"/>
+    <hyperlink ref="C283" r:id="rId247"/>
+    <hyperlink ref="C284" r:id="rId248"/>
+    <hyperlink ref="C285" r:id="rId249"/>
+    <hyperlink ref="C286" r:id="rId250"/>
+    <hyperlink ref="C289" r:id="rId251"/>
+    <hyperlink ref="C290" r:id="rId252"/>
+    <hyperlink ref="C291" r:id="rId253"/>
+    <hyperlink ref="C292" r:id="rId254"/>
+    <hyperlink ref="C293" r:id="rId255"/>
+    <hyperlink ref="C294" r:id="rId256"/>
+    <hyperlink ref="C295" r:id="rId257"/>
+    <hyperlink ref="C296" r:id="rId258"/>
+    <hyperlink ref="C297" r:id="rId259"/>
+    <hyperlink ref="C298" r:id="rId260"/>
+    <hyperlink ref="C299" r:id="rId261"/>
+    <hyperlink ref="C300" r:id="rId262"/>
+    <hyperlink ref="C301" r:id="rId263"/>
+    <hyperlink ref="C302" r:id="rId264"/>
+    <hyperlink ref="C303" r:id="rId265"/>
+    <hyperlink ref="C304" r:id="rId266"/>
+    <hyperlink ref="C305" r:id="rId267"/>
+    <hyperlink ref="C306" r:id="rId268"/>
+    <hyperlink ref="C307" r:id="rId269"/>
+    <hyperlink ref="C310" r:id="rId270"/>
+    <hyperlink ref="C311" r:id="rId271"/>
+    <hyperlink ref="C312" r:id="rId272"/>
+    <hyperlink ref="C313" r:id="rId273"/>
+    <hyperlink ref="C314" r:id="rId274"/>
+    <hyperlink ref="C315" r:id="rId275"/>
+    <hyperlink ref="C316" r:id="rId276"/>
+    <hyperlink ref="C317" r:id="rId277"/>
+    <hyperlink ref="C318" r:id="rId278"/>
+    <hyperlink ref="C319" r:id="rId279"/>
+    <hyperlink ref="C320" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="C321" r:id="rId281"/>
+    <hyperlink ref="C322" r:id="rId282"/>
+    <hyperlink ref="C323" r:id="rId283"/>
+    <hyperlink ref="C324" r:id="rId284"/>
+    <hyperlink ref="C325" r:id="rId285"/>
+    <hyperlink ref="C326" r:id="rId286"/>
+    <hyperlink ref="C327" r:id="rId287"/>
+    <hyperlink ref="C328" r:id="rId288"/>
+    <hyperlink ref="C329" r:id="rId289"/>
+    <hyperlink ref="C330" r:id="rId290"/>
+    <hyperlink ref="C331" r:id="rId291"/>
+    <hyperlink ref="C332" r:id="rId292"/>
+    <hyperlink ref="C333" r:id="rId293"/>
+    <hyperlink ref="C334" r:id="rId294"/>
+    <hyperlink ref="C335" r:id="rId295"/>
+    <hyperlink ref="C336" r:id="rId296"/>
+    <hyperlink ref="C337" r:id="rId297"/>
+    <hyperlink ref="C338" r:id="rId298"/>
+    <hyperlink ref="C339" r:id="rId299"/>
+    <hyperlink ref="C340" r:id="rId300"/>
+    <hyperlink ref="C341" r:id="rId301"/>
+    <hyperlink ref="C342" r:id="rId302"/>
+    <hyperlink ref="C343" r:id="rId303"/>
+    <hyperlink ref="C344" r:id="rId304"/>
+    <hyperlink ref="C345" r:id="rId305"/>
+    <hyperlink ref="C346" r:id="rId306"/>
+    <hyperlink ref="C347" r:id="rId307"/>
+    <hyperlink ref="C350" r:id="rId308"/>
+    <hyperlink ref="C351" r:id="rId309"/>
+    <hyperlink ref="C352" r:id="rId310"/>
+    <hyperlink ref="C353" r:id="rId311"/>
+    <hyperlink ref="C354" r:id="rId312"/>
+    <hyperlink ref="C355" r:id="rId313"/>
+    <hyperlink ref="C356" r:id="rId314"/>
+    <hyperlink ref="C357" r:id="rId315"/>
+    <hyperlink ref="C358" r:id="rId316"/>
+    <hyperlink ref="C359" r:id="rId317"/>
+    <hyperlink ref="C360" r:id="rId318"/>
+    <hyperlink ref="C361" r:id="rId319"/>
+    <hyperlink ref="C362" r:id="rId320"/>
+    <hyperlink ref="C363" r:id="rId321"/>
+    <hyperlink ref="C364" r:id="rId322"/>
+    <hyperlink ref="C365" r:id="rId323"/>
+    <hyperlink ref="C366" r:id="rId324"/>
+    <hyperlink ref="C367" r:id="rId325"/>
+    <hyperlink ref="C371" r:id="rId326"/>
+    <hyperlink ref="C372" r:id="rId327"/>
+    <hyperlink ref="C373" r:id="rId328"/>
+    <hyperlink ref="C374" r:id="rId329"/>
+    <hyperlink ref="C375" r:id="rId330"/>
+    <hyperlink ref="C376" r:id="rId331"/>
+    <hyperlink ref="C377" r:id="rId332"/>
+    <hyperlink ref="C378" r:id="rId333"/>
+    <hyperlink ref="C379" r:id="rId334"/>
+    <hyperlink ref="C380" r:id="rId335"/>
+    <hyperlink ref="C381" r:id="rId336"/>
+    <hyperlink ref="C382" r:id="rId337"/>
+    <hyperlink ref="C383" r:id="rId338"/>
+    <hyperlink ref="C384" r:id="rId339"/>
+    <hyperlink ref="C385" r:id="rId340"/>
+    <hyperlink ref="C386" r:id="rId341"/>
+    <hyperlink ref="C387" r:id="rId342"/>
+    <hyperlink ref="C388" r:id="rId343"/>
+    <hyperlink ref="C389" r:id="rId344"/>
+    <hyperlink ref="C390" r:id="rId345"/>
+    <hyperlink ref="C391" r:id="rId346"/>
+    <hyperlink ref="C392" r:id="rId347"/>
+    <hyperlink ref="C393" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="C394" r:id="rId349"/>
+    <hyperlink ref="C395" r:id="rId350"/>
+    <hyperlink ref="C396" r:id="rId351"/>
+    <hyperlink ref="C397" r:id="rId352"/>
+    <hyperlink ref="C398" r:id="rId353"/>
+    <hyperlink ref="C399" r:id="rId354"/>
+    <hyperlink ref="C400" r:id="rId355"/>
+    <hyperlink ref="C401" r:id="rId356"/>
+    <hyperlink ref="C402" r:id="rId357"/>
+    <hyperlink ref="C403" r:id="rId358"/>
+    <hyperlink ref="C404" r:id="rId359"/>
+    <hyperlink ref="C405" r:id="rId360"/>
+    <hyperlink ref="C406" r:id="rId361"/>
+    <hyperlink ref="C407" r:id="rId362"/>
+    <hyperlink ref="C408" r:id="rId363"/>
+    <hyperlink ref="C410" r:id="rId364"/>
+    <hyperlink ref="C409" r:id="rId365"/>
+    <hyperlink ref="C411" r:id="rId366"/>
+    <hyperlink ref="C412" r:id="rId367"/>
+    <hyperlink ref="C413" r:id="rId368"/>
+    <hyperlink ref="C416" r:id="rId369"/>
+    <hyperlink ref="C417" r:id="rId370"/>
+    <hyperlink ref="C418" r:id="rId371"/>
+    <hyperlink ref="C419" r:id="rId372"/>
+    <hyperlink ref="C420" r:id="rId373"/>
+    <hyperlink ref="C421" r:id="rId374"/>
+    <hyperlink ref="C424" r:id="rId375"/>
+    <hyperlink ref="C425" r:id="rId376"/>
+    <hyperlink ref="C426" r:id="rId377"/>
+    <hyperlink ref="C427" r:id="rId378"/>
+    <hyperlink ref="C428" r:id="rId379"/>
+    <hyperlink ref="C429" r:id="rId380"/>
+    <hyperlink ref="C430" r:id="rId381"/>
+    <hyperlink ref="C431" r:id="rId382"/>
+    <hyperlink ref="C432" r:id="rId383"/>
+    <hyperlink ref="C433" r:id="rId384"/>
+    <hyperlink ref="C434" r:id="rId385"/>
+    <hyperlink ref="C435" r:id="rId386"/>
+    <hyperlink ref="C436" r:id="rId387"/>
+    <hyperlink ref="C437" r:id="rId388"/>
+    <hyperlink ref="C438" r:id="rId389"/>
+    <hyperlink ref="C439" r:id="rId390"/>
+    <hyperlink ref="C440" r:id="rId391"/>
+    <hyperlink ref="C441" r:id="rId392"/>
+    <hyperlink ref="C442" r:id="rId393"/>
+    <hyperlink ref="C443" r:id="rId394"/>
+    <hyperlink ref="C444" r:id="rId395"/>
+    <hyperlink ref="C445" r:id="rId396"/>
+    <hyperlink ref="C446" r:id="rId397"/>
+    <hyperlink ref="C447" r:id="rId398"/>
+    <hyperlink ref="C448" r:id="rId399"/>
+    <hyperlink ref="C449" r:id="rId400"/>
+    <hyperlink ref="C450" r:id="rId401"/>
+    <hyperlink ref="C451" r:id="rId402"/>
+    <hyperlink ref="C452" r:id="rId403"/>
+    <hyperlink ref="C453" r:id="rId404"/>
+    <hyperlink ref="C454" r:id="rId405"/>
+    <hyperlink ref="C455" r:id="rId406"/>
+    <hyperlink ref="C456" r:id="rId407"/>
+    <hyperlink ref="C457" r:id="rId408"/>
+    <hyperlink ref="C458" r:id="rId409"/>
+    <hyperlink ref="C459" r:id="rId410"/>
+    <hyperlink ref="C460" r:id="rId411"/>
+    <hyperlink ref="C461" r:id="rId412"/>
+    <hyperlink ref="C462" r:id="rId413"/>
+    <hyperlink ref="C463" r:id="rId414"/>
+    <hyperlink ref="C465" r:id="rId415"/>
+    <hyperlink ref="C464" r:id="rId416"/>
+    <hyperlink ref="C466" r:id="rId417"/>
+    <hyperlink ref="C467" r:id="rId418"/>
+    <hyperlink ref="C468" r:id="rId419"/>
+    <hyperlink ref="C469" r:id="rId420"/>
+    <hyperlink ref="C470" r:id="rId421"/>
+    <hyperlink ref="C471" r:id="rId422"/>
+    <hyperlink ref="C472" r:id="rId423"/>
+    <hyperlink ref="C473" r:id="rId424"/>
+    <hyperlink ref="C474" r:id="rId425"/>
+    <hyperlink ref="C475" r:id="rId426"/>
+    <hyperlink ref="C476" r:id="rId427"/>
+    <hyperlink ref="C483" r:id="rId428"/>
+    <hyperlink ref="C482" r:id="rId429"/>
+    <hyperlink ref="C481" r:id="rId430"/>
+    <hyperlink ref="C480" r:id="rId431"/>
+    <hyperlink ref="C479" r:id="rId432"/>
+    <hyperlink ref="C478" r:id="rId433"/>
+    <hyperlink ref="C477" r:id="rId434"/>
+    <hyperlink ref="C486" r:id="rId435"/>
+    <hyperlink ref="C487" r:id="rId436"/>
+    <hyperlink ref="C488" r:id="rId437"/>
+    <hyperlink ref="C489" r:id="rId438"/>
+    <hyperlink ref="C490" r:id="rId439"/>
+    <hyperlink ref="C491" r:id="rId440"/>
+    <hyperlink ref="C492" r:id="rId441"/>
+    <hyperlink ref="C495" r:id="rId442"/>
+    <hyperlink ref="C493" r:id="rId443"/>
+    <hyperlink ref="C494" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="C370" r:id="rId445"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId446"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1456,6 +1456,12 @@
   </si>
   <si>
     <t>Count prime</t>
+  </si>
+  <si>
+    <t>Using mod=1000000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse list and take max int list </t>
   </si>
 </sst>
 </file>
@@ -1803,9 +1809,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1834,23 +1837,14 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,10 +1864,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2183,7 +2189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2193,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151:C152"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2207,56 +2213,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="11" spans="1:4" s="29" customFormat="1" ht="26.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="21">
       <c r="A13" s="36"/>
@@ -2276,17 +2282,17 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="63"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" s="42" customFormat="1" ht="21">
-      <c r="A17" s="40">
+    <row r="17" spans="1:4" s="41" customFormat="1" ht="21">
+      <c r="A17" s="39">
         <v>0</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2295,7 +2301,7 @@
       <c r="C17" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A18" s="4">
@@ -2617,7 +2623,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="31" t="s">
@@ -2846,7 +2852,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="49" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2854,7 +2860,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="63"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3979,13 +3985,13 @@
     </row>
     <row r="151" spans="1:4" s="10" customFormat="1">
       <c r="A151" s="12"/>
-      <c r="C151" s="62" t="s">
+      <c r="C151" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="10" customFormat="1">
       <c r="A152" s="12"/>
-      <c r="C152" s="63"/>
+      <c r="C152" s="50"/>
       <c r="D152" s="9"/>
     </row>
     <row r="153" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4452,34 +4458,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A184" s="30">
+    <row r="184" spans="1:4" s="22" customFormat="1" ht="21">
+      <c r="A184" s="20">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D184" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A185" s="30">
+      <c r="D184" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A185" s="4">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>3</v>
+      <c r="D185" s="3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4497,18 +4503,18 @@
         <v>474</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A187" s="30">
+    <row r="187" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A187" s="4">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2189,7 +2189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2199,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -4615,48 +4615,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A196" s="12">
+    <row r="196" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A196" s="4">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D196" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A197" s="12">
+      <c r="D196" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A197" s="4">
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D197" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A198" s="12">
+      <c r="D197" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A198" s="4">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1462,6 +1462,15 @@
   </si>
   <si>
     <t xml:space="preserve">Reverse list and take max int list </t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Stack and queue</t>
+  </si>
+  <si>
+    <t>Check if string is rotated by two places</t>
   </si>
 </sst>
 </file>
@@ -1755,9 +1764,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1881,6 +1887,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2189,7 +2198,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2197,15 +2206,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:XFD198"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="34"/>
+    <col min="1" max="1" width="11" style="33"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="99" customWidth="1"/>
@@ -2213,66 +2222,66 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-    </row>
-    <row r="11" spans="1:4" s="29" customFormat="1" ht="26.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="51" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="21">
-      <c r="A13" s="36"/>
-      <c r="B13" s="26" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
+      <c r="A13" s="35"/>
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2282,33 +2291,33 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" s="41" customFormat="1" ht="21">
-      <c r="A17" s="39">
+    <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
+      <c r="A17" s="38">
         <v>0</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A18" s="4">
         <f>+A17+1</f>
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2323,7 +2332,7 @@
         <f t="shared" ref="A19:A53" si="0">+A18+1</f>
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2338,7 +2347,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2353,7 +2362,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2368,7 +2377,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2383,7 +2392,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2398,7 +2407,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2413,7 +2422,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2458,7 +2467,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2473,7 +2482,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2488,7 +2497,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2518,7 +2527,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2533,7 +2542,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2548,7 +2557,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2563,7 +2572,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2578,7 +2587,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2593,7 +2602,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2608,7 +2617,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2618,18 +2627,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="33" customFormat="1" ht="21">
-      <c r="A39" s="30">
+    <row r="39" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A39" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2638,7 +2647,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2653,7 +2662,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2668,7 +2677,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2683,7 +2692,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2698,7 +2707,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2713,7 +2722,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2728,7 +2737,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2743,7 +2752,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2758,7 +2767,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2773,7 +2782,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -2788,7 +2797,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2803,7 +2812,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2818,7 +2827,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2833,7 +2842,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2852,7 +2861,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2860,7 +2869,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="50"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3017,1097 +3026,1323 @@
     <row r="67" spans="1:4" s="10" customFormat="1">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:4" s="10" customFormat="1" ht="21">
+    <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" s="10" customFormat="1" ht="21">
+    <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A70" s="4">
+        <v>47</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A70" s="12"/>
-      <c r="B70" s="7" t="s">
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A71" s="4">
+        <f>+A70+1</f>
+        <v>48</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A71" s="12"/>
-      <c r="B71" s="7" t="s">
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A72" s="4">
+        <f t="shared" ref="A72:A113" si="2">+A71+1</f>
+        <v>49</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A72" s="12"/>
-      <c r="B72" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A73" s="12"/>
+      <c r="A73" s="12">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="B73" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A74" s="4">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A74" s="12"/>
-      <c r="B74" s="7" t="s">
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A75" s="4">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="B75" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A75" s="12"/>
-      <c r="B75" s="7" t="s">
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A76" s="4">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A76" s="12"/>
-      <c r="B76" s="7" t="s">
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A77" s="4">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A77" s="12"/>
-      <c r="B77" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A78" s="12"/>
+      <c r="A78" s="12">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
       <c r="B78" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A79" s="4">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A79" s="12"/>
-      <c r="B79" s="7" t="s">
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A80" s="4">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A80" s="12"/>
-      <c r="B80" s="7" t="s">
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A81" s="4">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A81" s="12"/>
-      <c r="B81" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A82" s="12"/>
+      <c r="A82" s="12">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
       <c r="B82" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A83" s="12"/>
+      <c r="A83" s="12">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="B83" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A84" s="12"/>
+      <c r="A84" s="12">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
       <c r="B84" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A85" s="12"/>
+      <c r="A85" s="12">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
       <c r="B85" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A86" s="12"/>
+      <c r="A86" s="12">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
       <c r="B86" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A87" s="12"/>
+      <c r="A87" s="12">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
       <c r="B87" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A88" s="12"/>
+      <c r="A88" s="12">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
       <c r="B88" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A89" s="12"/>
+      <c r="A89" s="12">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
       <c r="B89" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A90" s="12"/>
+      <c r="A90" s="12">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
       <c r="B90" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A91" s="12"/>
+      <c r="A91" s="12">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
       <c r="B91" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A92" s="12"/>
+      <c r="A92" s="12">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
       <c r="B92" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A93" s="12"/>
+      <c r="A93" s="12">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
       <c r="B93" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A94" s="12"/>
+      <c r="A94" s="12">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
       <c r="B94" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A95" s="12"/>
+      <c r="A95" s="12">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
       <c r="B95" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A96" s="12"/>
+      <c r="A96" s="12">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
       <c r="B96" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A97" s="12"/>
+      <c r="A97" s="12">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
       <c r="B97" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A98" s="12"/>
+      <c r="A98" s="12">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
       <c r="B98" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A99" s="12"/>
+      <c r="A99" s="12">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
       <c r="B99" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A100" s="12"/>
+      <c r="A100" s="12">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
       <c r="B100" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A101" s="12"/>
+      <c r="A101" s="12">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
       <c r="B101" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A102" s="12"/>
+      <c r="A102" s="12">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
       <c r="B102" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A103" s="12"/>
+      <c r="A103" s="12">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
       <c r="B103" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A104" s="12"/>
+      <c r="A104" s="12">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
       <c r="B104" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A105" s="12"/>
+      <c r="A105" s="12">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
       <c r="B105" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A106" s="12"/>
+      <c r="A106" s="12">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
       <c r="B106" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A107" s="12"/>
+      <c r="A107" s="12">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
       <c r="B107" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A108" s="12"/>
+      <c r="A108" s="12">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
       <c r="B108" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A109" s="12"/>
+      <c r="A109" s="12">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
       <c r="B109" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A110" s="12"/>
+      <c r="A110" s="12">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
       <c r="B110" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A111" s="12"/>
+      <c r="A111" s="12">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
       <c r="B111" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A112" s="12">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A113" s="12">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="10" customFormat="1">
-      <c r="A112" s="12"/>
-    </row>
-    <row r="113" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="9"/>
-    </row>
-    <row r="114" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="D113" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="10" customFormat="1">
       <c r="A114" s="12"/>
-      <c r="B114" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="115" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A115" s="12"/>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="12"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A116" s="4">
+        <v>91</v>
+      </c>
+      <c r="B116" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A117" s="4">
+        <f>+A116+1</f>
+        <v>92</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A116" s="12"/>
-      <c r="B116" s="7" t="s">
+      <c r="D117" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A118" s="4">
+        <f t="shared" ref="A118:A151" si="3">+A117+1</f>
+        <v>93</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C118" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A117" s="12"/>
-      <c r="B117" s="7" t="s">
+      <c r="D118" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A119" s="4">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C119" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A118" s="12"/>
-      <c r="B118" s="7" t="s">
+      <c r="D119" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A120" s="4">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B120" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C120" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A119" s="12"/>
-      <c r="B119" s="7" t="s">
+      <c r="D120" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A121" s="12">
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A120" s="12"/>
-      <c r="B120" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A121" s="12"/>
       <c r="B121" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C121" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A122" s="4">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A123" s="4">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A122" s="12"/>
-      <c r="B122" s="7" t="s">
+      <c r="D123" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A124" s="4">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C124" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A123" s="12"/>
-      <c r="B123" s="7" t="s">
+      <c r="D124" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A125" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C125" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A124" s="12"/>
-      <c r="B124" s="7" t="s">
+      <c r="D125" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A126" s="4">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B126" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C126" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A125" s="12"/>
-      <c r="B125" s="7" t="s">
+      <c r="D126" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A127" s="29">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B127" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C127" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A126" s="12"/>
-      <c r="B126" s="7" t="s">
+      <c r="D127" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A128" s="4">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C128" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A127" s="12"/>
-      <c r="B127" s="7" t="s">
+      <c r="D128" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A129" s="4">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C129" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A128" s="12"/>
-      <c r="B128" s="7" t="s">
+      <c r="D129" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A130" s="4">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C130" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A129" s="12"/>
-      <c r="B129" s="7" t="s">
+      <c r="D130" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A131" s="4">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C131" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A130" s="12"/>
-      <c r="B130" s="7" t="s">
+      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A132" s="4">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C132" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A131" s="12"/>
-      <c r="B131" s="7" t="s">
+      <c r="D132" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A133" s="4">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C133" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A132" s="12"/>
-      <c r="B132" s="7" t="s">
+      <c r="D133" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A134" s="4">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C134" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A133" s="12"/>
-      <c r="B133" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A134" s="12"/>
-      <c r="B134" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A135" s="12"/>
+      <c r="A135" s="12">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
       <c r="B135" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A136" s="4">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A137" s="4">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A136" s="12"/>
-      <c r="B136" s="7" t="s">
+      <c r="D137" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A138" s="4">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C138" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A137" s="18"/>
-      <c r="B137" s="13" t="s">
+      <c r="D138" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A139" s="19">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B139" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C139" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D137" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A138" s="4"/>
-      <c r="B138" s="17" t="s">
+      <c r="D139" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A140" s="19">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B140" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C140" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A139" s="12"/>
-      <c r="B139" s="7" t="s">
+      <c r="D140" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A141" s="19">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B141" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C141" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A140" s="18"/>
-      <c r="B140" s="13" t="s">
+      <c r="D141" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A142" s="19">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B142" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C142" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A141" s="12"/>
-      <c r="B141" s="7" t="s">
+      <c r="D142" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A143" s="19">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B143" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C143" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A142" s="12"/>
-      <c r="B142" s="7" t="s">
+      <c r="D143" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A144" s="19">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B144" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C144" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A143" s="12"/>
-      <c r="B143" s="7" t="s">
+      <c r="D144" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A145" s="19">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B145" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C145" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A144" s="4"/>
-      <c r="B144" s="17" t="s">
+      <c r="D145" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A146" s="19">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B146" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C146" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A145" s="18"/>
-      <c r="B145" s="13" t="s">
+      <c r="D146" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A147" s="19">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B147" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C147" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A146" s="4"/>
-      <c r="B146" s="17" t="s">
+      <c r="D147" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A148" s="19">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B148" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C148" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A147" s="12"/>
-      <c r="B147" s="7" t="s">
+      <c r="D148" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A149" s="19">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B149" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C149" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A148" s="12"/>
-      <c r="B148" s="7" t="s">
+      <c r="D149" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A150" s="12">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C150" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D148" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A149" s="12"/>
-      <c r="B149" s="7" t="s">
+      <c r="D150" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A151" s="4">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C151" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="10" customFormat="1">
-      <c r="A150" s="12"/>
-    </row>
-    <row r="151" spans="1:4" s="10" customFormat="1">
-      <c r="A151" s="12"/>
-      <c r="C151" s="49" t="s">
-        <v>133</v>
+      <c r="D151" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="10" customFormat="1">
       <c r="A152" s="12"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A153" s="4">
+    </row>
+    <row r="153" spans="1:4" s="10" customFormat="1">
+      <c r="A153" s="12"/>
+      <c r="C153" s="48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="10" customFormat="1">
+      <c r="A154" s="12"/>
+      <c r="C154" s="49"/>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A155" s="4">
         <v>127</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B155" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A154" s="18">
-        <f>+A153+1</f>
+      <c r="D155" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A156" s="17">
+        <f>+A155+1</f>
         <v>128</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B156" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C156" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D154" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A155" s="20">
-        <f t="shared" ref="A155:A188" si="2">+A154+1</f>
+      <c r="D156" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A157" s="19">
+        <f t="shared" ref="A157:A190" si="4">+A156+1</f>
         <v>129</v>
       </c>
-      <c r="B155" s="20" t="s">
+      <c r="B157" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C157" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A156" s="20">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="A157" s="20">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>138</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A158" s="4">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="B158" s="4" t="s">
+    <row r="158" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A158" s="19">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B158" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A159" s="4">
-        <f t="shared" si="2"/>
+      <c r="C158" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="23" customFormat="1" ht="21">
+      <c r="A159" s="19">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="B159" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>3</v>
+      <c r="C159" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A160" s="4">
-        <f t="shared" si="2"/>
-        <v>134</v>
+        <f t="shared" si="4"/>
+        <v>132</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -4115,14 +4350,14 @@
     </row>
     <row r="161" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A161" s="4">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f t="shared" si="4"/>
+        <v>133</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -4130,14 +4365,14 @@
     </row>
     <row r="162" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A162" s="4">
-        <f t="shared" si="2"/>
-        <v>136</v>
+        <f t="shared" si="4"/>
+        <v>134</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -4145,119 +4380,119 @@
     </row>
     <row r="163" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A163" s="4">
-        <f t="shared" si="2"/>
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>464</v>
+        <v>142</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A164" s="4">
-        <f t="shared" si="2"/>
-        <v>138</v>
+        <f t="shared" si="4"/>
+        <v>136</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A165" s="4">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A166" s="4">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A165" s="18">
-        <f t="shared" si="2"/>
+      <c r="D166" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A167" s="17">
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B167" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C167" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="33" customFormat="1" ht="21">
-      <c r="A166" s="30">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="B166" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C166" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D166" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A167" s="20">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A168" s="4">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="B168" s="4" t="s">
+    <row r="168" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A168" s="29">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B168" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A169" s="4">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="B169" s="4" t="s">
+      <c r="C168" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A169" s="19">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="B169" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>3</v>
+      <c r="C169" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A170" s="4">
-        <f t="shared" si="2"/>
-        <v>144</v>
+        <f t="shared" si="4"/>
+        <v>142</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>150</v>
+        <v>467</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -4265,104 +4500,104 @@
     </row>
     <row r="171" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A171" s="4">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <f t="shared" si="4"/>
+        <v>143</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C171" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A172" s="4">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A173" s="4">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A172" s="20">
-        <f t="shared" si="2"/>
+      <c r="D173" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A174" s="19">
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B174" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="C174" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D172" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A173" s="20">
-        <f t="shared" si="2"/>
+      <c r="D174" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A175" s="19">
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
-      <c r="B173" s="20" t="s">
+      <c r="B175" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C175" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D175" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A174" s="20">
-        <f t="shared" si="2"/>
+    <row r="176" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A176" s="19">
+        <f t="shared" si="4"/>
         <v>148</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B176" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C176" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D176" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A175" s="30">
-        <f t="shared" si="2"/>
+    <row r="177" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A177" s="29">
+        <f t="shared" si="4"/>
         <v>149</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A176" s="4">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A177" s="30">
-        <f t="shared" si="2"/>
-        <v>151</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>3</v>
@@ -4370,336 +4605,336 @@
     </row>
     <row r="178" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A178" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A179" s="29">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A180" s="4">
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B180" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C178" s="37" t="s">
+      <c r="C180" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A179" s="4">
-        <f t="shared" si="2"/>
+      <c r="D180" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A181" s="4">
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B181" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C179" s="37" t="s">
+      <c r="C181" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A180" s="18">
-        <f t="shared" si="2"/>
+      <c r="D181" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A182" s="17">
+        <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B182" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C180" s="14" t="s">
+      <c r="C182" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="D180" s="38" t="s">
+      <c r="D182" s="37" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A181" s="20">
-        <f t="shared" si="2"/>
+    <row r="183" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A183" s="19">
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B183" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C183" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="16" customFormat="1" ht="21">
-      <c r="A182" s="18">
-        <f t="shared" si="2"/>
+    <row r="184" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A184" s="17">
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B184" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C182" s="14" t="s">
+      <c r="C184" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A183" s="30">
-        <f t="shared" si="2"/>
+    <row r="185" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A185" s="29">
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B185" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C185" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D183" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A184" s="20">
-        <f t="shared" si="2"/>
+      <c r="D185" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A186" s="19">
+        <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="B184" s="20" t="s">
+      <c r="B186" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="C186" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A185" s="4">
-        <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A186" s="4">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A187" s="4">
-        <f t="shared" si="2"/>
-        <v>161</v>
+        <f t="shared" si="4"/>
+        <v>159</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C187" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A188" s="4">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A189" s="4">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="22" customFormat="1" ht="21">
-      <c r="A188" s="20">
-        <f t="shared" si="2"/>
+      <c r="D189" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A190" s="19">
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
-      <c r="B188" s="20" t="s">
+      <c r="B190" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C188" s="21" t="s">
+      <c r="C190" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="10" customFormat="1">
-      <c r="A189" s="12"/>
-    </row>
-    <row r="190" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A190" s="12"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A191" s="12">
+    <row r="191" spans="1:4" s="10" customFormat="1">
+      <c r="A191" s="12"/>
+    </row>
+    <row r="192" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A192" s="12"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A193" s="4">
         <v>163</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B193" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C193" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D191" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A192" s="12">
-        <f>+A191+1</f>
+      <c r="D193" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A194" s="4">
+        <f>+A193+1</f>
         <v>164</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B194" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C194" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D192" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A193" s="12">
-        <f t="shared" ref="A193:A225" si="3">+A192+1</f>
+      <c r="D194" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A195" s="4">
+        <f t="shared" ref="A195:A227" si="5">+A194+1</f>
         <v>165</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B195" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C195" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D193" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A194" s="12">
-        <f t="shared" si="3"/>
-        <v>166</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A195" s="12">
-        <f t="shared" si="3"/>
-        <v>167</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A196" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B196" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="C196" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A197" s="12">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A197" s="4">
-        <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="C197" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D197" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A198" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A199" s="4">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A200" s="4">
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B200" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C200" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A199" s="12">
-        <f t="shared" si="3"/>
-        <v>171</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A200" s="12">
-        <f t="shared" si="3"/>
-        <v>172</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A201" s="12">
-        <f t="shared" si="3"/>
-        <v>173</v>
+        <f t="shared" si="5"/>
+        <v>171</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>3</v>
@@ -4707,14 +4942,14 @@
     </row>
     <row r="202" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A202" s="12">
-        <f t="shared" si="3"/>
-        <v>174</v>
+        <f t="shared" si="5"/>
+        <v>172</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>3</v>
@@ -4722,14 +4957,14 @@
     </row>
     <row r="203" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A203" s="12">
-        <f t="shared" si="3"/>
-        <v>175</v>
+        <f t="shared" si="5"/>
+        <v>173</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>3</v>
@@ -4737,14 +4972,14 @@
     </row>
     <row r="204" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A204" s="12">
-        <f t="shared" si="3"/>
-        <v>176</v>
+        <f t="shared" si="5"/>
+        <v>174</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>3</v>
@@ -4752,44 +4987,44 @@
     </row>
     <row r="205" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A205" s="12">
-        <f t="shared" si="3"/>
-        <v>177</v>
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A206" s="12">
-        <f t="shared" si="3"/>
-        <v>178</v>
-      </c>
-      <c r="B206" s="7" t="s">
+    <row r="206" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A206" s="19">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="B206" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D206" s="9" t="s">
+      <c r="C206" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D206" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A207" s="12">
-        <f t="shared" si="3"/>
-        <v>179</v>
+        <f t="shared" si="5"/>
+        <v>177</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>3</v>
@@ -4797,14 +5032,14 @@
     </row>
     <row r="208" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A208" s="12">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>178</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>3</v>
@@ -4812,14 +5047,14 @@
     </row>
     <row r="209" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A209" s="12">
-        <f t="shared" si="3"/>
-        <v>181</v>
+        <f t="shared" si="5"/>
+        <v>179</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>3</v>
@@ -4827,14 +5062,14 @@
     </row>
     <row r="210" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A210" s="12">
-        <f t="shared" si="3"/>
-        <v>182</v>
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>3</v>
@@ -4842,14 +5077,14 @@
     </row>
     <row r="211" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A211" s="12">
-        <f t="shared" si="3"/>
-        <v>183</v>
+        <f t="shared" si="5"/>
+        <v>181</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>3</v>
@@ -4857,14 +5092,14 @@
     </row>
     <row r="212" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A212" s="12">
-        <f t="shared" si="3"/>
-        <v>184</v>
+        <f t="shared" si="5"/>
+        <v>182</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>3</v>
@@ -4872,14 +5107,14 @@
     </row>
     <row r="213" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A213" s="12">
-        <f t="shared" si="3"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>183</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>3</v>
@@ -4887,14 +5122,14 @@
     </row>
     <row r="214" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A214" s="12">
-        <f t="shared" si="3"/>
-        <v>186</v>
+        <f t="shared" si="5"/>
+        <v>184</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>3</v>
@@ -4902,14 +5137,14 @@
     </row>
     <row r="215" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A215" s="12">
-        <f t="shared" si="3"/>
-        <v>187</v>
+        <f t="shared" si="5"/>
+        <v>185</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>3</v>
@@ -4917,14 +5152,14 @@
     </row>
     <row r="216" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A216" s="12">
-        <f t="shared" si="3"/>
-        <v>188</v>
+        <f t="shared" si="5"/>
+        <v>186</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>3</v>
@@ -4932,14 +5167,14 @@
     </row>
     <row r="217" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A217" s="12">
-        <f t="shared" si="3"/>
-        <v>189</v>
+        <f t="shared" si="5"/>
+        <v>187</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>3</v>
@@ -4947,14 +5182,14 @@
     </row>
     <row r="218" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A218" s="12">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <f t="shared" si="5"/>
+        <v>188</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>3</v>
@@ -4962,14 +5197,14 @@
     </row>
     <row r="219" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A219" s="12">
-        <f t="shared" si="3"/>
-        <v>191</v>
+        <f t="shared" si="5"/>
+        <v>189</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>3</v>
@@ -4977,14 +5212,14 @@
     </row>
     <row r="220" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A220" s="12">
-        <f t="shared" si="3"/>
-        <v>192</v>
+        <f t="shared" si="5"/>
+        <v>190</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>3</v>
@@ -4992,14 +5227,14 @@
     </row>
     <row r="221" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A221" s="12">
-        <f t="shared" si="3"/>
-        <v>193</v>
+        <f t="shared" si="5"/>
+        <v>191</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>3</v>
@@ -5007,14 +5242,14 @@
     </row>
     <row r="222" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A222" s="12">
-        <f t="shared" si="3"/>
-        <v>194</v>
+        <f t="shared" si="5"/>
+        <v>192</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>3</v>
@@ -5022,14 +5257,14 @@
     </row>
     <row r="223" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A223" s="12">
-        <f t="shared" si="3"/>
-        <v>195</v>
+        <f t="shared" si="5"/>
+        <v>193</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>3</v>
@@ -5037,14 +5272,14 @@
     </row>
     <row r="224" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A224" s="12">
-        <f t="shared" si="3"/>
-        <v>196</v>
+        <f t="shared" si="5"/>
+        <v>194</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>3</v>
@@ -5052,328 +5287,399 @@
     </row>
     <row r="225" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A225" s="12">
-        <f t="shared" si="3"/>
-        <v>197</v>
+        <f t="shared" si="5"/>
+        <v>195</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C225" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A226" s="12">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A227" s="12">
+        <f t="shared" si="5"/>
+        <v>197</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C227" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D225" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="9"/>
-    </row>
-    <row r="227" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="9"/>
+      <c r="D227" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="228" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A228" s="12"/>
-      <c r="B228" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B228" s="12"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="9"/>
     </row>
     <row r="229" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A229" s="12"/>
-      <c r="B229" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B229" s="12"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="9"/>
     </row>
     <row r="230" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A230" s="12"/>
+      <c r="A230" s="12">
+        <v>198</v>
+      </c>
       <c r="B230" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A231" s="12"/>
+      <c r="A231" s="12">
+        <f>+A230+1</f>
+        <v>199</v>
+      </c>
       <c r="B231" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A232" s="12"/>
+      <c r="A232" s="12">
+        <f t="shared" ref="A232:A251" si="6">+A231+1</f>
+        <v>200</v>
+      </c>
       <c r="B232" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A233" s="12"/>
+      <c r="A233" s="12">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
       <c r="B233" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A234" s="12"/>
+      <c r="A234" s="12">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
       <c r="B234" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C234" s="19" t="s">
-        <v>211</v>
+      <c r="C234" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A235" s="12"/>
+      <c r="A235" s="12">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
       <c r="B235" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A236" s="12"/>
+      <c r="A236" s="12">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
       <c r="B236" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>213</v>
+      <c r="C236" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A237" s="12"/>
+      <c r="A237" s="12">
+        <f t="shared" si="6"/>
+        <v>205</v>
+      </c>
       <c r="B237" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A238" s="12"/>
+      <c r="A238" s="12">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
       <c r="B238" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A239" s="12"/>
+      <c r="A239" s="12">
+        <f t="shared" si="6"/>
+        <v>207</v>
+      </c>
       <c r="B239" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A240" s="12"/>
+      <c r="A240" s="12">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
       <c r="B240" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A241" s="12"/>
+      <c r="A241" s="12">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
       <c r="B241" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A242" s="12"/>
+      <c r="A242" s="12">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
       <c r="B242" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A243" s="12"/>
+      <c r="A243" s="12">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
       <c r="B243" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A244" s="12"/>
+      <c r="A244" s="12">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
       <c r="B244" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A245" s="12"/>
+      <c r="A245" s="12">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
       <c r="B245" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A246" s="12"/>
+      <c r="A246" s="12">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
       <c r="B246" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A247" s="12"/>
+      <c r="A247" s="12">
+        <f t="shared" si="6"/>
+        <v>215</v>
+      </c>
       <c r="B247" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A248" s="12"/>
+      <c r="A248" s="12">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
       <c r="B248" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A249" s="12"/>
+      <c r="A249" s="12">
+        <f t="shared" si="6"/>
+        <v>217</v>
+      </c>
       <c r="B249" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C249" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A250" s="12">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A251" s="12">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C251" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D249" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A250" s="12"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="9"/>
-    </row>
-    <row r="251" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A251" s="12"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="9"/>
+      <c r="D251" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="252" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A252" s="12"/>
-      <c r="B252" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C252" s="11"/>
+      <c r="D252" s="9"/>
     </row>
     <row r="253" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A253" s="12"/>
-      <c r="B253" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C253" s="11"/>
+      <c r="D253" s="9"/>
     </row>
     <row r="254" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A254" s="12"/>
@@ -5381,7 +5687,7 @@
         <v>227</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>3</v>
@@ -5393,7 +5699,7 @@
         <v>227</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>3</v>
@@ -5405,7 +5711,7 @@
         <v>227</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>3</v>
@@ -5417,7 +5723,7 @@
         <v>227</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>3</v>
@@ -5429,7 +5735,7 @@
         <v>227</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>3</v>
@@ -5441,7 +5747,7 @@
         <v>227</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>3</v>
@@ -5453,7 +5759,7 @@
         <v>227</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>3</v>
@@ -5465,7 +5771,7 @@
         <v>227</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>3</v>
@@ -5477,7 +5783,7 @@
         <v>227</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>3</v>
@@ -5489,7 +5795,7 @@
         <v>227</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>3</v>
@@ -5501,7 +5807,7 @@
         <v>227</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>3</v>
@@ -5513,7 +5819,7 @@
         <v>227</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>3</v>
@@ -5525,7 +5831,7 @@
         <v>227</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>3</v>
@@ -5537,7 +5843,7 @@
         <v>227</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>3</v>
@@ -5549,7 +5855,7 @@
         <v>227</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>3</v>
@@ -5561,7 +5867,7 @@
         <v>227</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>3</v>
@@ -5573,7 +5879,7 @@
         <v>227</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>3</v>
@@ -5585,7 +5891,7 @@
         <v>227</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>3</v>
@@ -5597,7 +5903,7 @@
         <v>227</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>3</v>
@@ -5609,7 +5915,7 @@
         <v>227</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>3</v>
@@ -5621,7 +5927,7 @@
         <v>227</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>3</v>
@@ -5633,7 +5939,7 @@
         <v>227</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>3</v>
@@ -5645,7 +5951,7 @@
         <v>227</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>3</v>
@@ -5657,7 +5963,7 @@
         <v>227</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>3</v>
@@ -5669,7 +5975,7 @@
         <v>227</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>3</v>
@@ -5681,7 +5987,7 @@
         <v>227</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>3</v>
@@ -5693,7 +5999,7 @@
         <v>227</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>3</v>
@@ -5705,7 +6011,7 @@
         <v>227</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>3</v>
@@ -5717,7 +6023,7 @@
         <v>227</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>3</v>
@@ -5729,7 +6035,7 @@
         <v>227</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>3</v>
@@ -5741,7 +6047,7 @@
         <v>227</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>3</v>
@@ -5753,7 +6059,7 @@
         <v>227</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>3</v>
@@ -5765,7 +6071,7 @@
         <v>227</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>3</v>
@@ -5773,37 +6079,37 @@
     </row>
     <row r="287" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A287" s="12"/>
-      <c r="C287" s="11"/>
-      <c r="D287" s="9"/>
+      <c r="B287" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="288" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A288" s="12"/>
-      <c r="C288" s="11"/>
-      <c r="D288" s="9"/>
+      <c r="B288" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="289" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A289" s="12"/>
-      <c r="B289" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D289" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C289" s="11"/>
+      <c r="D289" s="9"/>
     </row>
     <row r="290" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A290" s="12"/>
-      <c r="B290" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D290" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C290" s="11"/>
+      <c r="D290" s="9"/>
     </row>
     <row r="291" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A291" s="12"/>
@@ -5811,7 +6117,7 @@
         <v>262</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>3</v>
@@ -5823,7 +6129,7 @@
         <v>262</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>3</v>
@@ -5835,7 +6141,7 @@
         <v>262</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>3</v>
@@ -5847,7 +6153,7 @@
         <v>262</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>3</v>
@@ -5859,7 +6165,7 @@
         <v>262</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>3</v>
@@ -5871,7 +6177,7 @@
         <v>262</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>3</v>
@@ -5883,7 +6189,7 @@
         <v>262</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>3</v>
@@ -5895,7 +6201,7 @@
         <v>262</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>3</v>
@@ -5907,7 +6213,7 @@
         <v>262</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>3</v>
@@ -5919,7 +6225,7 @@
         <v>262</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>3</v>
@@ -5931,7 +6237,7 @@
         <v>262</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>3</v>
@@ -5943,7 +6249,7 @@
         <v>262</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>3</v>
@@ -5955,7 +6261,7 @@
         <v>262</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>3</v>
@@ -5967,7 +6273,7 @@
         <v>262</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>3</v>
@@ -5979,7 +6285,7 @@
         <v>262</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>3</v>
@@ -5991,7 +6297,7 @@
         <v>262</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>3</v>
@@ -6003,7 +6309,7 @@
         <v>262</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>3</v>
@@ -6011,37 +6317,37 @@
     </row>
     <row r="308" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A308" s="12"/>
-      <c r="C308" s="11"/>
-      <c r="D308" s="9"/>
+      <c r="B308" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="309" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A309" s="12"/>
-      <c r="C309" s="11"/>
-      <c r="D309" s="9"/>
+      <c r="B309" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="310" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A310" s="12"/>
-      <c r="B310" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C310" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D310" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C310" s="11"/>
+      <c r="D310" s="9"/>
     </row>
     <row r="311" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A311" s="12"/>
-      <c r="B311" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C311" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D311" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C311" s="11"/>
+      <c r="D311" s="9"/>
     </row>
     <row r="312" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A312" s="12"/>
@@ -6049,7 +6355,7 @@
         <v>282</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>3</v>
@@ -6061,7 +6367,7 @@
         <v>282</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>3</v>
@@ -6073,7 +6379,7 @@
         <v>282</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>3</v>
@@ -6085,7 +6391,7 @@
         <v>282</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>3</v>
@@ -6097,7 +6403,7 @@
         <v>282</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>3</v>
@@ -6109,7 +6415,7 @@
         <v>282</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>3</v>
@@ -6121,7 +6427,7 @@
         <v>282</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>3</v>
@@ -6133,7 +6439,7 @@
         <v>282</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>3</v>
@@ -6145,7 +6451,7 @@
         <v>282</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>3</v>
@@ -6157,7 +6463,7 @@
         <v>282</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>3</v>
@@ -6169,7 +6475,7 @@
         <v>282</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>3</v>
@@ -6180,8 +6486,8 @@
       <c r="B323" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>296</v>
+      <c r="C323" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>3</v>
@@ -6193,7 +6499,7 @@
         <v>282</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>3</v>
@@ -6204,8 +6510,8 @@
       <c r="B325" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C325" s="8" t="s">
-        <v>298</v>
+      <c r="C325" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>3</v>
@@ -6217,7 +6523,7 @@
         <v>282</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>3</v>
@@ -6229,7 +6535,7 @@
         <v>282</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>3</v>
@@ -6241,7 +6547,7 @@
         <v>282</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>3</v>
@@ -6253,7 +6559,7 @@
         <v>282</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>3</v>
@@ -6265,7 +6571,7 @@
         <v>282</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>3</v>
@@ -6277,7 +6583,7 @@
         <v>282</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>3</v>
@@ -6289,7 +6595,7 @@
         <v>282</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>3</v>
@@ -6301,7 +6607,7 @@
         <v>282</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>3</v>
@@ -6313,7 +6619,7 @@
         <v>282</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>3</v>
@@ -6325,7 +6631,7 @@
         <v>282</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>3</v>
@@ -6337,7 +6643,7 @@
         <v>282</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>3</v>
@@ -6349,7 +6655,7 @@
         <v>282</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>3</v>
@@ -6361,7 +6667,7 @@
         <v>282</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>3</v>
@@ -6373,7 +6679,7 @@
         <v>282</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>3</v>
@@ -6385,7 +6691,7 @@
         <v>282</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>3</v>
@@ -6397,7 +6703,7 @@
         <v>282</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>3</v>
@@ -6409,7 +6715,7 @@
         <v>282</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>3</v>
@@ -6421,7 +6727,7 @@
         <v>282</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>3</v>
@@ -6433,7 +6739,7 @@
         <v>282</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>3</v>
@@ -6445,7 +6751,7 @@
         <v>282</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>3</v>
@@ -6457,7 +6763,7 @@
         <v>282</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>3</v>
@@ -6469,7 +6775,7 @@
         <v>282</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>3</v>
@@ -6477,37 +6783,37 @@
     </row>
     <row r="348" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A348" s="12"/>
-      <c r="C348" s="11"/>
-      <c r="D348" s="9"/>
+      <c r="B348" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="349" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A349" s="12"/>
-      <c r="C349" s="11"/>
-      <c r="D349" s="9"/>
+      <c r="B349" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="350" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A350" s="12"/>
-      <c r="B350" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C350" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C350" s="11"/>
+      <c r="D350" s="9"/>
     </row>
     <row r="351" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A351" s="12"/>
-      <c r="B351" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C351" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D351" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C351" s="11"/>
+      <c r="D351" s="9"/>
     </row>
     <row r="352" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A352" s="12"/>
@@ -6515,7 +6821,7 @@
         <v>321</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>3</v>
@@ -6527,7 +6833,7 @@
         <v>321</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>3</v>
@@ -6539,7 +6845,7 @@
         <v>321</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>3</v>
@@ -6551,7 +6857,7 @@
         <v>321</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>3</v>
@@ -6563,7 +6869,7 @@
         <v>321</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>3</v>
@@ -6575,7 +6881,7 @@
         <v>321</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>3</v>
@@ -6586,8 +6892,8 @@
       <c r="B358" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C358" s="19" t="s">
-        <v>330</v>
+      <c r="C358" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>3</v>
@@ -6599,7 +6905,7 @@
         <v>321</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>3</v>
@@ -6610,8 +6916,8 @@
       <c r="B360" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C360" s="8" t="s">
-        <v>332</v>
+      <c r="C360" s="18" t="s">
+        <v>330</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>3</v>
@@ -6623,7 +6929,7 @@
         <v>321</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>3</v>
@@ -6635,7 +6941,7 @@
         <v>321</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>3</v>
@@ -6647,7 +6953,7 @@
         <v>321</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>3</v>
@@ -6659,7 +6965,7 @@
         <v>321</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>3</v>
@@ -6671,7 +6977,7 @@
         <v>321</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>3</v>
@@ -6683,7 +6989,7 @@
         <v>321</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>3</v>
@@ -6695,7 +7001,7 @@
         <v>321</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>3</v>
@@ -6703,37 +7009,37 @@
     </row>
     <row r="368" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A368" s="12"/>
-      <c r="C368" s="11"/>
-      <c r="D368" s="9"/>
+      <c r="B368" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="369" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A369" s="12"/>
-      <c r="C369" s="11"/>
-      <c r="D369" s="9"/>
+      <c r="B369" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="370" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A370" s="12"/>
-      <c r="B370" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C370" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D370" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C370" s="11"/>
+      <c r="D370" s="9"/>
     </row>
     <row r="371" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A371" s="12"/>
-      <c r="B371" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C371" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D371" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C371" s="11"/>
+      <c r="D371" s="9"/>
     </row>
     <row r="372" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A372" s="12"/>
@@ -6741,7 +7047,7 @@
         <v>340</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>3</v>
@@ -6753,7 +7059,7 @@
         <v>340</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>3</v>
@@ -6765,7 +7071,7 @@
         <v>340</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>3</v>
@@ -6777,7 +7083,7 @@
         <v>340</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>3</v>
@@ -6789,7 +7095,7 @@
         <v>340</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>3</v>
@@ -6801,7 +7107,7 @@
         <v>340</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>3</v>
@@ -6813,7 +7119,7 @@
         <v>340</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>3</v>
@@ -6825,7 +7131,7 @@
         <v>340</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>3</v>
@@ -6837,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>3</v>
@@ -6849,7 +7155,7 @@
         <v>340</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>3</v>
@@ -6861,7 +7167,7 @@
         <v>340</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>3</v>
@@ -6873,7 +7179,7 @@
         <v>340</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>3</v>
@@ -6885,7 +7191,7 @@
         <v>340</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>3</v>
@@ -6897,7 +7203,7 @@
         <v>340</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>3</v>
@@ -6909,7 +7215,7 @@
         <v>340</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>3</v>
@@ -6921,7 +7227,7 @@
         <v>340</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>3</v>
@@ -6933,7 +7239,7 @@
         <v>340</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>3</v>
@@ -6945,7 +7251,7 @@
         <v>340</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>3</v>
@@ -6957,7 +7263,7 @@
         <v>340</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>3</v>
@@ -6969,7 +7275,7 @@
         <v>340</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>3</v>
@@ -6981,7 +7287,7 @@
         <v>340</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>3</v>
@@ -6993,7 +7299,7 @@
         <v>340</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>3</v>
@@ -7005,7 +7311,7 @@
         <v>340</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>3</v>
@@ -7017,7 +7323,7 @@
         <v>340</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>3</v>
@@ -7029,7 +7335,7 @@
         <v>340</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>3</v>
@@ -7041,7 +7347,7 @@
         <v>340</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>3</v>
@@ -7053,7 +7359,7 @@
         <v>340</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>3</v>
@@ -7065,7 +7371,7 @@
         <v>340</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>3</v>
@@ -7077,7 +7383,7 @@
         <v>340</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>3</v>
@@ -7089,7 +7395,7 @@
         <v>340</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>3</v>
@@ -7101,7 +7407,7 @@
         <v>340</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>3</v>
@@ -7113,7 +7419,7 @@
         <v>340</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>3</v>
@@ -7125,7 +7431,7 @@
         <v>340</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>3</v>
@@ -7137,7 +7443,7 @@
         <v>340</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>3</v>
@@ -7149,7 +7455,7 @@
         <v>340</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>3</v>
@@ -7161,7 +7467,7 @@
         <v>340</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>3</v>
@@ -7173,7 +7479,7 @@
         <v>340</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>3</v>
@@ -7185,7 +7491,7 @@
         <v>340</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>3</v>
@@ -7197,7 +7503,7 @@
         <v>340</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>3</v>
@@ -7209,7 +7515,7 @@
         <v>340</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>3</v>
@@ -7221,7 +7527,7 @@
         <v>340</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>3</v>
@@ -7233,7 +7539,7 @@
         <v>340</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>3</v>
@@ -7241,37 +7547,37 @@
     </row>
     <row r="414" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A414" s="12"/>
-      <c r="C414" s="11"/>
-      <c r="D414" s="9"/>
+      <c r="B414" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="415" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A415" s="12"/>
-      <c r="C415" s="11"/>
-      <c r="D415" s="9"/>
+      <c r="B415" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="416" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A416" s="12"/>
-      <c r="B416" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C416" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D416" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C416" s="11"/>
+      <c r="D416" s="9"/>
     </row>
     <row r="417" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A417" s="12"/>
-      <c r="B417" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C417" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D417" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C417" s="11"/>
+      <c r="D417" s="9"/>
     </row>
     <row r="418" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A418" s="12"/>
@@ -7279,7 +7585,7 @@
         <v>384</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>3</v>
@@ -7291,7 +7597,7 @@
         <v>384</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>88</v>
+        <v>386</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>3</v>
@@ -7303,7 +7609,7 @@
         <v>384</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>3</v>
@@ -7315,7 +7621,7 @@
         <v>384</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>389</v>
+        <v>88</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>3</v>
@@ -7323,37 +7629,37 @@
     </row>
     <row r="422" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A422" s="12"/>
-      <c r="C422" s="11"/>
-      <c r="D422" s="9"/>
+      <c r="B422" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D422" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="423" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A423" s="12"/>
-      <c r="C423" s="11"/>
-      <c r="D423" s="9"/>
+      <c r="B423" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D423" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="424" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A424" s="12"/>
-      <c r="B424" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D424" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C424" s="11"/>
+      <c r="D424" s="9"/>
     </row>
     <row r="425" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A425" s="12"/>
-      <c r="B425" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C425" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D425" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C425" s="11"/>
+      <c r="D425" s="9"/>
     </row>
     <row r="426" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A426" s="12"/>
@@ -7361,7 +7667,7 @@
         <v>390</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>3</v>
@@ -7373,7 +7679,7 @@
         <v>390</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>3</v>
@@ -7385,7 +7691,7 @@
         <v>390</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>3</v>
@@ -7397,7 +7703,7 @@
         <v>390</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>3</v>
@@ -7409,7 +7715,7 @@
         <v>390</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>3</v>
@@ -7421,7 +7727,7 @@
         <v>390</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>270</v>
+        <v>396</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>3</v>
@@ -7433,7 +7739,7 @@
         <v>390</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>3</v>
@@ -7445,7 +7751,7 @@
         <v>390</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>399</v>
+        <v>270</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>3</v>
@@ -7457,7 +7763,7 @@
         <v>390</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>3</v>
@@ -7469,7 +7775,7 @@
         <v>390</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>3</v>
@@ -7481,7 +7787,7 @@
         <v>390</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>3</v>
@@ -7493,7 +7799,7 @@
         <v>390</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>3</v>
@@ -7505,7 +7811,7 @@
         <v>390</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>3</v>
@@ -7517,7 +7823,7 @@
         <v>390</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>3</v>
@@ -7529,7 +7835,7 @@
         <v>390</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>3</v>
@@ -7541,7 +7847,7 @@
         <v>390</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>3</v>
@@ -7553,7 +7859,7 @@
         <v>390</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>3</v>
@@ -7565,7 +7871,7 @@
         <v>390</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>3</v>
@@ -7577,7 +7883,7 @@
         <v>390</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>3</v>
@@ -7589,7 +7895,7 @@
         <v>390</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>3</v>
@@ -7601,7 +7907,7 @@
         <v>390</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>3</v>
@@ -7613,7 +7919,7 @@
         <v>390</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>3</v>
@@ -7625,7 +7931,7 @@
         <v>390</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>3</v>
@@ -7637,7 +7943,7 @@
         <v>390</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>3</v>
@@ -7649,7 +7955,7 @@
         <v>390</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>3</v>
@@ -7661,7 +7967,7 @@
         <v>390</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>3</v>
@@ -7673,7 +7979,7 @@
         <v>390</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>3</v>
@@ -7685,7 +7991,7 @@
         <v>390</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>3</v>
@@ -7697,7 +8003,7 @@
         <v>390</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>3</v>
@@ -7709,7 +8015,7 @@
         <v>390</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>3</v>
@@ -7721,7 +8027,7 @@
         <v>390</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>3</v>
@@ -7733,7 +8039,7 @@
         <v>390</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>3</v>
@@ -7745,7 +8051,7 @@
         <v>390</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>3</v>
@@ -7757,7 +8063,7 @@
         <v>390</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>3</v>
@@ -7769,7 +8075,7 @@
         <v>390</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>3</v>
@@ -7781,7 +8087,7 @@
         <v>390</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>3</v>
@@ -7793,7 +8099,7 @@
         <v>390</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>3</v>
@@ -7805,7 +8111,7 @@
         <v>390</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>3</v>
@@ -7817,7 +8123,7 @@
         <v>390</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>3</v>
@@ -7829,7 +8135,7 @@
         <v>390</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>3</v>
@@ -7841,7 +8147,7 @@
         <v>390</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>3</v>
@@ -7853,7 +8159,7 @@
         <v>390</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>3</v>
@@ -7865,7 +8171,7 @@
         <v>390</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>3</v>
@@ -7877,7 +8183,7 @@
         <v>390</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>3</v>
@@ -7889,7 +8195,7 @@
         <v>390</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>3</v>
@@ -7901,7 +8207,7 @@
         <v>390</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>3</v>
@@ -7913,7 +8219,7 @@
         <v>390</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>3</v>
@@ -7925,7 +8231,7 @@
         <v>390</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>3</v>
@@ -7937,7 +8243,7 @@
         <v>390</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>3</v>
@@ -7949,7 +8255,7 @@
         <v>390</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>3</v>
@@ -7961,7 +8267,7 @@
         <v>390</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>3</v>
@@ -7973,7 +8279,7 @@
         <v>390</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D477" s="9" t="s">
         <v>3</v>
@@ -7985,7 +8291,7 @@
         <v>390</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D478" s="9" t="s">
         <v>3</v>
@@ -7997,7 +8303,7 @@
         <v>390</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D479" s="9" t="s">
         <v>3</v>
@@ -8009,7 +8315,7 @@
         <v>390</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>3</v>
@@ -8021,7 +8327,7 @@
         <v>390</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>3</v>
@@ -8033,7 +8339,7 @@
         <v>390</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>3</v>
@@ -8045,7 +8351,7 @@
         <v>390</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>3</v>
@@ -8053,38 +8359,38 @@
     </row>
     <row r="484" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A484" s="12"/>
-      <c r="C484" s="11"/>
-      <c r="D484" s="9"/>
+      <c r="B484" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C484" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="485" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A485" s="12"/>
-      <c r="B485" s="12"/>
-      <c r="C485" s="11"/>
-      <c r="D485" s="9"/>
+      <c r="B485" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D485" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="486" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A486" s="12"/>
-      <c r="B486" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C486" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D486" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C486" s="11"/>
+      <c r="D486" s="9"/>
     </row>
     <row r="487" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A487" s="12"/>
-      <c r="B487" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C487" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D487" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B487" s="12"/>
+      <c r="C487" s="11"/>
+      <c r="D487" s="9"/>
     </row>
     <row r="488" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A488" s="12"/>
@@ -8092,7 +8398,7 @@
         <v>450</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>3</v>
@@ -8104,7 +8410,7 @@
         <v>450</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D489" s="9" t="s">
         <v>3</v>
@@ -8116,7 +8422,7 @@
         <v>450</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D490" s="9" t="s">
         <v>3</v>
@@ -8128,7 +8434,7 @@
         <v>450</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D491" s="9" t="s">
         <v>3</v>
@@ -8140,7 +8446,7 @@
         <v>450</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D492" s="9" t="s">
         <v>3</v>
@@ -8152,7 +8458,7 @@
         <v>450</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D493" s="9" t="s">
         <v>3</v>
@@ -8164,7 +8470,7 @@
         <v>450</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D494" s="9" t="s">
         <v>3</v>
@@ -8176,21 +8482,46 @@
         <v>450</v>
       </c>
       <c r="C495" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D495" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A496" s="12"/>
+      <c r="B496" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C496" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D496" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A497" s="12"/>
+      <c r="B497" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C497" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D495" s="9" t="s">
+      <c r="D497" s="9" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A5:D6"/>
+    <mergeCell ref="C68:C69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
@@ -8239,407 +8570,408 @@
     <hyperlink ref="C64" r:id="rId44"/>
     <hyperlink ref="C65" r:id="rId45"/>
     <hyperlink ref="C66" r:id="rId46"/>
-    <hyperlink ref="C69" r:id="rId47"/>
-    <hyperlink ref="C70" r:id="rId48"/>
-    <hyperlink ref="C71" r:id="rId49"/>
-    <hyperlink ref="C73" r:id="rId50"/>
-    <hyperlink ref="C74" r:id="rId51"/>
-    <hyperlink ref="C75" r:id="rId52"/>
-    <hyperlink ref="C76" r:id="rId53"/>
-    <hyperlink ref="C77" r:id="rId54"/>
-    <hyperlink ref="C78" r:id="rId55"/>
-    <hyperlink ref="C79" r:id="rId56"/>
-    <hyperlink ref="C80" r:id="rId57"/>
-    <hyperlink ref="C81" r:id="rId58"/>
-    <hyperlink ref="C82" r:id="rId59"/>
-    <hyperlink ref="C83" r:id="rId60"/>
-    <hyperlink ref="C84" r:id="rId61"/>
-    <hyperlink ref="C85" r:id="rId62"/>
-    <hyperlink ref="C86" r:id="rId63"/>
-    <hyperlink ref="C87" r:id="rId64"/>
-    <hyperlink ref="C88" r:id="rId65"/>
-    <hyperlink ref="C89" r:id="rId66"/>
-    <hyperlink ref="C90" r:id="rId67"/>
-    <hyperlink ref="C91" r:id="rId68"/>
-    <hyperlink ref="C92" r:id="rId69"/>
-    <hyperlink ref="C93" r:id="rId70"/>
-    <hyperlink ref="C94" r:id="rId71"/>
-    <hyperlink ref="C95" r:id="rId72"/>
-    <hyperlink ref="C96" r:id="rId73"/>
-    <hyperlink ref="C97" r:id="rId74"/>
-    <hyperlink ref="C98" r:id="rId75"/>
-    <hyperlink ref="C99" r:id="rId76"/>
-    <hyperlink ref="C100" r:id="rId77"/>
-    <hyperlink ref="C101" r:id="rId78"/>
-    <hyperlink ref="C102" r:id="rId79"/>
-    <hyperlink ref="C103" r:id="rId80"/>
-    <hyperlink ref="C104" r:id="rId81"/>
-    <hyperlink ref="C105" r:id="rId82"/>
-    <hyperlink ref="C106" r:id="rId83"/>
-    <hyperlink ref="C107" r:id="rId84"/>
-    <hyperlink ref="C108" r:id="rId85"/>
-    <hyperlink ref="C109" r:id="rId86"/>
-    <hyperlink ref="C110" r:id="rId87"/>
-    <hyperlink ref="C111" r:id="rId88"/>
-    <hyperlink ref="C114" r:id="rId89"/>
-    <hyperlink ref="C115" r:id="rId90"/>
-    <hyperlink ref="C116" r:id="rId91"/>
-    <hyperlink ref="C117" r:id="rId92"/>
-    <hyperlink ref="C119" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="C120" r:id="rId94"/>
-    <hyperlink ref="C121" r:id="rId95"/>
-    <hyperlink ref="C122" r:id="rId96"/>
-    <hyperlink ref="C123" r:id="rId97"/>
-    <hyperlink ref="C124" r:id="rId98"/>
-    <hyperlink ref="C126" r:id="rId99"/>
-    <hyperlink ref="C127" r:id="rId100"/>
-    <hyperlink ref="C128" r:id="rId101"/>
-    <hyperlink ref="C129" r:id="rId102"/>
-    <hyperlink ref="C130" r:id="rId103"/>
-    <hyperlink ref="C131" r:id="rId104"/>
-    <hyperlink ref="C132" r:id="rId105"/>
-    <hyperlink ref="C133" r:id="rId106"/>
-    <hyperlink ref="C134" r:id="rId107"/>
-    <hyperlink ref="C135" r:id="rId108"/>
-    <hyperlink ref="C136" r:id="rId109"/>
-    <hyperlink ref="C137" r:id="rId110"/>
-    <hyperlink ref="C138" r:id="rId111"/>
-    <hyperlink ref="C139" r:id="rId112"/>
-    <hyperlink ref="C140" r:id="rId113"/>
-    <hyperlink ref="C141" r:id="rId114"/>
-    <hyperlink ref="C142" r:id="rId115"/>
-    <hyperlink ref="C143" r:id="rId116"/>
-    <hyperlink ref="C144" r:id="rId117"/>
-    <hyperlink ref="C145" r:id="rId118"/>
-    <hyperlink ref="C146" r:id="rId119"/>
-    <hyperlink ref="C147" r:id="rId120"/>
-    <hyperlink ref="C148" r:id="rId121"/>
-    <hyperlink ref="C149" r:id="rId122"/>
-    <hyperlink ref="C118" r:id="rId123"/>
-    <hyperlink ref="C125" r:id="rId124"/>
-    <hyperlink ref="C153" r:id="rId125"/>
-    <hyperlink ref="C154" r:id="rId126"/>
-    <hyperlink ref="C155" r:id="rId127"/>
-    <hyperlink ref="C156" r:id="rId128"/>
-    <hyperlink ref="C157" r:id="rId129"/>
-    <hyperlink ref="C158" r:id="rId130"/>
-    <hyperlink ref="C159" r:id="rId131"/>
-    <hyperlink ref="C160" r:id="rId132"/>
-    <hyperlink ref="C161" r:id="rId133"/>
-    <hyperlink ref="C162" r:id="rId134"/>
-    <hyperlink ref="C163" r:id="rId135"/>
-    <hyperlink ref="C164" r:id="rId136"/>
-    <hyperlink ref="C165" r:id="rId137"/>
-    <hyperlink ref="C166" r:id="rId138"/>
-    <hyperlink ref="C167" r:id="rId139"/>
-    <hyperlink ref="C168" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C169" r:id="rId141"/>
-    <hyperlink ref="C170" r:id="rId142"/>
-    <hyperlink ref="C171" r:id="rId143"/>
-    <hyperlink ref="C172" r:id="rId144"/>
-    <hyperlink ref="C173" r:id="rId145"/>
-    <hyperlink ref="C174" r:id="rId146"/>
-    <hyperlink ref="C175" r:id="rId147"/>
-    <hyperlink ref="C176" r:id="rId148"/>
-    <hyperlink ref="C177" r:id="rId149"/>
-    <hyperlink ref="C180" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C181" r:id="rId151"/>
-    <hyperlink ref="C182" r:id="rId152"/>
-    <hyperlink ref="C183" r:id="rId153"/>
-    <hyperlink ref="C184" r:id="rId154"/>
-    <hyperlink ref="C185" r:id="rId155"/>
-    <hyperlink ref="C186" r:id="rId156"/>
-    <hyperlink ref="C187" r:id="rId157"/>
-    <hyperlink ref="C188" r:id="rId158"/>
-    <hyperlink ref="C191" r:id="rId159"/>
-    <hyperlink ref="C192" r:id="rId160"/>
-    <hyperlink ref="C193" r:id="rId161"/>
-    <hyperlink ref="C194" r:id="rId162"/>
-    <hyperlink ref="C195" r:id="rId163"/>
-    <hyperlink ref="C196" r:id="rId164"/>
-    <hyperlink ref="C197" r:id="rId165"/>
-    <hyperlink ref="C198" r:id="rId166"/>
-    <hyperlink ref="C199" r:id="rId167"/>
-    <hyperlink ref="C200" r:id="rId168"/>
-    <hyperlink ref="C201" r:id="rId169"/>
-    <hyperlink ref="C202" r:id="rId170"/>
-    <hyperlink ref="C203" r:id="rId171"/>
-    <hyperlink ref="C204" r:id="rId172"/>
-    <hyperlink ref="C205" r:id="rId173"/>
-    <hyperlink ref="C206" r:id="rId174"/>
-    <hyperlink ref="C207" r:id="rId175"/>
-    <hyperlink ref="C208" r:id="rId176"/>
-    <hyperlink ref="C209" r:id="rId177"/>
-    <hyperlink ref="C210" r:id="rId178"/>
-    <hyperlink ref="C211" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="C212" r:id="rId180"/>
-    <hyperlink ref="C213" r:id="rId181"/>
-    <hyperlink ref="C214" r:id="rId182"/>
-    <hyperlink ref="C215" r:id="rId183"/>
-    <hyperlink ref="C216" r:id="rId184"/>
-    <hyperlink ref="C217" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="C218" r:id="rId186"/>
-    <hyperlink ref="C219" r:id="rId187"/>
-    <hyperlink ref="C220" r:id="rId188"/>
-    <hyperlink ref="C221" r:id="rId189"/>
-    <hyperlink ref="C222" r:id="rId190"/>
-    <hyperlink ref="C223" r:id="rId191"/>
-    <hyperlink ref="C224" r:id="rId192"/>
-    <hyperlink ref="C225" r:id="rId193"/>
-    <hyperlink ref="C228" r:id="rId194"/>
-    <hyperlink ref="C229" r:id="rId195"/>
-    <hyperlink ref="C230" r:id="rId196"/>
-    <hyperlink ref="C231" r:id="rId197"/>
-    <hyperlink ref="C232" r:id="rId198"/>
-    <hyperlink ref="C233" r:id="rId199"/>
-    <hyperlink ref="C234" r:id="rId200"/>
-    <hyperlink ref="C235" r:id="rId201"/>
-    <hyperlink ref="C236" r:id="rId202"/>
-    <hyperlink ref="C237" r:id="rId203"/>
-    <hyperlink ref="C238" r:id="rId204"/>
-    <hyperlink ref="C239" r:id="rId205"/>
-    <hyperlink ref="C240" r:id="rId206"/>
-    <hyperlink ref="C241" r:id="rId207"/>
-    <hyperlink ref="C242" r:id="rId208"/>
-    <hyperlink ref="C243" r:id="rId209"/>
-    <hyperlink ref="C244" r:id="rId210"/>
-    <hyperlink ref="C245" r:id="rId211"/>
-    <hyperlink ref="C246" r:id="rId212"/>
-    <hyperlink ref="C247" r:id="rId213"/>
-    <hyperlink ref="C248" r:id="rId214"/>
-    <hyperlink ref="C249" r:id="rId215"/>
-    <hyperlink ref="C252" r:id="rId216"/>
-    <hyperlink ref="C253" r:id="rId217"/>
-    <hyperlink ref="C254" r:id="rId218"/>
-    <hyperlink ref="C255" r:id="rId219"/>
-    <hyperlink ref="C256" r:id="rId220"/>
-    <hyperlink ref="C257" r:id="rId221"/>
-    <hyperlink ref="C258" r:id="rId222"/>
-    <hyperlink ref="C259" r:id="rId223"/>
-    <hyperlink ref="C260" r:id="rId224"/>
-    <hyperlink ref="C261" r:id="rId225"/>
-    <hyperlink ref="C262" r:id="rId226"/>
-    <hyperlink ref="C263" r:id="rId227"/>
-    <hyperlink ref="C264" r:id="rId228"/>
-    <hyperlink ref="C265" r:id="rId229"/>
-    <hyperlink ref="C266" r:id="rId230"/>
-    <hyperlink ref="C267" r:id="rId231"/>
-    <hyperlink ref="C268" r:id="rId232"/>
-    <hyperlink ref="C269" r:id="rId233"/>
-    <hyperlink ref="C270" r:id="rId234"/>
-    <hyperlink ref="C271" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="C272" r:id="rId236"/>
-    <hyperlink ref="C273" r:id="rId237"/>
-    <hyperlink ref="C274" r:id="rId238"/>
-    <hyperlink ref="C275" r:id="rId239"/>
-    <hyperlink ref="C276" r:id="rId240"/>
-    <hyperlink ref="C277" r:id="rId241"/>
-    <hyperlink ref="C278" r:id="rId242"/>
-    <hyperlink ref="C279" r:id="rId243"/>
-    <hyperlink ref="C280" r:id="rId244"/>
-    <hyperlink ref="C281" r:id="rId245"/>
-    <hyperlink ref="C282" r:id="rId246"/>
-    <hyperlink ref="C283" r:id="rId247"/>
-    <hyperlink ref="C284" r:id="rId248"/>
-    <hyperlink ref="C285" r:id="rId249"/>
-    <hyperlink ref="C286" r:id="rId250"/>
-    <hyperlink ref="C289" r:id="rId251"/>
-    <hyperlink ref="C290" r:id="rId252"/>
-    <hyperlink ref="C291" r:id="rId253"/>
-    <hyperlink ref="C292" r:id="rId254"/>
-    <hyperlink ref="C293" r:id="rId255"/>
-    <hyperlink ref="C294" r:id="rId256"/>
-    <hyperlink ref="C295" r:id="rId257"/>
-    <hyperlink ref="C296" r:id="rId258"/>
-    <hyperlink ref="C297" r:id="rId259"/>
-    <hyperlink ref="C298" r:id="rId260"/>
-    <hyperlink ref="C299" r:id="rId261"/>
-    <hyperlink ref="C300" r:id="rId262"/>
-    <hyperlink ref="C301" r:id="rId263"/>
-    <hyperlink ref="C302" r:id="rId264"/>
-    <hyperlink ref="C303" r:id="rId265"/>
-    <hyperlink ref="C304" r:id="rId266"/>
-    <hyperlink ref="C305" r:id="rId267"/>
-    <hyperlink ref="C306" r:id="rId268"/>
-    <hyperlink ref="C307" r:id="rId269"/>
-    <hyperlink ref="C310" r:id="rId270"/>
-    <hyperlink ref="C311" r:id="rId271"/>
-    <hyperlink ref="C312" r:id="rId272"/>
-    <hyperlink ref="C313" r:id="rId273"/>
-    <hyperlink ref="C314" r:id="rId274"/>
-    <hyperlink ref="C315" r:id="rId275"/>
-    <hyperlink ref="C316" r:id="rId276"/>
-    <hyperlink ref="C317" r:id="rId277"/>
-    <hyperlink ref="C318" r:id="rId278"/>
-    <hyperlink ref="C319" r:id="rId279"/>
-    <hyperlink ref="C320" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="C321" r:id="rId281"/>
-    <hyperlink ref="C322" r:id="rId282"/>
-    <hyperlink ref="C323" r:id="rId283"/>
-    <hyperlink ref="C324" r:id="rId284"/>
-    <hyperlink ref="C325" r:id="rId285"/>
-    <hyperlink ref="C326" r:id="rId286"/>
-    <hyperlink ref="C327" r:id="rId287"/>
-    <hyperlink ref="C328" r:id="rId288"/>
-    <hyperlink ref="C329" r:id="rId289"/>
-    <hyperlink ref="C330" r:id="rId290"/>
-    <hyperlink ref="C331" r:id="rId291"/>
-    <hyperlink ref="C332" r:id="rId292"/>
-    <hyperlink ref="C333" r:id="rId293"/>
-    <hyperlink ref="C334" r:id="rId294"/>
-    <hyperlink ref="C335" r:id="rId295"/>
-    <hyperlink ref="C336" r:id="rId296"/>
-    <hyperlink ref="C337" r:id="rId297"/>
-    <hyperlink ref="C338" r:id="rId298"/>
-    <hyperlink ref="C339" r:id="rId299"/>
-    <hyperlink ref="C340" r:id="rId300"/>
-    <hyperlink ref="C341" r:id="rId301"/>
-    <hyperlink ref="C342" r:id="rId302"/>
-    <hyperlink ref="C343" r:id="rId303"/>
-    <hyperlink ref="C344" r:id="rId304"/>
-    <hyperlink ref="C345" r:id="rId305"/>
-    <hyperlink ref="C346" r:id="rId306"/>
-    <hyperlink ref="C347" r:id="rId307"/>
-    <hyperlink ref="C350" r:id="rId308"/>
-    <hyperlink ref="C351" r:id="rId309"/>
-    <hyperlink ref="C352" r:id="rId310"/>
-    <hyperlink ref="C353" r:id="rId311"/>
-    <hyperlink ref="C354" r:id="rId312"/>
-    <hyperlink ref="C355" r:id="rId313"/>
-    <hyperlink ref="C356" r:id="rId314"/>
-    <hyperlink ref="C357" r:id="rId315"/>
-    <hyperlink ref="C358" r:id="rId316"/>
-    <hyperlink ref="C359" r:id="rId317"/>
-    <hyperlink ref="C360" r:id="rId318"/>
-    <hyperlink ref="C361" r:id="rId319"/>
-    <hyperlink ref="C362" r:id="rId320"/>
-    <hyperlink ref="C363" r:id="rId321"/>
-    <hyperlink ref="C364" r:id="rId322"/>
-    <hyperlink ref="C365" r:id="rId323"/>
-    <hyperlink ref="C366" r:id="rId324"/>
-    <hyperlink ref="C367" r:id="rId325"/>
-    <hyperlink ref="C371" r:id="rId326"/>
-    <hyperlink ref="C372" r:id="rId327"/>
-    <hyperlink ref="C373" r:id="rId328"/>
-    <hyperlink ref="C374" r:id="rId329"/>
-    <hyperlink ref="C375" r:id="rId330"/>
-    <hyperlink ref="C376" r:id="rId331"/>
-    <hyperlink ref="C377" r:id="rId332"/>
-    <hyperlink ref="C378" r:id="rId333"/>
-    <hyperlink ref="C379" r:id="rId334"/>
-    <hyperlink ref="C380" r:id="rId335"/>
-    <hyperlink ref="C381" r:id="rId336"/>
-    <hyperlink ref="C382" r:id="rId337"/>
-    <hyperlink ref="C383" r:id="rId338"/>
-    <hyperlink ref="C384" r:id="rId339"/>
-    <hyperlink ref="C385" r:id="rId340"/>
-    <hyperlink ref="C386" r:id="rId341"/>
-    <hyperlink ref="C387" r:id="rId342"/>
-    <hyperlink ref="C388" r:id="rId343"/>
-    <hyperlink ref="C389" r:id="rId344"/>
-    <hyperlink ref="C390" r:id="rId345"/>
-    <hyperlink ref="C391" r:id="rId346"/>
-    <hyperlink ref="C392" r:id="rId347"/>
-    <hyperlink ref="C393" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="C394" r:id="rId349"/>
-    <hyperlink ref="C395" r:id="rId350"/>
-    <hyperlink ref="C396" r:id="rId351"/>
-    <hyperlink ref="C397" r:id="rId352"/>
-    <hyperlink ref="C398" r:id="rId353"/>
-    <hyperlink ref="C399" r:id="rId354"/>
-    <hyperlink ref="C400" r:id="rId355"/>
-    <hyperlink ref="C401" r:id="rId356"/>
-    <hyperlink ref="C402" r:id="rId357"/>
-    <hyperlink ref="C403" r:id="rId358"/>
-    <hyperlink ref="C404" r:id="rId359"/>
-    <hyperlink ref="C405" r:id="rId360"/>
-    <hyperlink ref="C406" r:id="rId361"/>
-    <hyperlink ref="C407" r:id="rId362"/>
-    <hyperlink ref="C408" r:id="rId363"/>
-    <hyperlink ref="C410" r:id="rId364"/>
-    <hyperlink ref="C409" r:id="rId365"/>
-    <hyperlink ref="C411" r:id="rId366"/>
-    <hyperlink ref="C412" r:id="rId367"/>
-    <hyperlink ref="C413" r:id="rId368"/>
-    <hyperlink ref="C416" r:id="rId369"/>
-    <hyperlink ref="C417" r:id="rId370"/>
-    <hyperlink ref="C418" r:id="rId371"/>
-    <hyperlink ref="C419" r:id="rId372"/>
-    <hyperlink ref="C420" r:id="rId373"/>
-    <hyperlink ref="C421" r:id="rId374"/>
-    <hyperlink ref="C424" r:id="rId375"/>
-    <hyperlink ref="C425" r:id="rId376"/>
-    <hyperlink ref="C426" r:id="rId377"/>
-    <hyperlink ref="C427" r:id="rId378"/>
-    <hyperlink ref="C428" r:id="rId379"/>
-    <hyperlink ref="C429" r:id="rId380"/>
-    <hyperlink ref="C430" r:id="rId381"/>
-    <hyperlink ref="C431" r:id="rId382"/>
-    <hyperlink ref="C432" r:id="rId383"/>
-    <hyperlink ref="C433" r:id="rId384"/>
-    <hyperlink ref="C434" r:id="rId385"/>
-    <hyperlink ref="C435" r:id="rId386"/>
-    <hyperlink ref="C436" r:id="rId387"/>
-    <hyperlink ref="C437" r:id="rId388"/>
-    <hyperlink ref="C438" r:id="rId389"/>
-    <hyperlink ref="C439" r:id="rId390"/>
-    <hyperlink ref="C440" r:id="rId391"/>
-    <hyperlink ref="C441" r:id="rId392"/>
-    <hyperlink ref="C442" r:id="rId393"/>
-    <hyperlink ref="C443" r:id="rId394"/>
-    <hyperlink ref="C444" r:id="rId395"/>
-    <hyperlink ref="C445" r:id="rId396"/>
-    <hyperlink ref="C446" r:id="rId397"/>
-    <hyperlink ref="C447" r:id="rId398"/>
-    <hyperlink ref="C448" r:id="rId399"/>
-    <hyperlink ref="C449" r:id="rId400"/>
-    <hyperlink ref="C450" r:id="rId401"/>
-    <hyperlink ref="C451" r:id="rId402"/>
-    <hyperlink ref="C452" r:id="rId403"/>
-    <hyperlink ref="C453" r:id="rId404"/>
-    <hyperlink ref="C454" r:id="rId405"/>
-    <hyperlink ref="C455" r:id="rId406"/>
-    <hyperlink ref="C456" r:id="rId407"/>
-    <hyperlink ref="C457" r:id="rId408"/>
-    <hyperlink ref="C458" r:id="rId409"/>
-    <hyperlink ref="C459" r:id="rId410"/>
-    <hyperlink ref="C460" r:id="rId411"/>
-    <hyperlink ref="C461" r:id="rId412"/>
-    <hyperlink ref="C462" r:id="rId413"/>
-    <hyperlink ref="C463" r:id="rId414"/>
-    <hyperlink ref="C465" r:id="rId415"/>
-    <hyperlink ref="C464" r:id="rId416"/>
-    <hyperlink ref="C466" r:id="rId417"/>
-    <hyperlink ref="C467" r:id="rId418"/>
-    <hyperlink ref="C468" r:id="rId419"/>
-    <hyperlink ref="C469" r:id="rId420"/>
-    <hyperlink ref="C470" r:id="rId421"/>
-    <hyperlink ref="C471" r:id="rId422"/>
-    <hyperlink ref="C472" r:id="rId423"/>
-    <hyperlink ref="C473" r:id="rId424"/>
-    <hyperlink ref="C474" r:id="rId425"/>
-    <hyperlink ref="C475" r:id="rId426"/>
-    <hyperlink ref="C476" r:id="rId427"/>
-    <hyperlink ref="C483" r:id="rId428"/>
-    <hyperlink ref="C482" r:id="rId429"/>
-    <hyperlink ref="C481" r:id="rId430"/>
-    <hyperlink ref="C480" r:id="rId431"/>
-    <hyperlink ref="C479" r:id="rId432"/>
-    <hyperlink ref="C478" r:id="rId433"/>
-    <hyperlink ref="C477" r:id="rId434"/>
-    <hyperlink ref="C486" r:id="rId435"/>
-    <hyperlink ref="C487" r:id="rId436"/>
-    <hyperlink ref="C488" r:id="rId437"/>
-    <hyperlink ref="C489" r:id="rId438"/>
-    <hyperlink ref="C490" r:id="rId439"/>
-    <hyperlink ref="C491" r:id="rId440"/>
-    <hyperlink ref="C492" r:id="rId441"/>
-    <hyperlink ref="C495" r:id="rId442"/>
-    <hyperlink ref="C493" r:id="rId443"/>
-    <hyperlink ref="C494" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="C370" r:id="rId445"/>
+    <hyperlink ref="C70" r:id="rId47"/>
+    <hyperlink ref="C71" r:id="rId48"/>
+    <hyperlink ref="C72" r:id="rId49"/>
+    <hyperlink ref="C74" r:id="rId50"/>
+    <hyperlink ref="C75" r:id="rId51"/>
+    <hyperlink ref="C76" r:id="rId52"/>
+    <hyperlink ref="C77" r:id="rId53"/>
+    <hyperlink ref="C78" r:id="rId54"/>
+    <hyperlink ref="C79" r:id="rId55"/>
+    <hyperlink ref="C80" r:id="rId56"/>
+    <hyperlink ref="C81" r:id="rId57"/>
+    <hyperlink ref="C82" r:id="rId58"/>
+    <hyperlink ref="C83" r:id="rId59"/>
+    <hyperlink ref="C84" r:id="rId60"/>
+    <hyperlink ref="C86" r:id="rId61"/>
+    <hyperlink ref="C87" r:id="rId62"/>
+    <hyperlink ref="C88" r:id="rId63"/>
+    <hyperlink ref="C89" r:id="rId64"/>
+    <hyperlink ref="C90" r:id="rId65"/>
+    <hyperlink ref="C91" r:id="rId66"/>
+    <hyperlink ref="C92" r:id="rId67"/>
+    <hyperlink ref="C93" r:id="rId68"/>
+    <hyperlink ref="C94" r:id="rId69"/>
+    <hyperlink ref="C95" r:id="rId70"/>
+    <hyperlink ref="C96" r:id="rId71"/>
+    <hyperlink ref="C97" r:id="rId72"/>
+    <hyperlink ref="C98" r:id="rId73"/>
+    <hyperlink ref="C99" r:id="rId74"/>
+    <hyperlink ref="C100" r:id="rId75"/>
+    <hyperlink ref="C101" r:id="rId76"/>
+    <hyperlink ref="C102" r:id="rId77"/>
+    <hyperlink ref="C103" r:id="rId78"/>
+    <hyperlink ref="C104" r:id="rId79"/>
+    <hyperlink ref="C105" r:id="rId80"/>
+    <hyperlink ref="C106" r:id="rId81"/>
+    <hyperlink ref="C107" r:id="rId82"/>
+    <hyperlink ref="C108" r:id="rId83"/>
+    <hyperlink ref="C109" r:id="rId84"/>
+    <hyperlink ref="C110" r:id="rId85"/>
+    <hyperlink ref="C111" r:id="rId86"/>
+    <hyperlink ref="C112" r:id="rId87"/>
+    <hyperlink ref="C113" r:id="rId88"/>
+    <hyperlink ref="C116" r:id="rId89"/>
+    <hyperlink ref="C117" r:id="rId90"/>
+    <hyperlink ref="C118" r:id="rId91"/>
+    <hyperlink ref="C119" r:id="rId92"/>
+    <hyperlink ref="C121" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="C122" r:id="rId94"/>
+    <hyperlink ref="C123" r:id="rId95"/>
+    <hyperlink ref="C124" r:id="rId96"/>
+    <hyperlink ref="C125" r:id="rId97"/>
+    <hyperlink ref="C126" r:id="rId98"/>
+    <hyperlink ref="C128" r:id="rId99"/>
+    <hyperlink ref="C129" r:id="rId100"/>
+    <hyperlink ref="C130" r:id="rId101"/>
+    <hyperlink ref="C131" r:id="rId102"/>
+    <hyperlink ref="C132" r:id="rId103"/>
+    <hyperlink ref="C133" r:id="rId104"/>
+    <hyperlink ref="C134" r:id="rId105"/>
+    <hyperlink ref="C135" r:id="rId106"/>
+    <hyperlink ref="C136" r:id="rId107"/>
+    <hyperlink ref="C137" r:id="rId108"/>
+    <hyperlink ref="C138" r:id="rId109"/>
+    <hyperlink ref="C139" r:id="rId110"/>
+    <hyperlink ref="C140" r:id="rId111"/>
+    <hyperlink ref="C141" r:id="rId112"/>
+    <hyperlink ref="C142" r:id="rId113"/>
+    <hyperlink ref="C143" r:id="rId114"/>
+    <hyperlink ref="C144" r:id="rId115"/>
+    <hyperlink ref="C145" r:id="rId116"/>
+    <hyperlink ref="C146" r:id="rId117"/>
+    <hyperlink ref="C147" r:id="rId118"/>
+    <hyperlink ref="C148" r:id="rId119"/>
+    <hyperlink ref="C149" r:id="rId120"/>
+    <hyperlink ref="C150" r:id="rId121"/>
+    <hyperlink ref="C151" r:id="rId122"/>
+    <hyperlink ref="C120" r:id="rId123"/>
+    <hyperlink ref="C127" r:id="rId124"/>
+    <hyperlink ref="C155" r:id="rId125"/>
+    <hyperlink ref="C156" r:id="rId126"/>
+    <hyperlink ref="C157" r:id="rId127"/>
+    <hyperlink ref="C158" r:id="rId128"/>
+    <hyperlink ref="C159" r:id="rId129"/>
+    <hyperlink ref="C160" r:id="rId130"/>
+    <hyperlink ref="C161" r:id="rId131"/>
+    <hyperlink ref="C162" r:id="rId132"/>
+    <hyperlink ref="C163" r:id="rId133"/>
+    <hyperlink ref="C164" r:id="rId134"/>
+    <hyperlink ref="C165" r:id="rId135"/>
+    <hyperlink ref="C166" r:id="rId136"/>
+    <hyperlink ref="C167" r:id="rId137"/>
+    <hyperlink ref="C168" r:id="rId138"/>
+    <hyperlink ref="C169" r:id="rId139"/>
+    <hyperlink ref="C170" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C171" r:id="rId141"/>
+    <hyperlink ref="C172" r:id="rId142"/>
+    <hyperlink ref="C173" r:id="rId143"/>
+    <hyperlink ref="C174" r:id="rId144"/>
+    <hyperlink ref="C175" r:id="rId145"/>
+    <hyperlink ref="C176" r:id="rId146"/>
+    <hyperlink ref="C177" r:id="rId147"/>
+    <hyperlink ref="C178" r:id="rId148"/>
+    <hyperlink ref="C179" r:id="rId149"/>
+    <hyperlink ref="C182" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="C183" r:id="rId151"/>
+    <hyperlink ref="C184" r:id="rId152"/>
+    <hyperlink ref="C185" r:id="rId153"/>
+    <hyperlink ref="C186" r:id="rId154"/>
+    <hyperlink ref="C187" r:id="rId155"/>
+    <hyperlink ref="C188" r:id="rId156"/>
+    <hyperlink ref="C189" r:id="rId157"/>
+    <hyperlink ref="C190" r:id="rId158"/>
+    <hyperlink ref="C193" r:id="rId159"/>
+    <hyperlink ref="C194" r:id="rId160"/>
+    <hyperlink ref="C195" r:id="rId161"/>
+    <hyperlink ref="C196" r:id="rId162"/>
+    <hyperlink ref="C197" r:id="rId163"/>
+    <hyperlink ref="C198" r:id="rId164"/>
+    <hyperlink ref="C199" r:id="rId165"/>
+    <hyperlink ref="C200" r:id="rId166"/>
+    <hyperlink ref="C201" r:id="rId167"/>
+    <hyperlink ref="C202" r:id="rId168"/>
+    <hyperlink ref="C203" r:id="rId169"/>
+    <hyperlink ref="C204" r:id="rId170"/>
+    <hyperlink ref="C205" r:id="rId171"/>
+    <hyperlink ref="C206" r:id="rId172"/>
+    <hyperlink ref="C207" r:id="rId173"/>
+    <hyperlink ref="C208" r:id="rId174"/>
+    <hyperlink ref="C209" r:id="rId175"/>
+    <hyperlink ref="C210" r:id="rId176"/>
+    <hyperlink ref="C211" r:id="rId177"/>
+    <hyperlink ref="C212" r:id="rId178"/>
+    <hyperlink ref="C213" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="C214" r:id="rId180"/>
+    <hyperlink ref="C215" r:id="rId181"/>
+    <hyperlink ref="C216" r:id="rId182"/>
+    <hyperlink ref="C217" r:id="rId183"/>
+    <hyperlink ref="C218" r:id="rId184"/>
+    <hyperlink ref="C219" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="C220" r:id="rId186"/>
+    <hyperlink ref="C221" r:id="rId187"/>
+    <hyperlink ref="C222" r:id="rId188"/>
+    <hyperlink ref="C223" r:id="rId189"/>
+    <hyperlink ref="C224" r:id="rId190"/>
+    <hyperlink ref="C225" r:id="rId191"/>
+    <hyperlink ref="C226" r:id="rId192"/>
+    <hyperlink ref="C227" r:id="rId193"/>
+    <hyperlink ref="C230" r:id="rId194"/>
+    <hyperlink ref="C231" r:id="rId195"/>
+    <hyperlink ref="C232" r:id="rId196"/>
+    <hyperlink ref="C233" r:id="rId197"/>
+    <hyperlink ref="C234" r:id="rId198"/>
+    <hyperlink ref="C235" r:id="rId199"/>
+    <hyperlink ref="C236" r:id="rId200"/>
+    <hyperlink ref="C237" r:id="rId201"/>
+    <hyperlink ref="C238" r:id="rId202"/>
+    <hyperlink ref="C239" r:id="rId203"/>
+    <hyperlink ref="C240" r:id="rId204"/>
+    <hyperlink ref="C241" r:id="rId205"/>
+    <hyperlink ref="C242" r:id="rId206"/>
+    <hyperlink ref="C243" r:id="rId207"/>
+    <hyperlink ref="C244" r:id="rId208"/>
+    <hyperlink ref="C245" r:id="rId209"/>
+    <hyperlink ref="C246" r:id="rId210"/>
+    <hyperlink ref="C247" r:id="rId211"/>
+    <hyperlink ref="C248" r:id="rId212"/>
+    <hyperlink ref="C249" r:id="rId213"/>
+    <hyperlink ref="C250" r:id="rId214"/>
+    <hyperlink ref="C251" r:id="rId215"/>
+    <hyperlink ref="C254" r:id="rId216"/>
+    <hyperlink ref="C255" r:id="rId217"/>
+    <hyperlink ref="C256" r:id="rId218"/>
+    <hyperlink ref="C257" r:id="rId219"/>
+    <hyperlink ref="C258" r:id="rId220"/>
+    <hyperlink ref="C259" r:id="rId221"/>
+    <hyperlink ref="C260" r:id="rId222"/>
+    <hyperlink ref="C261" r:id="rId223"/>
+    <hyperlink ref="C262" r:id="rId224"/>
+    <hyperlink ref="C263" r:id="rId225"/>
+    <hyperlink ref="C264" r:id="rId226"/>
+    <hyperlink ref="C265" r:id="rId227"/>
+    <hyperlink ref="C266" r:id="rId228"/>
+    <hyperlink ref="C267" r:id="rId229"/>
+    <hyperlink ref="C268" r:id="rId230"/>
+    <hyperlink ref="C269" r:id="rId231"/>
+    <hyperlink ref="C270" r:id="rId232"/>
+    <hyperlink ref="C271" r:id="rId233"/>
+    <hyperlink ref="C272" r:id="rId234"/>
+    <hyperlink ref="C273" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="C274" r:id="rId236"/>
+    <hyperlink ref="C275" r:id="rId237"/>
+    <hyperlink ref="C276" r:id="rId238"/>
+    <hyperlink ref="C277" r:id="rId239"/>
+    <hyperlink ref="C278" r:id="rId240"/>
+    <hyperlink ref="C279" r:id="rId241"/>
+    <hyperlink ref="C280" r:id="rId242"/>
+    <hyperlink ref="C281" r:id="rId243"/>
+    <hyperlink ref="C282" r:id="rId244"/>
+    <hyperlink ref="C283" r:id="rId245"/>
+    <hyperlink ref="C284" r:id="rId246"/>
+    <hyperlink ref="C285" r:id="rId247"/>
+    <hyperlink ref="C286" r:id="rId248"/>
+    <hyperlink ref="C287" r:id="rId249"/>
+    <hyperlink ref="C288" r:id="rId250"/>
+    <hyperlink ref="C291" r:id="rId251"/>
+    <hyperlink ref="C292" r:id="rId252"/>
+    <hyperlink ref="C293" r:id="rId253"/>
+    <hyperlink ref="C294" r:id="rId254"/>
+    <hyperlink ref="C295" r:id="rId255"/>
+    <hyperlink ref="C296" r:id="rId256"/>
+    <hyperlink ref="C297" r:id="rId257"/>
+    <hyperlink ref="C298" r:id="rId258"/>
+    <hyperlink ref="C299" r:id="rId259"/>
+    <hyperlink ref="C300" r:id="rId260"/>
+    <hyperlink ref="C301" r:id="rId261"/>
+    <hyperlink ref="C302" r:id="rId262"/>
+    <hyperlink ref="C303" r:id="rId263"/>
+    <hyperlink ref="C304" r:id="rId264"/>
+    <hyperlink ref="C305" r:id="rId265"/>
+    <hyperlink ref="C306" r:id="rId266"/>
+    <hyperlink ref="C307" r:id="rId267"/>
+    <hyperlink ref="C308" r:id="rId268"/>
+    <hyperlink ref="C309" r:id="rId269"/>
+    <hyperlink ref="C312" r:id="rId270"/>
+    <hyperlink ref="C313" r:id="rId271"/>
+    <hyperlink ref="C314" r:id="rId272"/>
+    <hyperlink ref="C315" r:id="rId273"/>
+    <hyperlink ref="C316" r:id="rId274"/>
+    <hyperlink ref="C317" r:id="rId275"/>
+    <hyperlink ref="C318" r:id="rId276"/>
+    <hyperlink ref="C319" r:id="rId277"/>
+    <hyperlink ref="C320" r:id="rId278"/>
+    <hyperlink ref="C321" r:id="rId279"/>
+    <hyperlink ref="C322" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="C323" r:id="rId281"/>
+    <hyperlink ref="C324" r:id="rId282"/>
+    <hyperlink ref="C325" r:id="rId283"/>
+    <hyperlink ref="C326" r:id="rId284"/>
+    <hyperlink ref="C327" r:id="rId285"/>
+    <hyperlink ref="C328" r:id="rId286"/>
+    <hyperlink ref="C329" r:id="rId287"/>
+    <hyperlink ref="C330" r:id="rId288"/>
+    <hyperlink ref="C331" r:id="rId289"/>
+    <hyperlink ref="C332" r:id="rId290"/>
+    <hyperlink ref="C333" r:id="rId291"/>
+    <hyperlink ref="C334" r:id="rId292"/>
+    <hyperlink ref="C335" r:id="rId293"/>
+    <hyperlink ref="C336" r:id="rId294"/>
+    <hyperlink ref="C337" r:id="rId295"/>
+    <hyperlink ref="C338" r:id="rId296"/>
+    <hyperlink ref="C339" r:id="rId297"/>
+    <hyperlink ref="C340" r:id="rId298"/>
+    <hyperlink ref="C341" r:id="rId299"/>
+    <hyperlink ref="C342" r:id="rId300"/>
+    <hyperlink ref="C343" r:id="rId301"/>
+    <hyperlink ref="C344" r:id="rId302"/>
+    <hyperlink ref="C345" r:id="rId303"/>
+    <hyperlink ref="C346" r:id="rId304"/>
+    <hyperlink ref="C347" r:id="rId305"/>
+    <hyperlink ref="C348" r:id="rId306"/>
+    <hyperlink ref="C349" r:id="rId307"/>
+    <hyperlink ref="C352" r:id="rId308"/>
+    <hyperlink ref="C353" r:id="rId309"/>
+    <hyperlink ref="C354" r:id="rId310"/>
+    <hyperlink ref="C355" r:id="rId311"/>
+    <hyperlink ref="C356" r:id="rId312"/>
+    <hyperlink ref="C357" r:id="rId313"/>
+    <hyperlink ref="C358" r:id="rId314"/>
+    <hyperlink ref="C359" r:id="rId315"/>
+    <hyperlink ref="C360" r:id="rId316"/>
+    <hyperlink ref="C361" r:id="rId317"/>
+    <hyperlink ref="C362" r:id="rId318"/>
+    <hyperlink ref="C363" r:id="rId319"/>
+    <hyperlink ref="C364" r:id="rId320"/>
+    <hyperlink ref="C365" r:id="rId321"/>
+    <hyperlink ref="C366" r:id="rId322"/>
+    <hyperlink ref="C367" r:id="rId323"/>
+    <hyperlink ref="C368" r:id="rId324"/>
+    <hyperlink ref="C369" r:id="rId325"/>
+    <hyperlink ref="C373" r:id="rId326"/>
+    <hyperlink ref="C374" r:id="rId327"/>
+    <hyperlink ref="C375" r:id="rId328"/>
+    <hyperlink ref="C376" r:id="rId329"/>
+    <hyperlink ref="C377" r:id="rId330"/>
+    <hyperlink ref="C378" r:id="rId331"/>
+    <hyperlink ref="C379" r:id="rId332"/>
+    <hyperlink ref="C380" r:id="rId333"/>
+    <hyperlink ref="C381" r:id="rId334"/>
+    <hyperlink ref="C382" r:id="rId335"/>
+    <hyperlink ref="C383" r:id="rId336"/>
+    <hyperlink ref="C384" r:id="rId337"/>
+    <hyperlink ref="C385" r:id="rId338"/>
+    <hyperlink ref="C386" r:id="rId339"/>
+    <hyperlink ref="C387" r:id="rId340"/>
+    <hyperlink ref="C388" r:id="rId341"/>
+    <hyperlink ref="C389" r:id="rId342"/>
+    <hyperlink ref="C390" r:id="rId343"/>
+    <hyperlink ref="C391" r:id="rId344"/>
+    <hyperlink ref="C392" r:id="rId345"/>
+    <hyperlink ref="C393" r:id="rId346"/>
+    <hyperlink ref="C394" r:id="rId347"/>
+    <hyperlink ref="C395" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="C396" r:id="rId349"/>
+    <hyperlink ref="C397" r:id="rId350"/>
+    <hyperlink ref="C398" r:id="rId351"/>
+    <hyperlink ref="C399" r:id="rId352"/>
+    <hyperlink ref="C400" r:id="rId353"/>
+    <hyperlink ref="C401" r:id="rId354"/>
+    <hyperlink ref="C402" r:id="rId355"/>
+    <hyperlink ref="C403" r:id="rId356"/>
+    <hyperlink ref="C404" r:id="rId357"/>
+    <hyperlink ref="C405" r:id="rId358"/>
+    <hyperlink ref="C406" r:id="rId359"/>
+    <hyperlink ref="C407" r:id="rId360"/>
+    <hyperlink ref="C408" r:id="rId361"/>
+    <hyperlink ref="C409" r:id="rId362"/>
+    <hyperlink ref="C410" r:id="rId363"/>
+    <hyperlink ref="C412" r:id="rId364"/>
+    <hyperlink ref="C411" r:id="rId365"/>
+    <hyperlink ref="C413" r:id="rId366"/>
+    <hyperlink ref="C414" r:id="rId367"/>
+    <hyperlink ref="C415" r:id="rId368"/>
+    <hyperlink ref="C418" r:id="rId369"/>
+    <hyperlink ref="C419" r:id="rId370"/>
+    <hyperlink ref="C420" r:id="rId371"/>
+    <hyperlink ref="C421" r:id="rId372"/>
+    <hyperlink ref="C422" r:id="rId373"/>
+    <hyperlink ref="C423" r:id="rId374"/>
+    <hyperlink ref="C426" r:id="rId375"/>
+    <hyperlink ref="C427" r:id="rId376"/>
+    <hyperlink ref="C428" r:id="rId377"/>
+    <hyperlink ref="C429" r:id="rId378"/>
+    <hyperlink ref="C430" r:id="rId379"/>
+    <hyperlink ref="C431" r:id="rId380"/>
+    <hyperlink ref="C432" r:id="rId381"/>
+    <hyperlink ref="C433" r:id="rId382"/>
+    <hyperlink ref="C434" r:id="rId383"/>
+    <hyperlink ref="C435" r:id="rId384"/>
+    <hyperlink ref="C436" r:id="rId385"/>
+    <hyperlink ref="C437" r:id="rId386"/>
+    <hyperlink ref="C438" r:id="rId387"/>
+    <hyperlink ref="C439" r:id="rId388"/>
+    <hyperlink ref="C440" r:id="rId389"/>
+    <hyperlink ref="C441" r:id="rId390"/>
+    <hyperlink ref="C442" r:id="rId391"/>
+    <hyperlink ref="C443" r:id="rId392"/>
+    <hyperlink ref="C444" r:id="rId393"/>
+    <hyperlink ref="C445" r:id="rId394"/>
+    <hyperlink ref="C446" r:id="rId395"/>
+    <hyperlink ref="C447" r:id="rId396"/>
+    <hyperlink ref="C448" r:id="rId397"/>
+    <hyperlink ref="C449" r:id="rId398"/>
+    <hyperlink ref="C450" r:id="rId399"/>
+    <hyperlink ref="C451" r:id="rId400"/>
+    <hyperlink ref="C452" r:id="rId401"/>
+    <hyperlink ref="C453" r:id="rId402"/>
+    <hyperlink ref="C454" r:id="rId403"/>
+    <hyperlink ref="C455" r:id="rId404"/>
+    <hyperlink ref="C456" r:id="rId405"/>
+    <hyperlink ref="C457" r:id="rId406"/>
+    <hyperlink ref="C458" r:id="rId407"/>
+    <hyperlink ref="C459" r:id="rId408"/>
+    <hyperlink ref="C460" r:id="rId409"/>
+    <hyperlink ref="C461" r:id="rId410"/>
+    <hyperlink ref="C462" r:id="rId411"/>
+    <hyperlink ref="C463" r:id="rId412"/>
+    <hyperlink ref="C464" r:id="rId413"/>
+    <hyperlink ref="C465" r:id="rId414"/>
+    <hyperlink ref="C467" r:id="rId415"/>
+    <hyperlink ref="C466" r:id="rId416"/>
+    <hyperlink ref="C468" r:id="rId417"/>
+    <hyperlink ref="C469" r:id="rId418"/>
+    <hyperlink ref="C470" r:id="rId419"/>
+    <hyperlink ref="C471" r:id="rId420"/>
+    <hyperlink ref="C472" r:id="rId421"/>
+    <hyperlink ref="C473" r:id="rId422"/>
+    <hyperlink ref="C474" r:id="rId423"/>
+    <hyperlink ref="C475" r:id="rId424"/>
+    <hyperlink ref="C476" r:id="rId425"/>
+    <hyperlink ref="C477" r:id="rId426"/>
+    <hyperlink ref="C478" r:id="rId427"/>
+    <hyperlink ref="C485" r:id="rId428"/>
+    <hyperlink ref="C484" r:id="rId429"/>
+    <hyperlink ref="C483" r:id="rId430"/>
+    <hyperlink ref="C482" r:id="rId431"/>
+    <hyperlink ref="C481" r:id="rId432"/>
+    <hyperlink ref="C480" r:id="rId433"/>
+    <hyperlink ref="C479" r:id="rId434"/>
+    <hyperlink ref="C488" r:id="rId435"/>
+    <hyperlink ref="C489" r:id="rId436"/>
+    <hyperlink ref="C490" r:id="rId437"/>
+    <hyperlink ref="C491" r:id="rId438"/>
+    <hyperlink ref="C492" r:id="rId439"/>
+    <hyperlink ref="C493" r:id="rId440"/>
+    <hyperlink ref="C494" r:id="rId441"/>
+    <hyperlink ref="C497" r:id="rId442"/>
+    <hyperlink ref="C495" r:id="rId443"/>
+    <hyperlink ref="C496" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="C372" r:id="rId445"/>
+    <hyperlink ref="C85" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId446"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1825,6 +1825,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,9 +1890,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2198,7 +2198,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2208,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2222,56 +2222,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A13" s="35"/>
@@ -2291,13 +2291,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2861,7 +2861,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="49" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2869,7 +2869,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="49"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3029,7 +3029,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="49" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3037,7 +3037,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="49"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4055,7 +4055,7 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B139" s="63" t="s">
+      <c r="B139" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C139" s="20" t="s">
@@ -4070,7 +4070,7 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B140" s="63" t="s">
+      <c r="B140" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C140" s="20" t="s">
@@ -4085,7 +4085,7 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B141" s="63" t="s">
+      <c r="B141" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C141" s="20" t="s">
@@ -4100,7 +4100,7 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B142" s="63" t="s">
+      <c r="B142" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C142" s="20" t="s">
@@ -4115,7 +4115,7 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B143" s="63" t="s">
+      <c r="B143" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C143" s="20" t="s">
@@ -4130,7 +4130,7 @@
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B144" s="63" t="s">
+      <c r="B144" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C144" s="20" t="s">
@@ -4145,7 +4145,7 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B145" s="63" t="s">
+      <c r="B145" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C145" s="20" t="s">
@@ -4160,7 +4160,7 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B146" s="63" t="s">
+      <c r="B146" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C146" s="20" t="s">
@@ -4175,7 +4175,7 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B147" s="63" t="s">
+      <c r="B147" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C147" s="20" t="s">
@@ -4190,7 +4190,7 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B148" s="63" t="s">
+      <c r="B148" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="20" t="s">
@@ -4205,7 +4205,7 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B149" s="63" t="s">
+      <c r="B149" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C149" s="20" t="s">
@@ -4250,13 +4250,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="48" t="s">
+      <c r="C153" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="49"/>
+      <c r="C154" s="50"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4816,7 +4816,7 @@
       <c r="C193" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" s="3" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       <c r="C194" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="3" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4925,34 +4925,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A201" s="12">
+    <row r="201" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A201" s="4">
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D201" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A202" s="12">
+      <c r="D201" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A202" s="4">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D202" s="9" t="s">
-        <v>3</v>
+      <c r="D202" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="10" customFormat="1" ht="21">
@@ -5005,7 +5005,7 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="B206" s="63" t="s">
+      <c r="B206" s="42" t="s">
         <v>168</v>
       </c>
       <c r="C206" s="20" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1471,6 +1471,12 @@
   </si>
   <si>
     <t>Check if string is rotated by two places</t>
+  </si>
+  <si>
+    <t>(height vertical index implement in map) with pair queue</t>
+  </si>
+  <si>
+    <t>Binary tree</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2206,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D497"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="B193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192:C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -4801,110 +4807,101 @@
     <row r="191" spans="1:4" s="10" customFormat="1">
       <c r="A191" s="12"/>
     </row>
-    <row r="192" spans="1:4" s="10" customFormat="1" ht="21">
+    <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="9"/>
-    </row>
-    <row r="193" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A193" s="4">
+      <c r="C192" s="49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A193" s="12"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="9"/>
+    </row>
+    <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A194" s="4">
         <v>163</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A194" s="4">
-        <f>+A193+1</f>
-        <v>164</v>
       </c>
       <c r="B194" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A195" s="4">
-        <f t="shared" ref="A195:A227" si="5">+A194+1</f>
-        <v>165</v>
+        <f>+A194+1</f>
+        <v>164</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A196" s="4">
+        <f t="shared" ref="A196:A228" si="5">+A195+1</f>
+        <v>165</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A197" s="4">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B197" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C197" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A197" s="12">
+      <c r="D197" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A198" s="12">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B198" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C198" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D197" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="6" customFormat="1" ht="21">
-      <c r="A198" s="4">
-        <f t="shared" si="5"/>
-        <v>168</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A199" s="4">
         <f t="shared" si="5"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B199" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -4913,13 +4910,13 @@
     <row r="200" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A200" s="4">
         <f t="shared" si="5"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -4928,118 +4925,118 @@
     <row r="201" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A201" s="4">
         <f t="shared" si="5"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>479</v>
+        <v>176</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A202" s="4">
         <f t="shared" si="5"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A203" s="12">
+    <row r="203" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A203" s="4">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A204" s="19">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B204" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C204" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D203" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A204" s="12">
-        <f t="shared" si="5"/>
-        <v>174</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>3</v>
+      <c r="D204" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A205" s="12">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C205" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A206" s="12">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D205" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="21" customFormat="1" ht="21">
-      <c r="A206" s="19">
+      <c r="D206" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A207" s="19">
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="B206" s="42" t="s">
+      <c r="B207" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C207" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D206" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A207" s="12">
-        <f t="shared" si="5"/>
-        <v>177</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D207" s="9" t="s">
+      <c r="D207" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A208" s="12">
         <f t="shared" si="5"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>3</v>
@@ -5048,13 +5045,13 @@
     <row r="209" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A209" s="12">
         <f t="shared" si="5"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>3</v>
@@ -5063,13 +5060,13 @@
     <row r="210" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A210" s="12">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>3</v>
@@ -5078,13 +5075,13 @@
     <row r="211" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A211" s="12">
         <f t="shared" si="5"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>3</v>
@@ -5093,13 +5090,13 @@
     <row r="212" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A212" s="12">
         <f t="shared" si="5"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>3</v>
@@ -5108,13 +5105,13 @@
     <row r="213" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A213" s="12">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>3</v>
@@ -5123,13 +5120,13 @@
     <row r="214" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A214" s="12">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>3</v>
@@ -5138,13 +5135,13 @@
     <row r="215" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A215" s="12">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>3</v>
@@ -5153,13 +5150,13 @@
     <row r="216" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A216" s="12">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>3</v>
@@ -5168,13 +5165,13 @@
     <row r="217" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A217" s="12">
         <f t="shared" si="5"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>3</v>
@@ -5183,13 +5180,13 @@
     <row r="218" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A218" s="12">
         <f t="shared" si="5"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>3</v>
@@ -5198,13 +5195,13 @@
     <row r="219" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A219" s="12">
         <f t="shared" si="5"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>3</v>
@@ -5213,13 +5210,13 @@
     <row r="220" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A220" s="12">
         <f t="shared" si="5"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>3</v>
@@ -5228,13 +5225,13 @@
     <row r="221" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A221" s="12">
         <f t="shared" si="5"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>3</v>
@@ -5243,13 +5240,13 @@
     <row r="222" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A222" s="12">
         <f t="shared" si="5"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>3</v>
@@ -5258,13 +5255,13 @@
     <row r="223" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A223" s="12">
         <f t="shared" si="5"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>3</v>
@@ -5273,13 +5270,13 @@
     <row r="224" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A224" s="12">
         <f t="shared" si="5"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>3</v>
@@ -5288,13 +5285,13 @@
     <row r="225" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A225" s="12">
         <f t="shared" si="5"/>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>3</v>
@@ -5303,13 +5300,13 @@
     <row r="226" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A226" s="12">
         <f t="shared" si="5"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>3</v>
@@ -5318,23 +5315,32 @@
     <row r="227" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A227" s="12">
         <f t="shared" si="5"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C227" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A228" s="12">
+        <f t="shared" si="5"/>
+        <v>197</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C228" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D227" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="9"/>
+      <c r="D228" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="229" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A229" s="12"/>
@@ -5343,29 +5349,20 @@
       <c r="D229" s="9"/>
     </row>
     <row r="230" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A230" s="12">
-        <v>198</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="9"/>
     </row>
     <row r="231" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A231" s="12">
-        <f>+A230+1</f>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>3</v>
@@ -5373,14 +5370,14 @@
     </row>
     <row r="232" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A232" s="12">
-        <f t="shared" ref="A232:A251" si="6">+A231+1</f>
-        <v>200</v>
+        <f>+A231+1</f>
+        <v>199</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>3</v>
@@ -5388,14 +5385,14 @@
     </row>
     <row r="233" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A233" s="12">
-        <f t="shared" si="6"/>
-        <v>201</v>
+        <f t="shared" ref="A233:A252" si="6">+A232+1</f>
+        <v>200</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>3</v>
@@ -5404,13 +5401,13 @@
     <row r="234" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A234" s="12">
         <f t="shared" si="6"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>3</v>
@@ -5419,13 +5416,13 @@
     <row r="235" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A235" s="12">
         <f t="shared" si="6"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>3</v>
@@ -5434,13 +5431,13 @@
     <row r="236" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A236" s="12">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C236" s="18" t="s">
-        <v>211</v>
+      <c r="C236" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>3</v>
@@ -5449,13 +5446,13 @@
     <row r="237" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A237" s="12">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C237" s="8" t="s">
-        <v>212</v>
+      <c r="C237" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>3</v>
@@ -5464,13 +5461,13 @@
     <row r="238" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A238" s="12">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>3</v>
@@ -5479,13 +5476,13 @@
     <row r="239" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A239" s="12">
         <f t="shared" si="6"/>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>3</v>
@@ -5494,13 +5491,13 @@
     <row r="240" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A240" s="12">
         <f t="shared" si="6"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>3</v>
@@ -5509,13 +5506,13 @@
     <row r="241" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A241" s="12">
         <f t="shared" si="6"/>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>3</v>
@@ -5524,13 +5521,13 @@
     <row r="242" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A242" s="12">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>3</v>
@@ -5539,13 +5536,13 @@
     <row r="243" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A243" s="12">
         <f t="shared" si="6"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>3</v>
@@ -5554,13 +5551,13 @@
     <row r="244" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A244" s="12">
         <f t="shared" si="6"/>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>3</v>
@@ -5569,13 +5566,13 @@
     <row r="245" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A245" s="12">
         <f t="shared" si="6"/>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>3</v>
@@ -5584,13 +5581,13 @@
     <row r="246" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A246" s="12">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>3</v>
@@ -5599,13 +5596,13 @@
     <row r="247" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A247" s="12">
         <f t="shared" si="6"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>3</v>
@@ -5614,13 +5611,13 @@
     <row r="248" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A248" s="12">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>3</v>
@@ -5629,13 +5626,13 @@
     <row r="249" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A249" s="12">
         <f t="shared" si="6"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>3</v>
@@ -5644,13 +5641,13 @@
     <row r="250" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A250" s="12">
         <f t="shared" si="6"/>
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>3</v>
@@ -5659,22 +5656,32 @@
     <row r="251" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A251" s="12">
         <f t="shared" si="6"/>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C251" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A252" s="12">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C252" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D251" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A252" s="12"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="9"/>
+      <c r="D252" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="253" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A253" s="12"/>
@@ -5683,15 +5690,8 @@
     </row>
     <row r="254" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A254" s="12"/>
-      <c r="B254" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D254" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C254" s="11"/>
+      <c r="D254" s="9"/>
     </row>
     <row r="255" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A255" s="12"/>
@@ -5699,7 +5699,7 @@
         <v>227</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>3</v>
@@ -5711,7 +5711,7 @@
         <v>227</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>3</v>
@@ -5723,7 +5723,7 @@
         <v>227</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>3</v>
@@ -5735,7 +5735,7 @@
         <v>227</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>3</v>
@@ -5747,7 +5747,7 @@
         <v>227</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>3</v>
@@ -5759,7 +5759,7 @@
         <v>227</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>3</v>
@@ -5771,7 +5771,7 @@
         <v>227</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>3</v>
@@ -5783,7 +5783,7 @@
         <v>227</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>3</v>
@@ -5795,7 +5795,7 @@
         <v>227</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>3</v>
@@ -5807,7 +5807,7 @@
         <v>227</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>3</v>
@@ -5819,7 +5819,7 @@
         <v>227</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>3</v>
@@ -5831,7 +5831,7 @@
         <v>227</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>3</v>
@@ -5843,7 +5843,7 @@
         <v>227</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>3</v>
@@ -5855,7 +5855,7 @@
         <v>227</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>3</v>
@@ -5867,7 +5867,7 @@
         <v>227</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>3</v>
@@ -5879,7 +5879,7 @@
         <v>227</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>3</v>
@@ -5891,7 +5891,7 @@
         <v>227</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>3</v>
@@ -5903,7 +5903,7 @@
         <v>227</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>3</v>
@@ -5915,7 +5915,7 @@
         <v>227</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>3</v>
@@ -5927,7 +5927,7 @@
         <v>227</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>3</v>
@@ -5939,7 +5939,7 @@
         <v>227</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>3</v>
@@ -5951,7 +5951,7 @@
         <v>227</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>3</v>
@@ -5963,7 +5963,7 @@
         <v>227</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>3</v>
@@ -5975,7 +5975,7 @@
         <v>227</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>3</v>
@@ -5987,7 +5987,7 @@
         <v>227</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>3</v>
@@ -5999,7 +5999,7 @@
         <v>227</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>3</v>
@@ -6011,7 +6011,7 @@
         <v>227</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>3</v>
@@ -6023,7 +6023,7 @@
         <v>227</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>3</v>
@@ -6035,7 +6035,7 @@
         <v>227</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>3</v>
@@ -6047,7 +6047,7 @@
         <v>227</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>3</v>
@@ -6059,7 +6059,7 @@
         <v>227</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>3</v>
@@ -6071,7 +6071,7 @@
         <v>227</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>3</v>
@@ -6083,7 +6083,7 @@
         <v>227</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>3</v>
@@ -6095,7 +6095,7 @@
         <v>227</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>3</v>
@@ -6103,8 +6103,15 @@
     </row>
     <row r="289" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A289" s="12"/>
-      <c r="C289" s="11"/>
-      <c r="D289" s="9"/>
+      <c r="B289" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="290" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A290" s="12"/>
@@ -6113,15 +6120,8 @@
     </row>
     <row r="291" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A291" s="12"/>
-      <c r="B291" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D291" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C291" s="11"/>
+      <c r="D291" s="9"/>
     </row>
     <row r="292" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A292" s="12"/>
@@ -6129,7 +6129,7 @@
         <v>262</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>3</v>
@@ -6141,7 +6141,7 @@
         <v>262</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>3</v>
@@ -6153,7 +6153,7 @@
         <v>262</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>3</v>
@@ -6165,7 +6165,7 @@
         <v>262</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>3</v>
@@ -6177,7 +6177,7 @@
         <v>262</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>3</v>
@@ -6189,7 +6189,7 @@
         <v>262</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>3</v>
@@ -6201,7 +6201,7 @@
         <v>262</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>3</v>
@@ -6213,7 +6213,7 @@
         <v>262</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>3</v>
@@ -6225,7 +6225,7 @@
         <v>262</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>3</v>
@@ -6237,7 +6237,7 @@
         <v>262</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>3</v>
@@ -6249,7 +6249,7 @@
         <v>262</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>3</v>
@@ -6261,7 +6261,7 @@
         <v>262</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>3</v>
@@ -6273,7 +6273,7 @@
         <v>262</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>3</v>
@@ -6285,7 +6285,7 @@
         <v>262</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>3</v>
@@ -6297,7 +6297,7 @@
         <v>262</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>3</v>
@@ -6309,7 +6309,7 @@
         <v>262</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>3</v>
@@ -6321,7 +6321,7 @@
         <v>262</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>3</v>
@@ -6333,7 +6333,7 @@
         <v>262</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>3</v>
@@ -6341,8 +6341,15 @@
     </row>
     <row r="310" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A310" s="12"/>
-      <c r="C310" s="11"/>
-      <c r="D310" s="9"/>
+      <c r="B310" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="311" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A311" s="12"/>
@@ -6351,15 +6358,8 @@
     </row>
     <row r="312" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A312" s="12"/>
-      <c r="B312" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C312" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D312" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C312" s="11"/>
+      <c r="D312" s="9"/>
     </row>
     <row r="313" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A313" s="12"/>
@@ -6367,7 +6367,7 @@
         <v>282</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>3</v>
@@ -6379,7 +6379,7 @@
         <v>282</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>3</v>
@@ -6391,7 +6391,7 @@
         <v>282</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>3</v>
@@ -6403,7 +6403,7 @@
         <v>282</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>3</v>
@@ -6415,7 +6415,7 @@
         <v>282</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>3</v>
@@ -6427,7 +6427,7 @@
         <v>282</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>3</v>
@@ -6439,7 +6439,7 @@
         <v>282</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>3</v>
@@ -6451,7 +6451,7 @@
         <v>282</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>3</v>
@@ -6463,7 +6463,7 @@
         <v>282</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>3</v>
@@ -6475,7 +6475,7 @@
         <v>282</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>3</v>
@@ -6487,7 +6487,7 @@
         <v>282</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>3</v>
@@ -6499,7 +6499,7 @@
         <v>282</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>3</v>
@@ -6510,8 +6510,8 @@
       <c r="B325" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C325" s="18" t="s">
-        <v>296</v>
+      <c r="C325" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>3</v>
@@ -6522,8 +6522,8 @@
       <c r="B326" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C326" s="8" t="s">
-        <v>297</v>
+      <c r="C326" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>3</v>
@@ -6535,7 +6535,7 @@
         <v>282</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>3</v>
@@ -6547,7 +6547,7 @@
         <v>282</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>3</v>
@@ -6559,7 +6559,7 @@
         <v>282</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>3</v>
@@ -6571,7 +6571,7 @@
         <v>282</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>3</v>
@@ -6583,7 +6583,7 @@
         <v>282</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>3</v>
@@ -6595,7 +6595,7 @@
         <v>282</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>3</v>
@@ -6607,7 +6607,7 @@
         <v>282</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>3</v>
@@ -6619,7 +6619,7 @@
         <v>282</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>3</v>
@@ -6631,7 +6631,7 @@
         <v>282</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>3</v>
@@ -6643,7 +6643,7 @@
         <v>282</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>3</v>
@@ -6655,7 +6655,7 @@
         <v>282</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>3</v>
@@ -6667,7 +6667,7 @@
         <v>282</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>3</v>
@@ -6679,7 +6679,7 @@
         <v>282</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>3</v>
@@ -6691,7 +6691,7 @@
         <v>282</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>3</v>
@@ -6703,7 +6703,7 @@
         <v>282</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>3</v>
@@ -6715,7 +6715,7 @@
         <v>282</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>3</v>
@@ -6727,7 +6727,7 @@
         <v>282</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>3</v>
@@ -6739,7 +6739,7 @@
         <v>282</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>3</v>
@@ -6751,7 +6751,7 @@
         <v>282</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>3</v>
@@ -6763,7 +6763,7 @@
         <v>282</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>3</v>
@@ -6775,7 +6775,7 @@
         <v>282</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>3</v>
@@ -6787,7 +6787,7 @@
         <v>282</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>3</v>
@@ -6799,7 +6799,7 @@
         <v>282</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>3</v>
@@ -6807,8 +6807,15 @@
     </row>
     <row r="350" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A350" s="12"/>
-      <c r="C350" s="11"/>
-      <c r="D350" s="9"/>
+      <c r="B350" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="351" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A351" s="12"/>
@@ -6817,15 +6824,8 @@
     </row>
     <row r="352" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A352" s="12"/>
-      <c r="B352" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C352" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D352" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C352" s="11"/>
+      <c r="D352" s="9"/>
     </row>
     <row r="353" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A353" s="12"/>
@@ -6833,7 +6833,7 @@
         <v>321</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>3</v>
@@ -6845,7 +6845,7 @@
         <v>321</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>3</v>
@@ -6857,7 +6857,7 @@
         <v>321</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>3</v>
@@ -6869,7 +6869,7 @@
         <v>321</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>3</v>
@@ -6881,7 +6881,7 @@
         <v>321</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>3</v>
@@ -6893,7 +6893,7 @@
         <v>321</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>3</v>
@@ -6905,7 +6905,7 @@
         <v>321</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>3</v>
@@ -6916,8 +6916,8 @@
       <c r="B360" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C360" s="18" t="s">
-        <v>330</v>
+      <c r="C360" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>3</v>
@@ -6928,8 +6928,8 @@
       <c r="B361" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C361" s="8" t="s">
-        <v>331</v>
+      <c r="C361" s="18" t="s">
+        <v>330</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>3</v>
@@ -6941,7 +6941,7 @@
         <v>321</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>3</v>
@@ -6953,7 +6953,7 @@
         <v>321</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>321</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>3</v>
@@ -6977,7 +6977,7 @@
         <v>321</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>3</v>
@@ -6989,7 +6989,7 @@
         <v>321</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>3</v>
@@ -7001,7 +7001,7 @@
         <v>321</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>3</v>
@@ -7013,7 +7013,7 @@
         <v>321</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>3</v>
@@ -7025,7 +7025,7 @@
         <v>321</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>3</v>
@@ -7033,8 +7033,15 @@
     </row>
     <row r="370" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A370" s="12"/>
-      <c r="C370" s="11"/>
-      <c r="D370" s="9"/>
+      <c r="B370" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="371" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A371" s="12"/>
@@ -7043,15 +7050,8 @@
     </row>
     <row r="372" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A372" s="12"/>
-      <c r="B372" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C372" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D372" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C372" s="11"/>
+      <c r="D372" s="9"/>
     </row>
     <row r="373" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A373" s="12"/>
@@ -7059,7 +7059,7 @@
         <v>340</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>3</v>
@@ -7071,7 +7071,7 @@
         <v>340</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>3</v>
@@ -7083,7 +7083,7 @@
         <v>340</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>340</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>3</v>
@@ -7107,7 +7107,7 @@
         <v>340</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>3</v>
@@ -7119,7 +7119,7 @@
         <v>340</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>3</v>
@@ -7131,7 +7131,7 @@
         <v>340</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>3</v>
@@ -7143,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>3</v>
@@ -7155,7 +7155,7 @@
         <v>340</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>3</v>
@@ -7167,7 +7167,7 @@
         <v>340</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>3</v>
@@ -7179,7 +7179,7 @@
         <v>340</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>3</v>
@@ -7191,7 +7191,7 @@
         <v>340</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>3</v>
@@ -7203,7 +7203,7 @@
         <v>340</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>3</v>
@@ -7215,7 +7215,7 @@
         <v>340</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>3</v>
@@ -7227,7 +7227,7 @@
         <v>340</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>3</v>
@@ -7239,7 +7239,7 @@
         <v>340</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>3</v>
@@ -7251,7 +7251,7 @@
         <v>340</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>3</v>
@@ -7263,7 +7263,7 @@
         <v>340</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>3</v>
@@ -7275,7 +7275,7 @@
         <v>340</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>3</v>
@@ -7287,7 +7287,7 @@
         <v>340</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>3</v>
@@ -7299,7 +7299,7 @@
         <v>340</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>3</v>
@@ -7311,7 +7311,7 @@
         <v>340</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>3</v>
@@ -7323,7 +7323,7 @@
         <v>340</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>3</v>
@@ -7335,7 +7335,7 @@
         <v>340</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>3</v>
@@ -7347,7 +7347,7 @@
         <v>340</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>3</v>
@@ -7359,7 +7359,7 @@
         <v>340</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>3</v>
@@ -7371,7 +7371,7 @@
         <v>340</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>3</v>
@@ -7383,7 +7383,7 @@
         <v>340</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>3</v>
@@ -7395,7 +7395,7 @@
         <v>340</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>3</v>
@@ -7407,7 +7407,7 @@
         <v>340</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>3</v>
@@ -7419,7 +7419,7 @@
         <v>340</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>3</v>
@@ -7431,7 +7431,7 @@
         <v>340</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>3</v>
@@ -7443,7 +7443,7 @@
         <v>340</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>3</v>
@@ -7467,7 +7467,7 @@
         <v>340</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>3</v>
@@ -7479,7 +7479,7 @@
         <v>340</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>3</v>
@@ -7491,7 +7491,7 @@
         <v>340</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>3</v>
@@ -7503,7 +7503,7 @@
         <v>340</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>3</v>
@@ -7515,7 +7515,7 @@
         <v>340</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>3</v>
@@ -7527,7 +7527,7 @@
         <v>340</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>3</v>
@@ -7539,7 +7539,7 @@
         <v>340</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>3</v>
@@ -7551,7 +7551,7 @@
         <v>340</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>3</v>
@@ -7563,7 +7563,7 @@
         <v>340</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>3</v>
@@ -7571,8 +7571,15 @@
     </row>
     <row r="416" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A416" s="12"/>
-      <c r="C416" s="11"/>
-      <c r="D416" s="9"/>
+      <c r="B416" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="417" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A417" s="12"/>
@@ -7581,15 +7588,8 @@
     </row>
     <row r="418" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A418" s="12"/>
-      <c r="B418" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C418" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D418" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C418" s="11"/>
+      <c r="D418" s="9"/>
     </row>
     <row r="419" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A419" s="12"/>
@@ -7597,7 +7597,7 @@
         <v>384</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>3</v>
@@ -7609,7 +7609,7 @@
         <v>384</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>3</v>
@@ -7621,7 +7621,7 @@
         <v>384</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>3</v>
@@ -7633,7 +7633,7 @@
         <v>384</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>3</v>
@@ -7645,7 +7645,7 @@
         <v>384</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>3</v>
@@ -7653,8 +7653,15 @@
     </row>
     <row r="424" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A424" s="12"/>
-      <c r="C424" s="11"/>
-      <c r="D424" s="9"/>
+      <c r="B424" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D424" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="425" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A425" s="12"/>
@@ -7663,15 +7670,8 @@
     </row>
     <row r="426" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A426" s="12"/>
-      <c r="B426" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C426" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D426" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C426" s="11"/>
+      <c r="D426" s="9"/>
     </row>
     <row r="427" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A427" s="12"/>
@@ -7679,7 +7679,7 @@
         <v>390</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>3</v>
@@ -7691,7 +7691,7 @@
         <v>390</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>3</v>
@@ -7703,7 +7703,7 @@
         <v>390</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>3</v>
@@ -7715,7 +7715,7 @@
         <v>390</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>3</v>
@@ -7727,7 +7727,7 @@
         <v>390</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>3</v>
@@ -7739,7 +7739,7 @@
         <v>390</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>3</v>
@@ -7751,7 +7751,7 @@
         <v>390</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>3</v>
@@ -7763,7 +7763,7 @@
         <v>390</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>3</v>
@@ -7775,7 +7775,7 @@
         <v>390</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>3</v>
@@ -7787,7 +7787,7 @@
         <v>390</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>3</v>
@@ -7799,7 +7799,7 @@
         <v>390</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>3</v>
@@ -7811,7 +7811,7 @@
         <v>390</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>3</v>
@@ -7823,7 +7823,7 @@
         <v>390</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>3</v>
@@ -7835,7 +7835,7 @@
         <v>390</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>3</v>
@@ -7847,7 +7847,7 @@
         <v>390</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>3</v>
@@ -7859,7 +7859,7 @@
         <v>390</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>3</v>
@@ -7871,7 +7871,7 @@
         <v>390</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>3</v>
@@ -7883,7 +7883,7 @@
         <v>390</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>3</v>
@@ -7895,7 +7895,7 @@
         <v>390</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>3</v>
@@ -7907,7 +7907,7 @@
         <v>390</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>3</v>
@@ -7919,7 +7919,7 @@
         <v>390</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>3</v>
@@ -7931,7 +7931,7 @@
         <v>390</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>3</v>
@@ -7943,7 +7943,7 @@
         <v>390</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>3</v>
@@ -7955,7 +7955,7 @@
         <v>390</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>3</v>
@@ -7967,7 +7967,7 @@
         <v>390</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>3</v>
@@ -7979,7 +7979,7 @@
         <v>390</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>3</v>
@@ -7991,7 +7991,7 @@
         <v>390</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>3</v>
@@ -8003,7 +8003,7 @@
         <v>390</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>3</v>
@@ -8015,7 +8015,7 @@
         <v>390</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>3</v>
@@ -8027,7 +8027,7 @@
         <v>390</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>3</v>
@@ -8039,7 +8039,7 @@
         <v>390</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>3</v>
@@ -8051,7 +8051,7 @@
         <v>390</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>3</v>
@@ -8063,7 +8063,7 @@
         <v>390</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>3</v>
@@ -8075,7 +8075,7 @@
         <v>390</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>3</v>
@@ -8087,7 +8087,7 @@
         <v>390</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>3</v>
@@ -8099,7 +8099,7 @@
         <v>390</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>3</v>
@@ -8111,7 +8111,7 @@
         <v>390</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>3</v>
@@ -8123,7 +8123,7 @@
         <v>390</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>3</v>
@@ -8135,7 +8135,7 @@
         <v>390</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>3</v>
@@ -8147,7 +8147,7 @@
         <v>390</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>3</v>
@@ -8159,7 +8159,7 @@
         <v>390</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>3</v>
@@ -8171,7 +8171,7 @@
         <v>390</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>3</v>
@@ -8183,7 +8183,7 @@
         <v>390</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>3</v>
@@ -8195,7 +8195,7 @@
         <v>390</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>3</v>
@@ -8207,7 +8207,7 @@
         <v>390</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>3</v>
@@ -8219,7 +8219,7 @@
         <v>390</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>3</v>
@@ -8231,7 +8231,7 @@
         <v>390</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>3</v>
@@ -8243,7 +8243,7 @@
         <v>390</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>3</v>
@@ -8255,7 +8255,7 @@
         <v>390</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>3</v>
@@ -8267,7 +8267,7 @@
         <v>390</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>3</v>
@@ -8279,7 +8279,7 @@
         <v>390</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D477" s="9" t="s">
         <v>3</v>
@@ -8291,7 +8291,7 @@
         <v>390</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D478" s="9" t="s">
         <v>3</v>
@@ -8303,7 +8303,7 @@
         <v>390</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D479" s="9" t="s">
         <v>3</v>
@@ -8315,7 +8315,7 @@
         <v>390</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>3</v>
@@ -8327,7 +8327,7 @@
         <v>390</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>3</v>
@@ -8339,7 +8339,7 @@
         <v>390</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>3</v>
@@ -8351,7 +8351,7 @@
         <v>390</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>3</v>
@@ -8363,7 +8363,7 @@
         <v>390</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>3</v>
@@ -8375,7 +8375,7 @@
         <v>390</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>3</v>
@@ -8383,26 +8383,26 @@
     </row>
     <row r="486" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A486" s="12"/>
-      <c r="C486" s="11"/>
-      <c r="D486" s="9"/>
+      <c r="B486" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="487" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A487" s="12"/>
-      <c r="B487" s="12"/>
       <c r="C487" s="11"/>
       <c r="D487" s="9"/>
     </row>
     <row r="488" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A488" s="12"/>
-      <c r="B488" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C488" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D488" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B488" s="12"/>
+      <c r="C488" s="11"/>
+      <c r="D488" s="9"/>
     </row>
     <row r="489" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A489" s="12"/>
@@ -8410,7 +8410,7 @@
         <v>450</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D489" s="9" t="s">
         <v>3</v>
@@ -8422,7 +8422,7 @@
         <v>450</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D490" s="9" t="s">
         <v>3</v>
@@ -8434,7 +8434,7 @@
         <v>450</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D491" s="9" t="s">
         <v>3</v>
@@ -8446,7 +8446,7 @@
         <v>450</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D492" s="9" t="s">
         <v>3</v>
@@ -8458,7 +8458,7 @@
         <v>450</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D493" s="9" t="s">
         <v>3</v>
@@ -8470,7 +8470,7 @@
         <v>450</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D494" s="9" t="s">
         <v>3</v>
@@ -8482,7 +8482,7 @@
         <v>450</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D495" s="9" t="s">
         <v>3</v>
@@ -8494,7 +8494,7 @@
         <v>450</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D496" s="9" t="s">
         <v>3</v>
@@ -8506,14 +8506,27 @@
         <v>450</v>
       </c>
       <c r="C497" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D497" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" s="10" customFormat="1" ht="21">
+      <c r="A498" s="12"/>
+      <c r="B498" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C498" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D497" s="9" t="s">
+      <c r="D498" s="9" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C192:C193"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="C15:C16"/>
@@ -8682,293 +8695,293 @@
     <hyperlink ref="C188" r:id="rId156"/>
     <hyperlink ref="C189" r:id="rId157"/>
     <hyperlink ref="C190" r:id="rId158"/>
-    <hyperlink ref="C193" r:id="rId159"/>
-    <hyperlink ref="C194" r:id="rId160"/>
-    <hyperlink ref="C195" r:id="rId161"/>
-    <hyperlink ref="C196" r:id="rId162"/>
-    <hyperlink ref="C197" r:id="rId163"/>
-    <hyperlink ref="C198" r:id="rId164"/>
-    <hyperlink ref="C199" r:id="rId165"/>
-    <hyperlink ref="C200" r:id="rId166"/>
-    <hyperlink ref="C201" r:id="rId167"/>
-    <hyperlink ref="C202" r:id="rId168"/>
-    <hyperlink ref="C203" r:id="rId169"/>
-    <hyperlink ref="C204" r:id="rId170"/>
-    <hyperlink ref="C205" r:id="rId171"/>
-    <hyperlink ref="C206" r:id="rId172"/>
-    <hyperlink ref="C207" r:id="rId173"/>
-    <hyperlink ref="C208" r:id="rId174"/>
-    <hyperlink ref="C209" r:id="rId175"/>
-    <hyperlink ref="C210" r:id="rId176"/>
-    <hyperlink ref="C211" r:id="rId177"/>
-    <hyperlink ref="C212" r:id="rId178"/>
-    <hyperlink ref="C213" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="C214" r:id="rId180"/>
-    <hyperlink ref="C215" r:id="rId181"/>
-    <hyperlink ref="C216" r:id="rId182"/>
-    <hyperlink ref="C217" r:id="rId183"/>
-    <hyperlink ref="C218" r:id="rId184"/>
-    <hyperlink ref="C219" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="C220" r:id="rId186"/>
-    <hyperlink ref="C221" r:id="rId187"/>
-    <hyperlink ref="C222" r:id="rId188"/>
-    <hyperlink ref="C223" r:id="rId189"/>
-    <hyperlink ref="C224" r:id="rId190"/>
-    <hyperlink ref="C225" r:id="rId191"/>
-    <hyperlink ref="C226" r:id="rId192"/>
-    <hyperlink ref="C227" r:id="rId193"/>
-    <hyperlink ref="C230" r:id="rId194"/>
-    <hyperlink ref="C231" r:id="rId195"/>
-    <hyperlink ref="C232" r:id="rId196"/>
-    <hyperlink ref="C233" r:id="rId197"/>
-    <hyperlink ref="C234" r:id="rId198"/>
-    <hyperlink ref="C235" r:id="rId199"/>
-    <hyperlink ref="C236" r:id="rId200"/>
-    <hyperlink ref="C237" r:id="rId201"/>
-    <hyperlink ref="C238" r:id="rId202"/>
-    <hyperlink ref="C239" r:id="rId203"/>
-    <hyperlink ref="C240" r:id="rId204"/>
-    <hyperlink ref="C241" r:id="rId205"/>
-    <hyperlink ref="C242" r:id="rId206"/>
-    <hyperlink ref="C243" r:id="rId207"/>
-    <hyperlink ref="C244" r:id="rId208"/>
-    <hyperlink ref="C245" r:id="rId209"/>
-    <hyperlink ref="C246" r:id="rId210"/>
-    <hyperlink ref="C247" r:id="rId211"/>
-    <hyperlink ref="C248" r:id="rId212"/>
-    <hyperlink ref="C249" r:id="rId213"/>
-    <hyperlink ref="C250" r:id="rId214"/>
-    <hyperlink ref="C251" r:id="rId215"/>
-    <hyperlink ref="C254" r:id="rId216"/>
-    <hyperlink ref="C255" r:id="rId217"/>
-    <hyperlink ref="C256" r:id="rId218"/>
-    <hyperlink ref="C257" r:id="rId219"/>
-    <hyperlink ref="C258" r:id="rId220"/>
-    <hyperlink ref="C259" r:id="rId221"/>
-    <hyperlink ref="C260" r:id="rId222"/>
-    <hyperlink ref="C261" r:id="rId223"/>
-    <hyperlink ref="C262" r:id="rId224"/>
-    <hyperlink ref="C263" r:id="rId225"/>
-    <hyperlink ref="C264" r:id="rId226"/>
-    <hyperlink ref="C265" r:id="rId227"/>
-    <hyperlink ref="C266" r:id="rId228"/>
-    <hyperlink ref="C267" r:id="rId229"/>
-    <hyperlink ref="C268" r:id="rId230"/>
-    <hyperlink ref="C269" r:id="rId231"/>
-    <hyperlink ref="C270" r:id="rId232"/>
-    <hyperlink ref="C271" r:id="rId233"/>
-    <hyperlink ref="C272" r:id="rId234"/>
-    <hyperlink ref="C273" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="C274" r:id="rId236"/>
-    <hyperlink ref="C275" r:id="rId237"/>
-    <hyperlink ref="C276" r:id="rId238"/>
-    <hyperlink ref="C277" r:id="rId239"/>
-    <hyperlink ref="C278" r:id="rId240"/>
-    <hyperlink ref="C279" r:id="rId241"/>
-    <hyperlink ref="C280" r:id="rId242"/>
-    <hyperlink ref="C281" r:id="rId243"/>
-    <hyperlink ref="C282" r:id="rId244"/>
-    <hyperlink ref="C283" r:id="rId245"/>
-    <hyperlink ref="C284" r:id="rId246"/>
-    <hyperlink ref="C285" r:id="rId247"/>
-    <hyperlink ref="C286" r:id="rId248"/>
-    <hyperlink ref="C287" r:id="rId249"/>
-    <hyperlink ref="C288" r:id="rId250"/>
-    <hyperlink ref="C291" r:id="rId251"/>
-    <hyperlink ref="C292" r:id="rId252"/>
-    <hyperlink ref="C293" r:id="rId253"/>
-    <hyperlink ref="C294" r:id="rId254"/>
-    <hyperlink ref="C295" r:id="rId255"/>
-    <hyperlink ref="C296" r:id="rId256"/>
-    <hyperlink ref="C297" r:id="rId257"/>
-    <hyperlink ref="C298" r:id="rId258"/>
-    <hyperlink ref="C299" r:id="rId259"/>
-    <hyperlink ref="C300" r:id="rId260"/>
-    <hyperlink ref="C301" r:id="rId261"/>
-    <hyperlink ref="C302" r:id="rId262"/>
-    <hyperlink ref="C303" r:id="rId263"/>
-    <hyperlink ref="C304" r:id="rId264"/>
-    <hyperlink ref="C305" r:id="rId265"/>
-    <hyperlink ref="C306" r:id="rId266"/>
-    <hyperlink ref="C307" r:id="rId267"/>
-    <hyperlink ref="C308" r:id="rId268"/>
-    <hyperlink ref="C309" r:id="rId269"/>
-    <hyperlink ref="C312" r:id="rId270"/>
-    <hyperlink ref="C313" r:id="rId271"/>
-    <hyperlink ref="C314" r:id="rId272"/>
-    <hyperlink ref="C315" r:id="rId273"/>
-    <hyperlink ref="C316" r:id="rId274"/>
-    <hyperlink ref="C317" r:id="rId275"/>
-    <hyperlink ref="C318" r:id="rId276"/>
-    <hyperlink ref="C319" r:id="rId277"/>
-    <hyperlink ref="C320" r:id="rId278"/>
-    <hyperlink ref="C321" r:id="rId279"/>
-    <hyperlink ref="C322" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="C323" r:id="rId281"/>
-    <hyperlink ref="C324" r:id="rId282"/>
-    <hyperlink ref="C325" r:id="rId283"/>
-    <hyperlink ref="C326" r:id="rId284"/>
-    <hyperlink ref="C327" r:id="rId285"/>
-    <hyperlink ref="C328" r:id="rId286"/>
-    <hyperlink ref="C329" r:id="rId287"/>
-    <hyperlink ref="C330" r:id="rId288"/>
-    <hyperlink ref="C331" r:id="rId289"/>
-    <hyperlink ref="C332" r:id="rId290"/>
-    <hyperlink ref="C333" r:id="rId291"/>
-    <hyperlink ref="C334" r:id="rId292"/>
-    <hyperlink ref="C335" r:id="rId293"/>
-    <hyperlink ref="C336" r:id="rId294"/>
-    <hyperlink ref="C337" r:id="rId295"/>
-    <hyperlink ref="C338" r:id="rId296"/>
-    <hyperlink ref="C339" r:id="rId297"/>
-    <hyperlink ref="C340" r:id="rId298"/>
-    <hyperlink ref="C341" r:id="rId299"/>
-    <hyperlink ref="C342" r:id="rId300"/>
-    <hyperlink ref="C343" r:id="rId301"/>
-    <hyperlink ref="C344" r:id="rId302"/>
-    <hyperlink ref="C345" r:id="rId303"/>
-    <hyperlink ref="C346" r:id="rId304"/>
-    <hyperlink ref="C347" r:id="rId305"/>
-    <hyperlink ref="C348" r:id="rId306"/>
-    <hyperlink ref="C349" r:id="rId307"/>
-    <hyperlink ref="C352" r:id="rId308"/>
-    <hyperlink ref="C353" r:id="rId309"/>
-    <hyperlink ref="C354" r:id="rId310"/>
-    <hyperlink ref="C355" r:id="rId311"/>
-    <hyperlink ref="C356" r:id="rId312"/>
-    <hyperlink ref="C357" r:id="rId313"/>
-    <hyperlink ref="C358" r:id="rId314"/>
-    <hyperlink ref="C359" r:id="rId315"/>
-    <hyperlink ref="C360" r:id="rId316"/>
-    <hyperlink ref="C361" r:id="rId317"/>
-    <hyperlink ref="C362" r:id="rId318"/>
-    <hyperlink ref="C363" r:id="rId319"/>
-    <hyperlink ref="C364" r:id="rId320"/>
-    <hyperlink ref="C365" r:id="rId321"/>
-    <hyperlink ref="C366" r:id="rId322"/>
-    <hyperlink ref="C367" r:id="rId323"/>
-    <hyperlink ref="C368" r:id="rId324"/>
-    <hyperlink ref="C369" r:id="rId325"/>
-    <hyperlink ref="C373" r:id="rId326"/>
-    <hyperlink ref="C374" r:id="rId327"/>
-    <hyperlink ref="C375" r:id="rId328"/>
-    <hyperlink ref="C376" r:id="rId329"/>
-    <hyperlink ref="C377" r:id="rId330"/>
-    <hyperlink ref="C378" r:id="rId331"/>
-    <hyperlink ref="C379" r:id="rId332"/>
-    <hyperlink ref="C380" r:id="rId333"/>
-    <hyperlink ref="C381" r:id="rId334"/>
-    <hyperlink ref="C382" r:id="rId335"/>
-    <hyperlink ref="C383" r:id="rId336"/>
-    <hyperlink ref="C384" r:id="rId337"/>
-    <hyperlink ref="C385" r:id="rId338"/>
-    <hyperlink ref="C386" r:id="rId339"/>
-    <hyperlink ref="C387" r:id="rId340"/>
-    <hyperlink ref="C388" r:id="rId341"/>
-    <hyperlink ref="C389" r:id="rId342"/>
-    <hyperlink ref="C390" r:id="rId343"/>
-    <hyperlink ref="C391" r:id="rId344"/>
-    <hyperlink ref="C392" r:id="rId345"/>
-    <hyperlink ref="C393" r:id="rId346"/>
-    <hyperlink ref="C394" r:id="rId347"/>
-    <hyperlink ref="C395" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="C396" r:id="rId349"/>
-    <hyperlink ref="C397" r:id="rId350"/>
-    <hyperlink ref="C398" r:id="rId351"/>
-    <hyperlink ref="C399" r:id="rId352"/>
-    <hyperlink ref="C400" r:id="rId353"/>
-    <hyperlink ref="C401" r:id="rId354"/>
-    <hyperlink ref="C402" r:id="rId355"/>
-    <hyperlink ref="C403" r:id="rId356"/>
-    <hyperlink ref="C404" r:id="rId357"/>
-    <hyperlink ref="C405" r:id="rId358"/>
-    <hyperlink ref="C406" r:id="rId359"/>
-    <hyperlink ref="C407" r:id="rId360"/>
-    <hyperlink ref="C408" r:id="rId361"/>
-    <hyperlink ref="C409" r:id="rId362"/>
-    <hyperlink ref="C410" r:id="rId363"/>
-    <hyperlink ref="C412" r:id="rId364"/>
-    <hyperlink ref="C411" r:id="rId365"/>
-    <hyperlink ref="C413" r:id="rId366"/>
-    <hyperlink ref="C414" r:id="rId367"/>
-    <hyperlink ref="C415" r:id="rId368"/>
-    <hyperlink ref="C418" r:id="rId369"/>
-    <hyperlink ref="C419" r:id="rId370"/>
-    <hyperlink ref="C420" r:id="rId371"/>
-    <hyperlink ref="C421" r:id="rId372"/>
-    <hyperlink ref="C422" r:id="rId373"/>
-    <hyperlink ref="C423" r:id="rId374"/>
-    <hyperlink ref="C426" r:id="rId375"/>
-    <hyperlink ref="C427" r:id="rId376"/>
-    <hyperlink ref="C428" r:id="rId377"/>
-    <hyperlink ref="C429" r:id="rId378"/>
-    <hyperlink ref="C430" r:id="rId379"/>
-    <hyperlink ref="C431" r:id="rId380"/>
-    <hyperlink ref="C432" r:id="rId381"/>
-    <hyperlink ref="C433" r:id="rId382"/>
-    <hyperlink ref="C434" r:id="rId383"/>
-    <hyperlink ref="C435" r:id="rId384"/>
-    <hyperlink ref="C436" r:id="rId385"/>
-    <hyperlink ref="C437" r:id="rId386"/>
-    <hyperlink ref="C438" r:id="rId387"/>
-    <hyperlink ref="C439" r:id="rId388"/>
-    <hyperlink ref="C440" r:id="rId389"/>
-    <hyperlink ref="C441" r:id="rId390"/>
-    <hyperlink ref="C442" r:id="rId391"/>
-    <hyperlink ref="C443" r:id="rId392"/>
-    <hyperlink ref="C444" r:id="rId393"/>
-    <hyperlink ref="C445" r:id="rId394"/>
-    <hyperlink ref="C446" r:id="rId395"/>
-    <hyperlink ref="C447" r:id="rId396"/>
-    <hyperlink ref="C448" r:id="rId397"/>
-    <hyperlink ref="C449" r:id="rId398"/>
-    <hyperlink ref="C450" r:id="rId399"/>
-    <hyperlink ref="C451" r:id="rId400"/>
-    <hyperlink ref="C452" r:id="rId401"/>
-    <hyperlink ref="C453" r:id="rId402"/>
-    <hyperlink ref="C454" r:id="rId403"/>
-    <hyperlink ref="C455" r:id="rId404"/>
-    <hyperlink ref="C456" r:id="rId405"/>
-    <hyperlink ref="C457" r:id="rId406"/>
-    <hyperlink ref="C458" r:id="rId407"/>
-    <hyperlink ref="C459" r:id="rId408"/>
-    <hyperlink ref="C460" r:id="rId409"/>
-    <hyperlink ref="C461" r:id="rId410"/>
-    <hyperlink ref="C462" r:id="rId411"/>
-    <hyperlink ref="C463" r:id="rId412"/>
-    <hyperlink ref="C464" r:id="rId413"/>
-    <hyperlink ref="C465" r:id="rId414"/>
-    <hyperlink ref="C467" r:id="rId415"/>
-    <hyperlink ref="C466" r:id="rId416"/>
-    <hyperlink ref="C468" r:id="rId417"/>
-    <hyperlink ref="C469" r:id="rId418"/>
-    <hyperlink ref="C470" r:id="rId419"/>
-    <hyperlink ref="C471" r:id="rId420"/>
-    <hyperlink ref="C472" r:id="rId421"/>
-    <hyperlink ref="C473" r:id="rId422"/>
-    <hyperlink ref="C474" r:id="rId423"/>
-    <hyperlink ref="C475" r:id="rId424"/>
-    <hyperlink ref="C476" r:id="rId425"/>
-    <hyperlink ref="C477" r:id="rId426"/>
-    <hyperlink ref="C478" r:id="rId427"/>
-    <hyperlink ref="C485" r:id="rId428"/>
-    <hyperlink ref="C484" r:id="rId429"/>
-    <hyperlink ref="C483" r:id="rId430"/>
-    <hyperlink ref="C482" r:id="rId431"/>
-    <hyperlink ref="C481" r:id="rId432"/>
-    <hyperlink ref="C480" r:id="rId433"/>
-    <hyperlink ref="C479" r:id="rId434"/>
-    <hyperlink ref="C488" r:id="rId435"/>
-    <hyperlink ref="C489" r:id="rId436"/>
-    <hyperlink ref="C490" r:id="rId437"/>
-    <hyperlink ref="C491" r:id="rId438"/>
-    <hyperlink ref="C492" r:id="rId439"/>
-    <hyperlink ref="C493" r:id="rId440"/>
-    <hyperlink ref="C494" r:id="rId441"/>
-    <hyperlink ref="C497" r:id="rId442"/>
-    <hyperlink ref="C495" r:id="rId443"/>
-    <hyperlink ref="C496" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="C372" r:id="rId445"/>
+    <hyperlink ref="C194" r:id="rId159"/>
+    <hyperlink ref="C195" r:id="rId160"/>
+    <hyperlink ref="C196" r:id="rId161"/>
+    <hyperlink ref="C197" r:id="rId162"/>
+    <hyperlink ref="C198" r:id="rId163"/>
+    <hyperlink ref="C199" r:id="rId164"/>
+    <hyperlink ref="C200" r:id="rId165"/>
+    <hyperlink ref="C201" r:id="rId166"/>
+    <hyperlink ref="C202" r:id="rId167"/>
+    <hyperlink ref="C203" r:id="rId168"/>
+    <hyperlink ref="C204" r:id="rId169"/>
+    <hyperlink ref="C205" r:id="rId170"/>
+    <hyperlink ref="C206" r:id="rId171"/>
+    <hyperlink ref="C207" r:id="rId172"/>
+    <hyperlink ref="C208" r:id="rId173"/>
+    <hyperlink ref="C209" r:id="rId174"/>
+    <hyperlink ref="C210" r:id="rId175"/>
+    <hyperlink ref="C211" r:id="rId176"/>
+    <hyperlink ref="C212" r:id="rId177"/>
+    <hyperlink ref="C213" r:id="rId178"/>
+    <hyperlink ref="C214" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="C215" r:id="rId180"/>
+    <hyperlink ref="C216" r:id="rId181"/>
+    <hyperlink ref="C217" r:id="rId182"/>
+    <hyperlink ref="C218" r:id="rId183"/>
+    <hyperlink ref="C219" r:id="rId184"/>
+    <hyperlink ref="C220" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="C221" r:id="rId186"/>
+    <hyperlink ref="C222" r:id="rId187"/>
+    <hyperlink ref="C223" r:id="rId188"/>
+    <hyperlink ref="C224" r:id="rId189"/>
+    <hyperlink ref="C225" r:id="rId190"/>
+    <hyperlink ref="C226" r:id="rId191"/>
+    <hyperlink ref="C227" r:id="rId192"/>
+    <hyperlink ref="C228" r:id="rId193"/>
+    <hyperlink ref="C231" r:id="rId194"/>
+    <hyperlink ref="C232" r:id="rId195"/>
+    <hyperlink ref="C233" r:id="rId196"/>
+    <hyperlink ref="C234" r:id="rId197"/>
+    <hyperlink ref="C235" r:id="rId198"/>
+    <hyperlink ref="C236" r:id="rId199"/>
+    <hyperlink ref="C237" r:id="rId200"/>
+    <hyperlink ref="C238" r:id="rId201"/>
+    <hyperlink ref="C239" r:id="rId202"/>
+    <hyperlink ref="C240" r:id="rId203"/>
+    <hyperlink ref="C241" r:id="rId204"/>
+    <hyperlink ref="C242" r:id="rId205"/>
+    <hyperlink ref="C243" r:id="rId206"/>
+    <hyperlink ref="C244" r:id="rId207"/>
+    <hyperlink ref="C245" r:id="rId208"/>
+    <hyperlink ref="C246" r:id="rId209"/>
+    <hyperlink ref="C247" r:id="rId210"/>
+    <hyperlink ref="C248" r:id="rId211"/>
+    <hyperlink ref="C249" r:id="rId212"/>
+    <hyperlink ref="C250" r:id="rId213"/>
+    <hyperlink ref="C251" r:id="rId214"/>
+    <hyperlink ref="C252" r:id="rId215"/>
+    <hyperlink ref="C255" r:id="rId216"/>
+    <hyperlink ref="C256" r:id="rId217"/>
+    <hyperlink ref="C257" r:id="rId218"/>
+    <hyperlink ref="C258" r:id="rId219"/>
+    <hyperlink ref="C259" r:id="rId220"/>
+    <hyperlink ref="C260" r:id="rId221"/>
+    <hyperlink ref="C261" r:id="rId222"/>
+    <hyperlink ref="C262" r:id="rId223"/>
+    <hyperlink ref="C263" r:id="rId224"/>
+    <hyperlink ref="C264" r:id="rId225"/>
+    <hyperlink ref="C265" r:id="rId226"/>
+    <hyperlink ref="C266" r:id="rId227"/>
+    <hyperlink ref="C267" r:id="rId228"/>
+    <hyperlink ref="C268" r:id="rId229"/>
+    <hyperlink ref="C269" r:id="rId230"/>
+    <hyperlink ref="C270" r:id="rId231"/>
+    <hyperlink ref="C271" r:id="rId232"/>
+    <hyperlink ref="C272" r:id="rId233"/>
+    <hyperlink ref="C273" r:id="rId234"/>
+    <hyperlink ref="C274" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="C275" r:id="rId236"/>
+    <hyperlink ref="C276" r:id="rId237"/>
+    <hyperlink ref="C277" r:id="rId238"/>
+    <hyperlink ref="C278" r:id="rId239"/>
+    <hyperlink ref="C279" r:id="rId240"/>
+    <hyperlink ref="C280" r:id="rId241"/>
+    <hyperlink ref="C281" r:id="rId242"/>
+    <hyperlink ref="C282" r:id="rId243"/>
+    <hyperlink ref="C283" r:id="rId244"/>
+    <hyperlink ref="C284" r:id="rId245"/>
+    <hyperlink ref="C285" r:id="rId246"/>
+    <hyperlink ref="C286" r:id="rId247"/>
+    <hyperlink ref="C287" r:id="rId248"/>
+    <hyperlink ref="C288" r:id="rId249"/>
+    <hyperlink ref="C289" r:id="rId250"/>
+    <hyperlink ref="C292" r:id="rId251"/>
+    <hyperlink ref="C293" r:id="rId252"/>
+    <hyperlink ref="C294" r:id="rId253"/>
+    <hyperlink ref="C295" r:id="rId254"/>
+    <hyperlink ref="C296" r:id="rId255"/>
+    <hyperlink ref="C297" r:id="rId256"/>
+    <hyperlink ref="C298" r:id="rId257"/>
+    <hyperlink ref="C299" r:id="rId258"/>
+    <hyperlink ref="C300" r:id="rId259"/>
+    <hyperlink ref="C301" r:id="rId260"/>
+    <hyperlink ref="C302" r:id="rId261"/>
+    <hyperlink ref="C303" r:id="rId262"/>
+    <hyperlink ref="C304" r:id="rId263"/>
+    <hyperlink ref="C305" r:id="rId264"/>
+    <hyperlink ref="C306" r:id="rId265"/>
+    <hyperlink ref="C307" r:id="rId266"/>
+    <hyperlink ref="C308" r:id="rId267"/>
+    <hyperlink ref="C309" r:id="rId268"/>
+    <hyperlink ref="C310" r:id="rId269"/>
+    <hyperlink ref="C313" r:id="rId270"/>
+    <hyperlink ref="C314" r:id="rId271"/>
+    <hyperlink ref="C315" r:id="rId272"/>
+    <hyperlink ref="C316" r:id="rId273"/>
+    <hyperlink ref="C317" r:id="rId274"/>
+    <hyperlink ref="C318" r:id="rId275"/>
+    <hyperlink ref="C319" r:id="rId276"/>
+    <hyperlink ref="C320" r:id="rId277"/>
+    <hyperlink ref="C321" r:id="rId278"/>
+    <hyperlink ref="C322" r:id="rId279"/>
+    <hyperlink ref="C323" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="C324" r:id="rId281"/>
+    <hyperlink ref="C325" r:id="rId282"/>
+    <hyperlink ref="C326" r:id="rId283"/>
+    <hyperlink ref="C327" r:id="rId284"/>
+    <hyperlink ref="C328" r:id="rId285"/>
+    <hyperlink ref="C329" r:id="rId286"/>
+    <hyperlink ref="C330" r:id="rId287"/>
+    <hyperlink ref="C331" r:id="rId288"/>
+    <hyperlink ref="C332" r:id="rId289"/>
+    <hyperlink ref="C333" r:id="rId290"/>
+    <hyperlink ref="C334" r:id="rId291"/>
+    <hyperlink ref="C335" r:id="rId292"/>
+    <hyperlink ref="C336" r:id="rId293"/>
+    <hyperlink ref="C337" r:id="rId294"/>
+    <hyperlink ref="C338" r:id="rId295"/>
+    <hyperlink ref="C339" r:id="rId296"/>
+    <hyperlink ref="C340" r:id="rId297"/>
+    <hyperlink ref="C341" r:id="rId298"/>
+    <hyperlink ref="C342" r:id="rId299"/>
+    <hyperlink ref="C343" r:id="rId300"/>
+    <hyperlink ref="C344" r:id="rId301"/>
+    <hyperlink ref="C345" r:id="rId302"/>
+    <hyperlink ref="C346" r:id="rId303"/>
+    <hyperlink ref="C347" r:id="rId304"/>
+    <hyperlink ref="C348" r:id="rId305"/>
+    <hyperlink ref="C349" r:id="rId306"/>
+    <hyperlink ref="C350" r:id="rId307"/>
+    <hyperlink ref="C353" r:id="rId308"/>
+    <hyperlink ref="C354" r:id="rId309"/>
+    <hyperlink ref="C355" r:id="rId310"/>
+    <hyperlink ref="C356" r:id="rId311"/>
+    <hyperlink ref="C357" r:id="rId312"/>
+    <hyperlink ref="C358" r:id="rId313"/>
+    <hyperlink ref="C359" r:id="rId314"/>
+    <hyperlink ref="C360" r:id="rId315"/>
+    <hyperlink ref="C361" r:id="rId316"/>
+    <hyperlink ref="C362" r:id="rId317"/>
+    <hyperlink ref="C363" r:id="rId318"/>
+    <hyperlink ref="C364" r:id="rId319"/>
+    <hyperlink ref="C365" r:id="rId320"/>
+    <hyperlink ref="C366" r:id="rId321"/>
+    <hyperlink ref="C367" r:id="rId322"/>
+    <hyperlink ref="C368" r:id="rId323"/>
+    <hyperlink ref="C369" r:id="rId324"/>
+    <hyperlink ref="C370" r:id="rId325"/>
+    <hyperlink ref="C374" r:id="rId326"/>
+    <hyperlink ref="C375" r:id="rId327"/>
+    <hyperlink ref="C376" r:id="rId328"/>
+    <hyperlink ref="C377" r:id="rId329"/>
+    <hyperlink ref="C378" r:id="rId330"/>
+    <hyperlink ref="C379" r:id="rId331"/>
+    <hyperlink ref="C380" r:id="rId332"/>
+    <hyperlink ref="C381" r:id="rId333"/>
+    <hyperlink ref="C382" r:id="rId334"/>
+    <hyperlink ref="C383" r:id="rId335"/>
+    <hyperlink ref="C384" r:id="rId336"/>
+    <hyperlink ref="C385" r:id="rId337"/>
+    <hyperlink ref="C386" r:id="rId338"/>
+    <hyperlink ref="C387" r:id="rId339"/>
+    <hyperlink ref="C388" r:id="rId340"/>
+    <hyperlink ref="C389" r:id="rId341"/>
+    <hyperlink ref="C390" r:id="rId342"/>
+    <hyperlink ref="C391" r:id="rId343"/>
+    <hyperlink ref="C392" r:id="rId344"/>
+    <hyperlink ref="C393" r:id="rId345"/>
+    <hyperlink ref="C394" r:id="rId346"/>
+    <hyperlink ref="C395" r:id="rId347"/>
+    <hyperlink ref="C396" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="C397" r:id="rId349"/>
+    <hyperlink ref="C398" r:id="rId350"/>
+    <hyperlink ref="C399" r:id="rId351"/>
+    <hyperlink ref="C400" r:id="rId352"/>
+    <hyperlink ref="C401" r:id="rId353"/>
+    <hyperlink ref="C402" r:id="rId354"/>
+    <hyperlink ref="C403" r:id="rId355"/>
+    <hyperlink ref="C404" r:id="rId356"/>
+    <hyperlink ref="C405" r:id="rId357"/>
+    <hyperlink ref="C406" r:id="rId358"/>
+    <hyperlink ref="C407" r:id="rId359"/>
+    <hyperlink ref="C408" r:id="rId360"/>
+    <hyperlink ref="C409" r:id="rId361"/>
+    <hyperlink ref="C410" r:id="rId362"/>
+    <hyperlink ref="C411" r:id="rId363"/>
+    <hyperlink ref="C413" r:id="rId364"/>
+    <hyperlink ref="C412" r:id="rId365"/>
+    <hyperlink ref="C414" r:id="rId366"/>
+    <hyperlink ref="C415" r:id="rId367"/>
+    <hyperlink ref="C416" r:id="rId368"/>
+    <hyperlink ref="C419" r:id="rId369"/>
+    <hyperlink ref="C420" r:id="rId370"/>
+    <hyperlink ref="C421" r:id="rId371"/>
+    <hyperlink ref="C422" r:id="rId372"/>
+    <hyperlink ref="C423" r:id="rId373"/>
+    <hyperlink ref="C424" r:id="rId374"/>
+    <hyperlink ref="C427" r:id="rId375"/>
+    <hyperlink ref="C428" r:id="rId376"/>
+    <hyperlink ref="C429" r:id="rId377"/>
+    <hyperlink ref="C430" r:id="rId378"/>
+    <hyperlink ref="C431" r:id="rId379"/>
+    <hyperlink ref="C432" r:id="rId380"/>
+    <hyperlink ref="C433" r:id="rId381"/>
+    <hyperlink ref="C434" r:id="rId382"/>
+    <hyperlink ref="C435" r:id="rId383"/>
+    <hyperlink ref="C436" r:id="rId384"/>
+    <hyperlink ref="C437" r:id="rId385"/>
+    <hyperlink ref="C438" r:id="rId386"/>
+    <hyperlink ref="C439" r:id="rId387"/>
+    <hyperlink ref="C440" r:id="rId388"/>
+    <hyperlink ref="C441" r:id="rId389"/>
+    <hyperlink ref="C442" r:id="rId390"/>
+    <hyperlink ref="C443" r:id="rId391"/>
+    <hyperlink ref="C444" r:id="rId392"/>
+    <hyperlink ref="C445" r:id="rId393"/>
+    <hyperlink ref="C446" r:id="rId394"/>
+    <hyperlink ref="C447" r:id="rId395"/>
+    <hyperlink ref="C448" r:id="rId396"/>
+    <hyperlink ref="C449" r:id="rId397"/>
+    <hyperlink ref="C450" r:id="rId398"/>
+    <hyperlink ref="C451" r:id="rId399"/>
+    <hyperlink ref="C452" r:id="rId400"/>
+    <hyperlink ref="C453" r:id="rId401"/>
+    <hyperlink ref="C454" r:id="rId402"/>
+    <hyperlink ref="C455" r:id="rId403"/>
+    <hyperlink ref="C456" r:id="rId404"/>
+    <hyperlink ref="C457" r:id="rId405"/>
+    <hyperlink ref="C458" r:id="rId406"/>
+    <hyperlink ref="C459" r:id="rId407"/>
+    <hyperlink ref="C460" r:id="rId408"/>
+    <hyperlink ref="C461" r:id="rId409"/>
+    <hyperlink ref="C462" r:id="rId410"/>
+    <hyperlink ref="C463" r:id="rId411"/>
+    <hyperlink ref="C464" r:id="rId412"/>
+    <hyperlink ref="C465" r:id="rId413"/>
+    <hyperlink ref="C466" r:id="rId414"/>
+    <hyperlink ref="C468" r:id="rId415"/>
+    <hyperlink ref="C467" r:id="rId416"/>
+    <hyperlink ref="C469" r:id="rId417"/>
+    <hyperlink ref="C470" r:id="rId418"/>
+    <hyperlink ref="C471" r:id="rId419"/>
+    <hyperlink ref="C472" r:id="rId420"/>
+    <hyperlink ref="C473" r:id="rId421"/>
+    <hyperlink ref="C474" r:id="rId422"/>
+    <hyperlink ref="C475" r:id="rId423"/>
+    <hyperlink ref="C476" r:id="rId424"/>
+    <hyperlink ref="C477" r:id="rId425"/>
+    <hyperlink ref="C478" r:id="rId426"/>
+    <hyperlink ref="C479" r:id="rId427"/>
+    <hyperlink ref="C486" r:id="rId428"/>
+    <hyperlink ref="C485" r:id="rId429"/>
+    <hyperlink ref="C484" r:id="rId430"/>
+    <hyperlink ref="C483" r:id="rId431"/>
+    <hyperlink ref="C482" r:id="rId432"/>
+    <hyperlink ref="C481" r:id="rId433"/>
+    <hyperlink ref="C480" r:id="rId434"/>
+    <hyperlink ref="C489" r:id="rId435"/>
+    <hyperlink ref="C490" r:id="rId436"/>
+    <hyperlink ref="C491" r:id="rId437"/>
+    <hyperlink ref="C492" r:id="rId438"/>
+    <hyperlink ref="C493" r:id="rId439"/>
+    <hyperlink ref="C494" r:id="rId440"/>
+    <hyperlink ref="C495" r:id="rId441"/>
+    <hyperlink ref="C498" r:id="rId442"/>
+    <hyperlink ref="C496" r:id="rId443"/>
+    <hyperlink ref="C497" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="C373" r:id="rId445"/>
     <hyperlink ref="C85" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1477,6 +1477,12 @@
   </si>
   <si>
     <t>Binary tree</t>
+  </si>
+  <si>
+    <t>swaping left and right node recursionally</t>
+  </si>
+  <si>
+    <t>vertical Order traversal</t>
   </si>
 </sst>
 </file>
@@ -1834,6 +1840,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1850,12 +1862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2204,7 +2210,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2214,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192:C193"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2228,18 +2234,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -2297,13 +2303,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="50"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2867,7 +2873,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="43" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2875,7 +2881,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="50"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3035,7 +3041,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3043,7 +3049,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="50"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4256,13 +4262,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="49" t="s">
+      <c r="C153" s="43" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="50"/>
+      <c r="C154" s="44"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4809,13 +4815,13 @@
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="49" t="s">
+      <c r="C192" s="43" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="C193" s="50"/>
+      <c r="C193" s="44"/>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -4877,19 +4883,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A198" s="12">
+    <row r="198" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A198" s="4">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D198" s="9" t="s">
-        <v>3</v>
+      <c r="D198" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4982,19 +4988,19 @@
         <v>482</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A205" s="12">
+    <row r="205" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A205" s="4">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D205" s="9" t="s">
-        <v>3</v>
+      <c r="D205" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="489">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1483,6 +1483,15 @@
   </si>
   <si>
     <t>vertical Order traversal</t>
+  </si>
+  <si>
+    <t>reverse even level of tree</t>
+  </si>
+  <si>
+    <t>store node left root in queue and print right node</t>
+  </si>
+  <si>
+    <t>Most imo******</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1902,6 +1911,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2210,7 +2222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2220,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5003,19 +5015,19 @@
         <v>485</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A206" s="12">
+    <row r="206" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A206" s="17">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D206" s="9" t="s">
-        <v>3</v>
+      <c r="D206" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="21" customFormat="1" ht="21">
@@ -5033,33 +5045,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A208" s="12">
+    <row r="208" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A208" s="19">
         <f t="shared" si="5"/>
         <v>177</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A209" s="12">
+      <c r="D208" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A209" s="19">
         <f t="shared" si="5"/>
         <v>178</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D209" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5078,19 +5090,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A211" s="12">
+    <row r="211" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A211" s="17">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="9" t="s">
-        <v>3</v>
+      <c r="D211" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1491,7 +1491,7 @@
     <t>store node left root in queue and print right node</t>
   </si>
   <si>
-    <t>Most imo******</t>
+    <t>Most imp******</t>
   </si>
 </sst>
 </file>
@@ -1849,6 +1849,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,9 +1914,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2222,7 +2222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="B202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2246,56 +2246,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A13" s="35"/>
@@ -2315,13 +2315,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2885,7 +2885,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="44" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2893,7 +2893,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="44"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3053,7 +3053,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3061,7 +3061,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="44"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4274,13 +4274,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="43" t="s">
+      <c r="C153" s="44" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="44"/>
+      <c r="C154" s="45"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4827,13 +4827,13 @@
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="43" t="s">
+      <c r="C192" s="44" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="C193" s="44"/>
+      <c r="C193" s="45"/>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -5020,7 +5020,7 @@
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="B206" s="64" t="s">
+      <c r="B206" s="43" t="s">
         <v>168</v>
       </c>
       <c r="C206" s="13" t="s">
@@ -5095,7 +5095,7 @@
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="B211" s="64" t="s">
+      <c r="B211" s="43" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="13" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1492,13 +1492,16 @@
   </si>
   <si>
     <t>Most imp******</t>
+  </si>
+  <si>
+    <t>using unorder map in which store subtree and increment if some string having more than one increment dubli. Tre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1585,6 +1588,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1757,7 +1768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1914,6 +1925,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2222,7 +2236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2232,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="D205" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5105,18 +5119,18 @@
         <v>488</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A212" s="12">
+    <row r="212" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A212" s="4">
         <f t="shared" si="5"/>
         <v>181</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5150,49 +5164,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A215" s="12">
+    <row r="215" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A215" s="19">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D215" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A216" s="12">
+      <c r="D215" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A216" s="4">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A217" s="12">
+      <c r="D216" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A217" s="17">
         <f t="shared" si="5"/>
         <v>186</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>3</v>
+      <c r="D217" s="65" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1495,6 +1495,12 @@
   </si>
   <si>
     <t>using unorder map in which store subtree and increment if some string having more than one increment dubli. Tre</t>
+  </si>
+  <si>
+    <t>sum=node+left+right    ans=max(sum,ans);</t>
+  </si>
+  <si>
+    <t>vector a[0]=height a[1]=sum if(h is same max[sum]) else {max[h])</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1863,6 +1869,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1926,8 +1935,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2236,7 +2245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2246,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D205" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="B193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2260,56 +2269,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A13" s="35"/>
@@ -2329,13 +2338,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2899,7 +2908,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2907,7 +2916,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="45"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3076,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="45" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3075,7 +3084,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="45"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4288,13 +4297,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="44" t="s">
+      <c r="C153" s="45" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="45"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4841,13 +4850,13 @@
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="44" t="s">
+      <c r="C192" s="45" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="C193" s="45"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -5205,7 +5214,7 @@
       <c r="C217" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D217" s="65" t="s">
+      <c r="D217" s="44" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5224,19 +5233,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A219" s="12">
+    <row r="219" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A219" s="17">
         <f t="shared" si="5"/>
         <v>188</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D219" s="9" t="s">
-        <v>3</v>
+      <c r="D219" s="66" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="10" customFormat="1" ht="21">
@@ -5254,19 +5263,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A221" s="12">
+    <row r="221" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A221" s="4">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D221" s="9" t="s">
-        <v>3</v>
+      <c r="D221" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="493">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1501,6 +1501,9 @@
   </si>
   <si>
     <t>vector a[0]=height a[1]=sum if(h is same max[sum]) else {max[h])</t>
+  </si>
+  <si>
+    <t>Dynamic programic</t>
   </si>
 </sst>
 </file>
@@ -1872,6 +1875,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1934,9 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2245,7 +2248,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2255,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2269,56 +2272,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A13" s="35"/>
@@ -2338,13 +2341,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2908,7 +2911,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2916,7 +2919,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="46"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3076,7 +3079,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="46" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3084,7 +3087,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="46"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4297,13 +4300,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="45" t="s">
+      <c r="C153" s="46" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="46"/>
+      <c r="C154" s="47"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4850,13 +4853,13 @@
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="45" t="s">
+      <c r="C192" s="46" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="C193" s="46"/>
+      <c r="C193" s="47"/>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -5244,7 +5247,7 @@
       <c r="C219" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D219" s="66" t="s">
+      <c r="D219" s="45" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5278,33 +5281,33 @@
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A222" s="12">
+    <row r="222" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A222" s="17">
         <f t="shared" si="5"/>
         <v>191</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D222" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A223" s="12">
+      <c r="D222" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A223" s="19">
         <f t="shared" si="5"/>
         <v>192</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D223" s="9" t="s">
+      <c r="D223" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5368,18 +5371,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A228" s="12">
+    <row r="228" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A228" s="4">
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D228" s="9" t="s">
+      <c r="D228" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2248,7 +2248,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5341,18 +5341,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A226" s="12">
+    <row r="226" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A226" s="19">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D226" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2248,7 +2248,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2259,7 +2259,7 @@
   <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5311,18 +5311,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A224" s="12">
+    <row r="224" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A224" s="19">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D224" s="9" t="s">
+      <c r="D224" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233:XFD233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5427,18 +5427,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A233" s="12">
+    <row r="233" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A233" s="4">
         <f t="shared" ref="A233:A252" si="6">+A232+1</f>
         <v>200</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5738,7 +5738,9 @@
       <c r="D254" s="9"/>
     </row>
     <row r="255" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A255" s="12"/>
+      <c r="A255" s="12">
+        <v>220</v>
+      </c>
       <c r="B255" s="7" t="s">
         <v>227</v>
       </c>
@@ -5750,7 +5752,10 @@
       </c>
     </row>
     <row r="256" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A256" s="12"/>
+      <c r="A256" s="12">
+        <f>+A255+1</f>
+        <v>221</v>
+      </c>
       <c r="B256" s="7" t="s">
         <v>227</v>
       </c>
@@ -5762,7 +5767,10 @@
       </c>
     </row>
     <row r="257" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A257" s="12"/>
+      <c r="A257" s="12">
+        <f t="shared" ref="A257:A289" si="7">+A256+1</f>
+        <v>222</v>
+      </c>
       <c r="B257" s="7" t="s">
         <v>227</v>
       </c>
@@ -5774,7 +5782,10 @@
       </c>
     </row>
     <row r="258" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A258" s="12"/>
+      <c r="A258" s="12">
+        <f t="shared" si="7"/>
+        <v>223</v>
+      </c>
       <c r="B258" s="7" t="s">
         <v>227</v>
       </c>
@@ -5786,7 +5797,10 @@
       </c>
     </row>
     <row r="259" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A259" s="12"/>
+      <c r="A259" s="12">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
       <c r="B259" s="7" t="s">
         <v>227</v>
       </c>
@@ -5798,7 +5812,10 @@
       </c>
     </row>
     <row r="260" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A260" s="12"/>
+      <c r="A260" s="12">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
       <c r="B260" s="7" t="s">
         <v>227</v>
       </c>
@@ -5810,7 +5827,10 @@
       </c>
     </row>
     <row r="261" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A261" s="12"/>
+      <c r="A261" s="12">
+        <f t="shared" si="7"/>
+        <v>226</v>
+      </c>
       <c r="B261" s="7" t="s">
         <v>227</v>
       </c>
@@ -5822,7 +5842,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A262" s="12"/>
+      <c r="A262" s="12">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
       <c r="B262" s="7" t="s">
         <v>227</v>
       </c>
@@ -5834,7 +5857,10 @@
       </c>
     </row>
     <row r="263" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A263" s="12"/>
+      <c r="A263" s="12">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
       <c r="B263" s="7" t="s">
         <v>227</v>
       </c>
@@ -5846,7 +5872,10 @@
       </c>
     </row>
     <row r="264" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A264" s="12"/>
+      <c r="A264" s="12">
+        <f t="shared" si="7"/>
+        <v>229</v>
+      </c>
       <c r="B264" s="7" t="s">
         <v>227</v>
       </c>
@@ -5858,7 +5887,10 @@
       </c>
     </row>
     <row r="265" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A265" s="12"/>
+      <c r="A265" s="12">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
       <c r="B265" s="7" t="s">
         <v>227</v>
       </c>
@@ -5870,7 +5902,10 @@
       </c>
     </row>
     <row r="266" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A266" s="12"/>
+      <c r="A266" s="12">
+        <f t="shared" si="7"/>
+        <v>231</v>
+      </c>
       <c r="B266" s="7" t="s">
         <v>227</v>
       </c>
@@ -5882,7 +5917,10 @@
       </c>
     </row>
     <row r="267" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A267" s="12"/>
+      <c r="A267" s="12">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
       <c r="B267" s="7" t="s">
         <v>227</v>
       </c>
@@ -5894,7 +5932,10 @@
       </c>
     </row>
     <row r="268" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A268" s="12"/>
+      <c r="A268" s="12">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
       <c r="B268" s="7" t="s">
         <v>227</v>
       </c>
@@ -5906,7 +5947,10 @@
       </c>
     </row>
     <row r="269" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A269" s="12"/>
+      <c r="A269" s="12">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
       <c r="B269" s="7" t="s">
         <v>227</v>
       </c>
@@ -5918,7 +5962,10 @@
       </c>
     </row>
     <row r="270" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A270" s="12"/>
+      <c r="A270" s="12">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
       <c r="B270" s="7" t="s">
         <v>227</v>
       </c>
@@ -5930,7 +5977,10 @@
       </c>
     </row>
     <row r="271" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A271" s="12"/>
+      <c r="A271" s="12">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
       <c r="B271" s="7" t="s">
         <v>227</v>
       </c>
@@ -5942,7 +5992,10 @@
       </c>
     </row>
     <row r="272" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A272" s="12"/>
+      <c r="A272" s="12">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
       <c r="B272" s="7" t="s">
         <v>227</v>
       </c>
@@ -5954,7 +6007,10 @@
       </c>
     </row>
     <row r="273" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A273" s="12"/>
+      <c r="A273" s="12">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
       <c r="B273" s="7" t="s">
         <v>227</v>
       </c>
@@ -5966,7 +6022,10 @@
       </c>
     </row>
     <row r="274" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A274" s="12"/>
+      <c r="A274" s="12">
+        <f t="shared" si="7"/>
+        <v>239</v>
+      </c>
       <c r="B274" s="7" t="s">
         <v>227</v>
       </c>
@@ -5978,7 +6037,10 @@
       </c>
     </row>
     <row r="275" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A275" s="12"/>
+      <c r="A275" s="12">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
       <c r="B275" s="7" t="s">
         <v>227</v>
       </c>
@@ -5990,7 +6052,10 @@
       </c>
     </row>
     <row r="276" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A276" s="12"/>
+      <c r="A276" s="12">
+        <f t="shared" si="7"/>
+        <v>241</v>
+      </c>
       <c r="B276" s="7" t="s">
         <v>227</v>
       </c>
@@ -6002,7 +6067,10 @@
       </c>
     </row>
     <row r="277" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A277" s="12"/>
+      <c r="A277" s="12">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
       <c r="B277" s="7" t="s">
         <v>227</v>
       </c>
@@ -6014,7 +6082,10 @@
       </c>
     </row>
     <row r="278" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A278" s="12"/>
+      <c r="A278" s="12">
+        <f t="shared" si="7"/>
+        <v>243</v>
+      </c>
       <c r="B278" s="7" t="s">
         <v>227</v>
       </c>
@@ -6026,7 +6097,10 @@
       </c>
     </row>
     <row r="279" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A279" s="12"/>
+      <c r="A279" s="12">
+        <f t="shared" si="7"/>
+        <v>244</v>
+      </c>
       <c r="B279" s="7" t="s">
         <v>227</v>
       </c>
@@ -6038,7 +6112,10 @@
       </c>
     </row>
     <row r="280" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A280" s="12"/>
+      <c r="A280" s="12">
+        <f t="shared" si="7"/>
+        <v>245</v>
+      </c>
       <c r="B280" s="7" t="s">
         <v>227</v>
       </c>
@@ -6050,7 +6127,10 @@
       </c>
     </row>
     <row r="281" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A281" s="12"/>
+      <c r="A281" s="12">
+        <f t="shared" si="7"/>
+        <v>246</v>
+      </c>
       <c r="B281" s="7" t="s">
         <v>227</v>
       </c>
@@ -6062,7 +6142,10 @@
       </c>
     </row>
     <row r="282" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A282" s="12"/>
+      <c r="A282" s="12">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
       <c r="B282" s="7" t="s">
         <v>227</v>
       </c>
@@ -6074,7 +6157,10 @@
       </c>
     </row>
     <row r="283" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A283" s="12"/>
+      <c r="A283" s="12">
+        <f t="shared" si="7"/>
+        <v>248</v>
+      </c>
       <c r="B283" s="7" t="s">
         <v>227</v>
       </c>
@@ -6086,7 +6172,10 @@
       </c>
     </row>
     <row r="284" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A284" s="12"/>
+      <c r="A284" s="12">
+        <f t="shared" si="7"/>
+        <v>249</v>
+      </c>
       <c r="B284" s="7" t="s">
         <v>227</v>
       </c>
@@ -6098,7 +6187,10 @@
       </c>
     </row>
     <row r="285" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A285" s="12"/>
+      <c r="A285" s="12">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
       <c r="B285" s="7" t="s">
         <v>227</v>
       </c>
@@ -6110,7 +6202,10 @@
       </c>
     </row>
     <row r="286" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A286" s="12"/>
+      <c r="A286" s="12">
+        <f t="shared" si="7"/>
+        <v>251</v>
+      </c>
       <c r="B286" s="7" t="s">
         <v>227</v>
       </c>
@@ -6122,7 +6217,10 @@
       </c>
     </row>
     <row r="287" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A287" s="12"/>
+      <c r="A287" s="12">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
       <c r="B287" s="7" t="s">
         <v>227</v>
       </c>
@@ -6134,7 +6232,10 @@
       </c>
     </row>
     <row r="288" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A288" s="12"/>
+      <c r="A288" s="12">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
       <c r="B288" s="7" t="s">
         <v>227</v>
       </c>
@@ -6146,7 +6247,10 @@
       </c>
     </row>
     <row r="289" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A289" s="12"/>
+      <c r="A289" s="12">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
       <c r="B289" s="7" t="s">
         <v>227</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="494">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1504,6 +1504,9 @@
   </si>
   <si>
     <t>Dynamic programic</t>
+  </si>
+  <si>
+    <t>swap(inordersucc) when root having both left &amp; right</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2258,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233:XFD233"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5398,33 +5401,33 @@
       <c r="C230" s="11"/>
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A231" s="12">
+    <row r="231" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A231" s="4">
         <v>198</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D231" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A232" s="12">
+      <c r="D231" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A232" s="17">
         <f>+A231+1</f>
         <v>199</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D232" s="9" t="s">
-        <v>3</v>
+      <c r="D232" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="6" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1507,6 +1507,9 @@
   </si>
   <si>
     <t>swap(inordersucc) when root having both left &amp; right</t>
+  </si>
+  <si>
+    <t>min and max concept</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2261,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5445,48 +5448,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A234" s="12">
+    <row r="234" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A234" s="19">
         <f t="shared" si="6"/>
         <v>201</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D234" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A235" s="12">
+      <c r="D234" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A235" s="19">
         <f t="shared" si="6"/>
         <v>202</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D235" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A236" s="12">
+      <c r="D235" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A236" s="4">
         <f t="shared" si="6"/>
         <v>203</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="D236" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2254,7 +2254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2264,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1783,7 +1783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1946,6 +1946,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2254,7 +2257,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2264,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5493,33 +5496,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A237" s="12">
+    <row r="237" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A237" s="4">
         <f t="shared" si="6"/>
         <v>204</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="C237" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A238" s="12">
+      <c r="D237" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A238" s="4">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1510,6 +1510,9 @@
   </si>
   <si>
     <t>min and max concept</t>
+  </si>
+  <si>
+    <t>1.inoder 2.sort 3.inorder push       &lt;vector&gt;</t>
   </si>
 </sst>
 </file>
@@ -1884,6 +1887,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,9 +1952,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2257,7 +2260,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2268,7 +2271,7 @@
   <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+      <selection activeCell="A243" sqref="A243:XFD243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2281,56 +2284,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A13" s="35"/>
@@ -2350,13 +2353,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="47"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2920,7 +2923,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2928,7 +2931,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="47"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3088,7 +3091,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="47" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3096,7 +3099,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="47"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4309,13 +4312,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="47"/>
+      <c r="C154" s="48"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4862,13 +4865,13 @@
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="46" t="s">
+      <c r="C192" s="47" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="C193" s="47"/>
+      <c r="C193" s="48"/>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -5504,7 +5507,7 @@
       <c r="B237" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C237" s="67" t="s">
+      <c r="C237" s="46" t="s">
         <v>211</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -5526,19 +5529,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A239" s="12">
+    <row r="239" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A239" s="19">
         <f t="shared" si="6"/>
         <v>206</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="C239" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D239" s="9" t="s">
-        <v>3</v>
+      <c r="D239" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="10" customFormat="1" ht="21">
@@ -5571,33 +5574,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A242" s="12">
+    <row r="242" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A242" s="4">
         <f t="shared" si="6"/>
         <v>209</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D242" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A243" s="12">
+      <c r="D242" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A243" s="4">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="D243" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2260,7 +2260,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2270,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:XFD243"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5604,33 +5604,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A244" s="12">
+    <row r="244" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A244" s="19">
         <f t="shared" si="6"/>
         <v>211</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D244" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A245" s="12">
+      <c r="D244" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A245" s="19">
         <f t="shared" si="6"/>
         <v>212</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D245" s="9" t="s">
+      <c r="D245" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="499">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1513,13 +1513,22 @@
   </si>
   <si>
     <t>1.inoder 2.sort 3.inorder push       &lt;vector&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector {BST 1/0, no. of nodes,min,max} </t>
+  </si>
+  <si>
+    <t>check nodes max and min if(==) return true</t>
+  </si>
+  <si>
+    <t>Stack and queue (store root wht you pop() push till pre[i]&gt;top) if(pre[i]&lt;root) return false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1614,6 +1623,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1786,7 +1803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1952,6 +1969,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2260,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2270,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5634,18 +5654,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A246" s="12">
+    <row r="246" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A246" s="19">
         <f t="shared" si="6"/>
         <v>213</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D246" s="9" t="s">
+      <c r="D246" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5679,49 +5699,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A249" s="12">
+    <row r="249" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A249" s="19">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D249" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A250" s="12">
+      <c r="D249" s="68" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A250" s="19">
         <f t="shared" si="6"/>
         <v>217</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A251" s="12">
+      <c r="D250" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A251" s="17">
         <f t="shared" si="6"/>
         <v>218</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D251" s="9" t="s">
-        <v>3</v>
+      <c r="D251" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1907,6 +1907,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,9 +1972,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259:XFD259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2304,56 +2304,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A13" s="35"/>
@@ -2373,13 +2373,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2943,7 +2943,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="48" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2951,7 +2951,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="48"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3111,7 +3111,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="48" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3119,7 +3119,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="48"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4332,13 +4332,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="47" t="s">
+      <c r="C153" s="48" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="48"/>
+      <c r="C154" s="49"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4885,13 +4885,13 @@
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="47" t="s">
+      <c r="C192" s="48" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="C193" s="48"/>
+      <c r="C193" s="49"/>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -5710,7 +5710,7 @@
       <c r="C249" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D249" s="68" t="s">
+      <c r="D249" s="47" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5769,32 +5769,32 @@
       <c r="C254" s="11"/>
       <c r="D254" s="9"/>
     </row>
-    <row r="255" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A255" s="12">
+    <row r="255" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A255" s="19">
         <v>220</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D255" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A256" s="12">
+      <c r="D255" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A256" s="19">
         <f>+A255+1</f>
         <v>221</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="D256" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5828,18 +5828,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A259" s="12">
+    <row r="259" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A259" s="19">
         <f t="shared" si="7"/>
         <v>224</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D259" s="9" t="s">
+      <c r="D259" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -726,9 +726,6 @@
     <t>Fractional Knapsack Problem</t>
   </si>
   <si>
-    <t>Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
     <t>Maximum trains for which stoppage can be provided</t>
   </si>
   <si>
@@ -1522,6 +1519,9 @@
   </si>
   <si>
     <t>Stack and queue (store root wht you pop() push till pre[i]&gt;top) if(pre[i]&lt;root) return false</t>
+  </si>
+  <si>
+    <t>Chose and swap string problem</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259:XFD259"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260:XFD260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2305,7 +2305,7 @@
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -2320,7 +2320,7 @@
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -2335,7 +2335,7 @@
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2390,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D17" s="39"/>
     </row>
@@ -3355,7 +3355,7 @@
         <v>52</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D85" s="9"/>
     </row>
@@ -4382,7 +4382,7 @@
         <v>136</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="21" customFormat="1" ht="21">
@@ -4412,7 +4412,7 @@
         <v>138</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4502,7 +4502,7 @@
         <v>144</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4532,7 +4532,7 @@
         <v>146</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="32" customFormat="1" ht="21">
@@ -4562,7 +4562,7 @@
         <v>148</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4574,7 +4574,7 @@
         <v>133</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -4652,7 +4652,7 @@
         <v>153</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="21" customFormat="1" ht="21">
@@ -4667,7 +4667,7 @@
         <v>154</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="10" customFormat="1" ht="21">
@@ -4691,13 +4691,13 @@
         <v>150</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="10" customFormat="1" ht="21">
@@ -4754,10 +4754,10 @@
         <v>133</v>
       </c>
       <c r="C182" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D182" s="37" t="s">
         <v>470</v>
-      </c>
-      <c r="D182" s="37" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="21" customFormat="1" ht="21">
@@ -4772,7 +4772,7 @@
         <v>160</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="15" customFormat="1" ht="21">
@@ -4787,7 +4787,7 @@
         <v>161</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="10" customFormat="1" ht="21">
@@ -4817,7 +4817,7 @@
         <v>163</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4832,7 +4832,7 @@
         <v>164</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4847,7 +4847,7 @@
         <v>165</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4877,7 +4877,7 @@
         <v>167</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="10" customFormat="1">
@@ -4886,7 +4886,7 @@
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
       <c r="C192" s="48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
@@ -4905,7 +4905,7 @@
         <v>169</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4920,7 +4920,7 @@
         <v>170</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4965,7 +4965,7 @@
         <v>173</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="6" customFormat="1" ht="21">
@@ -5025,7 +5025,7 @@
         <v>177</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="6" customFormat="1" ht="21">
@@ -5040,7 +5040,7 @@
         <v>178</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="21" customFormat="1" ht="21">
@@ -5055,7 +5055,7 @@
         <v>179</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="6" customFormat="1" ht="21">
@@ -5070,7 +5070,7 @@
         <v>180</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="15" customFormat="1" ht="21">
@@ -5085,7 +5085,7 @@
         <v>181</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="21" customFormat="1" ht="21">
@@ -5115,7 +5115,7 @@
         <v>183</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="21" customFormat="1" ht="21">
@@ -5160,7 +5160,7 @@
         <v>186</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="6" customFormat="1" ht="21">
@@ -5250,7 +5250,7 @@
         <v>192</v>
       </c>
       <c r="D217" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="10" customFormat="1" ht="21">
@@ -5280,7 +5280,7 @@
         <v>194</v>
       </c>
       <c r="D219" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="10" customFormat="1" ht="21">
@@ -5310,7 +5310,7 @@
         <v>196</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="15" customFormat="1" ht="21">
@@ -5325,7 +5325,7 @@
         <v>197</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="21" customFormat="1" ht="21">
@@ -5456,7 +5456,7 @@
         <v>206</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="6" customFormat="1" ht="21">
@@ -5501,7 +5501,7 @@
         <v>209</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="6" customFormat="1" ht="21">
@@ -5561,7 +5561,7 @@
         <v>213</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="10" customFormat="1" ht="21">
@@ -5711,7 +5711,7 @@
         <v>223</v>
       </c>
       <c r="D249" s="47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="250" spans="1:4" s="21" customFormat="1" ht="21">
@@ -5726,7 +5726,7 @@
         <v>224</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="15" customFormat="1" ht="21">
@@ -5741,7 +5741,7 @@
         <v>225</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="10" customFormat="1" ht="21">
@@ -5843,18 +5843,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A260" s="12">
+    <row r="260" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A260" s="4">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C260" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D260" s="9" t="s">
+      <c r="C260" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
         <v>227</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>3</v>
@@ -5882,7 +5882,7 @@
         <v>227</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>3</v>
@@ -5897,7 +5897,7 @@
         <v>227</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>3</v>
@@ -5912,7 +5912,7 @@
         <v>227</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>3</v>
@@ -5927,7 +5927,7 @@
         <v>227</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>3</v>
@@ -5942,7 +5942,7 @@
         <v>227</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>3</v>
@@ -5957,7 +5957,7 @@
         <v>227</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>3</v>
@@ -5972,7 +5972,7 @@
         <v>227</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>3</v>
@@ -5987,7 +5987,7 @@
         <v>227</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>3</v>
@@ -6002,7 +6002,7 @@
         <v>227</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>3</v>
@@ -6017,7 +6017,7 @@
         <v>227</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>3</v>
@@ -6032,7 +6032,7 @@
         <v>227</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>3</v>
@@ -6047,7 +6047,7 @@
         <v>227</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>3</v>
@@ -6062,7 +6062,7 @@
         <v>227</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>3</v>
@@ -6077,7 +6077,7 @@
         <v>227</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>3</v>
@@ -6092,7 +6092,7 @@
         <v>227</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>3</v>
@@ -6107,7 +6107,7 @@
         <v>227</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>3</v>
@@ -6122,7 +6122,7 @@
         <v>227</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>3</v>
@@ -6137,7 +6137,7 @@
         <v>227</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>3</v>
@@ -6152,7 +6152,7 @@
         <v>227</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>3</v>
@@ -6167,7 +6167,7 @@
         <v>227</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>3</v>
@@ -6182,7 +6182,7 @@
         <v>227</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>3</v>
@@ -6197,7 +6197,7 @@
         <v>227</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>3</v>
@@ -6212,7 +6212,7 @@
         <v>227</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>3</v>
@@ -6227,7 +6227,7 @@
         <v>227</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>3</v>
@@ -6242,7 +6242,7 @@
         <v>227</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>3</v>
@@ -6257,7 +6257,7 @@
         <v>227</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>3</v>
@@ -6287,7 +6287,7 @@
         <v>227</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>3</v>
@@ -6306,10 +6306,10 @@
     <row r="292" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A292" s="12"/>
       <c r="B292" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C292" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>3</v>
@@ -6318,10 +6318,10 @@
     <row r="293" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A293" s="12"/>
       <c r="B293" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>3</v>
@@ -6330,10 +6330,10 @@
     <row r="294" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A294" s="12"/>
       <c r="B294" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>3</v>
@@ -6342,10 +6342,10 @@
     <row r="295" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A295" s="12"/>
       <c r="B295" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>3</v>
@@ -6354,10 +6354,10 @@
     <row r="296" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A296" s="12"/>
       <c r="B296" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>3</v>
@@ -6366,10 +6366,10 @@
     <row r="297" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A297" s="12"/>
       <c r="B297" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>3</v>
@@ -6378,10 +6378,10 @@
     <row r="298" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A298" s="12"/>
       <c r="B298" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>3</v>
@@ -6390,10 +6390,10 @@
     <row r="299" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A299" s="12"/>
       <c r="B299" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>3</v>
@@ -6402,10 +6402,10 @@
     <row r="300" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A300" s="12"/>
       <c r="B300" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>3</v>
@@ -6414,10 +6414,10 @@
     <row r="301" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A301" s="12"/>
       <c r="B301" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>3</v>
@@ -6426,10 +6426,10 @@
     <row r="302" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A302" s="12"/>
       <c r="B302" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>3</v>
@@ -6438,10 +6438,10 @@
     <row r="303" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A303" s="12"/>
       <c r="B303" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>3</v>
@@ -6450,10 +6450,10 @@
     <row r="304" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A304" s="12"/>
       <c r="B304" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>3</v>
@@ -6462,10 +6462,10 @@
     <row r="305" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A305" s="12"/>
       <c r="B305" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>3</v>
@@ -6474,10 +6474,10 @@
     <row r="306" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A306" s="12"/>
       <c r="B306" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>3</v>
@@ -6486,10 +6486,10 @@
     <row r="307" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A307" s="12"/>
       <c r="B307" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>3</v>
@@ -6498,10 +6498,10 @@
     <row r="308" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A308" s="12"/>
       <c r="B308" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>3</v>
@@ -6510,10 +6510,10 @@
     <row r="309" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A309" s="12"/>
       <c r="B309" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>3</v>
@@ -6522,10 +6522,10 @@
     <row r="310" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A310" s="12"/>
       <c r="B310" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>3</v>
@@ -6544,10 +6544,10 @@
     <row r="313" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A313" s="12"/>
       <c r="B313" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C313" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="C313" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>3</v>
@@ -6556,10 +6556,10 @@
     <row r="314" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A314" s="12"/>
       <c r="B314" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>3</v>
@@ -6568,10 +6568,10 @@
     <row r="315" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A315" s="12"/>
       <c r="B315" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>3</v>
@@ -6580,10 +6580,10 @@
     <row r="316" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A316" s="12"/>
       <c r="B316" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>3</v>
@@ -6592,10 +6592,10 @@
     <row r="317" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A317" s="12"/>
       <c r="B317" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>3</v>
@@ -6604,10 +6604,10 @@
     <row r="318" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A318" s="12"/>
       <c r="B318" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>3</v>
@@ -6616,10 +6616,10 @@
     <row r="319" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A319" s="12"/>
       <c r="B319" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>3</v>
@@ -6628,10 +6628,10 @@
     <row r="320" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A320" s="12"/>
       <c r="B320" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>3</v>
@@ -6640,10 +6640,10 @@
     <row r="321" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A321" s="12"/>
       <c r="B321" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>3</v>
@@ -6652,10 +6652,10 @@
     <row r="322" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A322" s="12"/>
       <c r="B322" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>3</v>
@@ -6664,10 +6664,10 @@
     <row r="323" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A323" s="12"/>
       <c r="B323" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>3</v>
@@ -6676,10 +6676,10 @@
     <row r="324" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A324" s="12"/>
       <c r="B324" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>3</v>
@@ -6688,10 +6688,10 @@
     <row r="325" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A325" s="12"/>
       <c r="B325" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>3</v>
@@ -6700,10 +6700,10 @@
     <row r="326" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A326" s="12"/>
       <c r="B326" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C326" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>3</v>
@@ -6712,10 +6712,10 @@
     <row r="327" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A327" s="12"/>
       <c r="B327" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>3</v>
@@ -6724,10 +6724,10 @@
     <row r="328" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A328" s="12"/>
       <c r="B328" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>3</v>
@@ -6736,10 +6736,10 @@
     <row r="329" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A329" s="12"/>
       <c r="B329" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>3</v>
@@ -6748,10 +6748,10 @@
     <row r="330" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A330" s="12"/>
       <c r="B330" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>3</v>
@@ -6760,10 +6760,10 @@
     <row r="331" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A331" s="12"/>
       <c r="B331" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>3</v>
@@ -6772,10 +6772,10 @@
     <row r="332" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A332" s="12"/>
       <c r="B332" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>3</v>
@@ -6784,10 +6784,10 @@
     <row r="333" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A333" s="12"/>
       <c r="B333" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>3</v>
@@ -6796,10 +6796,10 @@
     <row r="334" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A334" s="12"/>
       <c r="B334" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>3</v>
@@ -6808,10 +6808,10 @@
     <row r="335" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A335" s="12"/>
       <c r="B335" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>3</v>
@@ -6820,10 +6820,10 @@
     <row r="336" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A336" s="12"/>
       <c r="B336" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>3</v>
@@ -6832,10 +6832,10 @@
     <row r="337" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A337" s="12"/>
       <c r="B337" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>3</v>
@@ -6844,10 +6844,10 @@
     <row r="338" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A338" s="12"/>
       <c r="B338" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>3</v>
@@ -6856,10 +6856,10 @@
     <row r="339" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A339" s="12"/>
       <c r="B339" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>3</v>
@@ -6868,10 +6868,10 @@
     <row r="340" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A340" s="12"/>
       <c r="B340" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>3</v>
@@ -6880,10 +6880,10 @@
     <row r="341" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A341" s="12"/>
       <c r="B341" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>3</v>
@@ -6892,10 +6892,10 @@
     <row r="342" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A342" s="12"/>
       <c r="B342" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>3</v>
@@ -6904,10 +6904,10 @@
     <row r="343" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A343" s="12"/>
       <c r="B343" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>3</v>
@@ -6916,10 +6916,10 @@
     <row r="344" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A344" s="12"/>
       <c r="B344" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>3</v>
@@ -6928,10 +6928,10 @@
     <row r="345" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A345" s="12"/>
       <c r="B345" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>3</v>
@@ -6940,10 +6940,10 @@
     <row r="346" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A346" s="12"/>
       <c r="B346" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>3</v>
@@ -6952,10 +6952,10 @@
     <row r="347" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A347" s="12"/>
       <c r="B347" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>3</v>
@@ -6964,10 +6964,10 @@
     <row r="348" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A348" s="12"/>
       <c r="B348" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>3</v>
@@ -6976,10 +6976,10 @@
     <row r="349" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A349" s="12"/>
       <c r="B349" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>3</v>
@@ -6988,10 +6988,10 @@
     <row r="350" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A350" s="12"/>
       <c r="B350" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>3</v>
@@ -7010,10 +7010,10 @@
     <row r="353" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A353" s="12"/>
       <c r="B353" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C353" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>3</v>
@@ -7022,10 +7022,10 @@
     <row r="354" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A354" s="12"/>
       <c r="B354" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>3</v>
@@ -7034,10 +7034,10 @@
     <row r="355" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A355" s="12"/>
       <c r="B355" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>3</v>
@@ -7046,10 +7046,10 @@
     <row r="356" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A356" s="12"/>
       <c r="B356" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>3</v>
@@ -7058,10 +7058,10 @@
     <row r="357" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A357" s="12"/>
       <c r="B357" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>3</v>
@@ -7070,10 +7070,10 @@
     <row r="358" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A358" s="12"/>
       <c r="B358" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>3</v>
@@ -7082,10 +7082,10 @@
     <row r="359" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A359" s="12"/>
       <c r="B359" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>3</v>
@@ -7094,10 +7094,10 @@
     <row r="360" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A360" s="12"/>
       <c r="B360" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>3</v>
@@ -7106,10 +7106,10 @@
     <row r="361" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A361" s="12"/>
       <c r="B361" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C361" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>3</v>
@@ -7118,10 +7118,10 @@
     <row r="362" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A362" s="12"/>
       <c r="B362" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>3</v>
@@ -7130,10 +7130,10 @@
     <row r="363" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A363" s="12"/>
       <c r="B363" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>3</v>
@@ -7142,10 +7142,10 @@
     <row r="364" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A364" s="12"/>
       <c r="B364" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>3</v>
@@ -7154,10 +7154,10 @@
     <row r="365" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A365" s="12"/>
       <c r="B365" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>3</v>
@@ -7166,10 +7166,10 @@
     <row r="366" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A366" s="12"/>
       <c r="B366" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>3</v>
@@ -7178,10 +7178,10 @@
     <row r="367" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A367" s="12"/>
       <c r="B367" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>3</v>
@@ -7190,10 +7190,10 @@
     <row r="368" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A368" s="12"/>
       <c r="B368" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>3</v>
@@ -7202,10 +7202,10 @@
     <row r="369" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A369" s="12"/>
       <c r="B369" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>3</v>
@@ -7214,10 +7214,10 @@
     <row r="370" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A370" s="12"/>
       <c r="B370" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>3</v>
@@ -7236,10 +7236,10 @@
     <row r="373" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A373" s="12"/>
       <c r="B373" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C373" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="C373" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>3</v>
@@ -7248,10 +7248,10 @@
     <row r="374" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A374" s="12"/>
       <c r="B374" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>3</v>
@@ -7260,10 +7260,10 @@
     <row r="375" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A375" s="12"/>
       <c r="B375" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>3</v>
@@ -7272,10 +7272,10 @@
     <row r="376" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A376" s="12"/>
       <c r="B376" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>3</v>
@@ -7284,10 +7284,10 @@
     <row r="377" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A377" s="12"/>
       <c r="B377" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>3</v>
@@ -7296,10 +7296,10 @@
     <row r="378" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A378" s="12"/>
       <c r="B378" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>3</v>
@@ -7308,10 +7308,10 @@
     <row r="379" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A379" s="12"/>
       <c r="B379" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>3</v>
@@ -7320,10 +7320,10 @@
     <row r="380" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A380" s="12"/>
       <c r="B380" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>3</v>
@@ -7332,10 +7332,10 @@
     <row r="381" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A381" s="12"/>
       <c r="B381" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>3</v>
@@ -7344,10 +7344,10 @@
     <row r="382" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A382" s="12"/>
       <c r="B382" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>3</v>
@@ -7356,10 +7356,10 @@
     <row r="383" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A383" s="12"/>
       <c r="B383" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>3</v>
@@ -7368,10 +7368,10 @@
     <row r="384" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A384" s="12"/>
       <c r="B384" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>3</v>
@@ -7380,10 +7380,10 @@
     <row r="385" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A385" s="12"/>
       <c r="B385" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>3</v>
@@ -7392,10 +7392,10 @@
     <row r="386" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A386" s="12"/>
       <c r="B386" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>3</v>
@@ -7404,10 +7404,10 @@
     <row r="387" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A387" s="12"/>
       <c r="B387" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>3</v>
@@ -7416,10 +7416,10 @@
     <row r="388" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A388" s="12"/>
       <c r="B388" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>3</v>
@@ -7428,10 +7428,10 @@
     <row r="389" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A389" s="12"/>
       <c r="B389" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>3</v>
@@ -7440,10 +7440,10 @@
     <row r="390" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A390" s="12"/>
       <c r="B390" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>3</v>
@@ -7452,10 +7452,10 @@
     <row r="391" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A391" s="12"/>
       <c r="B391" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>3</v>
@@ -7464,10 +7464,10 @@
     <row r="392" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A392" s="12"/>
       <c r="B392" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>3</v>
@@ -7476,10 +7476,10 @@
     <row r="393" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A393" s="12"/>
       <c r="B393" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>3</v>
@@ -7488,10 +7488,10 @@
     <row r="394" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A394" s="12"/>
       <c r="B394" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>3</v>
@@ -7500,10 +7500,10 @@
     <row r="395" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A395" s="12"/>
       <c r="B395" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>3</v>
@@ -7512,10 +7512,10 @@
     <row r="396" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A396" s="12"/>
       <c r="B396" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>3</v>
@@ -7524,10 +7524,10 @@
     <row r="397" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A397" s="12"/>
       <c r="B397" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>3</v>
@@ -7536,10 +7536,10 @@
     <row r="398" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A398" s="12"/>
       <c r="B398" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>3</v>
@@ -7548,10 +7548,10 @@
     <row r="399" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A399" s="12"/>
       <c r="B399" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>3</v>
@@ -7560,10 +7560,10 @@
     <row r="400" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A400" s="12"/>
       <c r="B400" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>3</v>
@@ -7572,10 +7572,10 @@
     <row r="401" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A401" s="12"/>
       <c r="B401" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>3</v>
@@ -7584,10 +7584,10 @@
     <row r="402" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A402" s="12"/>
       <c r="B402" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>3</v>
@@ -7596,10 +7596,10 @@
     <row r="403" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A403" s="12"/>
       <c r="B403" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>3</v>
@@ -7608,10 +7608,10 @@
     <row r="404" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A404" s="12"/>
       <c r="B404" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>3</v>
@@ -7620,10 +7620,10 @@
     <row r="405" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A405" s="12"/>
       <c r="B405" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>3</v>
@@ -7632,10 +7632,10 @@
     <row r="406" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A406" s="12"/>
       <c r="B406" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>3</v>
@@ -7644,10 +7644,10 @@
     <row r="407" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A407" s="12"/>
       <c r="B407" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>3</v>
@@ -7656,10 +7656,10 @@
     <row r="408" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A408" s="12"/>
       <c r="B408" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>3</v>
@@ -7668,10 +7668,10 @@
     <row r="409" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A409" s="12"/>
       <c r="B409" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>3</v>
@@ -7680,10 +7680,10 @@
     <row r="410" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A410" s="12"/>
       <c r="B410" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>3</v>
@@ -7692,10 +7692,10 @@
     <row r="411" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A411" s="12"/>
       <c r="B411" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>3</v>
@@ -7704,10 +7704,10 @@
     <row r="412" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A412" s="12"/>
       <c r="B412" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>3</v>
@@ -7716,10 +7716,10 @@
     <row r="413" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A413" s="12"/>
       <c r="B413" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>3</v>
@@ -7728,10 +7728,10 @@
     <row r="414" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A414" s="12"/>
       <c r="B414" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>3</v>
@@ -7740,10 +7740,10 @@
     <row r="415" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A415" s="12"/>
       <c r="B415" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>3</v>
@@ -7752,10 +7752,10 @@
     <row r="416" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A416" s="12"/>
       <c r="B416" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D416" s="9" t="s">
         <v>3</v>
@@ -7774,10 +7774,10 @@
     <row r="419" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A419" s="12"/>
       <c r="B419" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C419" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="C419" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>3</v>
@@ -7786,10 +7786,10 @@
     <row r="420" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A420" s="12"/>
       <c r="B420" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>3</v>
@@ -7798,10 +7798,10 @@
     <row r="421" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A421" s="12"/>
       <c r="B421" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>3</v>
@@ -7810,7 +7810,7 @@
     <row r="422" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A422" s="12"/>
       <c r="B422" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>88</v>
@@ -7822,10 +7822,10 @@
     <row r="423" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A423" s="12"/>
       <c r="B423" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>3</v>
@@ -7834,10 +7834,10 @@
     <row r="424" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A424" s="12"/>
       <c r="B424" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>3</v>
@@ -7856,10 +7856,10 @@
     <row r="427" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A427" s="12"/>
       <c r="B427" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C427" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C427" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>3</v>
@@ -7868,10 +7868,10 @@
     <row r="428" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A428" s="12"/>
       <c r="B428" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>3</v>
@@ -7880,10 +7880,10 @@
     <row r="429" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A429" s="12"/>
       <c r="B429" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>3</v>
@@ -7892,10 +7892,10 @@
     <row r="430" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A430" s="12"/>
       <c r="B430" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>3</v>
@@ -7904,10 +7904,10 @@
     <row r="431" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A431" s="12"/>
       <c r="B431" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>3</v>
@@ -7916,10 +7916,10 @@
     <row r="432" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A432" s="12"/>
       <c r="B432" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>3</v>
@@ -7928,10 +7928,10 @@
     <row r="433" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A433" s="12"/>
       <c r="B433" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>3</v>
@@ -7940,10 +7940,10 @@
     <row r="434" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A434" s="12"/>
       <c r="B434" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>3</v>
@@ -7952,10 +7952,10 @@
     <row r="435" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A435" s="12"/>
       <c r="B435" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>3</v>
@@ -7964,10 +7964,10 @@
     <row r="436" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A436" s="12"/>
       <c r="B436" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>3</v>
@@ -7976,10 +7976,10 @@
     <row r="437" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A437" s="12"/>
       <c r="B437" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>3</v>
@@ -7988,10 +7988,10 @@
     <row r="438" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A438" s="12"/>
       <c r="B438" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>3</v>
@@ -8000,10 +8000,10 @@
     <row r="439" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A439" s="12"/>
       <c r="B439" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>3</v>
@@ -8012,10 +8012,10 @@
     <row r="440" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A440" s="12"/>
       <c r="B440" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>3</v>
@@ -8024,10 +8024,10 @@
     <row r="441" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A441" s="12"/>
       <c r="B441" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>3</v>
@@ -8036,10 +8036,10 @@
     <row r="442" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A442" s="12"/>
       <c r="B442" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>3</v>
@@ -8048,10 +8048,10 @@
     <row r="443" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A443" s="12"/>
       <c r="B443" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>3</v>
@@ -8060,10 +8060,10 @@
     <row r="444" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A444" s="12"/>
       <c r="B444" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>3</v>
@@ -8072,10 +8072,10 @@
     <row r="445" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A445" s="12"/>
       <c r="B445" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>3</v>
@@ -8084,10 +8084,10 @@
     <row r="446" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A446" s="12"/>
       <c r="B446" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>3</v>
@@ -8096,10 +8096,10 @@
     <row r="447" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A447" s="12"/>
       <c r="B447" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>3</v>
@@ -8108,10 +8108,10 @@
     <row r="448" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A448" s="12"/>
       <c r="B448" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>3</v>
@@ -8120,10 +8120,10 @@
     <row r="449" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A449" s="12"/>
       <c r="B449" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>3</v>
@@ -8132,10 +8132,10 @@
     <row r="450" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A450" s="12"/>
       <c r="B450" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>3</v>
@@ -8144,10 +8144,10 @@
     <row r="451" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A451" s="12"/>
       <c r="B451" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>3</v>
@@ -8156,10 +8156,10 @@
     <row r="452" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A452" s="12"/>
       <c r="B452" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>3</v>
@@ -8168,10 +8168,10 @@
     <row r="453" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A453" s="12"/>
       <c r="B453" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>3</v>
@@ -8180,10 +8180,10 @@
     <row r="454" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A454" s="12"/>
       <c r="B454" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>3</v>
@@ -8192,10 +8192,10 @@
     <row r="455" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A455" s="12"/>
       <c r="B455" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>3</v>
@@ -8204,10 +8204,10 @@
     <row r="456" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A456" s="12"/>
       <c r="B456" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>3</v>
@@ -8216,10 +8216,10 @@
     <row r="457" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A457" s="12"/>
       <c r="B457" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>3</v>
@@ -8228,10 +8228,10 @@
     <row r="458" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A458" s="12"/>
       <c r="B458" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>3</v>
@@ -8240,10 +8240,10 @@
     <row r="459" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A459" s="12"/>
       <c r="B459" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>3</v>
@@ -8252,10 +8252,10 @@
     <row r="460" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A460" s="12"/>
       <c r="B460" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>3</v>
@@ -8264,10 +8264,10 @@
     <row r="461" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A461" s="12"/>
       <c r="B461" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>3</v>
@@ -8276,10 +8276,10 @@
     <row r="462" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A462" s="12"/>
       <c r="B462" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>3</v>
@@ -8288,10 +8288,10 @@
     <row r="463" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A463" s="12"/>
       <c r="B463" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>3</v>
@@ -8300,10 +8300,10 @@
     <row r="464" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A464" s="12"/>
       <c r="B464" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>3</v>
@@ -8312,10 +8312,10 @@
     <row r="465" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A465" s="12"/>
       <c r="B465" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>3</v>
@@ -8324,10 +8324,10 @@
     <row r="466" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A466" s="12"/>
       <c r="B466" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>3</v>
@@ -8336,10 +8336,10 @@
     <row r="467" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A467" s="12"/>
       <c r="B467" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>3</v>
@@ -8348,10 +8348,10 @@
     <row r="468" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A468" s="12"/>
       <c r="B468" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>3</v>
@@ -8360,10 +8360,10 @@
     <row r="469" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A469" s="12"/>
       <c r="B469" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>3</v>
@@ -8372,10 +8372,10 @@
     <row r="470" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A470" s="12"/>
       <c r="B470" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>3</v>
@@ -8384,10 +8384,10 @@
     <row r="471" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A471" s="12"/>
       <c r="B471" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>3</v>
@@ -8396,10 +8396,10 @@
     <row r="472" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A472" s="12"/>
       <c r="B472" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>3</v>
@@ -8408,10 +8408,10 @@
     <row r="473" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A473" s="12"/>
       <c r="B473" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>3</v>
@@ -8420,10 +8420,10 @@
     <row r="474" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A474" s="12"/>
       <c r="B474" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>3</v>
@@ -8432,10 +8432,10 @@
     <row r="475" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A475" s="12"/>
       <c r="B475" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>3</v>
@@ -8444,10 +8444,10 @@
     <row r="476" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A476" s="12"/>
       <c r="B476" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>3</v>
@@ -8456,10 +8456,10 @@
     <row r="477" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A477" s="12"/>
       <c r="B477" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D477" s="9" t="s">
         <v>3</v>
@@ -8468,10 +8468,10 @@
     <row r="478" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A478" s="12"/>
       <c r="B478" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D478" s="9" t="s">
         <v>3</v>
@@ -8480,10 +8480,10 @@
     <row r="479" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A479" s="12"/>
       <c r="B479" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D479" s="9" t="s">
         <v>3</v>
@@ -8492,10 +8492,10 @@
     <row r="480" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A480" s="12"/>
       <c r="B480" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>3</v>
@@ -8504,10 +8504,10 @@
     <row r="481" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A481" s="12"/>
       <c r="B481" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>3</v>
@@ -8516,10 +8516,10 @@
     <row r="482" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A482" s="12"/>
       <c r="B482" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>3</v>
@@ -8528,10 +8528,10 @@
     <row r="483" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A483" s="12"/>
       <c r="B483" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>3</v>
@@ -8540,10 +8540,10 @@
     <row r="484" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A484" s="12"/>
       <c r="B484" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>3</v>
@@ -8552,10 +8552,10 @@
     <row r="485" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A485" s="12"/>
       <c r="B485" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>3</v>
@@ -8564,10 +8564,10 @@
     <row r="486" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A486" s="12"/>
       <c r="B486" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>3</v>
@@ -8587,10 +8587,10 @@
     <row r="489" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A489" s="12"/>
       <c r="B489" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C489" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="C489" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="D489" s="9" t="s">
         <v>3</v>
@@ -8599,10 +8599,10 @@
     <row r="490" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A490" s="12"/>
       <c r="B490" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D490" s="9" t="s">
         <v>3</v>
@@ -8611,10 +8611,10 @@
     <row r="491" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A491" s="12"/>
       <c r="B491" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D491" s="9" t="s">
         <v>3</v>
@@ -8623,10 +8623,10 @@
     <row r="492" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A492" s="12"/>
       <c r="B492" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D492" s="9" t="s">
         <v>3</v>
@@ -8635,10 +8635,10 @@
     <row r="493" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A493" s="12"/>
       <c r="B493" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D493" s="9" t="s">
         <v>3</v>
@@ -8647,10 +8647,10 @@
     <row r="494" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A494" s="12"/>
       <c r="B494" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D494" s="9" t="s">
         <v>3</v>
@@ -8659,10 +8659,10 @@
     <row r="495" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A495" s="12"/>
       <c r="B495" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D495" s="9" t="s">
         <v>3</v>
@@ -8671,10 +8671,10 @@
     <row r="496" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A496" s="12"/>
       <c r="B496" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D496" s="9" t="s">
         <v>3</v>
@@ -8683,10 +8683,10 @@
     <row r="497" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A497" s="12"/>
       <c r="B497" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D497" s="9" t="s">
         <v>3</v>
@@ -8695,10 +8695,10 @@
     <row r="498" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A498" s="12"/>
       <c r="B498" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D498" s="9" t="s">
         <v>3</v>
@@ -8937,7 +8937,7 @@
     <hyperlink ref="C257" r:id="rId218"/>
     <hyperlink ref="C258" r:id="rId219"/>
     <hyperlink ref="C259" r:id="rId220"/>
-    <hyperlink ref="C260" r:id="rId221"/>
+    <hyperlink ref="C260" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
     <hyperlink ref="C261" r:id="rId222"/>
     <hyperlink ref="C262" r:id="rId223"/>
     <hyperlink ref="C263" r:id="rId224"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260:XFD260"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262:XFD262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5873,48 +5873,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A262" s="12">
+    <row r="262" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A262" s="19">
         <f t="shared" si="7"/>
         <v>227</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D262" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A263" s="12">
+      <c r="D262" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A263" s="19">
         <f t="shared" si="7"/>
         <v>228</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D263" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A264" s="12">
+      <c r="D263" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A264" s="4">
         <f t="shared" si="7"/>
         <v>229</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="D264" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5948,18 +5948,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A267" s="12">
+    <row r="267" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A267" s="4">
         <f t="shared" si="7"/>
         <v>232</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="D267" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262:XFD262"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277:XFD277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5978,33 +5978,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A269" s="12">
+    <row r="269" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A269" s="19">
         <f t="shared" si="7"/>
         <v>234</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D269" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A270" s="12">
+      <c r="D269" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A270" s="4">
         <f t="shared" si="7"/>
         <v>235</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="D270" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6068,18 +6068,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A275" s="12">
+    <row r="275" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A275" s="17">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C275" s="8" t="s">
+      <c r="C275" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D275" s="9" t="s">
+      <c r="D275" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6098,18 +6098,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A277" s="12">
+    <row r="277" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A277" s="19">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D277" s="9" t="s">
+      <c r="D277" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2291,7 +2291,7 @@
   <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277:XFD277"/>
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6128,33 +6128,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A279" s="12">
+    <row r="279" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A279" s="17">
         <f t="shared" si="7"/>
         <v>244</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D279" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A280" s="12">
+      <c r="D279" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A280" s="17">
         <f t="shared" si="7"/>
         <v>245</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="14" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5933,18 +5933,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A266" s="12">
+    <row r="266" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A266" s="4">
         <f t="shared" si="7"/>
         <v>231</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D266" s="9" t="s">
+      <c r="D266" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6188,18 +6188,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A283" s="12">
+    <row r="283" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A283" s="17">
         <f t="shared" si="7"/>
         <v>248</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D283" s="9" t="s">
+      <c r="D283" s="14" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286:XFD286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6233,18 +6233,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A286" s="12">
+    <row r="286" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A286" s="19">
         <f t="shared" si="7"/>
         <v>251</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D286" s="9" t="s">
+      <c r="D286" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286:XFD286"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A284" sqref="A284:XFD284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6203,18 +6203,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A284" s="12">
+    <row r="284" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A284" s="4">
         <f t="shared" si="7"/>
         <v>249</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D284" s="9" t="s">
+      <c r="D284" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6248,18 +6248,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A287" s="12">
+    <row r="287" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A287" s="4">
         <f t="shared" si="7"/>
         <v>252</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D287" s="9" t="s">
+      <c r="D287" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2291,7 +2291,7 @@
   <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284:XFD284"/>
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6263,33 +6263,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A288" s="12">
+    <row r="288" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A288" s="4">
         <f t="shared" si="7"/>
         <v>253</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D288" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A289" s="12">
+      <c r="D288" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A289" s="19">
         <f t="shared" si="7"/>
         <v>254</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D289" s="9" t="s">
+      <c r="D289" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6304,7 +6304,9 @@
       <c r="D291" s="9"/>
     </row>
     <row r="292" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A292" s="12"/>
+      <c r="A292" s="12">
+        <v>255</v>
+      </c>
       <c r="B292" s="7" t="s">
         <v>261</v>
       </c>
@@ -6316,7 +6318,10 @@
       </c>
     </row>
     <row r="293" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A293" s="12"/>
+      <c r="A293" s="12">
+        <f>+A292+1</f>
+        <v>256</v>
+      </c>
       <c r="B293" s="7" t="s">
         <v>261</v>
       </c>
@@ -6328,7 +6333,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A294" s="12"/>
+      <c r="A294" s="12">
+        <f t="shared" ref="A294:A311" si="8">+A293+1</f>
+        <v>257</v>
+      </c>
       <c r="B294" s="7" t="s">
         <v>261</v>
       </c>
@@ -6340,7 +6348,10 @@
       </c>
     </row>
     <row r="295" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A295" s="12"/>
+      <c r="A295" s="12">
+        <f t="shared" si="8"/>
+        <v>258</v>
+      </c>
       <c r="B295" s="7" t="s">
         <v>261</v>
       </c>
@@ -6352,7 +6363,10 @@
       </c>
     </row>
     <row r="296" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A296" s="12"/>
+      <c r="A296" s="12">
+        <f t="shared" si="8"/>
+        <v>259</v>
+      </c>
       <c r="B296" s="7" t="s">
         <v>261</v>
       </c>
@@ -6364,7 +6378,10 @@
       </c>
     </row>
     <row r="297" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A297" s="12"/>
+      <c r="A297" s="12">
+        <f t="shared" si="8"/>
+        <v>260</v>
+      </c>
       <c r="B297" s="7" t="s">
         <v>261</v>
       </c>
@@ -6376,7 +6393,10 @@
       </c>
     </row>
     <row r="298" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A298" s="12"/>
+      <c r="A298" s="12">
+        <f t="shared" si="8"/>
+        <v>261</v>
+      </c>
       <c r="B298" s="7" t="s">
         <v>261</v>
       </c>
@@ -6388,7 +6408,10 @@
       </c>
     </row>
     <row r="299" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A299" s="12"/>
+      <c r="A299" s="12">
+        <f t="shared" si="8"/>
+        <v>262</v>
+      </c>
       <c r="B299" s="7" t="s">
         <v>261</v>
       </c>
@@ -6400,7 +6423,10 @@
       </c>
     </row>
     <row r="300" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A300" s="12"/>
+      <c r="A300" s="12">
+        <f t="shared" si="8"/>
+        <v>263</v>
+      </c>
       <c r="B300" s="7" t="s">
         <v>261</v>
       </c>
@@ -6412,7 +6438,10 @@
       </c>
     </row>
     <row r="301" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A301" s="12"/>
+      <c r="A301" s="12">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
       <c r="B301" s="7" t="s">
         <v>261</v>
       </c>
@@ -6424,7 +6453,10 @@
       </c>
     </row>
     <row r="302" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A302" s="12"/>
+      <c r="A302" s="12">
+        <f t="shared" si="8"/>
+        <v>265</v>
+      </c>
       <c r="B302" s="7" t="s">
         <v>261</v>
       </c>
@@ -6436,7 +6468,10 @@
       </c>
     </row>
     <row r="303" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A303" s="12"/>
+      <c r="A303" s="12">
+        <f t="shared" si="8"/>
+        <v>266</v>
+      </c>
       <c r="B303" s="7" t="s">
         <v>261</v>
       </c>
@@ -6448,7 +6483,10 @@
       </c>
     </row>
     <row r="304" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A304" s="12"/>
+      <c r="A304" s="12">
+        <f t="shared" si="8"/>
+        <v>267</v>
+      </c>
       <c r="B304" s="7" t="s">
         <v>261</v>
       </c>
@@ -6460,7 +6498,10 @@
       </c>
     </row>
     <row r="305" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A305" s="12"/>
+      <c r="A305" s="12">
+        <f t="shared" si="8"/>
+        <v>268</v>
+      </c>
       <c r="B305" s="7" t="s">
         <v>261</v>
       </c>
@@ -6472,7 +6513,10 @@
       </c>
     </row>
     <row r="306" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A306" s="12"/>
+      <c r="A306" s="12">
+        <f t="shared" si="8"/>
+        <v>269</v>
+      </c>
       <c r="B306" s="7" t="s">
         <v>261</v>
       </c>
@@ -6484,7 +6528,10 @@
       </c>
     </row>
     <row r="307" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A307" s="12"/>
+      <c r="A307" s="12">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
       <c r="B307" s="7" t="s">
         <v>261</v>
       </c>
@@ -6496,7 +6543,10 @@
       </c>
     </row>
     <row r="308" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A308" s="12"/>
+      <c r="A308" s="12">
+        <f t="shared" si="8"/>
+        <v>271</v>
+      </c>
       <c r="B308" s="7" t="s">
         <v>261</v>
       </c>
@@ -6508,7 +6558,10 @@
       </c>
     </row>
     <row r="309" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A309" s="12"/>
+      <c r="A309" s="12">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
       <c r="B309" s="7" t="s">
         <v>261</v>
       </c>
@@ -6520,7 +6573,10 @@
       </c>
     </row>
     <row r="310" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A310" s="12"/>
+      <c r="A310" s="12">
+        <f t="shared" si="8"/>
+        <v>273</v>
+      </c>
       <c r="B310" s="7" t="s">
         <v>261</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6158,18 +6158,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A281" s="12">
+    <row r="281" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A281" s="17">
         <f t="shared" si="7"/>
         <v>246</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D281" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="294" spans="1:4" s="10" customFormat="1" ht="21">
       <c r="A294" s="12">
-        <f t="shared" ref="A294:A311" si="8">+A293+1</f>
+        <f t="shared" ref="A294:A310" si="8">+A293+1</f>
         <v>257</v>
       </c>
       <c r="B294" s="7" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6008,18 +6008,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A271" s="12">
+    <row r="271" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A271" s="4">
         <f t="shared" si="7"/>
         <v>236</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6113,18 +6113,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A278" s="12">
+    <row r="278" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A278" s="4">
         <f t="shared" si="7"/>
         <v>243</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D278" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2280,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292:XFD292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6303,17 +6303,17 @@
       <c r="C291" s="11"/>
       <c r="D291" s="9"/>
     </row>
-    <row r="292" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A292" s="12">
+    <row r="292" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A292" s="17">
         <v>255</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D292" s="9" t="s">
+      <c r="D292" s="14" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="500">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1522,6 +1522,9 @@
   </si>
   <si>
     <t>Chose and swap string problem</t>
+  </si>
+  <si>
+    <t>check posion is safe place '1' and backtract when queen is not place on that row</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:XFD292"/>
+    <sheetView tabSelected="1" topLeftCell="B283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6317,19 +6320,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A293" s="12">
+    <row r="293" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A293" s="17">
         <f>+A292+1</f>
         <v>256</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D293" s="9" t="s">
-        <v>3</v>
+      <c r="D293" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="502">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1525,6 +1525,12 @@
   </si>
   <si>
     <t>check posion is safe place '1' and backtract when queen is not place on that row</t>
+  </si>
+  <si>
+    <t>check all substing frind in dic if(string reachecd last ) push that string in vector string</t>
+  </si>
+  <si>
+    <t>Total invalid bracket (find all string exclude invalid no. of char) ~allways use stack ~</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2293,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D293" sqref="D293"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D295" sqref="D295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6335,34 +6341,34 @@
         <v>499</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A294" s="12">
+    <row r="294" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A294" s="17">
         <f t="shared" ref="A294:A310" si="8">+A293+1</f>
         <v>257</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D294" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A295" s="12">
+      <c r="D294" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A295" s="17">
         <f t="shared" si="8"/>
         <v>258</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D295" s="9" t="s">
-        <v>3</v>
+      <c r="D295" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="503">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1531,13 +1531,16 @@
   </si>
   <si>
     <t>Total invalid bracket (find all string exclude invalid no. of char) ~allways use stack ~</t>
+  </si>
+  <si>
+    <t>(sum arr)/2 means possible partision using 0/1 knapsack (.`. Exclude and include arr element ) recursion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1640,6 +1643,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1812,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1981,6 +1992,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2289,7 +2303,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2299,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D295" sqref="D295"/>
+    <sheetView tabSelected="1" topLeftCell="B292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6416,19 +6430,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A299" s="12">
+    <row r="299" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A299" s="19">
         <f t="shared" si="8"/>
         <v>262</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="C299" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D299" s="9" t="s">
-        <v>3</v>
+      <c r="D299" s="69" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="505">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1534,6 +1534,12 @@
   </si>
   <si>
     <t>(sum arr)/2 means possible partision using 0/1 knapsack (.`. Exclude and include arr element ) recursion</t>
+  </si>
+  <si>
+    <t>(1)check is save (2) recursion check all posible val beetwn 1 to 9 at postion 0 {for 3*3 area sni=row/3*3;}</t>
+  </si>
+  <si>
+    <t>check substring if(prefix=palin) check for rest substring till str.length==0</t>
   </si>
 </sst>
 </file>
@@ -1930,6 +1936,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,9 +2001,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2303,7 +2309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2313,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2327,56 +2333,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="13" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A13" s="35"/>
@@ -2396,13 +2402,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="21">
@@ -2966,7 +2972,7 @@
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="49" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="9"/>
@@ -2974,7 +2980,7 @@
     <row r="56" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="49"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3140,7 @@
     <row r="68" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="49" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="9"/>
@@ -3142,7 +3148,7 @@
     <row r="69" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="49"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4355,13 +4361,13 @@
     </row>
     <row r="153" spans="1:4" s="10" customFormat="1">
       <c r="A153" s="12"/>
-      <c r="C153" s="48" t="s">
+      <c r="C153" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="10" customFormat="1">
       <c r="A154" s="12"/>
-      <c r="C154" s="49"/>
+      <c r="C154" s="50"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4908,13 +4914,13 @@
     </row>
     <row r="192" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="C192" s="48" t="s">
+      <c r="C192" s="49" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="C193" s="49"/>
+      <c r="C193" s="50"/>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -6385,19 +6391,19 @@
         <v>501</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A296" s="12">
+    <row r="296" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A296" s="17">
         <f t="shared" si="8"/>
         <v>259</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D296" s="9" t="s">
-        <v>3</v>
+      <c r="D296" s="48" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="10" customFormat="1" ht="21">
@@ -6415,19 +6421,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A298" s="12">
+    <row r="298" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A298" s="19">
         <f t="shared" si="8"/>
         <v>261</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D298" s="9" t="s">
-        <v>3</v>
+      <c r="D298" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="21" customFormat="1" ht="21">
@@ -6441,7 +6447,7 @@
       <c r="C299" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D299" s="69" t="s">
+      <c r="D299" s="48" t="s">
         <v>502</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="506">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1540,6 +1540,9 @@
   </si>
   <si>
     <t>check substring if(prefix=palin) check for rest substring till str.length==0</t>
+  </si>
+  <si>
+    <t>check knight index patern</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2312,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2319,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6451,19 +6454,19 @@
         <v>502</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A300" s="12">
+    <row r="300" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A300" s="17">
         <f t="shared" si="8"/>
         <v>263</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D300" s="9" t="s">
-        <v>3</v>
+      <c r="D300" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="10" customFormat="1" ht="21">
@@ -6496,18 +6499,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A303" s="12">
+    <row r="303" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A303" s="19">
         <f t="shared" si="8"/>
         <v>266</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D303" s="9" t="s">
+      <c r="D303" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2312,7 +2312,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2323,7 +2323,7 @@
   <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D303" sqref="D303"/>
+      <selection activeCell="A305" sqref="A305:XFD305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6514,33 +6514,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A304" s="12">
+    <row r="304" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A304" s="19">
         <f t="shared" si="8"/>
         <v>267</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="D304" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A305" s="12">
+      <c r="D304" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A305" s="19">
         <f t="shared" si="8"/>
         <v>268</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D305" s="9" t="s">
+      <c r="D305" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2312,7 +2312,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2322,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305:XFD305"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307:XFD307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6559,18 +6559,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A307" s="12">
+    <row r="307" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A307" s="19">
         <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D307" s="9" t="s">
+      <c r="D307" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="507">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1543,6 +1543,9 @@
   </si>
   <si>
     <t>check knight index patern</t>
+  </si>
+  <si>
+    <t>solution incorrect</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2322,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307:XFD307"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6469,19 +6472,19 @@
         <v>505</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A301" s="12">
+    <row r="301" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A301" s="17">
         <f t="shared" si="8"/>
         <v>264</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D301" s="9" t="s">
-        <v>3</v>
+      <c r="D301" s="14" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="10" customFormat="1" ht="21">
@@ -6574,18 +6577,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A308" s="12">
+    <row r="308" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A308" s="19">
         <f t="shared" si="8"/>
         <v>271</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="D308" s="9" t="s">
+      <c r="D308" s="24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="508">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>solution incorrect</t>
+  </si>
+  <si>
+    <t>check logic uniques solution there.</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2325,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D302" sqref="D302"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A315" sqref="A315:A350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6607,19 +6610,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A310" s="12">
+    <row r="310" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A310" s="19">
         <f t="shared" si="8"/>
         <v>273</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C310" s="8" t="s">
+      <c r="C310" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D310" s="9" t="s">
-        <v>3</v>
+      <c r="D310" s="24" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="311" spans="1:4" s="10" customFormat="1" ht="21">
@@ -6633,7 +6636,9 @@
       <c r="D312" s="9"/>
     </row>
     <row r="313" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A313" s="12"/>
+      <c r="A313" s="12">
+        <v>274</v>
+      </c>
       <c r="B313" s="7" t="s">
         <v>281</v>
       </c>
@@ -6645,7 +6650,10 @@
       </c>
     </row>
     <row r="314" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A314" s="12"/>
+      <c r="A314" s="12">
+        <f>+A313+1</f>
+        <v>275</v>
+      </c>
       <c r="B314" s="7" t="s">
         <v>281</v>
       </c>
@@ -6657,7 +6665,10 @@
       </c>
     </row>
     <row r="315" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A315" s="12"/>
+      <c r="A315" s="12">
+        <f t="shared" ref="A315:A350" si="9">+A314+1</f>
+        <v>276</v>
+      </c>
       <c r="B315" s="7" t="s">
         <v>281</v>
       </c>
@@ -6669,7 +6680,10 @@
       </c>
     </row>
     <row r="316" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A316" s="12"/>
+      <c r="A316" s="12">
+        <f t="shared" si="9"/>
+        <v>277</v>
+      </c>
       <c r="B316" s="7" t="s">
         <v>281</v>
       </c>
@@ -6681,7 +6695,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A317" s="12"/>
+      <c r="A317" s="12">
+        <f t="shared" si="9"/>
+        <v>278</v>
+      </c>
       <c r="B317" s="7" t="s">
         <v>281</v>
       </c>
@@ -6693,7 +6710,10 @@
       </c>
     </row>
     <row r="318" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A318" s="12"/>
+      <c r="A318" s="12">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
       <c r="B318" s="7" t="s">
         <v>281</v>
       </c>
@@ -6705,7 +6725,10 @@
       </c>
     </row>
     <row r="319" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A319" s="12"/>
+      <c r="A319" s="12">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
       <c r="B319" s="7" t="s">
         <v>281</v>
       </c>
@@ -6717,7 +6740,10 @@
       </c>
     </row>
     <row r="320" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A320" s="12"/>
+      <c r="A320" s="12">
+        <f t="shared" si="9"/>
+        <v>281</v>
+      </c>
       <c r="B320" s="7" t="s">
         <v>281</v>
       </c>
@@ -6729,7 +6755,10 @@
       </c>
     </row>
     <row r="321" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A321" s="12"/>
+      <c r="A321" s="12">
+        <f t="shared" si="9"/>
+        <v>282</v>
+      </c>
       <c r="B321" s="7" t="s">
         <v>281</v>
       </c>
@@ -6741,7 +6770,10 @@
       </c>
     </row>
     <row r="322" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A322" s="12"/>
+      <c r="A322" s="12">
+        <f t="shared" si="9"/>
+        <v>283</v>
+      </c>
       <c r="B322" s="7" t="s">
         <v>281</v>
       </c>
@@ -6753,7 +6785,10 @@
       </c>
     </row>
     <row r="323" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A323" s="12"/>
+      <c r="A323" s="12">
+        <f t="shared" si="9"/>
+        <v>284</v>
+      </c>
       <c r="B323" s="7" t="s">
         <v>281</v>
       </c>
@@ -6765,7 +6800,10 @@
       </c>
     </row>
     <row r="324" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A324" s="12"/>
+      <c r="A324" s="12">
+        <f t="shared" si="9"/>
+        <v>285</v>
+      </c>
       <c r="B324" s="7" t="s">
         <v>281</v>
       </c>
@@ -6777,7 +6815,10 @@
       </c>
     </row>
     <row r="325" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A325" s="12"/>
+      <c r="A325" s="12">
+        <f t="shared" si="9"/>
+        <v>286</v>
+      </c>
       <c r="B325" s="7" t="s">
         <v>281</v>
       </c>
@@ -6789,7 +6830,10 @@
       </c>
     </row>
     <row r="326" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A326" s="12"/>
+      <c r="A326" s="12">
+        <f t="shared" si="9"/>
+        <v>287</v>
+      </c>
       <c r="B326" s="7" t="s">
         <v>281</v>
       </c>
@@ -6801,7 +6845,10 @@
       </c>
     </row>
     <row r="327" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A327" s="12"/>
+      <c r="A327" s="12">
+        <f t="shared" si="9"/>
+        <v>288</v>
+      </c>
       <c r="B327" s="7" t="s">
         <v>281</v>
       </c>
@@ -6813,7 +6860,10 @@
       </c>
     </row>
     <row r="328" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A328" s="12"/>
+      <c r="A328" s="12">
+        <f t="shared" si="9"/>
+        <v>289</v>
+      </c>
       <c r="B328" s="7" t="s">
         <v>281</v>
       </c>
@@ -6825,7 +6875,10 @@
       </c>
     </row>
     <row r="329" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A329" s="12"/>
+      <c r="A329" s="12">
+        <f t="shared" si="9"/>
+        <v>290</v>
+      </c>
       <c r="B329" s="7" t="s">
         <v>281</v>
       </c>
@@ -6837,7 +6890,10 @@
       </c>
     </row>
     <row r="330" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A330" s="12"/>
+      <c r="A330" s="12">
+        <f t="shared" si="9"/>
+        <v>291</v>
+      </c>
       <c r="B330" s="7" t="s">
         <v>281</v>
       </c>
@@ -6849,7 +6905,10 @@
       </c>
     </row>
     <row r="331" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A331" s="12"/>
+      <c r="A331" s="12">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
       <c r="B331" s="7" t="s">
         <v>281</v>
       </c>
@@ -6861,7 +6920,10 @@
       </c>
     </row>
     <row r="332" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A332" s="12"/>
+      <c r="A332" s="12">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
       <c r="B332" s="7" t="s">
         <v>281</v>
       </c>
@@ -6873,7 +6935,10 @@
       </c>
     </row>
     <row r="333" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A333" s="12"/>
+      <c r="A333" s="12">
+        <f t="shared" si="9"/>
+        <v>294</v>
+      </c>
       <c r="B333" s="7" t="s">
         <v>281</v>
       </c>
@@ -6885,7 +6950,10 @@
       </c>
     </row>
     <row r="334" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A334" s="12"/>
+      <c r="A334" s="12">
+        <f t="shared" si="9"/>
+        <v>295</v>
+      </c>
       <c r="B334" s="7" t="s">
         <v>281</v>
       </c>
@@ -6897,7 +6965,10 @@
       </c>
     </row>
     <row r="335" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A335" s="12"/>
+      <c r="A335" s="12">
+        <f t="shared" si="9"/>
+        <v>296</v>
+      </c>
       <c r="B335" s="7" t="s">
         <v>281</v>
       </c>
@@ -6909,7 +6980,10 @@
       </c>
     </row>
     <row r="336" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A336" s="12"/>
+      <c r="A336" s="12">
+        <f t="shared" si="9"/>
+        <v>297</v>
+      </c>
       <c r="B336" s="7" t="s">
         <v>281</v>
       </c>
@@ -6921,7 +6995,10 @@
       </c>
     </row>
     <row r="337" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A337" s="12"/>
+      <c r="A337" s="12">
+        <f t="shared" si="9"/>
+        <v>298</v>
+      </c>
       <c r="B337" s="7" t="s">
         <v>281</v>
       </c>
@@ -6933,7 +7010,10 @@
       </c>
     </row>
     <row r="338" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A338" s="12"/>
+      <c r="A338" s="12">
+        <f t="shared" si="9"/>
+        <v>299</v>
+      </c>
       <c r="B338" s="7" t="s">
         <v>281</v>
       </c>
@@ -6945,7 +7025,10 @@
       </c>
     </row>
     <row r="339" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A339" s="12"/>
+      <c r="A339" s="12">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
       <c r="B339" s="7" t="s">
         <v>281</v>
       </c>
@@ -6957,7 +7040,10 @@
       </c>
     </row>
     <row r="340" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A340" s="12"/>
+      <c r="A340" s="12">
+        <f t="shared" si="9"/>
+        <v>301</v>
+      </c>
       <c r="B340" s="7" t="s">
         <v>281</v>
       </c>
@@ -6969,7 +7055,10 @@
       </c>
     </row>
     <row r="341" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A341" s="12"/>
+      <c r="A341" s="12">
+        <f t="shared" si="9"/>
+        <v>302</v>
+      </c>
       <c r="B341" s="7" t="s">
         <v>281</v>
       </c>
@@ -6981,7 +7070,10 @@
       </c>
     </row>
     <row r="342" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A342" s="12"/>
+      <c r="A342" s="12">
+        <f t="shared" si="9"/>
+        <v>303</v>
+      </c>
       <c r="B342" s="7" t="s">
         <v>281</v>
       </c>
@@ -6993,7 +7085,10 @@
       </c>
     </row>
     <row r="343" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A343" s="12"/>
+      <c r="A343" s="12">
+        <f t="shared" si="9"/>
+        <v>304</v>
+      </c>
       <c r="B343" s="7" t="s">
         <v>281</v>
       </c>
@@ -7005,7 +7100,10 @@
       </c>
     </row>
     <row r="344" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A344" s="12"/>
+      <c r="A344" s="12">
+        <f t="shared" si="9"/>
+        <v>305</v>
+      </c>
       <c r="B344" s="7" t="s">
         <v>281</v>
       </c>
@@ -7017,7 +7115,10 @@
       </c>
     </row>
     <row r="345" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A345" s="12"/>
+      <c r="A345" s="12">
+        <f t="shared" si="9"/>
+        <v>306</v>
+      </c>
       <c r="B345" s="7" t="s">
         <v>281</v>
       </c>
@@ -7029,7 +7130,10 @@
       </c>
     </row>
     <row r="346" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A346" s="12"/>
+      <c r="A346" s="12">
+        <f t="shared" si="9"/>
+        <v>307</v>
+      </c>
       <c r="B346" s="7" t="s">
         <v>281</v>
       </c>
@@ -7041,7 +7145,10 @@
       </c>
     </row>
     <row r="347" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A347" s="12"/>
+      <c r="A347" s="12">
+        <f t="shared" si="9"/>
+        <v>308</v>
+      </c>
       <c r="B347" s="7" t="s">
         <v>281</v>
       </c>
@@ -7053,7 +7160,10 @@
       </c>
     </row>
     <row r="348" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A348" s="12"/>
+      <c r="A348" s="12">
+        <f t="shared" si="9"/>
+        <v>309</v>
+      </c>
       <c r="B348" s="7" t="s">
         <v>281</v>
       </c>
@@ -7065,7 +7175,10 @@
       </c>
     </row>
     <row r="349" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A349" s="12"/>
+      <c r="A349" s="12">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
       <c r="B349" s="7" t="s">
         <v>281</v>
       </c>
@@ -7077,7 +7190,10 @@
       </c>
     </row>
     <row r="350" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A350" s="12"/>
+      <c r="A350" s="12">
+        <f t="shared" si="9"/>
+        <v>311</v>
+      </c>
       <c r="B350" s="7" t="s">
         <v>281</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2318,7 +2318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315:A350"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6635,17 +6635,17 @@
       <c r="C312" s="11"/>
       <c r="D312" s="9"/>
     </row>
-    <row r="313" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A313" s="12">
+    <row r="313" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A313" s="4">
         <v>274</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D313" s="9" t="s">
+      <c r="D313" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7215,7 +7215,9 @@
       <c r="D352" s="9"/>
     </row>
     <row r="353" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A353" s="12"/>
+      <c r="A353" s="12">
+        <v>312</v>
+      </c>
       <c r="B353" s="12" t="s">
         <v>320</v>
       </c>
@@ -7227,7 +7229,10 @@
       </c>
     </row>
     <row r="354" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A354" s="12"/>
+      <c r="A354" s="12">
+        <f>A353+1</f>
+        <v>313</v>
+      </c>
       <c r="B354" s="12" t="s">
         <v>320</v>
       </c>
@@ -7239,7 +7244,10 @@
       </c>
     </row>
     <row r="355" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A355" s="12"/>
+      <c r="A355" s="12">
+        <f t="shared" ref="A355:A370" si="10">A354+1</f>
+        <v>314</v>
+      </c>
       <c r="B355" s="12" t="s">
         <v>320</v>
       </c>
@@ -7251,7 +7259,10 @@
       </c>
     </row>
     <row r="356" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A356" s="12"/>
+      <c r="A356" s="12">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
       <c r="B356" s="12" t="s">
         <v>320</v>
       </c>
@@ -7263,7 +7274,10 @@
       </c>
     </row>
     <row r="357" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A357" s="12"/>
+      <c r="A357" s="12">
+        <f t="shared" si="10"/>
+        <v>316</v>
+      </c>
       <c r="B357" s="12" t="s">
         <v>320</v>
       </c>
@@ -7275,7 +7289,10 @@
       </c>
     </row>
     <row r="358" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A358" s="12"/>
+      <c r="A358" s="12">
+        <f t="shared" si="10"/>
+        <v>317</v>
+      </c>
       <c r="B358" s="12" t="s">
         <v>320</v>
       </c>
@@ -7287,7 +7304,10 @@
       </c>
     </row>
     <row r="359" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A359" s="12"/>
+      <c r="A359" s="12">
+        <f t="shared" si="10"/>
+        <v>318</v>
+      </c>
       <c r="B359" s="12" t="s">
         <v>320</v>
       </c>
@@ -7299,7 +7319,10 @@
       </c>
     </row>
     <row r="360" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A360" s="12"/>
+      <c r="A360" s="12">
+        <f t="shared" si="10"/>
+        <v>319</v>
+      </c>
       <c r="B360" s="12" t="s">
         <v>320</v>
       </c>
@@ -7311,7 +7334,10 @@
       </c>
     </row>
     <row r="361" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A361" s="12"/>
+      <c r="A361" s="12">
+        <f t="shared" si="10"/>
+        <v>320</v>
+      </c>
       <c r="B361" s="12" t="s">
         <v>320</v>
       </c>
@@ -7323,7 +7349,10 @@
       </c>
     </row>
     <row r="362" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A362" s="12"/>
+      <c r="A362" s="12">
+        <f t="shared" si="10"/>
+        <v>321</v>
+      </c>
       <c r="B362" s="12" t="s">
         <v>320</v>
       </c>
@@ -7335,7 +7364,10 @@
       </c>
     </row>
     <row r="363" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A363" s="12"/>
+      <c r="A363" s="12">
+        <f t="shared" si="10"/>
+        <v>322</v>
+      </c>
       <c r="B363" s="12" t="s">
         <v>320</v>
       </c>
@@ -7347,7 +7379,10 @@
       </c>
     </row>
     <row r="364" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A364" s="12"/>
+      <c r="A364" s="12">
+        <f t="shared" si="10"/>
+        <v>323</v>
+      </c>
       <c r="B364" s="12" t="s">
         <v>320</v>
       </c>
@@ -7359,7 +7394,10 @@
       </c>
     </row>
     <row r="365" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A365" s="12"/>
+      <c r="A365" s="12">
+        <f t="shared" si="10"/>
+        <v>324</v>
+      </c>
       <c r="B365" s="12" t="s">
         <v>320</v>
       </c>
@@ -7371,7 +7409,10 @@
       </c>
     </row>
     <row r="366" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A366" s="12"/>
+      <c r="A366" s="12">
+        <f t="shared" si="10"/>
+        <v>325</v>
+      </c>
       <c r="B366" s="12" t="s">
         <v>320</v>
       </c>
@@ -7383,7 +7424,10 @@
       </c>
     </row>
     <row r="367" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A367" s="12"/>
+      <c r="A367" s="12">
+        <f t="shared" si="10"/>
+        <v>326</v>
+      </c>
       <c r="B367" s="12" t="s">
         <v>320</v>
       </c>
@@ -7395,7 +7439,10 @@
       </c>
     </row>
     <row r="368" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A368" s="12"/>
+      <c r="A368" s="12">
+        <f t="shared" si="10"/>
+        <v>327</v>
+      </c>
       <c r="B368" s="12" t="s">
         <v>320</v>
       </c>
@@ -7407,7 +7454,10 @@
       </c>
     </row>
     <row r="369" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A369" s="12"/>
+      <c r="A369" s="12">
+        <f t="shared" si="10"/>
+        <v>328</v>
+      </c>
       <c r="B369" s="12" t="s">
         <v>320</v>
       </c>
@@ -7419,7 +7469,10 @@
       </c>
     </row>
     <row r="370" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A370" s="12"/>
+      <c r="A370" s="12">
+        <f t="shared" si="10"/>
+        <v>329</v>
+      </c>
       <c r="B370" s="12" t="s">
         <v>320</v>
       </c>
@@ -7441,7 +7494,9 @@
       <c r="D372" s="9"/>
     </row>
     <row r="373" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A373" s="12"/>
+      <c r="A373" s="12">
+        <v>330</v>
+      </c>
       <c r="B373" s="12" t="s">
         <v>339</v>
       </c>
@@ -7453,7 +7508,10 @@
       </c>
     </row>
     <row r="374" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A374" s="12"/>
+      <c r="A374" s="12">
+        <f>A373+1</f>
+        <v>331</v>
+      </c>
       <c r="B374" s="12" t="s">
         <v>339</v>
       </c>
@@ -7465,7 +7523,10 @@
       </c>
     </row>
     <row r="375" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A375" s="12"/>
+      <c r="A375" s="12">
+        <f t="shared" ref="A375:A416" si="11">A374+1</f>
+        <v>332</v>
+      </c>
       <c r="B375" s="12" t="s">
         <v>339</v>
       </c>
@@ -7477,7 +7538,10 @@
       </c>
     </row>
     <row r="376" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A376" s="12"/>
+      <c r="A376" s="12">
+        <f t="shared" si="11"/>
+        <v>333</v>
+      </c>
       <c r="B376" s="12" t="s">
         <v>339</v>
       </c>
@@ -7489,7 +7553,10 @@
       </c>
     </row>
     <row r="377" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A377" s="12"/>
+      <c r="A377" s="12">
+        <f t="shared" si="11"/>
+        <v>334</v>
+      </c>
       <c r="B377" s="12" t="s">
         <v>339</v>
       </c>
@@ -7501,7 +7568,10 @@
       </c>
     </row>
     <row r="378" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A378" s="12"/>
+      <c r="A378" s="12">
+        <f t="shared" si="11"/>
+        <v>335</v>
+      </c>
       <c r="B378" s="12" t="s">
         <v>339</v>
       </c>
@@ -7513,7 +7583,10 @@
       </c>
     </row>
     <row r="379" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A379" s="12"/>
+      <c r="A379" s="12">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
       <c r="B379" s="12" t="s">
         <v>339</v>
       </c>
@@ -7525,7 +7598,10 @@
       </c>
     </row>
     <row r="380" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A380" s="12"/>
+      <c r="A380" s="12">
+        <f t="shared" si="11"/>
+        <v>337</v>
+      </c>
       <c r="B380" s="12" t="s">
         <v>339</v>
       </c>
@@ -7537,7 +7613,10 @@
       </c>
     </row>
     <row r="381" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A381" s="12"/>
+      <c r="A381" s="12">
+        <f t="shared" si="11"/>
+        <v>338</v>
+      </c>
       <c r="B381" s="12" t="s">
         <v>339</v>
       </c>
@@ -7549,7 +7628,10 @@
       </c>
     </row>
     <row r="382" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A382" s="12"/>
+      <c r="A382" s="12">
+        <f t="shared" si="11"/>
+        <v>339</v>
+      </c>
       <c r="B382" s="12" t="s">
         <v>339</v>
       </c>
@@ -7561,7 +7643,10 @@
       </c>
     </row>
     <row r="383" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A383" s="12"/>
+      <c r="A383" s="12">
+        <f t="shared" si="11"/>
+        <v>340</v>
+      </c>
       <c r="B383" s="12" t="s">
         <v>339</v>
       </c>
@@ -7573,7 +7658,10 @@
       </c>
     </row>
     <row r="384" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A384" s="12"/>
+      <c r="A384" s="12">
+        <f t="shared" si="11"/>
+        <v>341</v>
+      </c>
       <c r="B384" s="12" t="s">
         <v>339</v>
       </c>
@@ -7585,7 +7673,10 @@
       </c>
     </row>
     <row r="385" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A385" s="12"/>
+      <c r="A385" s="12">
+        <f t="shared" si="11"/>
+        <v>342</v>
+      </c>
       <c r="B385" s="12" t="s">
         <v>339</v>
       </c>
@@ -7597,7 +7688,10 @@
       </c>
     </row>
     <row r="386" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A386" s="12"/>
+      <c r="A386" s="12">
+        <f t="shared" si="11"/>
+        <v>343</v>
+      </c>
       <c r="B386" s="12" t="s">
         <v>339</v>
       </c>
@@ -7609,7 +7703,10 @@
       </c>
     </row>
     <row r="387" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A387" s="12"/>
+      <c r="A387" s="12">
+        <f t="shared" si="11"/>
+        <v>344</v>
+      </c>
       <c r="B387" s="12" t="s">
         <v>339</v>
       </c>
@@ -7621,7 +7718,10 @@
       </c>
     </row>
     <row r="388" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A388" s="12"/>
+      <c r="A388" s="12">
+        <f t="shared" si="11"/>
+        <v>345</v>
+      </c>
       <c r="B388" s="12" t="s">
         <v>339</v>
       </c>
@@ -7633,7 +7733,10 @@
       </c>
     </row>
     <row r="389" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A389" s="12"/>
+      <c r="A389" s="12">
+        <f t="shared" si="11"/>
+        <v>346</v>
+      </c>
       <c r="B389" s="12" t="s">
         <v>339</v>
       </c>
@@ -7645,7 +7748,10 @@
       </c>
     </row>
     <row r="390" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A390" s="12"/>
+      <c r="A390" s="12">
+        <f t="shared" si="11"/>
+        <v>347</v>
+      </c>
       <c r="B390" s="12" t="s">
         <v>339</v>
       </c>
@@ -7657,7 +7763,10 @@
       </c>
     </row>
     <row r="391" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A391" s="12"/>
+      <c r="A391" s="12">
+        <f t="shared" si="11"/>
+        <v>348</v>
+      </c>
       <c r="B391" s="12" t="s">
         <v>339</v>
       </c>
@@ -7669,7 +7778,10 @@
       </c>
     </row>
     <row r="392" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A392" s="12"/>
+      <c r="A392" s="12">
+        <f t="shared" si="11"/>
+        <v>349</v>
+      </c>
       <c r="B392" s="12" t="s">
         <v>339</v>
       </c>
@@ -7681,7 +7793,10 @@
       </c>
     </row>
     <row r="393" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A393" s="12"/>
+      <c r="A393" s="12">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
       <c r="B393" s="12" t="s">
         <v>339</v>
       </c>
@@ -7693,7 +7808,10 @@
       </c>
     </row>
     <row r="394" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A394" s="12"/>
+      <c r="A394" s="12">
+        <f t="shared" si="11"/>
+        <v>351</v>
+      </c>
       <c r="B394" s="12" t="s">
         <v>339</v>
       </c>
@@ -7705,7 +7823,10 @@
       </c>
     </row>
     <row r="395" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A395" s="12"/>
+      <c r="A395" s="12">
+        <f t="shared" si="11"/>
+        <v>352</v>
+      </c>
       <c r="B395" s="12" t="s">
         <v>339</v>
       </c>
@@ -7717,7 +7838,10 @@
       </c>
     </row>
     <row r="396" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A396" s="12"/>
+      <c r="A396" s="12">
+        <f t="shared" si="11"/>
+        <v>353</v>
+      </c>
       <c r="B396" s="12" t="s">
         <v>339</v>
       </c>
@@ -7729,7 +7853,10 @@
       </c>
     </row>
     <row r="397" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A397" s="12"/>
+      <c r="A397" s="12">
+        <f t="shared" si="11"/>
+        <v>354</v>
+      </c>
       <c r="B397" s="12" t="s">
         <v>339</v>
       </c>
@@ -7741,7 +7868,10 @@
       </c>
     </row>
     <row r="398" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A398" s="12"/>
+      <c r="A398" s="12">
+        <f t="shared" si="11"/>
+        <v>355</v>
+      </c>
       <c r="B398" s="12" t="s">
         <v>339</v>
       </c>
@@ -7753,7 +7883,10 @@
       </c>
     </row>
     <row r="399" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A399" s="12"/>
+      <c r="A399" s="12">
+        <f t="shared" si="11"/>
+        <v>356</v>
+      </c>
       <c r="B399" s="12" t="s">
         <v>339</v>
       </c>
@@ -7765,7 +7898,10 @@
       </c>
     </row>
     <row r="400" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A400" s="12"/>
+      <c r="A400" s="12">
+        <f t="shared" si="11"/>
+        <v>357</v>
+      </c>
       <c r="B400" s="12" t="s">
         <v>339</v>
       </c>
@@ -7777,7 +7913,10 @@
       </c>
     </row>
     <row r="401" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A401" s="12"/>
+      <c r="A401" s="12">
+        <f t="shared" si="11"/>
+        <v>358</v>
+      </c>
       <c r="B401" s="12" t="s">
         <v>339</v>
       </c>
@@ -7789,7 +7928,10 @@
       </c>
     </row>
     <row r="402" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A402" s="12"/>
+      <c r="A402" s="12">
+        <f t="shared" si="11"/>
+        <v>359</v>
+      </c>
       <c r="B402" s="12" t="s">
         <v>339</v>
       </c>
@@ -7801,7 +7943,10 @@
       </c>
     </row>
     <row r="403" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A403" s="12"/>
+      <c r="A403" s="12">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
       <c r="B403" s="12" t="s">
         <v>339</v>
       </c>
@@ -7813,7 +7958,10 @@
       </c>
     </row>
     <row r="404" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A404" s="12"/>
+      <c r="A404" s="12">
+        <f t="shared" si="11"/>
+        <v>361</v>
+      </c>
       <c r="B404" s="12" t="s">
         <v>339</v>
       </c>
@@ -7825,7 +7973,10 @@
       </c>
     </row>
     <row r="405" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A405" s="12"/>
+      <c r="A405" s="12">
+        <f t="shared" si="11"/>
+        <v>362</v>
+      </c>
       <c r="B405" s="12" t="s">
         <v>339</v>
       </c>
@@ -7837,7 +7988,10 @@
       </c>
     </row>
     <row r="406" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A406" s="12"/>
+      <c r="A406" s="12">
+        <f t="shared" si="11"/>
+        <v>363</v>
+      </c>
       <c r="B406" s="12" t="s">
         <v>339</v>
       </c>
@@ -7849,7 +8003,10 @@
       </c>
     </row>
     <row r="407" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A407" s="12"/>
+      <c r="A407" s="12">
+        <f t="shared" si="11"/>
+        <v>364</v>
+      </c>
       <c r="B407" s="12" t="s">
         <v>339</v>
       </c>
@@ -7861,7 +8018,10 @@
       </c>
     </row>
     <row r="408" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A408" s="12"/>
+      <c r="A408" s="12">
+        <f t="shared" si="11"/>
+        <v>365</v>
+      </c>
       <c r="B408" s="12" t="s">
         <v>339</v>
       </c>
@@ -7873,7 +8033,10 @@
       </c>
     </row>
     <row r="409" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A409" s="12"/>
+      <c r="A409" s="12">
+        <f t="shared" si="11"/>
+        <v>366</v>
+      </c>
       <c r="B409" s="12" t="s">
         <v>339</v>
       </c>
@@ -7885,7 +8048,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A410" s="12"/>
+      <c r="A410" s="12">
+        <f t="shared" si="11"/>
+        <v>367</v>
+      </c>
       <c r="B410" s="12" t="s">
         <v>339</v>
       </c>
@@ -7897,7 +8063,10 @@
       </c>
     </row>
     <row r="411" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A411" s="12"/>
+      <c r="A411" s="12">
+        <f t="shared" si="11"/>
+        <v>368</v>
+      </c>
       <c r="B411" s="12" t="s">
         <v>339</v>
       </c>
@@ -7909,7 +8078,10 @@
       </c>
     </row>
     <row r="412" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A412" s="12"/>
+      <c r="A412" s="12">
+        <f t="shared" si="11"/>
+        <v>369</v>
+      </c>
       <c r="B412" s="12" t="s">
         <v>339</v>
       </c>
@@ -7921,7 +8093,10 @@
       </c>
     </row>
     <row r="413" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A413" s="12"/>
+      <c r="A413" s="12">
+        <f t="shared" si="11"/>
+        <v>370</v>
+      </c>
       <c r="B413" s="12" t="s">
         <v>339</v>
       </c>
@@ -7933,7 +8108,10 @@
       </c>
     </row>
     <row r="414" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A414" s="12"/>
+      <c r="A414" s="12">
+        <f t="shared" si="11"/>
+        <v>371</v>
+      </c>
       <c r="B414" s="12" t="s">
         <v>339</v>
       </c>
@@ -7945,7 +8123,10 @@
       </c>
     </row>
     <row r="415" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A415" s="12"/>
+      <c r="A415" s="12">
+        <f t="shared" si="11"/>
+        <v>372</v>
+      </c>
       <c r="B415" s="12" t="s">
         <v>339</v>
       </c>
@@ -7957,7 +8138,10 @@
       </c>
     </row>
     <row r="416" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A416" s="12"/>
+      <c r="A416" s="12">
+        <f t="shared" si="11"/>
+        <v>373</v>
+      </c>
       <c r="B416" s="12" t="s">
         <v>339</v>
       </c>
@@ -7979,7 +8163,9 @@
       <c r="D418" s="9"/>
     </row>
     <row r="419" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A419" s="12"/>
+      <c r="A419" s="12">
+        <v>374</v>
+      </c>
       <c r="B419" s="12" t="s">
         <v>383</v>
       </c>
@@ -7991,7 +8177,10 @@
       </c>
     </row>
     <row r="420" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A420" s="12"/>
+      <c r="A420" s="12">
+        <f>A419+1</f>
+        <v>375</v>
+      </c>
       <c r="B420" s="12" t="s">
         <v>383</v>
       </c>
@@ -8003,7 +8192,10 @@
       </c>
     </row>
     <row r="421" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A421" s="12"/>
+      <c r="A421" s="12">
+        <f t="shared" ref="A421:A424" si="12">A420+1</f>
+        <v>376</v>
+      </c>
       <c r="B421" s="12" t="s">
         <v>383</v>
       </c>
@@ -8015,7 +8207,10 @@
       </c>
     </row>
     <row r="422" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A422" s="12"/>
+      <c r="A422" s="12">
+        <f t="shared" si="12"/>
+        <v>377</v>
+      </c>
       <c r="B422" s="12" t="s">
         <v>383</v>
       </c>
@@ -8027,7 +8222,10 @@
       </c>
     </row>
     <row r="423" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A423" s="12"/>
+      <c r="A423" s="12">
+        <f t="shared" si="12"/>
+        <v>378</v>
+      </c>
       <c r="B423" s="12" t="s">
         <v>383</v>
       </c>
@@ -8039,7 +8237,10 @@
       </c>
     </row>
     <row r="424" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A424" s="12"/>
+      <c r="A424" s="12">
+        <f t="shared" si="12"/>
+        <v>379</v>
+      </c>
       <c r="B424" s="12" t="s">
         <v>383</v>
       </c>
@@ -8061,7 +8262,9 @@
       <c r="D426" s="9"/>
     </row>
     <row r="427" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A427" s="12"/>
+      <c r="A427" s="12">
+        <v>380</v>
+      </c>
       <c r="B427" s="7" t="s">
         <v>389</v>
       </c>
@@ -8073,7 +8276,10 @@
       </c>
     </row>
     <row r="428" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A428" s="12"/>
+      <c r="A428" s="12">
+        <f>A427+1</f>
+        <v>381</v>
+      </c>
       <c r="B428" s="7" t="s">
         <v>389</v>
       </c>
@@ -8085,7 +8291,10 @@
       </c>
     </row>
     <row r="429" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A429" s="12"/>
+      <c r="A429" s="12">
+        <f t="shared" ref="A429:A486" si="13">A428+1</f>
+        <v>382</v>
+      </c>
       <c r="B429" s="7" t="s">
         <v>389</v>
       </c>
@@ -8097,7 +8306,10 @@
       </c>
     </row>
     <row r="430" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A430" s="12"/>
+      <c r="A430" s="12">
+        <f t="shared" si="13"/>
+        <v>383</v>
+      </c>
       <c r="B430" s="7" t="s">
         <v>389</v>
       </c>
@@ -8109,7 +8321,10 @@
       </c>
     </row>
     <row r="431" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A431" s="12"/>
+      <c r="A431" s="12">
+        <f t="shared" si="13"/>
+        <v>384</v>
+      </c>
       <c r="B431" s="7" t="s">
         <v>389</v>
       </c>
@@ -8121,7 +8336,10 @@
       </c>
     </row>
     <row r="432" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A432" s="12"/>
+      <c r="A432" s="12">
+        <f t="shared" si="13"/>
+        <v>385</v>
+      </c>
       <c r="B432" s="7" t="s">
         <v>389</v>
       </c>
@@ -8133,7 +8351,10 @@
       </c>
     </row>
     <row r="433" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A433" s="12"/>
+      <c r="A433" s="12">
+        <f t="shared" si="13"/>
+        <v>386</v>
+      </c>
       <c r="B433" s="7" t="s">
         <v>389</v>
       </c>
@@ -8145,7 +8366,10 @@
       </c>
     </row>
     <row r="434" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A434" s="12"/>
+      <c r="A434" s="12">
+        <f t="shared" si="13"/>
+        <v>387</v>
+      </c>
       <c r="B434" s="7" t="s">
         <v>389</v>
       </c>
@@ -8157,7 +8381,10 @@
       </c>
     </row>
     <row r="435" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A435" s="12"/>
+      <c r="A435" s="12">
+        <f t="shared" si="13"/>
+        <v>388</v>
+      </c>
       <c r="B435" s="7" t="s">
         <v>389</v>
       </c>
@@ -8169,7 +8396,10 @@
       </c>
     </row>
     <row r="436" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A436" s="12"/>
+      <c r="A436" s="12">
+        <f t="shared" si="13"/>
+        <v>389</v>
+      </c>
       <c r="B436" s="7" t="s">
         <v>389</v>
       </c>
@@ -8181,7 +8411,10 @@
       </c>
     </row>
     <row r="437" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A437" s="12"/>
+      <c r="A437" s="12">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
       <c r="B437" s="7" t="s">
         <v>389</v>
       </c>
@@ -8193,7 +8426,10 @@
       </c>
     </row>
     <row r="438" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A438" s="12"/>
+      <c r="A438" s="12">
+        <f t="shared" si="13"/>
+        <v>391</v>
+      </c>
       <c r="B438" s="7" t="s">
         <v>389</v>
       </c>
@@ -8205,7 +8441,10 @@
       </c>
     </row>
     <row r="439" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A439" s="12"/>
+      <c r="A439" s="12">
+        <f t="shared" si="13"/>
+        <v>392</v>
+      </c>
       <c r="B439" s="7" t="s">
         <v>389</v>
       </c>
@@ -8217,7 +8456,10 @@
       </c>
     </row>
     <row r="440" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A440" s="12"/>
+      <c r="A440" s="12">
+        <f t="shared" si="13"/>
+        <v>393</v>
+      </c>
       <c r="B440" s="7" t="s">
         <v>389</v>
       </c>
@@ -8229,7 +8471,10 @@
       </c>
     </row>
     <row r="441" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A441" s="12"/>
+      <c r="A441" s="12">
+        <f t="shared" si="13"/>
+        <v>394</v>
+      </c>
       <c r="B441" s="7" t="s">
         <v>389</v>
       </c>
@@ -8241,7 +8486,10 @@
       </c>
     </row>
     <row r="442" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A442" s="12"/>
+      <c r="A442" s="12">
+        <f t="shared" si="13"/>
+        <v>395</v>
+      </c>
       <c r="B442" s="7" t="s">
         <v>389</v>
       </c>
@@ -8253,7 +8501,10 @@
       </c>
     </row>
     <row r="443" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A443" s="12"/>
+      <c r="A443" s="12">
+        <f t="shared" si="13"/>
+        <v>396</v>
+      </c>
       <c r="B443" s="7" t="s">
         <v>389</v>
       </c>
@@ -8265,7 +8516,10 @@
       </c>
     </row>
     <row r="444" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A444" s="12"/>
+      <c r="A444" s="12">
+        <f t="shared" si="13"/>
+        <v>397</v>
+      </c>
       <c r="B444" s="7" t="s">
         <v>389</v>
       </c>
@@ -8277,7 +8531,10 @@
       </c>
     </row>
     <row r="445" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A445" s="12"/>
+      <c r="A445" s="12">
+        <f t="shared" si="13"/>
+        <v>398</v>
+      </c>
       <c r="B445" s="7" t="s">
         <v>389</v>
       </c>
@@ -8289,7 +8546,10 @@
       </c>
     </row>
     <row r="446" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A446" s="12"/>
+      <c r="A446" s="12">
+        <f t="shared" si="13"/>
+        <v>399</v>
+      </c>
       <c r="B446" s="7" t="s">
         <v>389</v>
       </c>
@@ -8301,7 +8561,10 @@
       </c>
     </row>
     <row r="447" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A447" s="12"/>
+      <c r="A447" s="12">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
       <c r="B447" s="7" t="s">
         <v>389</v>
       </c>
@@ -8313,7 +8576,10 @@
       </c>
     </row>
     <row r="448" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A448" s="12"/>
+      <c r="A448" s="12">
+        <f t="shared" si="13"/>
+        <v>401</v>
+      </c>
       <c r="B448" s="7" t="s">
         <v>389</v>
       </c>
@@ -8325,7 +8591,10 @@
       </c>
     </row>
     <row r="449" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A449" s="12"/>
+      <c r="A449" s="12">
+        <f t="shared" si="13"/>
+        <v>402</v>
+      </c>
       <c r="B449" s="7" t="s">
         <v>389</v>
       </c>
@@ -8337,7 +8606,10 @@
       </c>
     </row>
     <row r="450" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A450" s="12"/>
+      <c r="A450" s="12">
+        <f t="shared" si="13"/>
+        <v>403</v>
+      </c>
       <c r="B450" s="7" t="s">
         <v>389</v>
       </c>
@@ -8349,7 +8621,10 @@
       </c>
     </row>
     <row r="451" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A451" s="12"/>
+      <c r="A451" s="12">
+        <f t="shared" si="13"/>
+        <v>404</v>
+      </c>
       <c r="B451" s="7" t="s">
         <v>389</v>
       </c>
@@ -8361,7 +8636,10 @@
       </c>
     </row>
     <row r="452" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A452" s="12"/>
+      <c r="A452" s="12">
+        <f t="shared" si="13"/>
+        <v>405</v>
+      </c>
       <c r="B452" s="7" t="s">
         <v>389</v>
       </c>
@@ -8373,7 +8651,10 @@
       </c>
     </row>
     <row r="453" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A453" s="12"/>
+      <c r="A453" s="12">
+        <f t="shared" si="13"/>
+        <v>406</v>
+      </c>
       <c r="B453" s="7" t="s">
         <v>389</v>
       </c>
@@ -8385,7 +8666,10 @@
       </c>
     </row>
     <row r="454" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A454" s="12"/>
+      <c r="A454" s="12">
+        <f t="shared" si="13"/>
+        <v>407</v>
+      </c>
       <c r="B454" s="7" t="s">
         <v>389</v>
       </c>
@@ -8397,7 +8681,10 @@
       </c>
     </row>
     <row r="455" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A455" s="12"/>
+      <c r="A455" s="12">
+        <f t="shared" si="13"/>
+        <v>408</v>
+      </c>
       <c r="B455" s="7" t="s">
         <v>389</v>
       </c>
@@ -8409,7 +8696,10 @@
       </c>
     </row>
     <row r="456" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A456" s="12"/>
+      <c r="A456" s="12">
+        <f t="shared" si="13"/>
+        <v>409</v>
+      </c>
       <c r="B456" s="7" t="s">
         <v>389</v>
       </c>
@@ -8421,7 +8711,10 @@
       </c>
     </row>
     <row r="457" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A457" s="12"/>
+      <c r="A457" s="12">
+        <f t="shared" si="13"/>
+        <v>410</v>
+      </c>
       <c r="B457" s="7" t="s">
         <v>389</v>
       </c>
@@ -8433,7 +8726,10 @@
       </c>
     </row>
     <row r="458" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A458" s="12"/>
+      <c r="A458" s="12">
+        <f t="shared" si="13"/>
+        <v>411</v>
+      </c>
       <c r="B458" s="7" t="s">
         <v>389</v>
       </c>
@@ -8445,7 +8741,10 @@
       </c>
     </row>
     <row r="459" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A459" s="12"/>
+      <c r="A459" s="12">
+        <f t="shared" si="13"/>
+        <v>412</v>
+      </c>
       <c r="B459" s="7" t="s">
         <v>389</v>
       </c>
@@ -8457,7 +8756,10 @@
       </c>
     </row>
     <row r="460" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A460" s="12"/>
+      <c r="A460" s="12">
+        <f t="shared" si="13"/>
+        <v>413</v>
+      </c>
       <c r="B460" s="7" t="s">
         <v>389</v>
       </c>
@@ -8469,7 +8771,10 @@
       </c>
     </row>
     <row r="461" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A461" s="12"/>
+      <c r="A461" s="12">
+        <f t="shared" si="13"/>
+        <v>414</v>
+      </c>
       <c r="B461" s="7" t="s">
         <v>389</v>
       </c>
@@ -8481,7 +8786,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A462" s="12"/>
+      <c r="A462" s="12">
+        <f t="shared" si="13"/>
+        <v>415</v>
+      </c>
       <c r="B462" s="7" t="s">
         <v>389</v>
       </c>
@@ -8493,7 +8801,10 @@
       </c>
     </row>
     <row r="463" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A463" s="12"/>
+      <c r="A463" s="12">
+        <f t="shared" si="13"/>
+        <v>416</v>
+      </c>
       <c r="B463" s="7" t="s">
         <v>389</v>
       </c>
@@ -8505,7 +8816,10 @@
       </c>
     </row>
     <row r="464" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A464" s="12"/>
+      <c r="A464" s="12">
+        <f t="shared" si="13"/>
+        <v>417</v>
+      </c>
       <c r="B464" s="7" t="s">
         <v>389</v>
       </c>
@@ -8517,7 +8831,10 @@
       </c>
     </row>
     <row r="465" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A465" s="12"/>
+      <c r="A465" s="12">
+        <f t="shared" si="13"/>
+        <v>418</v>
+      </c>
       <c r="B465" s="7" t="s">
         <v>389</v>
       </c>
@@ -8529,7 +8846,10 @@
       </c>
     </row>
     <row r="466" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A466" s="12"/>
+      <c r="A466" s="12">
+        <f t="shared" si="13"/>
+        <v>419</v>
+      </c>
       <c r="B466" s="7" t="s">
         <v>389</v>
       </c>
@@ -8541,7 +8861,10 @@
       </c>
     </row>
     <row r="467" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A467" s="12"/>
+      <c r="A467" s="12">
+        <f t="shared" si="13"/>
+        <v>420</v>
+      </c>
       <c r="B467" s="7" t="s">
         <v>389</v>
       </c>
@@ -8553,7 +8876,10 @@
       </c>
     </row>
     <row r="468" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A468" s="12"/>
+      <c r="A468" s="12">
+        <f t="shared" si="13"/>
+        <v>421</v>
+      </c>
       <c r="B468" s="7" t="s">
         <v>389</v>
       </c>
@@ -8565,7 +8891,10 @@
       </c>
     </row>
     <row r="469" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A469" s="12"/>
+      <c r="A469" s="12">
+        <f t="shared" si="13"/>
+        <v>422</v>
+      </c>
       <c r="B469" s="7" t="s">
         <v>389</v>
       </c>
@@ -8577,7 +8906,10 @@
       </c>
     </row>
     <row r="470" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A470" s="12"/>
+      <c r="A470" s="12">
+        <f t="shared" si="13"/>
+        <v>423</v>
+      </c>
       <c r="B470" s="7" t="s">
         <v>389</v>
       </c>
@@ -8589,7 +8921,10 @@
       </c>
     </row>
     <row r="471" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A471" s="12"/>
+      <c r="A471" s="12">
+        <f t="shared" si="13"/>
+        <v>424</v>
+      </c>
       <c r="B471" s="7" t="s">
         <v>389</v>
       </c>
@@ -8601,7 +8936,10 @@
       </c>
     </row>
     <row r="472" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A472" s="12"/>
+      <c r="A472" s="12">
+        <f t="shared" si="13"/>
+        <v>425</v>
+      </c>
       <c r="B472" s="7" t="s">
         <v>389</v>
       </c>
@@ -8613,7 +8951,10 @@
       </c>
     </row>
     <row r="473" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A473" s="12"/>
+      <c r="A473" s="12">
+        <f t="shared" si="13"/>
+        <v>426</v>
+      </c>
       <c r="B473" s="7" t="s">
         <v>389</v>
       </c>
@@ -8625,7 +8966,10 @@
       </c>
     </row>
     <row r="474" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A474" s="12"/>
+      <c r="A474" s="12">
+        <f t="shared" si="13"/>
+        <v>427</v>
+      </c>
       <c r="B474" s="7" t="s">
         <v>389</v>
       </c>
@@ -8637,7 +8981,10 @@
       </c>
     </row>
     <row r="475" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A475" s="12"/>
+      <c r="A475" s="12">
+        <f t="shared" si="13"/>
+        <v>428</v>
+      </c>
       <c r="B475" s="7" t="s">
         <v>389</v>
       </c>
@@ -8649,7 +8996,10 @@
       </c>
     </row>
     <row r="476" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A476" s="12"/>
+      <c r="A476" s="12">
+        <f t="shared" si="13"/>
+        <v>429</v>
+      </c>
       <c r="B476" s="7" t="s">
         <v>389</v>
       </c>
@@ -8661,7 +9011,10 @@
       </c>
     </row>
     <row r="477" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A477" s="12"/>
+      <c r="A477" s="12">
+        <f t="shared" si="13"/>
+        <v>430</v>
+      </c>
       <c r="B477" s="7" t="s">
         <v>389</v>
       </c>
@@ -8673,7 +9026,10 @@
       </c>
     </row>
     <row r="478" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A478" s="12"/>
+      <c r="A478" s="12">
+        <f t="shared" si="13"/>
+        <v>431</v>
+      </c>
       <c r="B478" s="7" t="s">
         <v>389</v>
       </c>
@@ -8685,7 +9041,10 @@
       </c>
     </row>
     <row r="479" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A479" s="12"/>
+      <c r="A479" s="12">
+        <f t="shared" si="13"/>
+        <v>432</v>
+      </c>
       <c r="B479" s="7" t="s">
         <v>389</v>
       </c>
@@ -8697,7 +9056,10 @@
       </c>
     </row>
     <row r="480" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A480" s="12"/>
+      <c r="A480" s="12">
+        <f t="shared" si="13"/>
+        <v>433</v>
+      </c>
       <c r="B480" s="7" t="s">
         <v>389</v>
       </c>
@@ -8709,7 +9071,10 @@
       </c>
     </row>
     <row r="481" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A481" s="12"/>
+      <c r="A481" s="12">
+        <f t="shared" si="13"/>
+        <v>434</v>
+      </c>
       <c r="B481" s="7" t="s">
         <v>389</v>
       </c>
@@ -8721,7 +9086,10 @@
       </c>
     </row>
     <row r="482" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A482" s="12"/>
+      <c r="A482" s="12">
+        <f t="shared" si="13"/>
+        <v>435</v>
+      </c>
       <c r="B482" s="7" t="s">
         <v>389</v>
       </c>
@@ -8733,7 +9101,10 @@
       </c>
     </row>
     <row r="483" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A483" s="12"/>
+      <c r="A483" s="12">
+        <f t="shared" si="13"/>
+        <v>436</v>
+      </c>
       <c r="B483" s="7" t="s">
         <v>389</v>
       </c>
@@ -8745,7 +9116,10 @@
       </c>
     </row>
     <row r="484" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A484" s="12"/>
+      <c r="A484" s="12">
+        <f t="shared" si="13"/>
+        <v>437</v>
+      </c>
       <c r="B484" s="7" t="s">
         <v>389</v>
       </c>
@@ -8757,7 +9131,10 @@
       </c>
     </row>
     <row r="485" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A485" s="12"/>
+      <c r="A485" s="12">
+        <f t="shared" si="13"/>
+        <v>438</v>
+      </c>
       <c r="B485" s="7" t="s">
         <v>389</v>
       </c>
@@ -8769,7 +9146,10 @@
       </c>
     </row>
     <row r="486" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A486" s="12"/>
+      <c r="A486" s="12">
+        <f t="shared" si="13"/>
+        <v>439</v>
+      </c>
       <c r="B486" s="7" t="s">
         <v>389</v>
       </c>
@@ -8792,7 +9172,9 @@
       <c r="D488" s="9"/>
     </row>
     <row r="489" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A489" s="12"/>
+      <c r="A489" s="12">
+        <v>440</v>
+      </c>
       <c r="B489" s="7" t="s">
         <v>449</v>
       </c>
@@ -8804,7 +9186,10 @@
       </c>
     </row>
     <row r="490" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A490" s="12"/>
+      <c r="A490" s="12">
+        <f>A489+1</f>
+        <v>441</v>
+      </c>
       <c r="B490" s="7" t="s">
         <v>449</v>
       </c>
@@ -8816,7 +9201,10 @@
       </c>
     </row>
     <row r="491" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A491" s="12"/>
+      <c r="A491" s="12">
+        <f t="shared" ref="A491:A498" si="14">A490+1</f>
+        <v>442</v>
+      </c>
       <c r="B491" s="7" t="s">
         <v>449</v>
       </c>
@@ -8828,7 +9216,10 @@
       </c>
     </row>
     <row r="492" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A492" s="12"/>
+      <c r="A492" s="12">
+        <f t="shared" si="14"/>
+        <v>443</v>
+      </c>
       <c r="B492" s="7" t="s">
         <v>449</v>
       </c>
@@ -8840,7 +9231,10 @@
       </c>
     </row>
     <row r="493" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A493" s="12"/>
+      <c r="A493" s="12">
+        <f t="shared" si="14"/>
+        <v>444</v>
+      </c>
       <c r="B493" s="7" t="s">
         <v>449</v>
       </c>
@@ -8852,7 +9246,10 @@
       </c>
     </row>
     <row r="494" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A494" s="12"/>
+      <c r="A494" s="12">
+        <f t="shared" si="14"/>
+        <v>445</v>
+      </c>
       <c r="B494" s="7" t="s">
         <v>449</v>
       </c>
@@ -8864,7 +9261,10 @@
       </c>
     </row>
     <row r="495" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A495" s="12"/>
+      <c r="A495" s="12">
+        <f t="shared" si="14"/>
+        <v>446</v>
+      </c>
       <c r="B495" s="7" t="s">
         <v>449</v>
       </c>
@@ -8876,7 +9276,10 @@
       </c>
     </row>
     <row r="496" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A496" s="12"/>
+      <c r="A496" s="12">
+        <f t="shared" si="14"/>
+        <v>447</v>
+      </c>
       <c r="B496" s="7" t="s">
         <v>449</v>
       </c>
@@ -8888,7 +9291,10 @@
       </c>
     </row>
     <row r="497" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A497" s="12"/>
+      <c r="A497" s="12">
+        <f t="shared" si="14"/>
+        <v>448</v>
+      </c>
       <c r="B497" s="7" t="s">
         <v>449</v>
       </c>
@@ -8900,7 +9306,10 @@
       </c>
     </row>
     <row r="498" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A498" s="12"/>
+      <c r="A498" s="12">
+        <f t="shared" si="14"/>
+        <v>449</v>
+      </c>
       <c r="B498" s="7" t="s">
         <v>449</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -8162,47 +8162,47 @@
       <c r="C418" s="11"/>
       <c r="D418" s="9"/>
     </row>
-    <row r="419" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A419" s="12">
+    <row r="419" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A419" s="4">
         <v>374</v>
       </c>
-      <c r="B419" s="12" t="s">
+      <c r="B419" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C419" s="8" t="s">
+      <c r="C419" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D419" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A420" s="12">
+      <c r="D419" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A420" s="4">
         <f>A419+1</f>
         <v>375</v>
       </c>
-      <c r="B420" s="12" t="s">
+      <c r="B420" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C420" s="8" t="s">
+      <c r="C420" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D420" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A421" s="12">
+      <c r="D420" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A421" s="17">
         <f t="shared" ref="A421:A424" si="12">A420+1</f>
         <v>376</v>
       </c>
-      <c r="B421" s="12" t="s">
+      <c r="B421" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C421" s="8" t="s">
+      <c r="C421" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="D421" s="9" t="s">
+      <c r="D421" s="14" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2318,7 +2318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8221,18 +8221,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A423" s="12">
+    <row r="423" spans="1:4" s="15" customFormat="1" ht="21">
+      <c r="A423" s="17">
         <f t="shared" si="12"/>
         <v>378</v>
       </c>
-      <c r="B423" s="12" t="s">
+      <c r="B423" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C423" s="8" t="s">
+      <c r="C423" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D423" s="9" t="s">
+      <c r="D423" s="14" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="509">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1549,6 +1549,9 @@
   </si>
   <si>
     <t>check logic uniques solution there.</t>
+  </si>
+  <si>
+    <t>use map&lt;string, vector&lt;string&gt; &gt; m</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2321,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2328,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B425" sqref="B425"/>
+    <sheetView tabSelected="1" topLeftCell="D99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -3697,19 +3700,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A106" s="12">
+    <row r="106" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>3</v>
+      <c r="D106" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1960,6 +1960,14 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2023,14 +2031,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,7 +2356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2380,48 +2380,48 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="68" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="11" spans="1:4" ht="19.5" customHeight="1">
@@ -2440,11 +2440,11 @@
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="26.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="17" spans="1:4" s="27" customFormat="1" ht="21">
       <c r="A17" s="35"/>
@@ -2464,13 +2464,13 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="50"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" s="40" customFormat="1" ht="21">
@@ -3034,7 +3034,7 @@
     </row>
     <row r="59" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A59" s="12"/>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="53" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="9"/>
@@ -3042,7 +3042,7 @@
     <row r="60" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="50"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="9" t="s">
         <v>3</v>
       </c>
@@ -3202,7 +3202,7 @@
     <row r="72" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="9"/>
@@ -3210,7 +3210,7 @@
     <row r="73" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="50"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4423,13 +4423,13 @@
     </row>
     <row r="157" spans="1:4" s="10" customFormat="1">
       <c r="A157" s="12"/>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="53" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="10" customFormat="1">
       <c r="A158" s="12"/>
-      <c r="C158" s="50"/>
+      <c r="C158" s="54"/>
       <c r="D158" s="9"/>
     </row>
     <row r="159" spans="1:4" s="6" customFormat="1" ht="21">
@@ -4976,13 +4976,13 @@
     </row>
     <row r="196" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A196" s="12"/>
-      <c r="C196" s="49" t="s">
+      <c r="C196" s="53" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A197" s="12"/>
-      <c r="C197" s="50"/>
+      <c r="C197" s="54"/>
       <c r="D197" s="9"/>
     </row>
     <row r="198" spans="1:4" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -8259,18 +8259,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:4" s="73" customFormat="1" ht="21">
-      <c r="A426" s="70">
+    <row r="426" spans="1:4" s="52" customFormat="1" ht="21">
+      <c r="A426" s="49">
         <f t="shared" si="12"/>
         <v>377</v>
       </c>
-      <c r="B426" s="70" t="s">
+      <c r="B426" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="C426" s="71" t="s">
+      <c r="C426" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D426" s="72" t="s">
+      <c r="D426" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8289,18 +8289,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A428" s="12">
+    <row r="428" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A428" s="4">
         <f t="shared" si="12"/>
         <v>379</v>
       </c>
-      <c r="B428" s="12" t="s">
+      <c r="B428" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C428" s="8" t="s">
+      <c r="C428" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D428" s="9" t="s">
+      <c r="D428" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="945" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="780" yWindow="945" windowWidth="18450" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2356,7 +2356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6717,18 +6717,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A319" s="12">
+    <row r="319" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A319" s="4">
         <f t="shared" ref="A319:A354" si="9">+A318+1</f>
         <v>276</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D319" s="9" t="s">
+      <c r="D319" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6762,18 +6762,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A322" s="12">
+    <row r="322" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A322" s="4">
         <f t="shared" si="9"/>
         <v>279</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D322" s="9" t="s">
+      <c r="D322" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -6777,48 +6777,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A323" s="12">
+    <row r="323" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A323" s="4">
         <f t="shared" si="9"/>
         <v>280</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C323" s="8" t="s">
+      <c r="C323" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D323" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A324" s="12">
+      <c r="D323" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A324" s="19">
         <f t="shared" si="9"/>
         <v>281</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D324" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A325" s="12">
+      <c r="D324" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A325" s="19">
         <f t="shared" si="9"/>
         <v>282</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="C325" s="8" t="s">
+      <c r="C325" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="D325" s="9" t="s">
+      <c r="D325" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7546,17 +7546,17 @@
       <c r="C376" s="11"/>
       <c r="D376" s="9"/>
     </row>
-    <row r="377" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A377" s="12">
+    <row r="377" spans="1:4" s="6" customFormat="1" ht="21">
+      <c r="A377" s="4">
         <v>330</v>
       </c>
-      <c r="B377" s="12" t="s">
+      <c r="B377" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C377" s="8" t="s">
+      <c r="C377" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D377" s="9" t="s">
+      <c r="D377" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2356,7 +2356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="512">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1555,6 +1555,12 @@
   </si>
   <si>
     <t>Use different Approach</t>
+  </si>
+  <si>
+    <t>Using Queue along with visited &lt;int,bool&gt; to store info node could not be repeated</t>
+  </si>
+  <si>
+    <t>Using Recusion</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2373,7 @@
   <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A367" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C375" sqref="C375"/>
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7560,34 +7566,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A378" s="12">
+    <row r="378" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A378" s="19">
         <f>A377+1</f>
         <v>331</v>
       </c>
-      <c r="B378" s="12" t="s">
+      <c r="B378" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C378" s="8" t="s">
+      <c r="C378" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D378" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" s="10" customFormat="1" ht="21">
-      <c r="A379" s="12">
+      <c r="D378" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A379" s="19">
         <f t="shared" ref="A379:A420" si="11">A378+1</f>
         <v>332</v>
       </c>
-      <c r="B379" s="12" t="s">
+      <c r="B379" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C379" s="8" t="s">
+      <c r="C379" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="D379" s="9" t="s">
-        <v>3</v>
+      <c r="D379" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="380" spans="1:4" s="10" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="945" windowWidth="18450" windowHeight="10620"/>
+    <workbookView xWindow="780" yWindow="945" windowWidth="18450" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="516">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1564,6 +1564,15 @@
   </si>
   <si>
     <t xml:space="preserve">Take two vector order(check node present return true call recurdively ) and visit  </t>
+  </si>
+  <si>
+    <t>check the that nodes having same parent or not if(not) return true else no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check (vertex &gt; node-1 ) then return  unconnected grap - 1  </t>
+  </si>
+  <si>
+    <t>Check gfg logig</t>
   </si>
 </sst>
 </file>
@@ -1965,6 +1974,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2046,17 +2065,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2376,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C388" sqref="C388"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2390,71 +2399,71 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="68" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="11" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="15" spans="1:4" s="27" customFormat="1" ht="26.25">
       <c r="A15" s="33"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="17" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A17" s="34"/>
@@ -2474,13 +2483,13 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="50"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" s="39" customFormat="1" ht="21">
@@ -3044,7 +3053,7 @@
     </row>
     <row r="59" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A59" s="11"/>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="53" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="8"/>
@@ -3052,7 +3061,7 @@
     <row r="60" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="50"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3221,7 @@
     <row r="72" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="8"/>
@@ -3220,7 +3229,7 @@
     <row r="73" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="50"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" s="5" customFormat="1" ht="21">
@@ -4433,13 +4442,13 @@
     </row>
     <row r="157" spans="1:4" s="9" customFormat="1">
       <c r="A157" s="11"/>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="53" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="9" customFormat="1">
       <c r="A158" s="11"/>
-      <c r="C158" s="50"/>
+      <c r="C158" s="54"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:4" s="5" customFormat="1" ht="21">
@@ -4986,13 +4995,13 @@
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A196" s="11"/>
-      <c r="C196" s="49" t="s">
+      <c r="C196" s="53" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A197" s="11"/>
-      <c r="C197" s="50"/>
+      <c r="C197" s="54"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" spans="1:4" s="5" customFormat="1" ht="19.5" customHeight="1">
@@ -5380,7 +5389,7 @@
       <c r="C223" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D223" s="80" t="s">
+      <c r="D223" s="52" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5811,7 +5820,7 @@
       <c r="C253" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D253" s="79" t="s">
+      <c r="D253" s="51" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6474,7 +6483,7 @@
       <c r="C300" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D300" s="78" t="s">
+      <c r="D300" s="50" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6519,7 +6528,7 @@
       <c r="C303" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D303" s="78" t="s">
+      <c r="D303" s="50" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7581,7 +7590,7 @@
       <c r="C378" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="D378" s="77" t="s">
+      <c r="D378" s="49" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7596,7 +7605,7 @@
       <c r="C379" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="D379" s="77" t="s">
+      <c r="D379" s="49" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7611,37 +7620,37 @@
       <c r="C380" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="D380" s="77" t="s">
+      <c r="D380" s="49" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A381" s="11">
+    <row r="381" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A381" s="18">
         <f t="shared" si="11"/>
         <v>334</v>
       </c>
-      <c r="B381" s="11" t="s">
+      <c r="B381" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C381" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D381" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A382" s="11">
+      <c r="D381" s="49" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A382" s="18">
         <f t="shared" si="11"/>
         <v>335</v>
       </c>
-      <c r="B382" s="11" t="s">
+      <c r="B382" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C382" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="D382" s="8" t="s">
+      <c r="D382" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7675,48 +7684,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A385" s="11">
+    <row r="385" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A385" s="18">
         <f t="shared" si="11"/>
         <v>338</v>
       </c>
-      <c r="B385" s="11" t="s">
+      <c r="B385" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C385" s="7" t="s">
+      <c r="C385" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="D385" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A386" s="11">
+      <c r="D385" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A386" s="18">
         <f t="shared" si="11"/>
         <v>339</v>
       </c>
-      <c r="B386" s="11" t="s">
+      <c r="B386" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C386" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="D386" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A387" s="11">
+      <c r="D386" s="49" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A387" s="16">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
-      <c r="B387" s="11" t="s">
+      <c r="B387" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C387" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D387" s="76" t="s">
+      <c r="D387" s="80" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7735,19 +7744,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A389" s="11">
+    <row r="389" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A389" s="16">
         <f t="shared" si="11"/>
         <v>342</v>
       </c>
-      <c r="B389" s="11" t="s">
+      <c r="B389" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C389" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="D389" s="8" t="s">
-        <v>3</v>
+      <c r="D389" s="49" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="390" spans="1:4" s="9" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="517">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1573,6 +1573,9 @@
   </si>
   <si>
     <t>Check gfg logig</t>
+  </si>
+  <si>
+    <t>detect cycle if present print false else true</t>
   </si>
 </sst>
 </file>
@@ -1984,6 +1987,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,9 +2070,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C391" sqref="C391"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2399,71 +2402,71 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
     </row>
     <row r="10" spans="1:4" ht="20.25" thickBot="1"/>
     <row r="11" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
     </row>
     <row r="15" spans="1:4" s="27" customFormat="1" ht="26.25">
       <c r="A15" s="33"/>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="17" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A17" s="34"/>
@@ -2483,13 +2486,13 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="54"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" s="39" customFormat="1" ht="21">
@@ -3053,7 +3056,7 @@
     </row>
     <row r="59" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A59" s="11"/>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="54" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="8"/>
@@ -3061,7 +3064,7 @@
     <row r="60" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="54"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +3224,7 @@
     <row r="72" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="8"/>
@@ -3229,7 +3232,7 @@
     <row r="73" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" s="5" customFormat="1" ht="21">
@@ -4442,13 +4445,13 @@
     </row>
     <row r="157" spans="1:4" s="9" customFormat="1">
       <c r="A157" s="11"/>
-      <c r="C157" s="53" t="s">
+      <c r="C157" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="9" customFormat="1">
       <c r="A158" s="11"/>
-      <c r="C158" s="54"/>
+      <c r="C158" s="55"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:4" s="5" customFormat="1" ht="21">
@@ -4995,13 +4998,13 @@
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A196" s="11"/>
-      <c r="C196" s="53" t="s">
+      <c r="C196" s="54" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A197" s="11"/>
-      <c r="C197" s="54"/>
+      <c r="C197" s="55"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" spans="1:4" s="5" customFormat="1" ht="19.5" customHeight="1">
@@ -7725,7 +7728,7 @@
       <c r="C387" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D387" s="80" t="s">
+      <c r="D387" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7759,34 +7762,34 @@
         <v>515</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A390" s="11">
+    <row r="390" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A390" s="16">
         <f t="shared" si="11"/>
         <v>343</v>
       </c>
-      <c r="B390" s="11" t="s">
+      <c r="B390" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C390" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D390" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A391" s="11">
+      <c r="D390" s="49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A391" s="18">
         <f t="shared" si="11"/>
         <v>344</v>
       </c>
-      <c r="B391" s="11" t="s">
+      <c r="B391" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C391" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="D391" s="8" t="s">
-        <v>3</v>
+      <c r="D391" s="49" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="392" spans="1:4" s="9" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="519">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1576,6 +1576,12 @@
   </si>
   <si>
     <t>detect cycle if present print false else true</t>
+  </si>
+  <si>
+    <t>use dfs (logic is similar to rate maje (additional check digonal in this case)</t>
+  </si>
+  <si>
+    <t>make gragh of dif char b/w two word and perform dfs store ans on string</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +2384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2388,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D377" sqref="D377"/>
+    <sheetView tabSelected="1" topLeftCell="A377" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7792,34 +7798,34 @@
         <v>516</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A392" s="11">
+    <row r="392" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A392" s="18">
         <f t="shared" si="11"/>
         <v>345</v>
       </c>
-      <c r="B392" s="11" t="s">
+      <c r="B392" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C392" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="D392" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A393" s="11">
+      <c r="D392" s="49" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A393" s="16">
         <f t="shared" si="11"/>
         <v>346</v>
       </c>
-      <c r="B393" s="11" t="s">
+      <c r="B393" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C393" s="7" t="s">
+      <c r="C393" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D393" s="8" t="s">
-        <v>3</v>
+      <c r="D393" s="49" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="394" spans="1:4" s="9" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="520">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>make gragh of dif char b/w two word and perform dfs store ans on string</t>
+  </si>
+  <si>
+    <t>Read algo</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2394,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7828,19 +7831,19 @@
         <v>518</v>
       </c>
     </row>
-    <row r="394" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A394" s="11">
+    <row r="394" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A394" s="16">
         <f t="shared" si="11"/>
         <v>347</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B394" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C394" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D394" s="8" t="s">
-        <v>3</v>
+      <c r="D394" s="49" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="395" spans="1:4" s="9" customFormat="1" ht="21">
@@ -8098,18 +8101,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A412" s="11">
+    <row r="412" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A412" s="18">
         <f t="shared" si="11"/>
         <v>365</v>
       </c>
-      <c r="B412" s="11" t="s">
+      <c r="B412" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C412" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="D412" s="8" t="s">
+      <c r="D412" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8188,18 +8191,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A418" s="11">
+    <row r="418" spans="1:4" s="5" customFormat="1" ht="21">
+      <c r="A418" s="3">
         <f t="shared" si="11"/>
         <v>371</v>
       </c>
-      <c r="B418" s="11" t="s">
+      <c r="B418" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C418" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D418" s="8" t="s">
+      <c r="D418" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="521">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1585,6 +1585,9 @@
   </si>
   <si>
     <t>Read algo</t>
+  </si>
+  <si>
+    <t>same approach "rate in maze"</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2397,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D405" sqref="D405"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C402" sqref="C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7681,19 +7684,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A384" s="11">
+    <row r="384" spans="1:4" s="5" customFormat="1" ht="21">
+      <c r="A384" s="3">
         <f t="shared" si="11"/>
         <v>337</v>
       </c>
-      <c r="B384" s="11" t="s">
+      <c r="B384" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C384" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D384" s="8" t="s">
-        <v>3</v>
+      <c r="D384" s="49" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="385" spans="1:4" s="20" customFormat="1" ht="21">
@@ -7966,18 +7969,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A403" s="11">
+    <row r="403" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A403" s="16">
         <f t="shared" si="11"/>
         <v>356</v>
       </c>
-      <c r="B403" s="11" t="s">
+      <c r="B403" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C403" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D403" s="8" t="s">
+      <c r="D403" s="13" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="522">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1588,6 +1588,9 @@
   </si>
   <si>
     <t>same approach "rate in maze"</t>
+  </si>
+  <si>
+    <t>Take queue stare all possible step from certain step</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2400,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C402" sqref="C402"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7669,19 +7672,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A383" s="11">
+    <row r="383" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A383" s="16">
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
-      <c r="B383" s="11" t="s">
+      <c r="B383" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C383" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D383" s="8" t="s">
-        <v>3</v>
+      <c r="D383" s="49" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="384" spans="1:4" s="5" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2393,7 +2393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2403,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C376" sqref="C376"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7747,18 +7747,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A388" s="11">
+    <row r="388" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A388" s="18">
         <f t="shared" si="11"/>
         <v>341</v>
       </c>
-      <c r="B388" s="11" t="s">
+      <c r="B388" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C388" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D388" s="8" t="s">
+      <c r="D388" s="23" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="523">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1591,6 +1591,9 @@
   </si>
   <si>
     <t>Take queue stare all possible step from certain step</t>
+  </si>
+  <si>
+    <t>check your notes</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2403,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C416" sqref="C416"/>
+    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7852,19 +7855,19 @@
         <v>519</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A395" s="11">
+    <row r="395" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A395" s="16">
         <f t="shared" si="11"/>
         <v>348</v>
       </c>
-      <c r="B395" s="11" t="s">
+      <c r="B395" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C395" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D395" s="8" t="s">
-        <v>3</v>
+      <c r="D395" s="49" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="396" spans="1:4" s="9" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C400" sqref="C400"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:XFD405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7885,18 +7885,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A397" s="11">
+    <row r="397" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A397" s="16">
         <f t="shared" si="11"/>
         <v>350</v>
       </c>
-      <c r="B397" s="11" t="s">
+      <c r="B397" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C397" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D397" s="8" t="s">
+      <c r="D397" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7930,18 +7930,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A400" s="11">
+    <row r="400" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A400" s="16">
         <f t="shared" si="11"/>
         <v>353</v>
       </c>
-      <c r="B400" s="11" t="s">
+      <c r="B400" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C400" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D400" s="8" t="s">
+      <c r="D400" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8005,18 +8005,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A405" s="11">
+    <row r="405" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A405" s="18">
         <f t="shared" si="11"/>
         <v>358</v>
       </c>
-      <c r="B405" s="11" t="s">
+      <c r="B405" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C405" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="D405" s="8" t="s">
+      <c r="D405" s="23" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:XFD405"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7900,18 +7900,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A398" s="11">
+    <row r="398" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A398" s="16">
         <f t="shared" si="11"/>
         <v>351</v>
       </c>
-      <c r="B398" s="11" t="s">
+      <c r="B398" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C398" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D398" s="8" t="s">
+      <c r="D398" s="13" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2396,7 +2396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C402" sqref="C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7870,18 +7870,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="396" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A396" s="11">
+    <row r="396" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A396" s="18">
         <f t="shared" si="11"/>
         <v>349</v>
       </c>
-      <c r="B396" s="11" t="s">
+      <c r="B396" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C396" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D396" s="8" t="s">
+      <c r="D396" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8125,18 +8125,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A413" s="11">
+    <row r="413" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A413" s="18">
         <f t="shared" si="11"/>
         <v>366</v>
       </c>
-      <c r="B413" s="11" t="s">
+      <c r="B413" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C413" s="7" t="s">
+      <c r="C413" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="D413" s="8" t="s">
+      <c r="D413" s="23" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="525">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1594,6 +1594,12 @@
   </si>
   <si>
     <t>check your notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>use recurtioan and store distance in dp</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2404,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C402" sqref="C402"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -7705,7 +7711,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="385" spans="1:4" s="20" customFormat="1" ht="21">
+    <row r="385" spans="1:7" s="20" customFormat="1" ht="21">
       <c r="A385" s="18">
         <f t="shared" si="11"/>
         <v>338</v>
@@ -7720,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:4" s="20" customFormat="1" ht="21">
+    <row r="386" spans="1:7" s="20" customFormat="1" ht="21">
       <c r="A386" s="18">
         <f t="shared" si="11"/>
         <v>339</v>
@@ -7735,7 +7741,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="387" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A387" s="16">
         <f t="shared" si="11"/>
         <v>340</v>
@@ -7750,7 +7756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="20" customFormat="1" ht="21">
+    <row r="388" spans="1:7" s="20" customFormat="1" ht="21">
       <c r="A388" s="18">
         <f t="shared" si="11"/>
         <v>341</v>
@@ -7765,7 +7771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="389" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A389" s="16">
         <f t="shared" si="11"/>
         <v>342</v>
@@ -7780,7 +7786,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="390" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A390" s="16">
         <f t="shared" si="11"/>
         <v>343</v>
@@ -7795,7 +7801,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="391" spans="1:4" s="20" customFormat="1" ht="21">
+    <row r="391" spans="1:7" s="20" customFormat="1" ht="21">
       <c r="A391" s="18">
         <f t="shared" si="11"/>
         <v>344</v>
@@ -7810,7 +7816,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="20" customFormat="1" ht="21">
+    <row r="392" spans="1:7" s="20" customFormat="1" ht="21">
       <c r="A392" s="18">
         <f t="shared" si="11"/>
         <v>345</v>
@@ -7825,7 +7831,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="393" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="393" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A393" s="16">
         <f t="shared" si="11"/>
         <v>346</v>
@@ -7840,7 +7846,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="394" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="394" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A394" s="16">
         <f t="shared" si="11"/>
         <v>347</v>
@@ -7855,7 +7861,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="395" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A395" s="16">
         <f t="shared" si="11"/>
         <v>348</v>
@@ -7870,7 +7876,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="396" spans="1:4" s="20" customFormat="1" ht="21">
+    <row r="396" spans="1:7" s="20" customFormat="1" ht="21">
       <c r="A396" s="18">
         <f t="shared" si="11"/>
         <v>349</v>
@@ -7885,7 +7891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="397" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A397" s="16">
         <f t="shared" si="11"/>
         <v>350</v>
@@ -7900,7 +7906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4" s="14" customFormat="1" ht="21">
+    <row r="398" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A398" s="16">
         <f t="shared" si="11"/>
         <v>351</v>
@@ -7915,22 +7921,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A399" s="11">
+    <row r="399" spans="1:7" s="14" customFormat="1" ht="21">
+      <c r="A399" s="16">
         <f t="shared" si="11"/>
         <v>352</v>
       </c>
-      <c r="B399" s="11" t="s">
+      <c r="B399" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C399" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D399" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="D399" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="G399" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A400" s="16">
         <f t="shared" si="11"/>
         <v>353</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="526">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>use recurtioan and store distance in dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use dfs check for 1 to 6 dice posibility </t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2412,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
@@ -7954,19 +7957,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A401" s="11">
+    <row r="401" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A401" s="16">
         <f t="shared" si="11"/>
         <v>354</v>
       </c>
-      <c r="B401" s="11" t="s">
+      <c r="B401" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C401" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D401" s="8" t="s">
-        <v>3</v>
+      <c r="D401" s="49" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="402" spans="1:4" s="9" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2405,7 +2405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2415,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C400" sqref="C400"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="527">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t xml:space="preserve">use dfs check for 1 to 6 dice posibility </t>
+  </si>
+  <si>
+    <t>use this formulla nc2</t>
   </si>
 </sst>
 </file>
@@ -2415,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E410" sqref="E410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -8047,19 +8050,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A407" s="11">
+    <row r="407" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A407" s="18">
         <f t="shared" si="11"/>
         <v>360</v>
       </c>
-      <c r="B407" s="11" t="s">
+      <c r="B407" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C407" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="D407" s="8" t="s">
-        <v>3</v>
+      <c r="D407" s="49" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="408" spans="1:4" s="9" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1606,6 +1606,12 @@
   </si>
   <si>
     <t>use this formulla nc2</t>
+  </si>
+  <si>
+    <t>Tarjan Algo</t>
+  </si>
+  <si>
+    <t>Try to color the graph using only two color(1,2) if we able to coloured the graph with two color it means bipartite raph not possible</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2418,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E410" sqref="E410"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -2427,7 +2433,7 @@
     <col min="1" max="1" width="11" style="32"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
-    <col min="4" max="4" width="99" customWidth="1"/>
+    <col min="4" max="4" width="182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1"/>
@@ -7975,19 +7981,19 @@
         <v>525</v>
       </c>
     </row>
-    <row r="402" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A402" s="11">
+    <row r="402" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A402" s="16">
         <f t="shared" si="11"/>
         <v>355</v>
       </c>
-      <c r="B402" s="11" t="s">
+      <c r="B402" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C402" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D402" s="8" t="s">
-        <v>3</v>
+      <c r="D402" s="49" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="403" spans="1:4" s="14" customFormat="1" ht="21">
@@ -8005,19 +8011,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A404" s="11">
+    <row r="404" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A404" s="16">
         <f t="shared" si="11"/>
         <v>357</v>
       </c>
-      <c r="B404" s="11" t="s">
+      <c r="B404" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C404" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D404" s="8" t="s">
-        <v>3</v>
+      <c r="D404" s="49" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="405" spans="1:4" s="20" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2424,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B430" sqref="B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -8375,17 +8375,17 @@
       <c r="C430" s="10"/>
       <c r="D430" s="8"/>
     </row>
-    <row r="431" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A431" s="11">
+    <row r="431" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A431" s="18">
         <v>380</v>
       </c>
-      <c r="B431" s="6" t="s">
+      <c r="B431" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="C431" s="7" t="s">
+      <c r="C431" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="D431" s="8" t="s">
+      <c r="D431" s="23" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="530">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1612,6 +1612,9 @@
   </si>
   <si>
     <t>Try to color the graph using only two color(1,2) if we able to coloured the graph with two color it means bipartite raph not possible</t>
+  </si>
+  <si>
+    <t>find LCA and then find distance from both nodes</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2424,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B430" sqref="B430"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -5507,19 +5510,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A229" s="11">
+    <row r="229" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A229" s="18">
         <f t="shared" si="5"/>
         <v>194</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D229" s="8" t="s">
-        <v>3</v>
+      <c r="D229" s="36" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="20" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="531">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1615,6 +1615,9 @@
   </si>
   <si>
     <t>find LCA and then find distance from both nodes</t>
+  </si>
+  <si>
+    <t>first findt topo sort and then found longest distance to topo order</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2427,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C395" sqref="C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -8044,19 +8047,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A406" s="11">
+    <row r="406" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A406" s="16">
         <f t="shared" si="11"/>
         <v>359</v>
       </c>
-      <c r="B406" s="11" t="s">
+      <c r="B406" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="C406" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D406" s="8" t="s">
-        <v>3</v>
+      <c r="D406" s="49" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="407" spans="1:4" s="20" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="532">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1618,6 +1618,9 @@
   </si>
   <si>
     <t>first findt topo sort and then found longest distance to topo order</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=USR5-V2hV90</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2113,6 +2116,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2420,7 +2424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2430,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C395" sqref="C395"/>
+    <sheetView tabSelected="1" topLeftCell="B398" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -8107,34 +8111,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A410" s="11">
+    <row r="410" spans="1:4" s="20" customFormat="1">
+      <c r="A410" s="18">
         <f t="shared" si="11"/>
         <v>363</v>
       </c>
-      <c r="B410" s="11" t="s">
+      <c r="B410" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C410" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="D410" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" s="9" customFormat="1" ht="21">
-      <c r="A411" s="11">
+      <c r="D410" s="49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="A411" s="18">
         <f t="shared" si="11"/>
         <v>364</v>
       </c>
-      <c r="B411" s="11" t="s">
+      <c r="B411" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C411" s="7" t="s">
+      <c r="C411" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="D411" s="8" t="s">
-        <v>3</v>
+      <c r="D411" s="49" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="412" spans="1:4" s="20" customFormat="1" ht="21">
@@ -9900,8 +9904,9 @@
     <hyperlink ref="C501" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
     <hyperlink ref="C377" r:id="rId445"/>
     <hyperlink ref="C89" r:id="rId446"/>
+    <hyperlink ref="D411" r:id="rId447"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId448"/>
 </worksheet>
 </file>